--- a/excel-docs/euro - lifecycle info.xlsx
+++ b/excel-docs/euro - lifecycle info.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseph.collins/Documents/personal-projects/world cup/world-cup-OG/excel docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseph.collins/Documents/personal-projects/euro/2024_euro/excel-docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AF7875-694D-9C47-80FA-6313CCC90CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9196DE-BF60-0244-8F66-37138810B7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20140" xr2:uid="{D89656BD-B983-D041-A997-C1184058734E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20060" activeTab="3" xr2:uid="{D89656BD-B983-D041-A997-C1184058734E}"/>
   </bookViews>
   <sheets>
     <sheet name="life cycle actions" sheetId="6" r:id="rId1"/>
     <sheet name="part scenarios" sheetId="4" r:id="rId2"/>
     <sheet name="error testing" sheetId="3" r:id="rId3"/>
-    <sheet name="emails" sheetId="7" r:id="rId4"/>
+    <sheet name="tiebreaker testing scneari" sheetId="8" r:id="rId4"/>
+    <sheet name="emails" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,8 +27,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="134">
   <si>
     <t>need to submit a number for tiebreaker score</t>
   </si>
@@ -461,12 +465,75 @@
   <si>
     <t>what does it look like for Test's login</t>
   </si>
+  <si>
+    <t>scenario #</t>
+  </si>
+  <si>
+    <t>winner</t>
+  </si>
+  <si>
+    <t>actual total goals</t>
+  </si>
+  <si>
+    <t>part 1 total goals</t>
+  </si>
+  <si>
+    <t>part 2 total goals</t>
+  </si>
+  <si>
+    <t>test written?</t>
+  </si>
+  <si>
+    <t>part 1 total is under, part 2 is over</t>
+  </si>
+  <si>
+    <t>part 1</t>
+  </si>
+  <si>
+    <t>part 2 total is under, part 1 is over</t>
+  </si>
+  <si>
+    <t>part 2</t>
+  </si>
+  <si>
+    <t>part 1 total is exact, part 2 total is under</t>
+  </si>
+  <si>
+    <t>part 2 total is exact, part 1 total is under</t>
+  </si>
+  <si>
+    <t>part 1 total is exact, part 2 total is over</t>
+  </si>
+  <si>
+    <t>part 2 total is exact, part 1 total is over</t>
+  </si>
+  <si>
+    <t>both totals are over the actual total</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>both totals are under the actual total</t>
+  </si>
+  <si>
+    <t>part 1 is closer to actual total</t>
+  </si>
+  <si>
+    <t>part 2 is closer to actual total</t>
+  </si>
+  <si>
+    <t>both parts have the same tiebreaker score</t>
+  </si>
+  <si>
+    <t>throw error</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -540,8 +607,23 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -578,8 +660,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8D9B"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00D200"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -657,11 +775,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -728,48 +870,121 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -793,7 +1008,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1081,7 +1296,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1094,7 +1309,7 @@
   </sheetPr>
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="160" workbookViewId="0">
+    <sheetView topLeftCell="A47" zoomScale="160" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -1118,7 +1333,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="36">
+      <c r="A2" s="39">
         <v>1</v>
       </c>
       <c r="B2" s="32" t="s">
@@ -1126,19 +1341,19 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="32" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="32" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="36"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="32" t="s">
         <v>16</v>
       </c>
@@ -1148,7 +1363,7 @@
       <c r="B6" s="15"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="38">
+      <c r="A7" s="41">
         <v>2</v>
       </c>
       <c r="B7" s="32" t="s">
@@ -1156,7 +1371,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="39"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="33" t="s">
         <v>94</v>
       </c>
@@ -1166,7 +1381,7 @@
       <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="37">
+      <c r="A10" s="40">
         <v>3</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -1174,79 +1389,79 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="37"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="23" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="37"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="23" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="37"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="34" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="37"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="34" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="37"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="34" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="37"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="34" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="37"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="34" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="37"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="34" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="37"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="34" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="37"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="34" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="37"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="34" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="37"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="34" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="37"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="34" t="s">
         <v>64</v>
       </c>
@@ -1256,7 +1471,7 @@
       <c r="B24" s="7"/>
     </row>
     <row r="25" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A25" s="37">
+      <c r="A25" s="40">
         <v>4</v>
       </c>
       <c r="B25" s="10" t="s">
@@ -1264,61 +1479,61 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="24" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="37"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="23" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="24" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="37"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="23" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="37"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="21" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="37"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="34" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="37"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="34" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="37"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="34" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="37"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="34" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="37"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="34" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="37"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="34" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="37"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="34" t="s">
         <v>64</v>
       </c>
@@ -1358,7 +1573,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="24" x14ac:dyDescent="0.3">
-      <c r="B43" s="51" t="s">
+      <c r="B43" s="38" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1373,7 +1588,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B46" s="49" t="s">
+      <c r="B46" s="36" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1388,7 +1603,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B49" s="50" t="s">
+      <c r="B49" s="37" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1710,10 +1925,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="48" t="s">
         <v>79</v>
       </c>
       <c r="C2" s="19" t="s">
@@ -1721,17 +1936,17 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="44"/>
-      <c r="B3" s="46"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="46" t="s">
         <v>100</v>
       </c>
       <c r="C4" s="19" t="s">
@@ -1739,31 +1954,31 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="44"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="40" t="s">
+      <c r="A5" s="47"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="43" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="44"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="40"/>
+      <c r="C6" s="43"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="47"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="40"/>
+      <c r="C7" s="43"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="51" t="s">
         <v>91</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -1771,17 +1986,17 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="44" t="s">
         <v>104</v>
       </c>
       <c r="C10" s="19" t="s">
@@ -1789,22 +2004,22 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="36"/>
-      <c r="B11" s="42"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="36"/>
-      <c r="B12" s="42"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="36"/>
-      <c r="B13" s="42"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="19" t="s">
         <v>28</v>
       </c>
@@ -1961,6 +2176,441 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151B78CE-323D-654A-8F0D-1D95D838F0AB}">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="47" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="54" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="55">
+        <v>1</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="57">
+        <v>100</v>
+      </c>
+      <c r="E2" s="58">
+        <v>98</v>
+      </c>
+      <c r="F2" s="59">
+        <v>102</v>
+      </c>
+      <c r="G2" s="60"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="61">
+        <v>2</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="57">
+        <v>100</v>
+      </c>
+      <c r="E3" s="59">
+        <v>102</v>
+      </c>
+      <c r="F3" s="58">
+        <v>98</v>
+      </c>
+      <c r="G3" s="60"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="61">
+        <v>3</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="57">
+        <v>100</v>
+      </c>
+      <c r="E4" s="57">
+        <v>100</v>
+      </c>
+      <c r="F4" s="58">
+        <v>98</v>
+      </c>
+      <c r="G4" s="60"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="61">
+        <v>4</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="57">
+        <v>100</v>
+      </c>
+      <c r="E5" s="58">
+        <v>98</v>
+      </c>
+      <c r="F5" s="57">
+        <v>100</v>
+      </c>
+      <c r="G5" s="60"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="61">
+        <v>5</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="57">
+        <v>100</v>
+      </c>
+      <c r="E6" s="57">
+        <v>100</v>
+      </c>
+      <c r="F6" s="59">
+        <v>102</v>
+      </c>
+      <c r="G6" s="60"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="61">
+        <v>6</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="57">
+        <v>100</v>
+      </c>
+      <c r="E7" s="59">
+        <v>102</v>
+      </c>
+      <c r="F7" s="57">
+        <v>100</v>
+      </c>
+      <c r="G7" s="60"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="78"/>
+      <c r="B8" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="64" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="78"/>
+      <c r="B9" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="78"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="64" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="78"/>
+      <c r="B11" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="76" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="64" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="78"/>
+      <c r="B12" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="77"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="64" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="55">
+        <v>7</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="57">
+        <v>100</v>
+      </c>
+      <c r="E13" s="59">
+        <v>102</v>
+      </c>
+      <c r="F13" s="69">
+        <v>105</v>
+      </c>
+      <c r="G13" s="60"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="61">
+        <v>8</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="57">
+        <v>100</v>
+      </c>
+      <c r="E14" s="69">
+        <v>105</v>
+      </c>
+      <c r="F14" s="59">
+        <v>102</v>
+      </c>
+      <c r="G14" s="60"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="78"/>
+      <c r="B15" s="70" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="64" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="78"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="64" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="78"/>
+      <c r="B17" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="76" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="64" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="78"/>
+      <c r="B18" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="77"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="64" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="55">
+        <v>9</v>
+      </c>
+      <c r="B19" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="57">
+        <v>100</v>
+      </c>
+      <c r="E19" s="58">
+        <v>98</v>
+      </c>
+      <c r="F19" s="72">
+        <v>90</v>
+      </c>
+      <c r="G19" s="60"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="61">
+        <v>10</v>
+      </c>
+      <c r="B20" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="57">
+        <v>100</v>
+      </c>
+      <c r="E20" s="72">
+        <v>90</v>
+      </c>
+      <c r="F20" s="58">
+        <v>98</v>
+      </c>
+      <c r="G20" s="60"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="78"/>
+      <c r="B21" s="70" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="78"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="64" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="78"/>
+      <c r="B23" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="74" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="64" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="55">
+        <v>11</v>
+      </c>
+      <c r="B24" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="75" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C17:C18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A524B1-76DA-D149-A83D-2FF66E4D844B}">
   <dimension ref="A1:B3"/>
   <sheetViews>

--- a/excel-docs/euro - lifecycle info.xlsx
+++ b/excel-docs/euro - lifecycle info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseph.collins/Documents/personal-projects/euro/2024_euro/excel-docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9196DE-BF60-0244-8F66-37138810B7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3735654-95AC-FC43-B9BC-E383BDFF42DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20060" activeTab="3" xr2:uid="{D89656BD-B983-D041-A997-C1184058734E}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="life cycle actions" sheetId="6" r:id="rId1"/>
     <sheet name="part scenarios" sheetId="4" r:id="rId2"/>
     <sheet name="error testing" sheetId="3" r:id="rId3"/>
-    <sheet name="tiebreaker testing scneari" sheetId="8" r:id="rId4"/>
+    <sheet name="tiebreaker testing scenarios" sheetId="8" r:id="rId4"/>
     <sheet name="emails" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -2180,7 +2180,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/excel-docs/euro - lifecycle info.xlsx
+++ b/excel-docs/euro - lifecycle info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseph.collins/Documents/personal-projects/euro/2024_euro/excel-docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3735654-95AC-FC43-B9BC-E383BDFF42DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D56F65-7A0F-E64E-A551-EA6A10A9F14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20060" activeTab="3" xr2:uid="{D89656BD-B983-D041-A997-C1184058734E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20060" xr2:uid="{D89656BD-B983-D041-A997-C1184058734E}"/>
   </bookViews>
   <sheets>
     <sheet name="life cycle actions" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="135">
   <si>
     <t>need to submit a number for tiebreaker score</t>
   </si>
@@ -527,6 +527,13 @@
   </si>
   <si>
     <t>throw error</t>
+  </si>
+  <si>
+    <t>find the team with the longest name, and make sure all looks well with the following pages:
+groupDetails
+myPicks locked
+myPicks unlocked
+KO stages</t>
   </si>
 </sst>
 </file>
@@ -803,7 +810,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -873,45 +880,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -978,13 +946,56 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1008,7 +1019,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1296,7 +1307,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1307,10 +1318,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScale="160" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1332,566 +1343,573 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="39">
+    <row r="2" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="73">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="80"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="74"/>
+      <c r="B3" s="32" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="39"/>
-      <c r="B3" s="32" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="74"/>
+      <c r="B4" s="32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="39"/>
-      <c r="B4" s="32" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="74"/>
+      <c r="B5" s="32" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
-      <c r="B5" s="32" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="79"/>
+      <c r="B6" s="32" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="15"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="41">
+    <row r="7" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="15"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="66">
         <v>2</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B8" s="32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="42"/>
-      <c r="B8" s="33" t="s">
+    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="67"/>
+      <c r="B9" s="33" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="40">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="65">
         <v>3</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B11" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="40"/>
-      <c r="B11" s="23" t="s">
+    <row r="12" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="65"/>
+      <c r="B12" s="23" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
-      <c r="B12" s="23" t="s">
+    <row r="13" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="65"/>
+      <c r="B13" s="23" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="40"/>
-      <c r="B13" s="34" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="65"/>
+      <c r="B14" s="34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="40"/>
-      <c r="B14" s="34" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="65"/>
+      <c r="B15" s="34" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="40"/>
-      <c r="B15" s="34" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="65"/>
+      <c r="B16" s="34" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="40"/>
-      <c r="B16" s="34" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="65"/>
+      <c r="B17" s="34" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="40"/>
-      <c r="B17" s="34" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="65"/>
+      <c r="B18" s="34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="40"/>
-      <c r="B18" s="34" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="65"/>
+      <c r="B19" s="34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="40"/>
-      <c r="B19" s="34" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="65"/>
+      <c r="B20" s="34" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="40"/>
-      <c r="B20" s="34" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="65"/>
+      <c r="B21" s="34" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="40"/>
-      <c r="B21" s="34" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="65"/>
+      <c r="B22" s="34" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="40"/>
-      <c r="B22" s="34" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="65"/>
+      <c r="B23" s="34" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="40"/>
-      <c r="B23" s="34" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="65"/>
+      <c r="B24" s="34" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-    </row>
-    <row r="25" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A25" s="40">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="65">
         <v>4</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B26" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="24" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
-      <c r="B26" s="23" t="s">
+    <row r="27" spans="1:2" ht="24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="65"/>
+      <c r="B27" s="23" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="24" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
-      <c r="B27" s="23" t="s">
+    <row r="28" spans="1:2" ht="24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="65"/>
+      <c r="B28" s="23" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="40"/>
-      <c r="B28" s="21" t="s">
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="65"/>
+      <c r="B29" s="21" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="40"/>
-      <c r="B29" s="34" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="65"/>
+      <c r="B30" s="34" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="40"/>
-      <c r="B30" s="34" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="65"/>
+      <c r="B31" s="34" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="40"/>
-      <c r="B31" s="34" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="65"/>
+      <c r="B32" s="34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="40"/>
-      <c r="B32" s="34" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="65"/>
+      <c r="B33" s="34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="40"/>
-      <c r="B33" s="34" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="65"/>
+      <c r="B34" s="34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="40"/>
-      <c r="B34" s="34" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="65"/>
+      <c r="B35" s="34" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="40"/>
-      <c r="B35" s="34" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="65"/>
+      <c r="B36" s="34" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
-    </row>
-    <row r="37" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="B37" s="10" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+    </row>
+    <row r="38" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B38" s="10" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B38" s="32" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B39" s="32" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B40" s="32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B41" s="32" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="25" t="s">
+    <row r="42" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="25" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="24" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="23" t="s">
+    <row r="43" spans="1:2" ht="24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="23" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="24" x14ac:dyDescent="0.3">
-      <c r="B43" s="38" t="s">
+    <row r="44" spans="1:2" ht="24" x14ac:dyDescent="0.3">
+      <c r="B44" s="38" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B44" s="32" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B45" s="32" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B45" s="34" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B46" s="34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B46" s="36" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B47" s="36" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B47" s="34" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B48" s="34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B49" s="34" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B49" s="37" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B50" s="37" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B50" s="34" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B51" s="34" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B52" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B53" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C52" s="9"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="6"/>
-      <c r="B53" s="7"/>
-    </row>
-    <row r="54" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="B54" s="10" t="s">
+      <c r="C53" s="9"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="6"/>
+      <c r="B54" s="7"/>
+    </row>
+    <row r="55" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="B55" s="10" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B55" s="21" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B56" s="21" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B57" s="21" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B58" s="21" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B59" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B60" s="21" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B60" s="24" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B61" s="24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B61" s="26" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B62" s="26" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B62" s="24" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B63" s="24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B64" s="24" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B64" s="27" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B65" s="27" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B65" s="22" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B66" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B67" s="22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B67" s="24" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B68" s="24" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="6"/>
-      <c r="B68" s="7"/>
-    </row>
-    <row r="69" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="B69" s="10" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="6"/>
+      <c r="B69" s="7"/>
+    </row>
+    <row r="70" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B70" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B70" s="21" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B71" s="21" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="24" x14ac:dyDescent="0.3">
-      <c r="B71" s="23" t="s">
+    <row r="72" spans="1:2" ht="24" x14ac:dyDescent="0.3">
+      <c r="B72" s="23" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="31" t="s">
+    <row r="73" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="31" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B73" s="21" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B74" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B75" s="21" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B75" s="24" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B76" s="24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B76" s="26" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B77" s="26" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B77" s="24" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B78" s="24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B79" s="24" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B79" s="27" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B80" s="27" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B80" s="22" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B81" s="22" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B82" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B83" s="22" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B84" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B85" s="22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B85" s="24" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B86" s="24" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="6"/>
-      <c r="B86" s="7"/>
-    </row>
-    <row r="87" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="B87" s="10" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="6"/>
+      <c r="B87" s="7"/>
+    </row>
+    <row r="88" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B88" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B88" s="21" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B89" s="21" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="24" x14ac:dyDescent="0.3">
-      <c r="B89" s="23" t="s">
+    <row r="90" spans="1:2" ht="24" x14ac:dyDescent="0.3">
+      <c r="B90" s="23" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B90" s="24" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B91" s="24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B91" s="26" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B92" s="26" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B92" s="24" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B93" s="24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B94" s="24" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B94" s="22" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B95" s="22" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B96" s="22" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B97" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B98" s="22" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B98" s="24" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B99" s="24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B100" s="24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="6"/>
-      <c r="B100" s="7"/>
-    </row>
-    <row r="101" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="B101" s="10" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="6"/>
+      <c r="B101" s="7"/>
+    </row>
+    <row r="102" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B102" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="1:2" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A102" s="29"/>
-      <c r="B102" s="23" t="s">
+    <row r="103" spans="1:2" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A103" s="29"/>
+      <c r="B103" s="23" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="103" spans="1:2" s="13" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A103" s="30"/>
-      <c r="B103" s="23" t="s">
+    <row r="104" spans="1:2" s="13" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A104" s="30"/>
+      <c r="B104" s="23" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B104" s="21" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B105" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B106" s="21" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A10:A23"/>
-    <mergeCell ref="A25:A35"/>
-    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A11:A24"/>
+    <mergeCell ref="A26:A36"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A2:A6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1925,10 +1943,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="73" t="s">
         <v>79</v>
       </c>
       <c r="C2" s="19" t="s">
@@ -1936,17 +1954,17 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="47"/>
-      <c r="B3" s="49"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="74"/>
       <c r="C3" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="71" t="s">
         <v>100</v>
       </c>
       <c r="C4" s="19" t="s">
@@ -1954,31 +1972,31 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="47"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="43" t="s">
+      <c r="A5" s="72"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="68" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="47"/>
+      <c r="A6" s="72"/>
       <c r="B6" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="43"/>
+      <c r="C6" s="68"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
+      <c r="A7" s="75"/>
       <c r="B7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="43"/>
+      <c r="C7" s="68"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="76" t="s">
         <v>91</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -1986,17 +2004,17 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
+      <c r="A9" s="76"/>
+      <c r="B9" s="76"/>
       <c r="C9" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="69" t="s">
         <v>104</v>
       </c>
       <c r="C10" s="19" t="s">
@@ -2004,22 +2022,22 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="39"/>
-      <c r="B11" s="45"/>
+      <c r="A11" s="64"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="39"/>
-      <c r="B12" s="45"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="39"/>
-      <c r="B13" s="45"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="70"/>
       <c r="C13" s="19" t="s">
         <v>28</v>
       </c>
@@ -2179,7 +2197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151B78CE-323D-654A-8F0D-1D95D838F0AB}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -2190,416 +2208,416 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="41" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="55">
+      <c r="A2" s="42">
         <v>1</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="57">
+      <c r="D2" s="44">
         <v>100</v>
       </c>
-      <c r="E2" s="58">
+      <c r="E2" s="45">
         <v>98</v>
       </c>
-      <c r="F2" s="59">
+      <c r="F2" s="46">
         <v>102</v>
       </c>
-      <c r="G2" s="60"/>
+      <c r="G2" s="47"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="61">
+      <c r="A3" s="48">
         <v>2</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="57">
+      <c r="D3" s="44">
         <v>100</v>
       </c>
-      <c r="E3" s="59">
+      <c r="E3" s="46">
         <v>102</v>
       </c>
-      <c r="F3" s="58">
+      <c r="F3" s="45">
         <v>98</v>
       </c>
-      <c r="G3" s="60"/>
+      <c r="G3" s="47"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="61">
+      <c r="A4" s="48">
         <v>3</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="57">
+      <c r="D4" s="44">
         <v>100</v>
       </c>
-      <c r="E4" s="57">
+      <c r="E4" s="44">
         <v>100</v>
       </c>
-      <c r="F4" s="58">
+      <c r="F4" s="45">
         <v>98</v>
       </c>
-      <c r="G4" s="60"/>
+      <c r="G4" s="47"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="61">
+      <c r="A5" s="48">
         <v>4</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="57">
+      <c r="D5" s="44">
         <v>100</v>
       </c>
-      <c r="E5" s="58">
+      <c r="E5" s="45">
         <v>98</v>
       </c>
-      <c r="F5" s="57">
+      <c r="F5" s="44">
         <v>100</v>
       </c>
-      <c r="G5" s="60"/>
+      <c r="G5" s="47"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="61">
+      <c r="A6" s="48">
         <v>5</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="57">
+      <c r="D6" s="44">
         <v>100</v>
       </c>
-      <c r="E6" s="57">
+      <c r="E6" s="44">
         <v>100</v>
       </c>
-      <c r="F6" s="59">
+      <c r="F6" s="46">
         <v>102</v>
       </c>
-      <c r="G6" s="60"/>
+      <c r="G6" s="47"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="61">
+      <c r="A7" s="48">
         <v>6</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="57">
+      <c r="D7" s="44">
         <v>100</v>
       </c>
-      <c r="E7" s="59">
+      <c r="E7" s="46">
         <v>102</v>
       </c>
-      <c r="F7" s="57">
+      <c r="F7" s="44">
         <v>100</v>
       </c>
-      <c r="G7" s="60"/>
+      <c r="G7" s="47"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="78"/>
-      <c r="B8" s="62" t="s">
+      <c r="A8" s="63"/>
+      <c r="B8" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="64" t="s">
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="51" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="78"/>
-      <c r="B9" s="65" t="s">
+      <c r="A9" s="63"/>
+      <c r="B9" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="64" t="s">
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="51" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="78"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64" t="s">
+      <c r="A10" s="63"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="51" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="78"/>
-      <c r="B11" s="68" t="s">
+      <c r="A11" s="63"/>
+      <c r="B11" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="76" t="s">
+      <c r="C11" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="64" t="s">
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="51" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="78"/>
-      <c r="B12" s="62" t="s">
+      <c r="A12" s="63"/>
+      <c r="B12" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="77"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="64" t="s">
+      <c r="C12" s="78"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="51" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="55">
+      <c r="A13" s="42">
         <v>7</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="57">
+      <c r="D13" s="44">
         <v>100</v>
       </c>
-      <c r="E13" s="59">
+      <c r="E13" s="46">
         <v>102</v>
       </c>
-      <c r="F13" s="69">
+      <c r="F13" s="56">
         <v>105</v>
       </c>
-      <c r="G13" s="60"/>
+      <c r="G13" s="47"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="61">
+      <c r="A14" s="48">
         <v>8</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="D14" s="57">
+      <c r="D14" s="44">
         <v>100</v>
       </c>
-      <c r="E14" s="69">
+      <c r="E14" s="56">
         <v>105</v>
       </c>
-      <c r="F14" s="59">
+      <c r="F14" s="46">
         <v>102</v>
       </c>
-      <c r="G14" s="60"/>
+      <c r="G14" s="47"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="78"/>
-      <c r="B15" s="70" t="s">
+      <c r="A15" s="63"/>
+      <c r="B15" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="64" t="s">
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="78"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="64" t="s">
+      <c r="A16" s="63"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="51" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="78"/>
-      <c r="B17" s="68" t="s">
+      <c r="A17" s="63"/>
+      <c r="B17" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="76" t="s">
+      <c r="C17" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="64" t="s">
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="51" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="78"/>
-      <c r="B18" s="65" t="s">
+      <c r="A18" s="63"/>
+      <c r="B18" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="C18" s="77"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="64" t="s">
+      <c r="C18" s="78"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="51" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="55">
+      <c r="A19" s="42">
         <v>9</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="57">
+      <c r="D19" s="44">
         <v>100</v>
       </c>
-      <c r="E19" s="58">
+      <c r="E19" s="45">
         <v>98</v>
       </c>
-      <c r="F19" s="72">
+      <c r="F19" s="59">
         <v>90</v>
       </c>
-      <c r="G19" s="60"/>
+      <c r="G19" s="47"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="61">
+      <c r="A20" s="48">
         <v>10</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="C20" s="56" t="s">
+      <c r="C20" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="D20" s="57">
+      <c r="D20" s="44">
         <v>100</v>
       </c>
-      <c r="E20" s="72">
+      <c r="E20" s="59">
         <v>90</v>
       </c>
-      <c r="F20" s="58">
+      <c r="F20" s="45">
         <v>98</v>
       </c>
-      <c r="G20" s="60"/>
+      <c r="G20" s="47"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="78"/>
-      <c r="B21" s="70" t="s">
+      <c r="A21" s="63"/>
+      <c r="B21" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="C21" s="73" t="s">
+      <c r="C21" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64" t="s">
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="78"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="64" t="s">
+      <c r="A22" s="63"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="51" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="78"/>
-      <c r="B23" s="68" t="s">
+      <c r="A23" s="63"/>
+      <c r="B23" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="74" t="s">
+      <c r="C23" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="64" t="s">
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="51" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="55">
+      <c r="A24" s="42">
         <v>11</v>
       </c>
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="C24" s="75" t="s">
+      <c r="C24" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/excel-docs/euro - lifecycle info.xlsx
+++ b/excel-docs/euro - lifecycle info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseph.collins/Documents/personal-projects/euro/2024_euro/excel-docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D56F65-7A0F-E64E-A551-EA6A10A9F14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B071C7-667F-A549-B42A-879E2BB7D8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20060" xr2:uid="{D89656BD-B983-D041-A997-C1184058734E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="24640" windowHeight="20120" activeTab="10" xr2:uid="{D89656BD-B983-D041-A997-C1184058734E}"/>
   </bookViews>
   <sheets>
     <sheet name="life cycle actions" sheetId="6" r:id="rId1"/>
@@ -18,6 +18,12 @@
     <sheet name="error testing" sheetId="3" r:id="rId3"/>
     <sheet name="tiebreaker testing scenarios" sheetId="8" r:id="rId4"/>
     <sheet name="emails" sheetId="7" r:id="rId5"/>
+    <sheet name="master" sheetId="11" r:id="rId6"/>
+    <sheet name="joe-stan" sheetId="9" r:id="rId7"/>
+    <sheet name="anthony" sheetId="12" r:id="rId8"/>
+    <sheet name="kevin" sheetId="13" r:id="rId9"/>
+    <sheet name="sarah" sheetId="14" r:id="rId10"/>
+    <sheet name="pat" sheetId="15" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +37,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="185">
   <si>
     <t>need to submit a number for tiebreaker score</t>
   </si>
@@ -535,12 +540,162 @@
 myPicks unlocked
 KO stages</t>
   </si>
+  <si>
+    <t>Group A</t>
+  </si>
+  <si>
+    <t>Group B</t>
+  </si>
+  <si>
+    <t>Group C</t>
+  </si>
+  <si>
+    <t>Group D</t>
+  </si>
+  <si>
+    <t>Group E</t>
+  </si>
+  <si>
+    <t>Group F</t>
+  </si>
+  <si>
+    <t>picked correct country to win group</t>
+  </si>
+  <si>
+    <t>picked correct runner-up country</t>
+  </si>
+  <si>
+    <t>pts</t>
+  </si>
+  <si>
+    <t>picked correct country to take 3rd in in the group and advance to the Knockout Stage</t>
+  </si>
+  <si>
+    <t>picked correct country to advance, but not in the correct 1/2/3 position</t>
+  </si>
+  <si>
+    <t>picked correct country for the 3/4 position - 3rd place team did not advance from group</t>
+  </si>
+  <si>
+    <t>Pts</t>
+  </si>
+  <si>
+    <t>group total</t>
+  </si>
+  <si>
+    <t>quarters</t>
+  </si>
+  <si>
+    <t>semis</t>
+  </si>
+  <si>
+    <t>final</t>
+  </si>
+  <si>
+    <t>champ</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Wales</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>advance to KO</t>
+  </si>
+  <si>
+    <t>correct</t>
+  </si>
+  <si>
+    <t>correct advance</t>
+  </si>
+  <si>
+    <t>correct spot</t>
+  </si>
+  <si>
+    <t>correct 3rd advance</t>
+  </si>
+  <si>
+    <t>3rd pts needed</t>
+  </si>
+  <si>
+    <t>pts for advancing</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -629,8 +784,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -701,6 +864,30 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF2FB7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBE1FFF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -810,7 +997,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -947,9 +1134,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -959,7 +1143,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -974,12 +1170,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -992,18 +1182,408 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="47">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF2FB7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE1FFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE1FFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF2FB7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE1FFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE1FFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF2FB7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE1FFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE1FFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF2FB7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE1FFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF2FB7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE1FFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF2FB7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE1FFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF2FB7"/>
+      <color rgb="FFBE1FFF"/>
       <color rgb="FF180F1A"/>
     </mruColors>
   </colors>
@@ -1320,8 +1900,8 @@
   </sheetPr>
   <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="160" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1344,34 +1924,33 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="73">
+      <c r="A2" s="67">
         <v>1</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="E2" s="80"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="74"/>
+      <c r="A3" s="68"/>
       <c r="B3" s="32" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="74"/>
+      <c r="A4" s="68"/>
       <c r="B4" s="32" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="74"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="32" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="79"/>
+      <c r="A6" s="69"/>
       <c r="B6" s="32" t="s">
         <v>16</v>
       </c>
@@ -1381,7 +1960,7 @@
       <c r="B7" s="15"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="66">
+      <c r="A8" s="65">
         <v>2</v>
       </c>
       <c r="B8" s="32" t="s">
@@ -1389,7 +1968,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="67"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="33" t="s">
         <v>94</v>
       </c>
@@ -1399,7 +1978,7 @@
       <c r="B10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="65">
+      <c r="A11" s="64">
         <v>3</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -1407,79 +1986,79 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="65"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="23" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="65"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="23" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="65"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="34" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="65"/>
+      <c r="A15" s="64"/>
       <c r="B15" s="34" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="65"/>
+      <c r="A16" s="64"/>
       <c r="B16" s="34" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="65"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="34" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="65"/>
+      <c r="A18" s="64"/>
       <c r="B18" s="34" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="65"/>
+      <c r="A19" s="64"/>
       <c r="B19" s="34" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="65"/>
+      <c r="A20" s="64"/>
       <c r="B20" s="34" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="65"/>
+      <c r="A21" s="64"/>
       <c r="B21" s="34" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="65"/>
+      <c r="A22" s="64"/>
       <c r="B22" s="34" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="65"/>
+      <c r="A23" s="64"/>
       <c r="B23" s="34" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="65"/>
+      <c r="A24" s="64"/>
       <c r="B24" s="34" t="s">
         <v>64</v>
       </c>
@@ -1489,7 +2068,7 @@
       <c r="B25" s="7"/>
     </row>
     <row r="26" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A26" s="65">
+      <c r="A26" s="64">
         <v>4</v>
       </c>
       <c r="B26" s="10" t="s">
@@ -1497,61 +2076,61 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="24" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="65"/>
+      <c r="A27" s="64"/>
       <c r="B27" s="23" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="24" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="65"/>
+      <c r="A28" s="64"/>
       <c r="B28" s="23" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="65"/>
+      <c r="A29" s="64"/>
       <c r="B29" s="21" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="65"/>
+      <c r="A30" s="64"/>
       <c r="B30" s="34" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="65"/>
+      <c r="A31" s="64"/>
       <c r="B31" s="34" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="65"/>
+      <c r="A32" s="64"/>
       <c r="B32" s="34" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="65"/>
+      <c r="A33" s="64"/>
       <c r="B33" s="34" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="65"/>
+      <c r="A34" s="64"/>
       <c r="B34" s="34" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="65"/>
+      <c r="A35" s="64"/>
       <c r="B35" s="34" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="65"/>
+      <c r="A36" s="64"/>
       <c r="B36" s="34" t="s">
         <v>64</v>
       </c>
@@ -1911,6 +2490,2302 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A2:A6"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC49F1C-9819-6A4D-BA8A-D847526C8B5C}">
+  <dimension ref="A1:AA34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X28" sqref="X28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="80"/>
+    <col min="4" max="4" width="13.1640625" style="80" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="80" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" hidden="1" customWidth="1"/>
+    <col min="11" max="13" width="15.33203125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="96"/>
+    <col min="15" max="15" width="2.6640625" customWidth="1"/>
+    <col min="18" max="18" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.1640625" customWidth="1"/>
+    <col min="20" max="23" width="14.1640625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="10.83203125" style="96"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1" s="11"/>
+      <c r="B1" s="100"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="N1" s="82" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A2" s="87">
+        <v>5</v>
+      </c>
+      <c r="B2" s="101" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A3" s="104">
+        <v>4</v>
+      </c>
+      <c r="B3" s="101" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4" s="93">
+        <v>3</v>
+      </c>
+      <c r="B4" s="101" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5" s="105">
+        <v>2</v>
+      </c>
+      <c r="B5" s="101" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6" s="88">
+        <v>1</v>
+      </c>
+      <c r="B6" s="101" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D9" s="81" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="G9" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="H9" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="I9" s="95" t="s">
+        <v>182</v>
+      </c>
+      <c r="J9" s="95" t="s">
+        <v>183</v>
+      </c>
+      <c r="K9" s="95" t="s">
+        <v>184</v>
+      </c>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="O9" s="89"/>
+      <c r="P9" s="81" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q9" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="R9" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="S9" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="T9" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="U9" s="95"/>
+      <c r="V9" s="95"/>
+      <c r="W9" s="95"/>
+      <c r="X9" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y9" s="89"/>
+      <c r="Z9" s="91" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA9" s="82">
+        <f>N14+X14+N21+X21+N28+X28</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D10" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" s="82" t="str">
+        <f>master!B7</f>
+        <v>Netherlands</v>
+      </c>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82">
+        <f>IF(D10=E10,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82">
+        <f>IF(D10=E11,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="M10" s="82">
+        <f>IF(D10=E12,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="94">
+        <v>2</v>
+      </c>
+      <c r="O10" s="90"/>
+      <c r="P10" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q10" s="82" t="str">
+        <f>master!F7</f>
+        <v>England</v>
+      </c>
+      <c r="R10" s="82"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="82">
+        <f>IF(P10=Q10,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="82"/>
+      <c r="V10" s="82"/>
+      <c r="W10" s="82"/>
+      <c r="X10" s="94">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="90"/>
+      <c r="Z10" s="82" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA10" s="82"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D11" s="82" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" s="82" t="str">
+        <f>master!B8</f>
+        <v>Ecuador</v>
+      </c>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82">
+        <f>IF(D11=E11,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82">
+        <f>IF(D11=E10,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="82">
+        <f>IF(D11=E12,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="94">
+        <v>2</v>
+      </c>
+      <c r="O11" s="90"/>
+      <c r="P11" s="82" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q11" s="82" t="str">
+        <f>master!F8</f>
+        <v>USA</v>
+      </c>
+      <c r="R11" s="82"/>
+      <c r="S11" s="82"/>
+      <c r="T11" s="82">
+        <f>IF(P11=Q11,4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="U11" s="82"/>
+      <c r="V11" s="82"/>
+      <c r="W11" s="82"/>
+      <c r="X11" s="94">
+        <v>4</v>
+      </c>
+      <c r="Y11" s="90"/>
+      <c r="Z11" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA11" s="82"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D12" s="82" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" s="82" t="str">
+        <f>master!B9</f>
+        <v>Senegal</v>
+      </c>
+      <c r="F12" s="102">
+        <v>1</v>
+      </c>
+      <c r="G12" s="82">
+        <f>master!C9</f>
+        <v>1</v>
+      </c>
+      <c r="H12" s="82">
+        <f>IF(D12=E12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="82">
+        <f>IF(F12=G12,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="J12" s="82">
+        <f>IF(G12=1,1,2)</f>
+        <v>1</v>
+      </c>
+      <c r="K12" s="82">
+        <f>IF(J12=1,I12,0)</f>
+        <v>2</v>
+      </c>
+      <c r="L12" s="82">
+        <f>IF(D12=E10,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="M12" s="82">
+        <f>IF(D12=E11,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="94">
+        <v>0</v>
+      </c>
+      <c r="O12" s="90"/>
+      <c r="P12" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q12" s="82" t="str">
+        <f>master!F9</f>
+        <v>Wales</v>
+      </c>
+      <c r="R12" s="102">
+        <v>1</v>
+      </c>
+      <c r="S12" s="82">
+        <f>master!G9</f>
+        <v>1</v>
+      </c>
+      <c r="T12" s="82">
+        <f>IF(P12=Q12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="82">
+        <f>IF(R12=S12,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="V12" s="82">
+        <f>IF(S12=1,1,2)</f>
+        <v>1</v>
+      </c>
+      <c r="W12" s="82">
+        <f>IF(V12=1,U12,0)</f>
+        <v>2</v>
+      </c>
+      <c r="X12" s="94">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="90"/>
+      <c r="Z12" s="82" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA12" s="82"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D13" s="82" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" s="82" t="str">
+        <f>master!B10</f>
+        <v>Qatar</v>
+      </c>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82">
+        <f>IF(D13=E13,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="94">
+        <v>0</v>
+      </c>
+      <c r="O13" s="90"/>
+      <c r="P13" s="82" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q13" s="82" t="str">
+        <f>master!F10</f>
+        <v>Iran</v>
+      </c>
+      <c r="R13" s="82"/>
+      <c r="S13" s="82"/>
+      <c r="T13" s="82">
+        <f>IF(P13=Q13,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U13" s="82"/>
+      <c r="V13" s="82"/>
+      <c r="W13" s="82"/>
+      <c r="X13" s="94">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="90"/>
+      <c r="Z13" s="82" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA13" s="82"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="81">
+        <f>SUM(N10:N13)</f>
+        <v>4</v>
+      </c>
+      <c r="O14" s="89"/>
+      <c r="P14" s="83"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="83"/>
+      <c r="S14" s="83"/>
+      <c r="T14" s="83"/>
+      <c r="U14" s="83"/>
+      <c r="V14" s="83"/>
+      <c r="W14" s="83"/>
+      <c r="X14" s="81">
+        <f>SUM(X10:X13)</f>
+        <v>9</v>
+      </c>
+      <c r="Y14" s="89"/>
+      <c r="Z14" s="81" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA14" s="81">
+        <f>SUM(AA9:AA13)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="90"/>
+      <c r="P15" s="80"/>
+      <c r="Q15" s="80"/>
+      <c r="R15" s="80"/>
+      <c r="S15" s="80"/>
+      <c r="T15" s="80"/>
+      <c r="U15" s="80"/>
+      <c r="V15" s="80"/>
+      <c r="W15" s="80"/>
+      <c r="X15" s="80"/>
+      <c r="Y15" s="90"/>
+      <c r="Z15" s="80"/>
+      <c r="AA15" s="80"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D16" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="F16" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="G16" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="H16" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="I16" s="95"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="P16" s="81" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q16" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="R16" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="S16" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="T16" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="U16" s="95"/>
+      <c r="V16" s="95"/>
+      <c r="W16" s="95"/>
+      <c r="X16" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z16" s="80"/>
+      <c r="AA16" s="80"/>
+    </row>
+    <row r="17" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="D17" s="82" t="s">
+        <v>162</v>
+      </c>
+      <c r="E17" s="82" t="str">
+        <f>master!B13</f>
+        <v>Argentina</v>
+      </c>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82">
+        <f>IF(D17=E17,5,0)</f>
+        <v>5</v>
+      </c>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="94">
+        <v>5</v>
+      </c>
+      <c r="P17" s="82" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q17" s="82" t="str">
+        <f>master!F13</f>
+        <v>France</v>
+      </c>
+      <c r="R17" s="82"/>
+      <c r="S17" s="82"/>
+      <c r="T17" s="82">
+        <f>IF(P17=Q17,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="82"/>
+      <c r="V17" s="82"/>
+      <c r="W17" s="82"/>
+      <c r="X17" s="94">
+        <v>2</v>
+      </c>
+      <c r="Z17" s="80"/>
+      <c r="AA17" s="80"/>
+    </row>
+    <row r="18" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="D18" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="E18" s="82" t="str">
+        <f>master!B14</f>
+        <v>Mexico</v>
+      </c>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82">
+        <f>IF(D18=E18,4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="94">
+        <v>4</v>
+      </c>
+      <c r="P18" s="82" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q18" s="82" t="str">
+        <f>master!F14</f>
+        <v>Denmark</v>
+      </c>
+      <c r="R18" s="82"/>
+      <c r="S18" s="82"/>
+      <c r="T18" s="82">
+        <f>IF(P18=Q18,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U18" s="82"/>
+      <c r="V18" s="82"/>
+      <c r="W18" s="82"/>
+      <c r="X18" s="94">
+        <v>2</v>
+      </c>
+      <c r="Z18" s="80"/>
+      <c r="AA18" s="80"/>
+    </row>
+    <row r="19" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="D19" s="82" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" s="82" t="str">
+        <f>master!B15</f>
+        <v>Poland</v>
+      </c>
+      <c r="F19" s="102">
+        <v>0</v>
+      </c>
+      <c r="G19" s="82">
+        <f>master!C15</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="82">
+        <f>IF(D19=E19,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="82">
+        <f>IF(F19=G19,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="J19" s="82">
+        <f>IF(G19=1,1,2)</f>
+        <v>2</v>
+      </c>
+      <c r="K19" s="82">
+        <f>IF(J19=1,I19,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="82"/>
+      <c r="M19" s="82"/>
+      <c r="N19" s="94">
+        <v>0</v>
+      </c>
+      <c r="P19" s="82" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q19" s="82" t="str">
+        <f>master!F15</f>
+        <v>Australia</v>
+      </c>
+      <c r="R19" s="102">
+        <v>1</v>
+      </c>
+      <c r="S19" s="82">
+        <f>master!G15</f>
+        <v>1</v>
+      </c>
+      <c r="T19" s="82">
+        <f>IF(P19=Q19,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="82">
+        <f>IF(R19=S19,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="V19" s="82">
+        <f>IF(S19=1,1,2)</f>
+        <v>1</v>
+      </c>
+      <c r="W19" s="82">
+        <f>IF(V19=1,U19,0)</f>
+        <v>2</v>
+      </c>
+      <c r="X19" s="94">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="80"/>
+      <c r="AA19" s="80"/>
+    </row>
+    <row r="20" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="D20" s="82" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" s="82" t="str">
+        <f>master!B16</f>
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82">
+        <f>IF(D20=E20,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="82"/>
+      <c r="N20" s="94">
+        <v>0</v>
+      </c>
+      <c r="P20" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q20" s="82" t="str">
+        <f>master!F16</f>
+        <v>Tunisia</v>
+      </c>
+      <c r="R20" s="82"/>
+      <c r="S20" s="82"/>
+      <c r="T20" s="82">
+        <f>IF(P20=Q20,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="82"/>
+      <c r="V20" s="82"/>
+      <c r="W20" s="82"/>
+      <c r="X20" s="94">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="80"/>
+      <c r="AA20" s="80"/>
+    </row>
+    <row r="21" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="83"/>
+      <c r="L21" s="83"/>
+      <c r="M21" s="83"/>
+      <c r="N21" s="99">
+        <f>SUM(N17:N20)</f>
+        <v>9</v>
+      </c>
+      <c r="P21" s="98"/>
+      <c r="Q21" s="80"/>
+      <c r="R21" s="80"/>
+      <c r="S21" s="80"/>
+      <c r="T21" s="80"/>
+      <c r="U21" s="80"/>
+      <c r="V21" s="80"/>
+      <c r="W21" s="80"/>
+      <c r="X21" s="81">
+        <f>SUM(X17:X20)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="D23" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="F23" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="G23" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="H23" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="I23" s="95"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="O23" s="89"/>
+      <c r="P23" s="81" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q23" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="R23" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="S23" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="T23" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="U23" s="95"/>
+      <c r="V23" s="95"/>
+      <c r="W23" s="95"/>
+      <c r="X23" s="81" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="D24" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="E24" s="82" t="str">
+        <f>master!B19</f>
+        <v>Germany</v>
+      </c>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82">
+        <f>IF(D24=E24,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="94">
+        <v>2</v>
+      </c>
+      <c r="O24" s="90"/>
+      <c r="P24" s="82" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q24" s="82" t="str">
+        <f>master!F19</f>
+        <v>Belgium</v>
+      </c>
+      <c r="R24" s="82"/>
+      <c r="S24" s="82"/>
+      <c r="T24" s="82">
+        <f>IF(P24=Q24,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U24" s="82"/>
+      <c r="V24" s="82"/>
+      <c r="W24" s="82"/>
+      <c r="X24" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="D25" s="82" t="s">
+        <v>171</v>
+      </c>
+      <c r="E25" s="82" t="str">
+        <f>master!B20</f>
+        <v>Spain</v>
+      </c>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82">
+        <f>IF(D25=E25,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
+      <c r="M25" s="82"/>
+      <c r="N25" s="94">
+        <v>2</v>
+      </c>
+      <c r="O25" s="90"/>
+      <c r="P25" s="82" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q25" s="82" t="str">
+        <f>master!F20</f>
+        <v>Croatia</v>
+      </c>
+      <c r="R25" s="82"/>
+      <c r="S25" s="82"/>
+      <c r="T25" s="82">
+        <f>IF(P25=Q25,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U25" s="82"/>
+      <c r="V25" s="82"/>
+      <c r="W25" s="82"/>
+      <c r="X25" s="94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="D26" s="82" t="s">
+        <v>173</v>
+      </c>
+      <c r="E26" s="82" t="str">
+        <f>master!B21</f>
+        <v>Japan</v>
+      </c>
+      <c r="F26" s="102">
+        <v>0</v>
+      </c>
+      <c r="G26" s="82">
+        <f>master!C21</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="82">
+        <f>IF(D26=E26,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="82">
+        <f>IF(F26=G26,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="J26" s="82">
+        <f>IF(G26=1,1,2)</f>
+        <v>2</v>
+      </c>
+      <c r="K26" s="82">
+        <f>IF(J26=1,I26,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="94">
+        <v>0</v>
+      </c>
+      <c r="O26" s="90"/>
+      <c r="P26" s="82" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q26" s="82" t="str">
+        <f>master!F21</f>
+        <v>Morocco</v>
+      </c>
+      <c r="R26" s="102">
+        <v>1</v>
+      </c>
+      <c r="S26" s="82">
+        <f>master!G21</f>
+        <v>1</v>
+      </c>
+      <c r="T26" s="82">
+        <f>IF(P26=Q26,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U26" s="82">
+        <f>IF(R26=S26,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="V26" s="82">
+        <f>IF(S26=1,1,2)</f>
+        <v>1</v>
+      </c>
+      <c r="W26" s="82">
+        <f>IF(V26=1,U26,0)</f>
+        <v>2</v>
+      </c>
+      <c r="X26" s="94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="D27" s="82" t="s">
+        <v>172</v>
+      </c>
+      <c r="E27" s="82" t="str">
+        <f>master!B22</f>
+        <v>Costa Rica</v>
+      </c>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82">
+        <f>IF(D27=E27,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="94">
+        <v>0</v>
+      </c>
+      <c r="O27" s="90"/>
+      <c r="P27" s="82" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q27" s="82" t="str">
+        <f>master!F22</f>
+        <v>Canada</v>
+      </c>
+      <c r="R27" s="82"/>
+      <c r="S27" s="82"/>
+      <c r="T27" s="82">
+        <f>IF(P27=Q27,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U27" s="82"/>
+      <c r="V27" s="82"/>
+      <c r="W27" s="82"/>
+      <c r="X27" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="80"/>
+      <c r="N28" s="81">
+        <f t="shared" ref="N28:X28" si="0">SUM(N24:N27)</f>
+        <v>4</v>
+      </c>
+      <c r="O28" s="89"/>
+      <c r="P28" s="80"/>
+      <c r="Q28" s="80"/>
+      <c r="R28" s="80"/>
+      <c r="S28" s="80"/>
+      <c r="T28" s="80"/>
+      <c r="U28" s="80"/>
+      <c r="V28" s="80"/>
+      <c r="W28" s="80"/>
+      <c r="X28" s="99">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="O29" s="89"/>
+    </row>
+    <row r="30" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="O30" s="90"/>
+    </row>
+    <row r="31" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="O31" s="90"/>
+    </row>
+    <row r="32" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="O32" s="90"/>
+    </row>
+    <row r="33" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O33" s="90"/>
+    </row>
+    <row r="34" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="89"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+  </mergeCells>
+  <conditionalFormatting sqref="N10 X10 X17 N17 N24 X24">
+    <cfRule type="cellIs" priority="9" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N18 N25 X25 X18 X11">
+    <cfRule type="cellIs" dxfId="18" priority="12" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N13 X13 X20 N20 N27 X27">
+    <cfRule type="cellIs" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N11">
+    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N25 N18 N11 X11 X18 X25">
+    <cfRule type="cellIs" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N11 X11 X25 N18 N25">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N26 X26 X19 N19 N12 X12">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N24 N17 N10 X10 X17 X24">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X18">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08564AC3-4506-8F41-9905-B73B2E25376A}">
+  <dimension ref="A1:AA34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X28" sqref="X28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="80"/>
+    <col min="4" max="4" width="13.1640625" style="80" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="80" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" hidden="1" customWidth="1"/>
+    <col min="11" max="13" width="15.33203125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="96"/>
+    <col min="15" max="15" width="2.6640625" customWidth="1"/>
+    <col min="18" max="18" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.1640625" customWidth="1"/>
+    <col min="20" max="23" width="14.1640625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="10.83203125" style="96"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1" s="11"/>
+      <c r="B1" s="100"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="N1" s="82" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A2" s="87">
+        <v>5</v>
+      </c>
+      <c r="B2" s="101" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A3" s="104">
+        <v>4</v>
+      </c>
+      <c r="B3" s="101" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4" s="93">
+        <v>3</v>
+      </c>
+      <c r="B4" s="101" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5" s="105">
+        <v>2</v>
+      </c>
+      <c r="B5" s="101" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6" s="88">
+        <v>1</v>
+      </c>
+      <c r="B6" s="101" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D9" s="81" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="G9" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="H9" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="I9" s="95" t="s">
+        <v>182</v>
+      </c>
+      <c r="J9" s="95" t="s">
+        <v>183</v>
+      </c>
+      <c r="K9" s="95" t="s">
+        <v>184</v>
+      </c>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="O9" s="89"/>
+      <c r="P9" s="81" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q9" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="R9" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="S9" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="T9" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="U9" s="95"/>
+      <c r="V9" s="95"/>
+      <c r="W9" s="95"/>
+      <c r="X9" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y9" s="89"/>
+      <c r="Z9" s="91" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA9" s="82">
+        <f>N14+X14+N21+X21+N28+X28</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D10" s="82" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="82" t="str">
+        <f>master!B7</f>
+        <v>Netherlands</v>
+      </c>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82">
+        <f>IF(D10=E10,5,0)</f>
+        <v>5</v>
+      </c>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82">
+        <f>IF(D10=E11,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="82">
+        <f>IF(D10=E12,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="94">
+        <v>5</v>
+      </c>
+      <c r="O10" s="90"/>
+      <c r="P10" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q10" s="82" t="str">
+        <f>master!F7</f>
+        <v>England</v>
+      </c>
+      <c r="R10" s="82"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="82">
+        <f>IF(P10=Q10,5,0)</f>
+        <v>5</v>
+      </c>
+      <c r="U10" s="82"/>
+      <c r="V10" s="82"/>
+      <c r="W10" s="82"/>
+      <c r="X10" s="94">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="90"/>
+      <c r="Z10" s="82" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA10" s="82"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D11" s="82" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" s="82" t="str">
+        <f>master!B8</f>
+        <v>Ecuador</v>
+      </c>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82">
+        <f>IF(D11=E11,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82">
+        <f>IF(D11=E10,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="82">
+        <f>IF(D11=E12,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="N11" s="94">
+        <v>2</v>
+      </c>
+      <c r="O11" s="90"/>
+      <c r="P11" s="82" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q11" s="82" t="str">
+        <f>master!F8</f>
+        <v>USA</v>
+      </c>
+      <c r="R11" s="82"/>
+      <c r="S11" s="82"/>
+      <c r="T11" s="82">
+        <f>IF(P11=Q11,4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="U11" s="82"/>
+      <c r="V11" s="82"/>
+      <c r="W11" s="82"/>
+      <c r="X11" s="94">
+        <v>4</v>
+      </c>
+      <c r="Y11" s="90"/>
+      <c r="Z11" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA11" s="82"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D12" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" s="82" t="str">
+        <f>master!B9</f>
+        <v>Senegal</v>
+      </c>
+      <c r="F12" s="102">
+        <v>1</v>
+      </c>
+      <c r="G12" s="82">
+        <f>master!C9</f>
+        <v>1</v>
+      </c>
+      <c r="H12" s="82">
+        <f>IF(D12=E12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="82">
+        <f>IF(F12=G12,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="J12" s="82">
+        <f>IF(G12=1,1,2)</f>
+        <v>1</v>
+      </c>
+      <c r="K12" s="82">
+        <f>IF(J12=1,I12,0)</f>
+        <v>2</v>
+      </c>
+      <c r="L12" s="82">
+        <f>IF(D12=E10,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="82">
+        <f>IF(D12=E11,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="N12" s="94">
+        <v>2</v>
+      </c>
+      <c r="O12" s="90"/>
+      <c r="P12" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q12" s="82" t="str">
+        <f>master!F9</f>
+        <v>Wales</v>
+      </c>
+      <c r="R12" s="102">
+        <v>0</v>
+      </c>
+      <c r="S12" s="82">
+        <f>master!G9</f>
+        <v>1</v>
+      </c>
+      <c r="T12" s="82">
+        <f>IF(P12=Q12,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U12" s="82">
+        <f>IF(R12=S12,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V12" s="82">
+        <f>IF(S12=1,1,2)</f>
+        <v>1</v>
+      </c>
+      <c r="W12" s="82">
+        <f>IF(V12=1,U12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="94">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="90"/>
+      <c r="Z12" s="82" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA12" s="82"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D13" s="82" t="s">
+        <v>155</v>
+      </c>
+      <c r="E13" s="82" t="str">
+        <f>master!B10</f>
+        <v>Qatar</v>
+      </c>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82">
+        <f>IF(D13=E13,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="94">
+        <v>1</v>
+      </c>
+      <c r="O13" s="90"/>
+      <c r="P13" s="82" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q13" s="82" t="str">
+        <f>master!F10</f>
+        <v>Iran</v>
+      </c>
+      <c r="R13" s="82"/>
+      <c r="S13" s="82"/>
+      <c r="T13" s="82">
+        <f>IF(P13=Q13,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U13" s="82"/>
+      <c r="V13" s="82"/>
+      <c r="W13" s="82"/>
+      <c r="X13" s="94">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="90"/>
+      <c r="Z13" s="82" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA13" s="82"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="81">
+        <f>SUM(N10:N13)</f>
+        <v>10</v>
+      </c>
+      <c r="O14" s="89"/>
+      <c r="P14" s="83"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="83"/>
+      <c r="S14" s="83"/>
+      <c r="T14" s="83"/>
+      <c r="U14" s="83"/>
+      <c r="V14" s="83"/>
+      <c r="W14" s="83"/>
+      <c r="X14" s="81">
+        <f>SUM(X10:X13)</f>
+        <v>11</v>
+      </c>
+      <c r="Y14" s="89"/>
+      <c r="Z14" s="81" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA14" s="81">
+        <f>SUM(AA9:AA13)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="90"/>
+      <c r="P15" s="80"/>
+      <c r="Q15" s="80"/>
+      <c r="R15" s="80"/>
+      <c r="S15" s="80"/>
+      <c r="T15" s="80"/>
+      <c r="U15" s="80"/>
+      <c r="V15" s="80"/>
+      <c r="W15" s="80"/>
+      <c r="X15" s="80"/>
+      <c r="Y15" s="90"/>
+      <c r="Z15" s="80"/>
+      <c r="AA15" s="80"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D16" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="F16" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="G16" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="H16" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="I16" s="95"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="P16" s="81" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q16" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="R16" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="S16" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="T16" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="U16" s="95"/>
+      <c r="V16" s="95"/>
+      <c r="W16" s="95"/>
+      <c r="X16" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z16" s="80"/>
+      <c r="AA16" s="80"/>
+    </row>
+    <row r="17" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="D17" s="82" t="s">
+        <v>162</v>
+      </c>
+      <c r="E17" s="82" t="str">
+        <f>master!B13</f>
+        <v>Argentina</v>
+      </c>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82">
+        <f>IF(D17=E17,5,0)</f>
+        <v>5</v>
+      </c>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="94">
+        <v>5</v>
+      </c>
+      <c r="P17" s="82" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q17" s="82" t="str">
+        <f>master!F13</f>
+        <v>France</v>
+      </c>
+      <c r="R17" s="82"/>
+      <c r="S17" s="82"/>
+      <c r="T17" s="82">
+        <f>IF(P17=Q17,5,0)</f>
+        <v>5</v>
+      </c>
+      <c r="U17" s="82"/>
+      <c r="V17" s="82"/>
+      <c r="W17" s="82"/>
+      <c r="X17" s="94">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="80"/>
+      <c r="AA17" s="80"/>
+    </row>
+    <row r="18" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="D18" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="E18" s="82" t="str">
+        <f>master!B14</f>
+        <v>Mexico</v>
+      </c>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82">
+        <f>IF(D18=E18,4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="94">
+        <v>4</v>
+      </c>
+      <c r="P18" s="82" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q18" s="82" t="str">
+        <f>master!F14</f>
+        <v>Denmark</v>
+      </c>
+      <c r="R18" s="82"/>
+      <c r="S18" s="82"/>
+      <c r="T18" s="82">
+        <f>IF(P18=Q18,4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="U18" s="82"/>
+      <c r="V18" s="82"/>
+      <c r="W18" s="82"/>
+      <c r="X18" s="94">
+        <v>4</v>
+      </c>
+      <c r="Z18" s="80"/>
+      <c r="AA18" s="80"/>
+    </row>
+    <row r="19" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="D19" s="82" t="s">
+        <v>164</v>
+      </c>
+      <c r="E19" s="82" t="str">
+        <f>master!B15</f>
+        <v>Poland</v>
+      </c>
+      <c r="F19" s="102">
+        <v>1</v>
+      </c>
+      <c r="G19" s="82">
+        <f>master!C15</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="82">
+        <f>IF(D19=E19,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I19" s="82">
+        <f>IF(F19=G19,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="82">
+        <f>IF(G19=1,1,2)</f>
+        <v>2</v>
+      </c>
+      <c r="K19" s="82">
+        <f>IF(J19=1,I19,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="82"/>
+      <c r="M19" s="82"/>
+      <c r="N19" s="94">
+        <v>1</v>
+      </c>
+      <c r="P19" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q19" s="82" t="str">
+        <f>master!F15</f>
+        <v>Australia</v>
+      </c>
+      <c r="R19" s="102">
+        <v>1</v>
+      </c>
+      <c r="S19" s="82">
+        <f>master!G15</f>
+        <v>1</v>
+      </c>
+      <c r="T19" s="82">
+        <f>IF(P19=Q19,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U19" s="82">
+        <f>IF(R19=S19,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="V19" s="82">
+        <f>IF(S19=1,1,2)</f>
+        <v>1</v>
+      </c>
+      <c r="W19" s="82">
+        <f>IF(V19=1,U19,0)</f>
+        <v>2</v>
+      </c>
+      <c r="X19" s="94">
+        <v>3</v>
+      </c>
+      <c r="Z19" s="80"/>
+      <c r="AA19" s="80"/>
+    </row>
+    <row r="20" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="D20" s="82" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" s="82" t="str">
+        <f>master!B16</f>
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82">
+        <f>IF(D20=E20,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="82"/>
+      <c r="N20" s="94">
+        <v>1</v>
+      </c>
+      <c r="P20" s="82" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q20" s="82" t="str">
+        <f>master!F16</f>
+        <v>Tunisia</v>
+      </c>
+      <c r="R20" s="82"/>
+      <c r="S20" s="82"/>
+      <c r="T20" s="82">
+        <f>IF(P20=Q20,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U20" s="82"/>
+      <c r="V20" s="82"/>
+      <c r="W20" s="82"/>
+      <c r="X20" s="94">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="80"/>
+      <c r="AA20" s="80"/>
+    </row>
+    <row r="21" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="83"/>
+      <c r="L21" s="83"/>
+      <c r="M21" s="83"/>
+      <c r="N21" s="99">
+        <f>SUM(N17:N20)</f>
+        <v>11</v>
+      </c>
+      <c r="P21" s="98"/>
+      <c r="Q21" s="80"/>
+      <c r="R21" s="80"/>
+      <c r="S21" s="80"/>
+      <c r="T21" s="80"/>
+      <c r="U21" s="80"/>
+      <c r="V21" s="80"/>
+      <c r="W21" s="80"/>
+      <c r="X21" s="81">
+        <f>SUM(X17:X20)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="D23" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="F23" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="G23" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="H23" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="I23" s="95"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="O23" s="89"/>
+      <c r="P23" s="81" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q23" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="R23" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="S23" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="T23" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="U23" s="95"/>
+      <c r="V23" s="95"/>
+      <c r="W23" s="95"/>
+      <c r="X23" s="81" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="D24" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="E24" s="82" t="str">
+        <f>master!B19</f>
+        <v>Germany</v>
+      </c>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82">
+        <f>IF(D24=E24,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="94">
+        <v>2</v>
+      </c>
+      <c r="O24" s="90"/>
+      <c r="P24" s="82" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q24" s="82" t="str">
+        <f>master!F19</f>
+        <v>Belgium</v>
+      </c>
+      <c r="R24" s="82"/>
+      <c r="S24" s="82"/>
+      <c r="T24" s="82">
+        <f>IF(P24=Q24,5,0)</f>
+        <v>5</v>
+      </c>
+      <c r="U24" s="82"/>
+      <c r="V24" s="82"/>
+      <c r="W24" s="82"/>
+      <c r="X24" s="94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="D25" s="82" t="s">
+        <v>171</v>
+      </c>
+      <c r="E25" s="82" t="str">
+        <f>master!B20</f>
+        <v>Spain</v>
+      </c>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82">
+        <f>IF(D25=E25,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
+      <c r="M25" s="82"/>
+      <c r="N25" s="94">
+        <v>2</v>
+      </c>
+      <c r="O25" s="90"/>
+      <c r="P25" s="82" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q25" s="82" t="str">
+        <f>master!F20</f>
+        <v>Croatia</v>
+      </c>
+      <c r="R25" s="82"/>
+      <c r="S25" s="82"/>
+      <c r="T25" s="82">
+        <f>IF(P25=Q25,4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="U25" s="82"/>
+      <c r="V25" s="82"/>
+      <c r="W25" s="82"/>
+      <c r="X25" s="94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="D26" s="82" t="s">
+        <v>172</v>
+      </c>
+      <c r="E26" s="82" t="str">
+        <f>master!B21</f>
+        <v>Japan</v>
+      </c>
+      <c r="F26" s="102">
+        <v>1</v>
+      </c>
+      <c r="G26" s="82">
+        <f>master!C21</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="82">
+        <f>IF(D26=E26,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I26" s="82">
+        <f>IF(F26=G26,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="82">
+        <f>IF(G26=1,1,2)</f>
+        <v>2</v>
+      </c>
+      <c r="K26" s="82">
+        <f>IF(J26=1,I26,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="94">
+        <v>1</v>
+      </c>
+      <c r="O26" s="90"/>
+      <c r="P26" s="82" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q26" s="82" t="str">
+        <f>master!F21</f>
+        <v>Morocco</v>
+      </c>
+      <c r="R26" s="102">
+        <v>0</v>
+      </c>
+      <c r="S26" s="82">
+        <f>master!G21</f>
+        <v>1</v>
+      </c>
+      <c r="T26" s="82">
+        <f>IF(P26=Q26,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U26" s="82">
+        <f>IF(R26=S26,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V26" s="82">
+        <f>IF(S26=1,1,2)</f>
+        <v>1</v>
+      </c>
+      <c r="W26" s="82">
+        <f>IF(V26=1,U26,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X26" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="D27" s="82" t="s">
+        <v>173</v>
+      </c>
+      <c r="E27" s="82" t="str">
+        <f>master!B22</f>
+        <v>Costa Rica</v>
+      </c>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82">
+        <f>IF(D27=E27,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="94">
+        <v>1</v>
+      </c>
+      <c r="O27" s="90"/>
+      <c r="P27" s="82" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q27" s="82" t="str">
+        <f>master!F22</f>
+        <v>Canada</v>
+      </c>
+      <c r="R27" s="82"/>
+      <c r="S27" s="82"/>
+      <c r="T27" s="82">
+        <f>IF(P27=Q27,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U27" s="82"/>
+      <c r="V27" s="82"/>
+      <c r="W27" s="82"/>
+      <c r="X27" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="80"/>
+      <c r="N28" s="81">
+        <f t="shared" ref="N28:X28" si="0">SUM(N24:N27)</f>
+        <v>6</v>
+      </c>
+      <c r="O28" s="89"/>
+      <c r="P28" s="80"/>
+      <c r="Q28" s="80"/>
+      <c r="R28" s="80"/>
+      <c r="S28" s="80"/>
+      <c r="T28" s="80"/>
+      <c r="U28" s="80"/>
+      <c r="V28" s="80"/>
+      <c r="W28" s="80"/>
+      <c r="X28" s="99">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="O29" s="89"/>
+    </row>
+    <row r="30" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="O30" s="90"/>
+    </row>
+    <row r="31" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="O31" s="90"/>
+    </row>
+    <row r="32" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="O32" s="90"/>
+    </row>
+    <row r="33" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O33" s="90"/>
+    </row>
+    <row r="34" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="89"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+  </mergeCells>
+  <conditionalFormatting sqref="N10 X10 X17 N17 N24 X24">
+    <cfRule type="cellIs" priority="9" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N18 N25 X25 X18 X11">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N13 X13 X20 N20 N27 X27">
+    <cfRule type="cellIs" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N11">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N25 N18 N11 X11 X18 X25">
+    <cfRule type="cellIs" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N11 X11 X25 N18 N25">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N26 X26 X19 N19 N12 X12">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N24 N17 N10 X10 X17 X24">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X18">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1943,10 +4818,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="67" t="s">
         <v>79</v>
       </c>
       <c r="C2" s="19" t="s">
@@ -1954,17 +4829,17 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="72"/>
-      <c r="B3" s="74"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="68"/>
       <c r="C3" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="74" t="s">
         <v>100</v>
       </c>
       <c r="C4" s="19" t="s">
@@ -1972,31 +4847,31 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="72"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="68" t="s">
+      <c r="A5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="70" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="72"/>
+      <c r="A6" s="75"/>
       <c r="B6" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="68"/>
+      <c r="C6" s="70"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="75"/>
+      <c r="A7" s="76"/>
       <c r="B7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="68"/>
+      <c r="C7" s="70"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="77" t="s">
         <v>91</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -2004,17 +4879,17 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="76"/>
-      <c r="B9" s="76"/>
+      <c r="A9" s="77"/>
+      <c r="B9" s="77"/>
       <c r="C9" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="72" t="s">
         <v>104</v>
       </c>
       <c r="C10" s="19" t="s">
@@ -2022,22 +4897,22 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="64"/>
-      <c r="B11" s="70"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="73"/>
       <c r="C11" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="64"/>
-      <c r="B12" s="70"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="73"/>
       <c r="C12" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="64"/>
-      <c r="B13" s="70"/>
+      <c r="A13" s="71"/>
+      <c r="B13" s="73"/>
       <c r="C13" s="19" t="s">
         <v>28</v>
       </c>
@@ -2402,7 +5277,7 @@
       <c r="B11" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="78" t="s">
         <v>114</v>
       </c>
       <c r="D11" s="50"/>
@@ -2417,7 +5292,7 @@
       <c r="B12" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="78"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="50"/>
       <c r="E12" s="50"/>
       <c r="F12" s="50"/>
@@ -2498,7 +5373,7 @@
       <c r="B17" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="77" t="s">
+      <c r="C17" s="78" t="s">
         <v>114</v>
       </c>
       <c r="D17" s="50"/>
@@ -2513,7 +5388,7 @@
       <c r="B18" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="C18" s="78"/>
+      <c r="C18" s="79"/>
       <c r="D18" s="50"/>
       <c r="E18" s="50"/>
       <c r="F18" s="50"/>
@@ -2663,4 +5538,3615 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{038EE3C0-F204-1C41-ADA3-C604D3954CA3}">
+  <dimension ref="B6:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="81" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="89"/>
+      <c r="F6" s="81" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="H6" s="81" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="82" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="82"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="G7" s="82"/>
+      <c r="H7" s="94"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="82"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="82" t="s">
+        <v>160</v>
+      </c>
+      <c r="G8" s="82"/>
+      <c r="H8" s="94"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="82" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="82">
+        <v>1</v>
+      </c>
+      <c r="D9" s="94"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="G9" s="82">
+        <v>1</v>
+      </c>
+      <c r="H9" s="94"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="82" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="82"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="82" t="s">
+        <v>158</v>
+      </c>
+      <c r="G10" s="82"/>
+      <c r="H10" s="94"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" s="81" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="H12" s="81" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="82" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="82"/>
+      <c r="D13" s="94"/>
+      <c r="F13" s="82" t="s">
+        <v>169</v>
+      </c>
+      <c r="G13" s="82"/>
+      <c r="H13" s="94"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="82"/>
+      <c r="D14" s="94"/>
+      <c r="F14" s="82" t="s">
+        <v>168</v>
+      </c>
+      <c r="G14" s="82"/>
+      <c r="H14" s="94"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="82" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" s="82">
+        <v>0</v>
+      </c>
+      <c r="D15" s="94"/>
+      <c r="F15" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="G15" s="82">
+        <v>1</v>
+      </c>
+      <c r="H15" s="94"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="82" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" s="82"/>
+      <c r="D16" s="94"/>
+      <c r="F16" s="82" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" s="82"/>
+      <c r="H16" s="94"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="80"/>
+      <c r="D17" s="96"/>
+      <c r="H17" s="96"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="D18" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" s="89"/>
+      <c r="F18" s="81" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="H18" s="81" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="82" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" s="82"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="82" t="s">
+        <v>174</v>
+      </c>
+      <c r="G19" s="82"/>
+      <c r="H19" s="94"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="82"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="82" t="s">
+        <v>175</v>
+      </c>
+      <c r="G20" s="82"/>
+      <c r="H20" s="94"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="82" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="82">
+        <v>0</v>
+      </c>
+      <c r="D21" s="94"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="82" t="s">
+        <v>176</v>
+      </c>
+      <c r="G21" s="82">
+        <v>1</v>
+      </c>
+      <c r="H21" s="94"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="82" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" s="82"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="82" t="s">
+        <v>177</v>
+      </c>
+      <c r="G22" s="82"/>
+      <c r="H22" s="94"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F2D8727-69E7-4348-A9F0-3DA347775291}">
+  <dimension ref="A1:Y34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="80"/>
+    <col min="4" max="4" width="13.1640625" style="80" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="80" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="96"/>
+    <col min="13" max="13" width="2.6640625" customWidth="1"/>
+    <col min="16" max="16" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="14.1640625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="10.83203125" style="96"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A1" s="11"/>
+      <c r="B1" s="100"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="L1" s="82" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2" s="85"/>
+      <c r="B2" s="101" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3" s="103"/>
+      <c r="B3" s="101" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A4" s="92"/>
+      <c r="B4" s="101" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5" s="86"/>
+      <c r="B5" s="101" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6" s="22"/>
+      <c r="B6" s="101" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="D9" s="81" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="G9" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="H9" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="I9" s="95" t="s">
+        <v>182</v>
+      </c>
+      <c r="J9" s="95" t="s">
+        <v>183</v>
+      </c>
+      <c r="K9" s="95" t="s">
+        <v>184</v>
+      </c>
+      <c r="L9" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="M9" s="89"/>
+      <c r="N9" s="81" t="s">
+        <v>136</v>
+      </c>
+      <c r="O9" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="P9" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q9" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="R9" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="S9" s="95"/>
+      <c r="T9" s="95"/>
+      <c r="U9" s="95"/>
+      <c r="V9" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="W9" s="89"/>
+      <c r="X9" s="91" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y9" s="82">
+        <f>L14+V14+L21+V21+L28+V28</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="D10" s="102" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="82" t="str">
+        <f>master!B7</f>
+        <v>Netherlands</v>
+      </c>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82">
+        <f>IF(D10=E10,5,0)</f>
+        <v>5</v>
+      </c>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="94">
+        <f>H10</f>
+        <v>5</v>
+      </c>
+      <c r="M10" s="90"/>
+      <c r="N10" s="102" t="s">
+        <v>161</v>
+      </c>
+      <c r="O10" s="82" t="str">
+        <f>master!F7</f>
+        <v>England</v>
+      </c>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="82">
+        <f>IF(N10=O10,5,0)</f>
+        <v>5</v>
+      </c>
+      <c r="S10" s="82"/>
+      <c r="T10" s="82"/>
+      <c r="U10" s="82"/>
+      <c r="V10" s="94">
+        <f>R10</f>
+        <v>5</v>
+      </c>
+      <c r="W10" s="90"/>
+      <c r="X10" s="82" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y10" s="82"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="D11" s="102" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" s="82" t="str">
+        <f>master!B8</f>
+        <v>Ecuador</v>
+      </c>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82">
+        <f>IF(D11=E11,4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="94">
+        <f>H11</f>
+        <v>4</v>
+      </c>
+      <c r="M11" s="90"/>
+      <c r="N11" s="102" t="s">
+        <v>160</v>
+      </c>
+      <c r="O11" s="82" t="str">
+        <f>master!F8</f>
+        <v>USA</v>
+      </c>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="82">
+        <f>IF(N11=O11,4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="S11" s="82"/>
+      <c r="T11" s="82"/>
+      <c r="U11" s="82"/>
+      <c r="V11" s="94">
+        <f t="shared" ref="V11:V13" si="0">R11</f>
+        <v>4</v>
+      </c>
+      <c r="W11" s="90"/>
+      <c r="X11" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y11" s="82"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="D12" s="102" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12" s="82" t="str">
+        <f>master!B9</f>
+        <v>Senegal</v>
+      </c>
+      <c r="F12" s="102">
+        <v>1</v>
+      </c>
+      <c r="G12" s="82">
+        <f>master!C9</f>
+        <v>1</v>
+      </c>
+      <c r="H12" s="82">
+        <f>IF(D12=E12,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I12" s="82">
+        <f>IF(F12=G12,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="J12" s="82">
+        <f>IF(G12=1,1,2)</f>
+        <v>1</v>
+      </c>
+      <c r="K12" s="82">
+        <f>IF(J12=1,I12,0)</f>
+        <v>2</v>
+      </c>
+      <c r="L12" s="94">
+        <f>H12+K12</f>
+        <v>3</v>
+      </c>
+      <c r="M12" s="90"/>
+      <c r="N12" s="102" t="s">
+        <v>159</v>
+      </c>
+      <c r="O12" s="82" t="str">
+        <f>master!F9</f>
+        <v>Wales</v>
+      </c>
+      <c r="P12" s="102">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="82">
+        <f>master!G9</f>
+        <v>1</v>
+      </c>
+      <c r="R12" s="82">
+        <f>IF(N12=O12,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S12" s="82">
+        <f>IF(P12=Q12,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="T12" s="82">
+        <f>IF(Q12=1,1,2)</f>
+        <v>1</v>
+      </c>
+      <c r="U12" s="82">
+        <f>IF(T12=1,S12,0)</f>
+        <v>2</v>
+      </c>
+      <c r="V12" s="94">
+        <f>R12+U12</f>
+        <v>3</v>
+      </c>
+      <c r="W12" s="90"/>
+      <c r="X12" s="82" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y12" s="82"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="D13" s="102" t="s">
+        <v>155</v>
+      </c>
+      <c r="E13" s="82" t="str">
+        <f>master!B10</f>
+        <v>Qatar</v>
+      </c>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82">
+        <f>IF(D13=E13,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="94">
+        <f>H13</f>
+        <v>1</v>
+      </c>
+      <c r="M13" s="90"/>
+      <c r="N13" s="102" t="s">
+        <v>158</v>
+      </c>
+      <c r="O13" s="82" t="str">
+        <f>master!F10</f>
+        <v>Iran</v>
+      </c>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="82">
+        <f>IF(N13=O13,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S13" s="82"/>
+      <c r="T13" s="82"/>
+      <c r="U13" s="82"/>
+      <c r="V13" s="94">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W13" s="90"/>
+      <c r="X13" s="82" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y13" s="82"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="81">
+        <f>SUM(L10:L13)</f>
+        <v>13</v>
+      </c>
+      <c r="M14" s="89"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="83"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="83"/>
+      <c r="S14" s="83"/>
+      <c r="T14" s="83"/>
+      <c r="U14" s="83"/>
+      <c r="V14" s="81">
+        <f>SUM(V10:V13)</f>
+        <v>13</v>
+      </c>
+      <c r="W14" s="89"/>
+      <c r="X14" s="81" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y14" s="81">
+        <f>SUM(Y9:Y13)</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="80"/>
+      <c r="P15" s="80"/>
+      <c r="Q15" s="80"/>
+      <c r="R15" s="80"/>
+      <c r="S15" s="80"/>
+      <c r="T15" s="80"/>
+      <c r="U15" s="80"/>
+      <c r="V15" s="80"/>
+      <c r="W15" s="90"/>
+      <c r="X15" s="80"/>
+      <c r="Y15" s="80"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="D16" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="F16" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="G16" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="H16" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="I16" s="95"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="N16" s="81" t="s">
+        <v>138</v>
+      </c>
+      <c r="O16" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="P16" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q16" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="R16" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="S16" s="95"/>
+      <c r="T16" s="95"/>
+      <c r="U16" s="95"/>
+      <c r="V16" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="X16" s="80"/>
+      <c r="Y16" s="80"/>
+    </row>
+    <row r="17" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D17" s="102" t="s">
+        <v>162</v>
+      </c>
+      <c r="E17" s="82" t="str">
+        <f>master!B13</f>
+        <v>Argentina</v>
+      </c>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82">
+        <f>IF(D17=E17,5,0)</f>
+        <v>5</v>
+      </c>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="94">
+        <f>H17</f>
+        <v>5</v>
+      </c>
+      <c r="N17" s="102" t="s">
+        <v>169</v>
+      </c>
+      <c r="O17" s="82" t="str">
+        <f>master!F13</f>
+        <v>France</v>
+      </c>
+      <c r="P17" s="82"/>
+      <c r="Q17" s="82"/>
+      <c r="R17" s="82">
+        <f>IF(N17=O17,5,0)</f>
+        <v>5</v>
+      </c>
+      <c r="S17" s="82"/>
+      <c r="T17" s="82"/>
+      <c r="U17" s="82"/>
+      <c r="V17" s="94">
+        <f>R17</f>
+        <v>5</v>
+      </c>
+      <c r="X17" s="80"/>
+      <c r="Y17" s="80"/>
+    </row>
+    <row r="18" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D18" s="102" t="s">
+        <v>163</v>
+      </c>
+      <c r="E18" s="82" t="str">
+        <f>master!B14</f>
+        <v>Mexico</v>
+      </c>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82">
+        <f>IF(D18=E18,4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="94">
+        <f>H18</f>
+        <v>4</v>
+      </c>
+      <c r="N18" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="O18" s="82" t="str">
+        <f>master!F14</f>
+        <v>Denmark</v>
+      </c>
+      <c r="P18" s="82"/>
+      <c r="Q18" s="82"/>
+      <c r="R18" s="82">
+        <f>IF(N18=O18,4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="S18" s="82"/>
+      <c r="T18" s="82"/>
+      <c r="U18" s="82"/>
+      <c r="V18" s="94">
+        <f t="shared" ref="V18:V20" si="1">R18</f>
+        <v>4</v>
+      </c>
+      <c r="X18" s="80"/>
+      <c r="Y18" s="80"/>
+    </row>
+    <row r="19" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D19" s="102" t="s">
+        <v>164</v>
+      </c>
+      <c r="E19" s="82" t="str">
+        <f>master!B15</f>
+        <v>Poland</v>
+      </c>
+      <c r="F19" s="102">
+        <v>0</v>
+      </c>
+      <c r="G19" s="82">
+        <f>master!C15</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="82">
+        <f>IF(D19=E19,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I19" s="82">
+        <f>IF(F19=G19,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="J19" s="82">
+        <f>IF(G19=1,1,2)</f>
+        <v>2</v>
+      </c>
+      <c r="K19" s="82">
+        <f>IF(J19=1,I19,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="94">
+        <f>H19+K19</f>
+        <v>1</v>
+      </c>
+      <c r="N19" s="102" t="s">
+        <v>166</v>
+      </c>
+      <c r="O19" s="82" t="str">
+        <f>master!F15</f>
+        <v>Australia</v>
+      </c>
+      <c r="P19" s="102">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="82">
+        <f>master!G15</f>
+        <v>1</v>
+      </c>
+      <c r="R19" s="82">
+        <f>IF(N19=O19,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S19" s="82">
+        <f>IF(P19=Q19,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="T19" s="82">
+        <f>IF(Q19=1,1,2)</f>
+        <v>1</v>
+      </c>
+      <c r="U19" s="82">
+        <f>IF(T19=1,S19,0)</f>
+        <v>2</v>
+      </c>
+      <c r="V19" s="94">
+        <f>R19+U19</f>
+        <v>3</v>
+      </c>
+      <c r="X19" s="80"/>
+      <c r="Y19" s="80"/>
+    </row>
+    <row r="20" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D20" s="102" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" s="82" t="str">
+        <f>master!B16</f>
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82">
+        <f>IF(D20=E20,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="94">
+        <f>H20</f>
+        <v>1</v>
+      </c>
+      <c r="N20" s="102" t="s">
+        <v>167</v>
+      </c>
+      <c r="O20" s="82" t="str">
+        <f>master!F16</f>
+        <v>Tunisia</v>
+      </c>
+      <c r="P20" s="82"/>
+      <c r="Q20" s="82"/>
+      <c r="R20" s="82">
+        <f>IF(N20=O20,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S20" s="82"/>
+      <c r="T20" s="82"/>
+      <c r="U20" s="82"/>
+      <c r="V20" s="94">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X20" s="80"/>
+      <c r="Y20" s="80"/>
+    </row>
+    <row r="21" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="83"/>
+      <c r="L21" s="99">
+        <f>SUM(L17:L20)</f>
+        <v>11</v>
+      </c>
+      <c r="N21" s="98"/>
+      <c r="O21" s="80"/>
+      <c r="P21" s="80"/>
+      <c r="Q21" s="80"/>
+      <c r="R21" s="80"/>
+      <c r="S21" s="80"/>
+      <c r="T21" s="80"/>
+      <c r="U21" s="80"/>
+      <c r="V21" s="81">
+        <f>SUM(V17:V20)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D23" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="F23" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="G23" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="H23" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="I23" s="95"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="M23" s="89"/>
+      <c r="N23" s="81" t="s">
+        <v>140</v>
+      </c>
+      <c r="O23" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="P23" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q23" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="R23" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="S23" s="95"/>
+      <c r="T23" s="95"/>
+      <c r="U23" s="95"/>
+      <c r="V23" s="81" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D24" s="102" t="s">
+        <v>171</v>
+      </c>
+      <c r="E24" s="82" t="str">
+        <f>master!B19</f>
+        <v>Germany</v>
+      </c>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82">
+        <f>IF(D24=E24,5,0)</f>
+        <v>5</v>
+      </c>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="94">
+        <f>H24</f>
+        <v>5</v>
+      </c>
+      <c r="M24" s="90"/>
+      <c r="N24" s="102" t="s">
+        <v>174</v>
+      </c>
+      <c r="O24" s="82" t="str">
+        <f>master!F19</f>
+        <v>Belgium</v>
+      </c>
+      <c r="P24" s="82"/>
+      <c r="Q24" s="82"/>
+      <c r="R24" s="82">
+        <f>IF(N24=O24,5,0)</f>
+        <v>5</v>
+      </c>
+      <c r="S24" s="82"/>
+      <c r="T24" s="82"/>
+      <c r="U24" s="82"/>
+      <c r="V24" s="94">
+        <f>R24</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D25" s="102" t="s">
+        <v>170</v>
+      </c>
+      <c r="E25" s="82" t="str">
+        <f>master!B20</f>
+        <v>Spain</v>
+      </c>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82">
+        <f>IF(D25=E25,4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="94">
+        <f>H25</f>
+        <v>4</v>
+      </c>
+      <c r="M25" s="90"/>
+      <c r="N25" s="102" t="s">
+        <v>175</v>
+      </c>
+      <c r="O25" s="82" t="str">
+        <f>master!F20</f>
+        <v>Croatia</v>
+      </c>
+      <c r="P25" s="82"/>
+      <c r="Q25" s="82"/>
+      <c r="R25" s="82">
+        <f>IF(N25=O25,4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="S25" s="82"/>
+      <c r="T25" s="82"/>
+      <c r="U25" s="82"/>
+      <c r="V25" s="94">
+        <f t="shared" ref="V25:V27" si="2">R25</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D26" s="102" t="s">
+        <v>172</v>
+      </c>
+      <c r="E26" s="82" t="str">
+        <f>master!B21</f>
+        <v>Japan</v>
+      </c>
+      <c r="F26" s="102">
+        <v>0</v>
+      </c>
+      <c r="G26" s="82">
+        <f>master!C21</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="82">
+        <f>IF(D26=E26,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I26" s="82">
+        <f>IF(F26=G26,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="J26" s="82">
+        <f>IF(G26=1,1,2)</f>
+        <v>2</v>
+      </c>
+      <c r="K26" s="82">
+        <f>IF(J26=1,I26,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="94">
+        <f>H26+K26</f>
+        <v>1</v>
+      </c>
+      <c r="M26" s="90"/>
+      <c r="N26" s="102" t="s">
+        <v>176</v>
+      </c>
+      <c r="O26" s="82" t="str">
+        <f>master!F21</f>
+        <v>Morocco</v>
+      </c>
+      <c r="P26" s="102">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="82">
+        <f>master!G21</f>
+        <v>1</v>
+      </c>
+      <c r="R26" s="82">
+        <f>IF(N26=O26,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S26" s="82">
+        <f>IF(P26=Q26,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="T26" s="82">
+        <f>IF(Q26=1,1,2)</f>
+        <v>1</v>
+      </c>
+      <c r="U26" s="82">
+        <f>IF(T26=1,S26,0)</f>
+        <v>2</v>
+      </c>
+      <c r="V26" s="94">
+        <f>R26+U26</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D27" s="102" t="s">
+        <v>173</v>
+      </c>
+      <c r="E27" s="82" t="str">
+        <f>master!B22</f>
+        <v>Costa Rica</v>
+      </c>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82">
+        <f>IF(D27=E27,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="94">
+        <f>H27</f>
+        <v>1</v>
+      </c>
+      <c r="M27" s="90"/>
+      <c r="N27" s="102" t="s">
+        <v>177</v>
+      </c>
+      <c r="O27" s="82" t="str">
+        <f>master!F22</f>
+        <v>Canada</v>
+      </c>
+      <c r="P27" s="82"/>
+      <c r="Q27" s="82"/>
+      <c r="R27" s="82">
+        <f>IF(N27=O27,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S27" s="82"/>
+      <c r="T27" s="82"/>
+      <c r="U27" s="82"/>
+      <c r="V27" s="94">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="81">
+        <f t="shared" ref="L28:V28" si="3">SUM(L24:L27)</f>
+        <v>11</v>
+      </c>
+      <c r="M28" s="89"/>
+      <c r="N28" s="80"/>
+      <c r="O28" s="80"/>
+      <c r="P28" s="80"/>
+      <c r="Q28" s="80"/>
+      <c r="R28" s="80"/>
+      <c r="S28" s="80"/>
+      <c r="T28" s="80"/>
+      <c r="U28" s="80"/>
+      <c r="V28" s="99">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="M29" s="89"/>
+    </row>
+    <row r="30" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="M30" s="90"/>
+    </row>
+    <row r="31" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="M31" s="90"/>
+    </row>
+    <row r="32" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="M32" s="90"/>
+    </row>
+    <row r="33" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="90"/>
+    </row>
+    <row r="34" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="89"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+  </mergeCells>
+  <conditionalFormatting sqref="L10 V10 V17 L17 L24 V24">
+    <cfRule type="cellIs" dxfId="46" priority="6" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11 L18 L25 V25 V18 V11">
+    <cfRule type="cellIs" dxfId="44" priority="4" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12 L19 L26 V12 V19 V26">
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L13 V13 V20 L20 L27 V27">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BA53A3-896F-5548-BE26-1B0315E4CCCA}">
+  <dimension ref="A1:AA34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X19" sqref="X19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="80"/>
+    <col min="4" max="4" width="13.1640625" style="80" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="80" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" hidden="1" customWidth="1"/>
+    <col min="11" max="13" width="15.33203125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="96"/>
+    <col min="15" max="15" width="2.6640625" customWidth="1"/>
+    <col min="18" max="18" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.1640625" customWidth="1"/>
+    <col min="20" max="23" width="14.1640625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="10.83203125" style="96"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1" s="11"/>
+      <c r="B1" s="100"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="N1" s="82" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A2" s="87">
+        <v>5</v>
+      </c>
+      <c r="B2" s="101" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A3" s="104">
+        <v>4</v>
+      </c>
+      <c r="B3" s="101" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4" s="93">
+        <v>3</v>
+      </c>
+      <c r="B4" s="101" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5" s="105">
+        <v>2</v>
+      </c>
+      <c r="B5" s="101" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6" s="88">
+        <v>1</v>
+      </c>
+      <c r="B6" s="101" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D9" s="81" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="G9" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="H9" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="I9" s="95" t="s">
+        <v>182</v>
+      </c>
+      <c r="J9" s="95" t="s">
+        <v>183</v>
+      </c>
+      <c r="K9" s="95" t="s">
+        <v>184</v>
+      </c>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="O9" s="89"/>
+      <c r="P9" s="81" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q9" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="R9" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="S9" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="T9" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="U9" s="95"/>
+      <c r="V9" s="95"/>
+      <c r="W9" s="95"/>
+      <c r="X9" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y9" s="89"/>
+      <c r="Z9" s="91" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA9" s="82">
+        <f>N14+X14+N21+X21+N28+X28</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D10" s="94" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="82" t="str">
+        <f>master!B7</f>
+        <v>Netherlands</v>
+      </c>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82">
+        <f>IF(D10=E10,5,0)</f>
+        <v>5</v>
+      </c>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82">
+        <f>IF(D10=E11,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="82">
+        <f>IF(D10=E12,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="94">
+        <v>5</v>
+      </c>
+      <c r="O10" s="90"/>
+      <c r="P10" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q10" s="82" t="str">
+        <f>master!F7</f>
+        <v>England</v>
+      </c>
+      <c r="R10" s="82"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="82">
+        <f>IF(P10=Q10,5,0)</f>
+        <v>5</v>
+      </c>
+      <c r="U10" s="82"/>
+      <c r="V10" s="82"/>
+      <c r="W10" s="82"/>
+      <c r="X10" s="94">
+        <f>T10</f>
+        <v>5</v>
+      </c>
+      <c r="Y10" s="90"/>
+      <c r="Z10" s="82" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA10" s="82"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D11" s="94" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" s="82" t="str">
+        <f>master!B8</f>
+        <v>Ecuador</v>
+      </c>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82">
+        <f>IF(D11=E11,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82">
+        <f>IF(D11=E10,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="82">
+        <f>IF(D11=E12,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="N11" s="94">
+        <v>0</v>
+      </c>
+      <c r="O11" s="90"/>
+      <c r="P11" s="82" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q11" s="82" t="str">
+        <f>master!F8</f>
+        <v>USA</v>
+      </c>
+      <c r="R11" s="82"/>
+      <c r="S11" s="82"/>
+      <c r="T11" s="82">
+        <f>IF(P11=Q11,4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="U11" s="82"/>
+      <c r="V11" s="82"/>
+      <c r="W11" s="82"/>
+      <c r="X11" s="94">
+        <f t="shared" ref="X11:X13" si="0">T11</f>
+        <v>4</v>
+      </c>
+      <c r="Y11" s="90"/>
+      <c r="Z11" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA11" s="82"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D12" s="94" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" s="82" t="str">
+        <f>master!B9</f>
+        <v>Senegal</v>
+      </c>
+      <c r="F12" s="102">
+        <v>0</v>
+      </c>
+      <c r="G12" s="82">
+        <f>master!C9</f>
+        <v>1</v>
+      </c>
+      <c r="H12" s="82">
+        <f>IF(D12=E12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="82">
+        <f>IF(F12=G12,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="82">
+        <f>IF(G12=1,1,2)</f>
+        <v>1</v>
+      </c>
+      <c r="K12" s="82">
+        <f>IF(J12=1,I12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="82">
+        <f>IF(D12=E10,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="82">
+        <f>IF(D12=E11,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="N12" s="94">
+        <v>2</v>
+      </c>
+      <c r="O12" s="90"/>
+      <c r="P12" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q12" s="82" t="str">
+        <f>master!F9</f>
+        <v>Wales</v>
+      </c>
+      <c r="R12" s="102">
+        <v>1</v>
+      </c>
+      <c r="S12" s="82">
+        <f>master!G9</f>
+        <v>1</v>
+      </c>
+      <c r="T12" s="82">
+        <f>IF(P12=Q12,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U12" s="82">
+        <f>IF(R12=S12,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="V12" s="82">
+        <f>IF(S12=1,1,2)</f>
+        <v>1</v>
+      </c>
+      <c r="W12" s="82">
+        <f>IF(V12=1,U12,0)</f>
+        <v>2</v>
+      </c>
+      <c r="X12" s="94">
+        <f>T12+W12</f>
+        <v>3</v>
+      </c>
+      <c r="Y12" s="90"/>
+      <c r="Z12" s="82" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA12" s="82"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D13" s="94" t="s">
+        <v>155</v>
+      </c>
+      <c r="E13" s="82" t="str">
+        <f>master!B10</f>
+        <v>Qatar</v>
+      </c>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82">
+        <f>IF(D13=E13,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="94">
+        <v>1</v>
+      </c>
+      <c r="O13" s="90"/>
+      <c r="P13" s="82" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q13" s="82" t="str">
+        <f>master!F10</f>
+        <v>Iran</v>
+      </c>
+      <c r="R13" s="82"/>
+      <c r="S13" s="82"/>
+      <c r="T13" s="82">
+        <f>IF(P13=Q13,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U13" s="82"/>
+      <c r="V13" s="82"/>
+      <c r="W13" s="82"/>
+      <c r="X13" s="94">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y13" s="90"/>
+      <c r="Z13" s="82" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA13" s="82"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="81">
+        <f>SUM(N10:N13)</f>
+        <v>8</v>
+      </c>
+      <c r="O14" s="89"/>
+      <c r="P14" s="83"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="83"/>
+      <c r="S14" s="83"/>
+      <c r="T14" s="83"/>
+      <c r="U14" s="83"/>
+      <c r="V14" s="83"/>
+      <c r="W14" s="83"/>
+      <c r="X14" s="81">
+        <f>SUM(X10:X13)</f>
+        <v>13</v>
+      </c>
+      <c r="Y14" s="89"/>
+      <c r="Z14" s="81" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA14" s="81">
+        <f>SUM(AA9:AA13)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="90"/>
+      <c r="P15" s="80"/>
+      <c r="Q15" s="80"/>
+      <c r="R15" s="80"/>
+      <c r="S15" s="80"/>
+      <c r="T15" s="80"/>
+      <c r="U15" s="80"/>
+      <c r="V15" s="80"/>
+      <c r="W15" s="80"/>
+      <c r="X15" s="80"/>
+      <c r="Y15" s="90"/>
+      <c r="Z15" s="80"/>
+      <c r="AA15" s="80"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D16" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="F16" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="G16" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="H16" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="I16" s="95"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="P16" s="81" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q16" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="R16" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="S16" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="T16" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="U16" s="95"/>
+      <c r="V16" s="95"/>
+      <c r="W16" s="95"/>
+      <c r="X16" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z16" s="80"/>
+      <c r="AA16" s="80"/>
+    </row>
+    <row r="17" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="D17" s="82" t="s">
+        <v>162</v>
+      </c>
+      <c r="E17" s="82" t="str">
+        <f>master!B13</f>
+        <v>Argentina</v>
+      </c>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82">
+        <f>IF(D17=E17,5,0)</f>
+        <v>5</v>
+      </c>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="94">
+        <v>5</v>
+      </c>
+      <c r="P17" s="82" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q17" s="82" t="str">
+        <f>master!F13</f>
+        <v>France</v>
+      </c>
+      <c r="R17" s="82"/>
+      <c r="S17" s="82"/>
+      <c r="T17" s="82">
+        <f>IF(P17=Q17,5,0)</f>
+        <v>5</v>
+      </c>
+      <c r="U17" s="82"/>
+      <c r="V17" s="82"/>
+      <c r="W17" s="82"/>
+      <c r="X17" s="94">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="80"/>
+      <c r="AA17" s="80"/>
+    </row>
+    <row r="18" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="D18" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="E18" s="82" t="str">
+        <f>master!B14</f>
+        <v>Mexico</v>
+      </c>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82">
+        <f>IF(D18=E18,4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="94">
+        <v>4</v>
+      </c>
+      <c r="P18" s="82" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q18" s="82" t="str">
+        <f>master!F14</f>
+        <v>Denmark</v>
+      </c>
+      <c r="R18" s="82"/>
+      <c r="S18" s="82"/>
+      <c r="T18" s="82">
+        <f>IF(P18=Q18,4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="U18" s="82"/>
+      <c r="V18" s="82"/>
+      <c r="W18" s="82"/>
+      <c r="X18" s="94">
+        <v>4</v>
+      </c>
+      <c r="Z18" s="80"/>
+      <c r="AA18" s="80"/>
+    </row>
+    <row r="19" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="D19" s="82" t="s">
+        <v>164</v>
+      </c>
+      <c r="E19" s="82" t="str">
+        <f>master!B15</f>
+        <v>Poland</v>
+      </c>
+      <c r="F19" s="102">
+        <v>1</v>
+      </c>
+      <c r="G19" s="82">
+        <f>master!C15</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="82">
+        <f>IF(D19=E19,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I19" s="82">
+        <f>IF(F19=G19,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="82">
+        <f>IF(G19=1,1,2)</f>
+        <v>2</v>
+      </c>
+      <c r="K19" s="82">
+        <f>IF(J19=1,I19,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="82"/>
+      <c r="M19" s="82"/>
+      <c r="N19" s="94">
+        <v>3</v>
+      </c>
+      <c r="P19" s="82" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q19" s="82" t="str">
+        <f>master!F15</f>
+        <v>Australia</v>
+      </c>
+      <c r="R19" s="102">
+        <v>1</v>
+      </c>
+      <c r="S19" s="82">
+        <f>master!G15</f>
+        <v>1</v>
+      </c>
+      <c r="T19" s="82">
+        <f>IF(P19=Q19,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="82">
+        <f>IF(R19=S19,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="V19" s="82">
+        <f>IF(S19=1,1,2)</f>
+        <v>1</v>
+      </c>
+      <c r="W19" s="82">
+        <f>IF(V19=1,U19,0)</f>
+        <v>2</v>
+      </c>
+      <c r="X19" s="94"/>
+      <c r="Z19" s="80"/>
+      <c r="AA19" s="80"/>
+    </row>
+    <row r="20" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="D20" s="82" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" s="82" t="str">
+        <f>master!B16</f>
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82">
+        <f>IF(D20=E20,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="82"/>
+      <c r="N20" s="94">
+        <v>1</v>
+      </c>
+      <c r="P20" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q20" s="82" t="str">
+        <f>master!F16</f>
+        <v>Tunisia</v>
+      </c>
+      <c r="R20" s="82"/>
+      <c r="S20" s="82"/>
+      <c r="T20" s="82">
+        <f>IF(P20=Q20,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="82"/>
+      <c r="V20" s="82"/>
+      <c r="W20" s="82"/>
+      <c r="X20" s="94"/>
+      <c r="Z20" s="80"/>
+      <c r="AA20" s="80"/>
+    </row>
+    <row r="21" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="83"/>
+      <c r="L21" s="83"/>
+      <c r="M21" s="83"/>
+      <c r="N21" s="99">
+        <f>SUM(N17:N20)</f>
+        <v>13</v>
+      </c>
+      <c r="P21" s="98"/>
+      <c r="Q21" s="80"/>
+      <c r="R21" s="80"/>
+      <c r="S21" s="80"/>
+      <c r="T21" s="80"/>
+      <c r="U21" s="80"/>
+      <c r="V21" s="80"/>
+      <c r="W21" s="80"/>
+      <c r="X21" s="81">
+        <f>SUM(X17:X20)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="D23" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="F23" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="G23" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="H23" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="I23" s="95"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="O23" s="89"/>
+      <c r="P23" s="81" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q23" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="R23" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="S23" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="T23" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="U23" s="95"/>
+      <c r="V23" s="95"/>
+      <c r="W23" s="95"/>
+      <c r="X23" s="81" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="D24" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="E24" s="82" t="str">
+        <f>master!B19</f>
+        <v>Germany</v>
+      </c>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82">
+        <f>IF(D24=E24,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="94">
+        <v>2</v>
+      </c>
+      <c r="O24" s="90"/>
+      <c r="P24" s="82" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q24" s="82" t="str">
+        <f>master!F19</f>
+        <v>Belgium</v>
+      </c>
+      <c r="R24" s="82"/>
+      <c r="S24" s="82"/>
+      <c r="T24" s="82">
+        <f>IF(P24=Q24,5,0)</f>
+        <v>5</v>
+      </c>
+      <c r="U24" s="82"/>
+      <c r="V24" s="82"/>
+      <c r="W24" s="82"/>
+      <c r="X24" s="94">
+        <f>T24</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="D25" s="82" t="s">
+        <v>171</v>
+      </c>
+      <c r="E25" s="82" t="str">
+        <f>master!B20</f>
+        <v>Spain</v>
+      </c>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82">
+        <f>IF(D25=E25,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
+      <c r="M25" s="82"/>
+      <c r="N25" s="94">
+        <v>2</v>
+      </c>
+      <c r="O25" s="90"/>
+      <c r="P25" s="82" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q25" s="82" t="str">
+        <f>master!F20</f>
+        <v>Croatia</v>
+      </c>
+      <c r="R25" s="82"/>
+      <c r="S25" s="82"/>
+      <c r="T25" s="82">
+        <f>IF(P25=Q25,4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="U25" s="82"/>
+      <c r="V25" s="82"/>
+      <c r="W25" s="82"/>
+      <c r="X25" s="94">
+        <f t="shared" ref="X25:X27" si="1">T25</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="D26" s="82" t="s">
+        <v>172</v>
+      </c>
+      <c r="E26" s="82" t="str">
+        <f>master!B21</f>
+        <v>Japan</v>
+      </c>
+      <c r="F26" s="102">
+        <v>0</v>
+      </c>
+      <c r="G26" s="82">
+        <f>master!C21</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="82">
+        <f>IF(D26=E26,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I26" s="82">
+        <f>IF(F26=G26,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="J26" s="82">
+        <f>IF(G26=1,1,2)</f>
+        <v>2</v>
+      </c>
+      <c r="K26" s="82">
+        <f>IF(J26=1,I26,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="94">
+        <v>1</v>
+      </c>
+      <c r="O26" s="90"/>
+      <c r="P26" s="82" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q26" s="82" t="str">
+        <f>master!F21</f>
+        <v>Morocco</v>
+      </c>
+      <c r="R26" s="102">
+        <v>1</v>
+      </c>
+      <c r="S26" s="82">
+        <f>master!G21</f>
+        <v>1</v>
+      </c>
+      <c r="T26" s="82">
+        <f>IF(P26=Q26,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U26" s="82">
+        <f>IF(R26=S26,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="V26" s="82">
+        <f>IF(S26=1,1,2)</f>
+        <v>1</v>
+      </c>
+      <c r="W26" s="82">
+        <f>IF(V26=1,U26,0)</f>
+        <v>2</v>
+      </c>
+      <c r="X26" s="94">
+        <f>T26+W26</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="D27" s="82" t="s">
+        <v>173</v>
+      </c>
+      <c r="E27" s="82" t="str">
+        <f>master!B22</f>
+        <v>Costa Rica</v>
+      </c>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82">
+        <f>IF(D27=E27,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="94">
+        <v>1</v>
+      </c>
+      <c r="O27" s="90"/>
+      <c r="P27" s="82" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q27" s="82" t="str">
+        <f>master!F22</f>
+        <v>Canada</v>
+      </c>
+      <c r="R27" s="82"/>
+      <c r="S27" s="82"/>
+      <c r="T27" s="82">
+        <f>IF(P27=Q27,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U27" s="82"/>
+      <c r="V27" s="82"/>
+      <c r="W27" s="82"/>
+      <c r="X27" s="94">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="80"/>
+      <c r="N28" s="81">
+        <f t="shared" ref="N28:X28" si="2">SUM(N24:N27)</f>
+        <v>6</v>
+      </c>
+      <c r="O28" s="89"/>
+      <c r="P28" s="80"/>
+      <c r="Q28" s="80"/>
+      <c r="R28" s="80"/>
+      <c r="S28" s="80"/>
+      <c r="T28" s="80"/>
+      <c r="U28" s="80"/>
+      <c r="V28" s="80"/>
+      <c r="W28" s="80"/>
+      <c r="X28" s="99">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="O29" s="89"/>
+    </row>
+    <row r="30" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="O30" s="90"/>
+    </row>
+    <row r="31" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="O31" s="90"/>
+    </row>
+    <row r="32" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="O32" s="90"/>
+    </row>
+    <row r="33" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O33" s="90"/>
+    </row>
+    <row r="34" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="89"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+  </mergeCells>
+  <conditionalFormatting sqref="N10 X10 X17 N17 N24 X24">
+    <cfRule type="cellIs" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="14" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N18 N25 X25 X18 X11">
+    <cfRule type="cellIs" dxfId="39" priority="13" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N13 X13 X20 N20 N27 X27">
+    <cfRule type="cellIs" priority="6" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="10" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N11">
+    <cfRule type="cellIs" dxfId="35" priority="9" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N25 N18 N11 X11 X18 X25">
+    <cfRule type="cellIs" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N11 X11 X25 N18 N25">
+    <cfRule type="cellIs" dxfId="34" priority="5" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N26 X26 X19 N19 N12 X12">
+    <cfRule type="cellIs" dxfId="32" priority="4" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N24 N17 N10 X10 X17 X24">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3292362C-0E51-2145-8D28-B6F8E9B96320}">
+  <dimension ref="A1:AA34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X28" sqref="X28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="80"/>
+    <col min="4" max="4" width="13.1640625" style="80" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="80" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" hidden="1" customWidth="1"/>
+    <col min="11" max="13" width="15.33203125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="96"/>
+    <col min="15" max="15" width="2.6640625" customWidth="1"/>
+    <col min="18" max="18" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.1640625" customWidth="1"/>
+    <col min="20" max="23" width="14.1640625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="10.83203125" style="96"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1" s="11"/>
+      <c r="B1" s="100"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="N1" s="82" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A2" s="87">
+        <v>5</v>
+      </c>
+      <c r="B2" s="101" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A3" s="104">
+        <v>4</v>
+      </c>
+      <c r="B3" s="101" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4" s="93">
+        <v>3</v>
+      </c>
+      <c r="B4" s="101" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5" s="105">
+        <v>2</v>
+      </c>
+      <c r="B5" s="101" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6" s="88">
+        <v>1</v>
+      </c>
+      <c r="B6" s="101" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D9" s="81" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="G9" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="H9" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="I9" s="95" t="s">
+        <v>182</v>
+      </c>
+      <c r="J9" s="95" t="s">
+        <v>183</v>
+      </c>
+      <c r="K9" s="95" t="s">
+        <v>184</v>
+      </c>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="O9" s="89"/>
+      <c r="P9" s="81" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q9" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="R9" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="S9" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="T9" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="U9" s="95"/>
+      <c r="V9" s="95"/>
+      <c r="W9" s="95"/>
+      <c r="X9" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y9" s="89"/>
+      <c r="Z9" s="91" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA9" s="82">
+        <f>N14+X14+N21+X21+N28+X28</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D10" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" s="82" t="str">
+        <f>master!B7</f>
+        <v>Netherlands</v>
+      </c>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82">
+        <f>IF(D10=E10,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82">
+        <f>IF(D10=E11,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="M10" s="82">
+        <f>IF(D10=E12,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="94">
+        <v>0</v>
+      </c>
+      <c r="O10" s="90"/>
+      <c r="P10" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q10" s="82" t="str">
+        <f>master!F7</f>
+        <v>England</v>
+      </c>
+      <c r="R10" s="82"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="82">
+        <f>IF(P10=Q10,5,0)</f>
+        <v>5</v>
+      </c>
+      <c r="U10" s="82"/>
+      <c r="V10" s="82"/>
+      <c r="W10" s="82"/>
+      <c r="X10" s="94">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="90"/>
+      <c r="Z10" s="82" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA10" s="82"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D11" s="82" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" s="82" t="str">
+        <f>master!B8</f>
+        <v>Ecuador</v>
+      </c>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82">
+        <f>IF(D11=E11,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82">
+        <f>IF(D11=E10,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="82">
+        <f>IF(D11=E12,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="N11" s="94">
+        <v>2</v>
+      </c>
+      <c r="O11" s="90"/>
+      <c r="P11" s="82" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q11" s="82" t="str">
+        <f>master!F8</f>
+        <v>USA</v>
+      </c>
+      <c r="R11" s="82"/>
+      <c r="S11" s="82"/>
+      <c r="T11" s="82">
+        <f>IF(P11=Q11,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="82"/>
+      <c r="V11" s="82"/>
+      <c r="W11" s="82"/>
+      <c r="X11" s="94">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="90"/>
+      <c r="Z11" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA11" s="82"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D12" s="82" t="s">
+        <v>155</v>
+      </c>
+      <c r="E12" s="82" t="str">
+        <f>master!B9</f>
+        <v>Senegal</v>
+      </c>
+      <c r="F12" s="102">
+        <v>0</v>
+      </c>
+      <c r="G12" s="82">
+        <f>master!C9</f>
+        <v>1</v>
+      </c>
+      <c r="H12" s="82">
+        <f>IF(D12=E12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="82">
+        <f>IF(F12=G12,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="82">
+        <f>IF(G12=1,1,2)</f>
+        <v>1</v>
+      </c>
+      <c r="K12" s="82">
+        <f>IF(J12=1,I12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="82">
+        <f>IF(D12=E10,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="82">
+        <f>IF(D12=E11,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="94">
+        <v>2</v>
+      </c>
+      <c r="O12" s="90"/>
+      <c r="P12" s="82" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q12" s="82" t="str">
+        <f>master!F9</f>
+        <v>Wales</v>
+      </c>
+      <c r="R12" s="102">
+        <v>0</v>
+      </c>
+      <c r="S12" s="82">
+        <f>master!G9</f>
+        <v>1</v>
+      </c>
+      <c r="T12" s="82">
+        <f>IF(P12=Q12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="82">
+        <f>IF(R12=S12,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V12" s="82">
+        <f>IF(S12=1,1,2)</f>
+        <v>1</v>
+      </c>
+      <c r="W12" s="82">
+        <f>IF(V12=1,U12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="94">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="90"/>
+      <c r="Z12" s="82" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA12" s="82"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D13" s="82" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" s="82" t="str">
+        <f>master!B10</f>
+        <v>Qatar</v>
+      </c>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82">
+        <f>IF(D13=E13,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="94">
+        <v>0</v>
+      </c>
+      <c r="O13" s="90"/>
+      <c r="P13" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q13" s="82" t="str">
+        <f>master!F10</f>
+        <v>Iran</v>
+      </c>
+      <c r="R13" s="82"/>
+      <c r="S13" s="82"/>
+      <c r="T13" s="82">
+        <f>IF(P13=Q13,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="82"/>
+      <c r="V13" s="82"/>
+      <c r="W13" s="82"/>
+      <c r="X13" s="94">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="90"/>
+      <c r="Z13" s="82" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA13" s="82"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="81">
+        <f>SUM(N10:N13)</f>
+        <v>4</v>
+      </c>
+      <c r="O14" s="89"/>
+      <c r="P14" s="83"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="83"/>
+      <c r="S14" s="83"/>
+      <c r="T14" s="83"/>
+      <c r="U14" s="83"/>
+      <c r="V14" s="83"/>
+      <c r="W14" s="83"/>
+      <c r="X14" s="81">
+        <f>SUM(X10:X13)</f>
+        <v>5</v>
+      </c>
+      <c r="Y14" s="89"/>
+      <c r="Z14" s="81" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA14" s="81">
+        <f>SUM(AA9:AA13)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="90"/>
+      <c r="P15" s="80"/>
+      <c r="Q15" s="80"/>
+      <c r="R15" s="80"/>
+      <c r="S15" s="80"/>
+      <c r="T15" s="80"/>
+      <c r="U15" s="80"/>
+      <c r="V15" s="80"/>
+      <c r="W15" s="80"/>
+      <c r="X15" s="80"/>
+      <c r="Y15" s="90"/>
+      <c r="Z15" s="80"/>
+      <c r="AA15" s="80"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D16" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="F16" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="G16" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="H16" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="I16" s="95"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="P16" s="81" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q16" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="R16" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="S16" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="T16" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="U16" s="95"/>
+      <c r="V16" s="95"/>
+      <c r="W16" s="95"/>
+      <c r="X16" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z16" s="80"/>
+      <c r="AA16" s="80"/>
+    </row>
+    <row r="17" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="D17" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="E17" s="82" t="str">
+        <f>master!B13</f>
+        <v>Argentina</v>
+      </c>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82">
+        <f>IF(D17=E17,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="94">
+        <v>0</v>
+      </c>
+      <c r="P17" s="82" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q17" s="82" t="str">
+        <f>master!F13</f>
+        <v>France</v>
+      </c>
+      <c r="R17" s="82"/>
+      <c r="S17" s="82"/>
+      <c r="T17" s="82">
+        <f>IF(P17=Q17,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="82"/>
+      <c r="V17" s="82"/>
+      <c r="W17" s="82"/>
+      <c r="X17" s="94">
+        <v>2</v>
+      </c>
+      <c r="Z17" s="80"/>
+      <c r="AA17" s="80"/>
+    </row>
+    <row r="18" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="D18" s="82" t="s">
+        <v>164</v>
+      </c>
+      <c r="E18" s="82" t="str">
+        <f>master!B14</f>
+        <v>Mexico</v>
+      </c>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82">
+        <f>IF(D18=E18,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="94">
+        <v>2</v>
+      </c>
+      <c r="P18" s="82" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q18" s="82" t="str">
+        <f>master!F14</f>
+        <v>Denmark</v>
+      </c>
+      <c r="R18" s="82"/>
+      <c r="S18" s="82"/>
+      <c r="T18" s="82">
+        <f>IF(P18=Q18,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U18" s="82"/>
+      <c r="V18" s="82"/>
+      <c r="W18" s="82"/>
+      <c r="X18" s="94">
+        <v>2</v>
+      </c>
+      <c r="Z18" s="80"/>
+      <c r="AA18" s="80"/>
+    </row>
+    <row r="19" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="D19" s="82" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" s="82" t="str">
+        <f>master!B15</f>
+        <v>Poland</v>
+      </c>
+      <c r="F19" s="102">
+        <v>1</v>
+      </c>
+      <c r="G19" s="82">
+        <f>master!C15</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="82">
+        <f>IF(D19=E19,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="82">
+        <f>IF(F19=G19,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="82">
+        <f>IF(G19=1,1,2)</f>
+        <v>2</v>
+      </c>
+      <c r="K19" s="82">
+        <f>IF(J19=1,I19,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="82"/>
+      <c r="M19" s="82"/>
+      <c r="N19" s="94">
+        <v>2</v>
+      </c>
+      <c r="P19" s="82" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q19" s="82" t="str">
+        <f>master!F15</f>
+        <v>Australia</v>
+      </c>
+      <c r="R19" s="102">
+        <v>1</v>
+      </c>
+      <c r="S19" s="82">
+        <f>master!G15</f>
+        <v>1</v>
+      </c>
+      <c r="T19" s="82">
+        <f>IF(P19=Q19,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="82">
+        <f>IF(R19=S19,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="V19" s="82">
+        <f>IF(S19=1,1,2)</f>
+        <v>1</v>
+      </c>
+      <c r="W19" s="82">
+        <f>IF(V19=1,U19,0)</f>
+        <v>2</v>
+      </c>
+      <c r="X19" s="94">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="80"/>
+      <c r="AA19" s="80"/>
+    </row>
+    <row r="20" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="D20" s="82" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" s="82" t="str">
+        <f>master!B16</f>
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82">
+        <f>IF(D20=E20,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="82"/>
+      <c r="N20" s="94">
+        <v>0</v>
+      </c>
+      <c r="P20" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q20" s="82" t="str">
+        <f>master!F16</f>
+        <v>Tunisia</v>
+      </c>
+      <c r="R20" s="82"/>
+      <c r="S20" s="82"/>
+      <c r="T20" s="82">
+        <f>IF(P20=Q20,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="82"/>
+      <c r="V20" s="82"/>
+      <c r="W20" s="82"/>
+      <c r="X20" s="94">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="80"/>
+      <c r="AA20" s="80"/>
+    </row>
+    <row r="21" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="83"/>
+      <c r="L21" s="83"/>
+      <c r="M21" s="83"/>
+      <c r="N21" s="99">
+        <f>SUM(N17:N20)</f>
+        <v>4</v>
+      </c>
+      <c r="P21" s="98"/>
+      <c r="Q21" s="80"/>
+      <c r="R21" s="80"/>
+      <c r="S21" s="80"/>
+      <c r="T21" s="80"/>
+      <c r="U21" s="80"/>
+      <c r="V21" s="80"/>
+      <c r="W21" s="80"/>
+      <c r="X21" s="81">
+        <f>SUM(X17:X20)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="D23" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="F23" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="G23" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="H23" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="I23" s="95"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="O23" s="89"/>
+      <c r="P23" s="81" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q23" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="R23" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="S23" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="T23" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="U23" s="95"/>
+      <c r="V23" s="95"/>
+      <c r="W23" s="95"/>
+      <c r="X23" s="81" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="D24" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="E24" s="82" t="str">
+        <f>master!B19</f>
+        <v>Germany</v>
+      </c>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82">
+        <f>IF(D24=E24,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="94">
+        <v>2</v>
+      </c>
+      <c r="O24" s="90"/>
+      <c r="P24" s="82" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q24" s="82" t="str">
+        <f>master!F19</f>
+        <v>Belgium</v>
+      </c>
+      <c r="R24" s="82"/>
+      <c r="S24" s="82"/>
+      <c r="T24" s="82">
+        <f>IF(P24=Q24,5,0)</f>
+        <v>5</v>
+      </c>
+      <c r="U24" s="82"/>
+      <c r="V24" s="82"/>
+      <c r="W24" s="82"/>
+      <c r="X24" s="94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="D25" s="82" t="s">
+        <v>173</v>
+      </c>
+      <c r="E25" s="82" t="str">
+        <f>master!B20</f>
+        <v>Spain</v>
+      </c>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82">
+        <f>IF(D25=E25,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
+      <c r="M25" s="82"/>
+      <c r="N25" s="94">
+        <v>2</v>
+      </c>
+      <c r="O25" s="90"/>
+      <c r="P25" s="82" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q25" s="82" t="str">
+        <f>master!F20</f>
+        <v>Croatia</v>
+      </c>
+      <c r="R25" s="82"/>
+      <c r="S25" s="82"/>
+      <c r="T25" s="82">
+        <f>IF(P25=Q25,4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="U25" s="82"/>
+      <c r="V25" s="82"/>
+      <c r="W25" s="82"/>
+      <c r="X25" s="94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="D26" s="82" t="s">
+        <v>171</v>
+      </c>
+      <c r="E26" s="82" t="str">
+        <f>master!B21</f>
+        <v>Japan</v>
+      </c>
+      <c r="F26" s="102">
+        <v>1</v>
+      </c>
+      <c r="G26" s="82">
+        <f>master!C21</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="82">
+        <f>IF(D26=E26,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="82">
+        <f>IF(F26=G26,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="82">
+        <f>IF(G26=1,1,2)</f>
+        <v>2</v>
+      </c>
+      <c r="K26" s="82">
+        <f>IF(J26=1,I26,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="94">
+        <v>0</v>
+      </c>
+      <c r="O26" s="90"/>
+      <c r="P26" s="82" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q26" s="82" t="str">
+        <f>master!F21</f>
+        <v>Morocco</v>
+      </c>
+      <c r="R26" s="102">
+        <v>1</v>
+      </c>
+      <c r="S26" s="82">
+        <f>master!G21</f>
+        <v>1</v>
+      </c>
+      <c r="T26" s="82">
+        <f>IF(P26=Q26,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U26" s="82">
+        <f>IF(R26=S26,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="V26" s="82">
+        <f>IF(S26=1,1,2)</f>
+        <v>1</v>
+      </c>
+      <c r="W26" s="82">
+        <f>IF(V26=1,U26,0)</f>
+        <v>2</v>
+      </c>
+      <c r="X26" s="94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="D27" s="82" t="s">
+        <v>172</v>
+      </c>
+      <c r="E27" s="82" t="str">
+        <f>master!B22</f>
+        <v>Costa Rica</v>
+      </c>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82">
+        <f>IF(D27=E27,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="94">
+        <v>0</v>
+      </c>
+      <c r="O27" s="90"/>
+      <c r="P27" s="82" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q27" s="82" t="str">
+        <f>master!F22</f>
+        <v>Canada</v>
+      </c>
+      <c r="R27" s="82"/>
+      <c r="S27" s="82"/>
+      <c r="T27" s="82">
+        <f>IF(P27=Q27,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U27" s="82"/>
+      <c r="V27" s="82"/>
+      <c r="W27" s="82"/>
+      <c r="X27" s="94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="80"/>
+      <c r="N28" s="81">
+        <f t="shared" ref="N28:X28" si="0">SUM(N24:N27)</f>
+        <v>4</v>
+      </c>
+      <c r="O28" s="89"/>
+      <c r="P28" s="80"/>
+      <c r="Q28" s="80"/>
+      <c r="R28" s="80"/>
+      <c r="S28" s="80"/>
+      <c r="T28" s="80"/>
+      <c r="U28" s="80"/>
+      <c r="V28" s="80"/>
+      <c r="W28" s="80"/>
+      <c r="X28" s="99">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="O29" s="89"/>
+    </row>
+    <row r="30" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="O30" s="90"/>
+    </row>
+    <row r="31" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="O31" s="90"/>
+    </row>
+    <row r="32" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="O32" s="90"/>
+    </row>
+    <row r="33" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O33" s="90"/>
+    </row>
+    <row r="34" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="89"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+  </mergeCells>
+  <conditionalFormatting sqref="N10 X10 X17 N17 N24 X24">
+    <cfRule type="cellIs" priority="9" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="13" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N18 N25 X25 X18 X11">
+    <cfRule type="cellIs" dxfId="28" priority="12" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N13 X13 X20 N20 N27 X27">
+    <cfRule type="cellIs" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N11">
+    <cfRule type="cellIs" dxfId="26" priority="10" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N25 N18 N11 X11 X18 X25">
+    <cfRule type="cellIs" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N11 X11 X25 N18 N25">
+    <cfRule type="cellIs" dxfId="25" priority="6" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N26 X26 X19 N19 N12 X12">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="5" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N24 N17 N10 X10 X17 X24">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X18">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel-docs/euro - lifecycle info.xlsx
+++ b/excel-docs/euro - lifecycle info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseph.collins/Documents/personal-projects/euro/2024_euro/excel-docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B071C7-667F-A549-B42A-879E2BB7D8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB45C74-F9F8-E949-ACCA-42E26FFE96FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="24640" windowHeight="20120" activeTab="10" xr2:uid="{D89656BD-B983-D041-A997-C1184058734E}"/>
+    <workbookView xWindow="34560" yWindow="500" windowWidth="38400" windowHeight="21100" firstSheet="4" activeTab="10" xr2:uid="{D89656BD-B983-D041-A997-C1184058734E}"/>
   </bookViews>
   <sheets>
     <sheet name="life cycle actions" sheetId="6" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="196">
   <si>
     <t>need to submit a number for tiebreaker score</t>
   </si>
@@ -690,12 +690,45 @@
   <si>
     <t>pts for advancing</t>
   </si>
+  <si>
+    <t>finishes 2nd</t>
+  </si>
+  <si>
+    <t>finishes 3rd and advances</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user 2nd ranked team </t>
+  </si>
+  <si>
+    <t xml:space="preserve">user 1st ranked team </t>
+  </si>
+  <si>
+    <t>finishes 1st</t>
+  </si>
+  <si>
+    <t>sarah - group B</t>
+  </si>
+  <si>
+    <t>anthony - group E</t>
+  </si>
+  <si>
+    <t>kevin - group A</t>
+  </si>
+  <si>
+    <t>user 3rd ranked team to advance</t>
+  </si>
+  <si>
+    <t>kevin - group E</t>
+  </si>
+  <si>
+    <t>kevin - group D</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -788,6 +821,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -997,7 +1038,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1134,6 +1175,46 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1182,108 +1263,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF2FB7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="33">
     <dxf>
       <fill>
         <patternFill>
@@ -1308,14 +1293,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFBE1FFF"/>
+          <bgColor rgb="FFFF2FB7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FFBE1FFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1329,161 +1314,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF2FB7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE1FFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE1FFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF2FB7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE1FFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE1FFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF2FB7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1518,6 +1349,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFBE1FFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1526,6 +1378,83 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFBE1FFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF2FB7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE1FFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE1FFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF2FB7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE1FFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1561,13 +1490,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFBE1FFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1924,7 +1846,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="67">
+      <c r="A2" s="85">
         <v>1</v>
       </c>
       <c r="B2" s="33" t="s">
@@ -1932,25 +1854,25 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="68"/>
+      <c r="A3" s="86"/>
       <c r="B3" s="32" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="68"/>
+      <c r="A4" s="86"/>
       <c r="B4" s="32" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="68"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="32" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="69"/>
+      <c r="A6" s="87"/>
       <c r="B6" s="32" t="s">
         <v>16</v>
       </c>
@@ -1960,7 +1882,7 @@
       <c r="B7" s="15"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="65">
+      <c r="A8" s="83">
         <v>2</v>
       </c>
       <c r="B8" s="32" t="s">
@@ -1968,7 +1890,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="66"/>
+      <c r="A9" s="84"/>
       <c r="B9" s="33" t="s">
         <v>94</v>
       </c>
@@ -1978,7 +1900,7 @@
       <c r="B10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="64">
+      <c r="A11" s="82">
         <v>3</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -1986,79 +1908,79 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="64"/>
+      <c r="A12" s="82"/>
       <c r="B12" s="23" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="64"/>
+      <c r="A13" s="82"/>
       <c r="B13" s="23" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="64"/>
+      <c r="A14" s="82"/>
       <c r="B14" s="34" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="64"/>
+      <c r="A15" s="82"/>
       <c r="B15" s="34" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="64"/>
+      <c r="A16" s="82"/>
       <c r="B16" s="34" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="64"/>
+      <c r="A17" s="82"/>
       <c r="B17" s="34" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="64"/>
+      <c r="A18" s="82"/>
       <c r="B18" s="34" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="64"/>
+      <c r="A19" s="82"/>
       <c r="B19" s="34" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="64"/>
+      <c r="A20" s="82"/>
       <c r="B20" s="34" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="64"/>
+      <c r="A21" s="82"/>
       <c r="B21" s="34" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="64"/>
+      <c r="A22" s="82"/>
       <c r="B22" s="34" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="64"/>
+      <c r="A23" s="82"/>
       <c r="B23" s="34" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="64"/>
+      <c r="A24" s="82"/>
       <c r="B24" s="34" t="s">
         <v>64</v>
       </c>
@@ -2068,7 +1990,7 @@
       <c r="B25" s="7"/>
     </row>
     <row r="26" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A26" s="64">
+      <c r="A26" s="82">
         <v>4</v>
       </c>
       <c r="B26" s="10" t="s">
@@ -2076,61 +1998,61 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="24" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="64"/>
+      <c r="A27" s="82"/>
       <c r="B27" s="23" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="24" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="64"/>
+      <c r="A28" s="82"/>
       <c r="B28" s="23" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="64"/>
+      <c r="A29" s="82"/>
       <c r="B29" s="21" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="64"/>
+      <c r="A30" s="82"/>
       <c r="B30" s="34" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="64"/>
+      <c r="A31" s="82"/>
       <c r="B31" s="34" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="64"/>
+      <c r="A32" s="82"/>
       <c r="B32" s="34" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="64"/>
+      <c r="A33" s="82"/>
       <c r="B33" s="34" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="64"/>
+      <c r="A34" s="82"/>
       <c r="B34" s="34" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="64"/>
+      <c r="A35" s="82"/>
       <c r="B35" s="34" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="64"/>
+      <c r="A36" s="82"/>
       <c r="B36" s="34" t="s">
         <v>64</v>
       </c>
@@ -2498,1080 +2420,1074 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC49F1C-9819-6A4D-BA8A-D847526C8B5C}">
   <dimension ref="A1:AA34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X28" sqref="X28"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="80"/>
-    <col min="4" max="4" width="13.1640625" style="80" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" style="80" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="64"/>
+    <col min="4" max="4" width="13.1640625" style="64" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="64" customWidth="1"/>
     <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.5" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="14.1640625" hidden="1" customWidth="1"/>
     <col min="11" max="13" width="15.33203125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="96"/>
     <col min="15" max="15" width="2.6640625" customWidth="1"/>
     <col min="18" max="18" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.1640625" customWidth="1"/>
     <col min="20" max="23" width="14.1640625" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="10.83203125" style="96"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="11"/>
-      <c r="B1" s="100"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="N1" s="82" t="s">
+      <c r="B1" s="75"/>
+      <c r="N1" s="66" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="87">
+      <c r="A2" s="70">
         <v>5</v>
       </c>
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="98" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="82">
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="66">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="104">
+      <c r="A3" s="78">
         <v>4</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="98" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="82">
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="66">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="93">
+      <c r="A4" s="73">
         <v>3</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="98" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="82">
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="66">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="105">
+      <c r="A5" s="79">
         <v>2</v>
       </c>
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="97"/>
-      <c r="N5" s="82">
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="66">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="88">
-        <v>1</v>
-      </c>
-      <c r="B6" s="101" t="s">
+      <c r="A6" s="71">
+        <v>1</v>
+      </c>
+      <c r="B6" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
-      <c r="N6" s="82">
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="66">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="E9" s="81" t="s">
+      <c r="E9" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="F9" s="81" t="s">
+      <c r="F9" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="G9" s="81" t="s">
+      <c r="G9" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="H9" s="95" t="s">
+      <c r="H9" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="I9" s="95" t="s">
+      <c r="I9" s="65" t="s">
         <v>182</v>
       </c>
-      <c r="J9" s="95" t="s">
+      <c r="J9" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="K9" s="95" t="s">
+      <c r="K9" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="L9" s="95"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="81" t="s">
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="O9" s="89"/>
-      <c r="P9" s="81" t="s">
+      <c r="O9" s="67"/>
+      <c r="P9" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="Q9" s="81" t="s">
+      <c r="Q9" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="R9" s="81" t="s">
+      <c r="R9" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="S9" s="81" t="s">
+      <c r="S9" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="T9" s="95" t="s">
+      <c r="T9" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="U9" s="95"/>
-      <c r="V9" s="95"/>
-      <c r="W9" s="95"/>
-      <c r="X9" s="81" t="s">
+      <c r="U9" s="65"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="Y9" s="89"/>
-      <c r="Z9" s="91" t="s">
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="AA9" s="82">
+      <c r="AA9" s="66">
         <f>N14+X14+N21+X21+N28+X28</f>
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D10" s="82" t="s">
+      <c r="D10" s="66" t="s">
         <v>156</v>
       </c>
-      <c r="E10" s="82" t="str">
+      <c r="E10" s="66" t="str">
         <f>master!B7</f>
         <v>Netherlands</v>
       </c>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82">
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66">
         <f>IF(D10=E10,5,0)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82">
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66">
         <f>IF(D10=E11,2,0)</f>
         <v>2</v>
       </c>
-      <c r="M10" s="82">
+      <c r="M10" s="66">
         <f>IF(D10=E12,2,0)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="94">
+      <c r="N10" s="66">
         <v>2</v>
       </c>
-      <c r="O10" s="90"/>
-      <c r="P10" s="82" t="s">
+      <c r="O10" s="64"/>
+      <c r="P10" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="Q10" s="82" t="str">
+      <c r="Q10" s="66" t="str">
         <f>master!F7</f>
         <v>England</v>
       </c>
-      <c r="R10" s="82"/>
-      <c r="S10" s="82"/>
-      <c r="T10" s="82">
+      <c r="R10" s="66"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="66">
         <f>IF(P10=Q10,5,0)</f>
         <v>0</v>
       </c>
-      <c r="U10" s="82"/>
-      <c r="V10" s="82"/>
-      <c r="W10" s="82"/>
-      <c r="X10" s="94">
+      <c r="U10" s="66"/>
+      <c r="V10" s="66"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="66">
         <v>2</v>
       </c>
-      <c r="Y10" s="90"/>
-      <c r="Z10" s="82" t="s">
+      <c r="Y10" s="64"/>
+      <c r="Z10" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="AA10" s="82"/>
+      <c r="AA10" s="66"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D11" s="82" t="s">
+      <c r="D11" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="E11" s="82" t="str">
+      <c r="E11" s="66" t="str">
         <f>master!B8</f>
         <v>Ecuador</v>
       </c>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82">
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66">
         <f>IF(D11=E11,4,0)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82">
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66">
         <f>IF(D11=E10,2,0)</f>
         <v>0</v>
       </c>
-      <c r="M11" s="82">
+      <c r="M11" s="66">
         <f>IF(D11=E12,2,0)</f>
         <v>0</v>
       </c>
-      <c r="N11" s="94">
-        <v>2</v>
-      </c>
-      <c r="O11" s="90"/>
-      <c r="P11" s="82" t="s">
+      <c r="N11" s="66">
+        <v>0</v>
+      </c>
+      <c r="O11" s="64"/>
+      <c r="P11" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="Q11" s="82" t="str">
+      <c r="Q11" s="66" t="str">
         <f>master!F8</f>
         <v>USA</v>
       </c>
-      <c r="R11" s="82"/>
-      <c r="S11" s="82"/>
-      <c r="T11" s="82">
+      <c r="R11" s="66"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="66">
         <f>IF(P11=Q11,4,0)</f>
         <v>4</v>
       </c>
-      <c r="U11" s="82"/>
-      <c r="V11" s="82"/>
-      <c r="W11" s="82"/>
-      <c r="X11" s="94">
+      <c r="U11" s="66"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="66"/>
+      <c r="X11" s="66">
         <v>4</v>
       </c>
-      <c r="Y11" s="90"/>
-      <c r="Z11" s="82" t="s">
+      <c r="Y11" s="64"/>
+      <c r="Z11" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="AA11" s="82"/>
+      <c r="AA11" s="66"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D12" s="82" t="s">
+      <c r="D12" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="E12" s="82" t="str">
+      <c r="E12" s="66" t="str">
         <f>master!B9</f>
         <v>Senegal</v>
       </c>
-      <c r="F12" s="102">
-        <v>1</v>
-      </c>
-      <c r="G12" s="82">
+      <c r="F12" s="76">
+        <v>1</v>
+      </c>
+      <c r="G12" s="66">
         <f>master!C9</f>
         <v>1</v>
       </c>
-      <c r="H12" s="82">
+      <c r="H12" s="66">
         <f>IF(D12=E12,1,0)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="82">
+      <c r="I12" s="66">
         <f>IF(F12=G12,2,0)</f>
         <v>2</v>
       </c>
-      <c r="J12" s="82">
+      <c r="J12" s="66">
         <f>IF(G12=1,1,2)</f>
         <v>1</v>
       </c>
-      <c r="K12" s="82">
+      <c r="K12" s="66">
         <f>IF(J12=1,I12,0)</f>
         <v>2</v>
       </c>
-      <c r="L12" s="82">
+      <c r="L12" s="66">
         <f>IF(D12=E10,2,0)</f>
         <v>2</v>
       </c>
-      <c r="M12" s="82">
+      <c r="M12" s="66">
         <f>IF(D12=E11,2,0)</f>
         <v>0</v>
       </c>
-      <c r="N12" s="94">
-        <v>0</v>
-      </c>
-      <c r="O12" s="90"/>
-      <c r="P12" s="82" t="s">
+      <c r="N12" s="66">
+        <v>2</v>
+      </c>
+      <c r="O12" s="64"/>
+      <c r="P12" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="Q12" s="82" t="str">
+      <c r="Q12" s="66" t="str">
         <f>master!F9</f>
         <v>Wales</v>
       </c>
-      <c r="R12" s="102">
-        <v>1</v>
-      </c>
-      <c r="S12" s="82">
+      <c r="R12" s="76">
+        <v>1</v>
+      </c>
+      <c r="S12" s="66">
         <f>master!G9</f>
         <v>1</v>
       </c>
-      <c r="T12" s="82">
+      <c r="T12" s="66">
         <f>IF(P12=Q12,1,0)</f>
         <v>0</v>
       </c>
-      <c r="U12" s="82">
+      <c r="U12" s="66">
         <f>IF(R12=S12,2,0)</f>
         <v>2</v>
       </c>
-      <c r="V12" s="82">
+      <c r="V12" s="66">
         <f>IF(S12=1,1,2)</f>
         <v>1</v>
       </c>
-      <c r="W12" s="82">
+      <c r="W12" s="66">
         <f>IF(V12=1,U12,0)</f>
         <v>2</v>
       </c>
-      <c r="X12" s="94">
+      <c r="X12" s="66">
         <v>2</v>
       </c>
-      <c r="Y12" s="90"/>
-      <c r="Z12" s="82" t="s">
+      <c r="Y12" s="64"/>
+      <c r="Z12" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="AA12" s="82"/>
+      <c r="AA12" s="66"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D13" s="82" t="s">
+      <c r="D13" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="E13" s="82" t="str">
+      <c r="E13" s="66" t="str">
         <f>master!B10</f>
         <v>Qatar</v>
       </c>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82">
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66">
         <f>IF(D13=E13,1,0)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="94">
-        <v>0</v>
-      </c>
-      <c r="O13" s="90"/>
-      <c r="P13" s="82" t="s">
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66">
+        <v>0</v>
+      </c>
+      <c r="O13" s="64"/>
+      <c r="P13" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="Q13" s="82" t="str">
+      <c r="Q13" s="66" t="str">
         <f>master!F10</f>
         <v>Iran</v>
       </c>
-      <c r="R13" s="82"/>
-      <c r="S13" s="82"/>
-      <c r="T13" s="82">
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="66">
         <f>IF(P13=Q13,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U13" s="82"/>
-      <c r="V13" s="82"/>
-      <c r="W13" s="82"/>
-      <c r="X13" s="94">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="90"/>
-      <c r="Z13" s="82" t="s">
+      <c r="U13" s="66"/>
+      <c r="V13" s="66"/>
+      <c r="W13" s="66"/>
+      <c r="X13" s="66">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="64"/>
+      <c r="Z13" s="66" t="s">
         <v>152</v>
       </c>
-      <c r="AA13" s="82"/>
+      <c r="AA13" s="66"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="81">
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="65">
         <f>SUM(N10:N13)</f>
         <v>4</v>
       </c>
-      <c r="O14" s="89"/>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="83"/>
-      <c r="S14" s="83"/>
-      <c r="T14" s="83"/>
-      <c r="U14" s="83"/>
-      <c r="V14" s="83"/>
-      <c r="W14" s="83"/>
-      <c r="X14" s="81">
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="67"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="67"/>
+      <c r="V14" s="67"/>
+      <c r="W14" s="67"/>
+      <c r="X14" s="65">
         <f>SUM(X10:X13)</f>
         <v>9</v>
       </c>
-      <c r="Y14" s="89"/>
-      <c r="Z14" s="81" t="s">
+      <c r="Y14" s="67"/>
+      <c r="Z14" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="AA14" s="81">
+      <c r="AA14" s="65">
         <f>SUM(AA9:AA13)</f>
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="80"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="80"/>
-      <c r="Q15" s="80"/>
-      <c r="R15" s="80"/>
-      <c r="S15" s="80"/>
-      <c r="T15" s="80"/>
-      <c r="U15" s="80"/>
-      <c r="V15" s="80"/>
-      <c r="W15" s="80"/>
-      <c r="X15" s="80"/>
-      <c r="Y15" s="90"/>
-      <c r="Z15" s="80"/>
-      <c r="AA15" s="80"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="64"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="64"/>
+      <c r="W15" s="64"/>
+      <c r="X15" s="64"/>
+      <c r="Y15" s="64"/>
+      <c r="Z15" s="64"/>
+      <c r="AA15" s="64"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D16" s="81" t="s">
+      <c r="D16" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="E16" s="81" t="s">
+      <c r="E16" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="F16" s="81" t="s">
+      <c r="F16" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="G16" s="81" t="s">
+      <c r="G16" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="H16" s="95" t="s">
+      <c r="H16" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="95"/>
-      <c r="N16" s="81" t="s">
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="P16" s="81" t="s">
+      <c r="P16" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="Q16" s="81" t="s">
+      <c r="Q16" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="R16" s="81" t="s">
+      <c r="R16" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="S16" s="81" t="s">
+      <c r="S16" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="T16" s="95" t="s">
+      <c r="T16" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="U16" s="95"/>
-      <c r="V16" s="95"/>
-      <c r="W16" s="95"/>
-      <c r="X16" s="81" t="s">
+      <c r="U16" s="65"/>
+      <c r="V16" s="65"/>
+      <c r="W16" s="65"/>
+      <c r="X16" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="Z16" s="80"/>
-      <c r="AA16" s="80"/>
+      <c r="Z16" s="64"/>
+      <c r="AA16" s="64"/>
     </row>
     <row r="17" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="D17" s="82" t="s">
+      <c r="D17" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="E17" s="82" t="str">
+      <c r="E17" s="66" t="str">
         <f>master!B13</f>
         <v>Argentina</v>
       </c>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82">
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66">
         <f>IF(D17=E17,5,0)</f>
         <v>5</v>
       </c>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="82"/>
-      <c r="N17" s="94">
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66">
         <v>5</v>
       </c>
-      <c r="P17" s="82" t="s">
+      <c r="P17" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="Q17" s="82" t="str">
+      <c r="Q17" s="66" t="str">
         <f>master!F13</f>
         <v>France</v>
       </c>
-      <c r="R17" s="82"/>
-      <c r="S17" s="82"/>
-      <c r="T17" s="82">
+      <c r="R17" s="66"/>
+      <c r="S17" s="66"/>
+      <c r="T17" s="66">
         <f>IF(P17=Q17,5,0)</f>
         <v>0</v>
       </c>
-      <c r="U17" s="82"/>
-      <c r="V17" s="82"/>
-      <c r="W17" s="82"/>
-      <c r="X17" s="94">
+      <c r="U17" s="66"/>
+      <c r="V17" s="66"/>
+      <c r="W17" s="66"/>
+      <c r="X17" s="66">
         <v>2</v>
       </c>
-      <c r="Z17" s="80"/>
-      <c r="AA17" s="80"/>
+      <c r="Z17" s="64"/>
+      <c r="AA17" s="64"/>
     </row>
     <row r="18" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="D18" s="82" t="s">
+      <c r="D18" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="E18" s="82" t="str">
+      <c r="E18" s="66" t="str">
         <f>master!B14</f>
         <v>Mexico</v>
       </c>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82">
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66">
         <f>IF(D18=E18,4,0)</f>
         <v>4</v>
       </c>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="94">
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66">
         <v>4</v>
       </c>
-      <c r="P18" s="82" t="s">
+      <c r="P18" s="66" t="s">
         <v>169</v>
       </c>
-      <c r="Q18" s="82" t="str">
+      <c r="Q18" s="66" t="str">
         <f>master!F14</f>
         <v>Denmark</v>
       </c>
-      <c r="R18" s="82"/>
-      <c r="S18" s="82"/>
-      <c r="T18" s="82">
+      <c r="R18" s="66"/>
+      <c r="S18" s="66"/>
+      <c r="T18" s="66">
         <f>IF(P18=Q18,4,0)</f>
         <v>0</v>
       </c>
-      <c r="U18" s="82"/>
-      <c r="V18" s="82"/>
-      <c r="W18" s="82"/>
-      <c r="X18" s="94">
+      <c r="U18" s="66"/>
+      <c r="V18" s="66"/>
+      <c r="W18" s="66"/>
+      <c r="X18" s="66">
         <v>2</v>
       </c>
-      <c r="Z18" s="80"/>
-      <c r="AA18" s="80"/>
+      <c r="Z18" s="64"/>
+      <c r="AA18" s="64"/>
     </row>
     <row r="19" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="D19" s="82" t="s">
+      <c r="D19" s="66" t="s">
         <v>165</v>
       </c>
-      <c r="E19" s="82" t="str">
+      <c r="E19" s="66" t="str">
         <f>master!B15</f>
         <v>Poland</v>
       </c>
-      <c r="F19" s="102">
-        <v>0</v>
-      </c>
-      <c r="G19" s="82">
+      <c r="F19" s="76">
+        <v>0</v>
+      </c>
+      <c r="G19" s="66">
         <f>master!C15</f>
         <v>0</v>
       </c>
-      <c r="H19" s="82">
+      <c r="H19" s="66">
         <f>IF(D19=E19,1,0)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="82">
+      <c r="I19" s="66">
         <f>IF(F19=G19,2,0)</f>
         <v>2</v>
       </c>
-      <c r="J19" s="82">
+      <c r="J19" s="66">
         <f>IF(G19=1,1,2)</f>
         <v>2</v>
       </c>
-      <c r="K19" s="82">
+      <c r="K19" s="66">
         <f>IF(J19=1,I19,0)</f>
         <v>0</v>
       </c>
-      <c r="L19" s="82"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="94">
-        <v>0</v>
-      </c>
-      <c r="P19" s="82" t="s">
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66">
+        <v>0</v>
+      </c>
+      <c r="P19" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="Q19" s="82" t="str">
+      <c r="Q19" s="66" t="str">
         <f>master!F15</f>
         <v>Australia</v>
       </c>
-      <c r="R19" s="102">
-        <v>1</v>
-      </c>
-      <c r="S19" s="82">
+      <c r="R19" s="76">
+        <v>1</v>
+      </c>
+      <c r="S19" s="66">
         <f>master!G15</f>
         <v>1</v>
       </c>
-      <c r="T19" s="82">
+      <c r="T19" s="66">
         <f>IF(P19=Q19,1,0)</f>
         <v>0</v>
       </c>
-      <c r="U19" s="82">
+      <c r="U19" s="66">
         <f>IF(R19=S19,2,0)</f>
         <v>2</v>
       </c>
-      <c r="V19" s="82">
+      <c r="V19" s="66">
         <f>IF(S19=1,1,2)</f>
         <v>1</v>
       </c>
-      <c r="W19" s="82">
+      <c r="W19" s="66">
         <f>IF(V19=1,U19,0)</f>
         <v>2</v>
       </c>
-      <c r="X19" s="94">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="80"/>
-      <c r="AA19" s="80"/>
+      <c r="X19" s="66">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="64"/>
+      <c r="AA19" s="64"/>
     </row>
     <row r="20" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="D20" s="82" t="s">
+      <c r="D20" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="E20" s="82" t="str">
+      <c r="E20" s="66" t="str">
         <f>master!B16</f>
         <v>Saudi Arabia</v>
       </c>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82">
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66">
         <f>IF(D20=E20,1,0)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="94">
-        <v>0</v>
-      </c>
-      <c r="P20" s="82" t="s">
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="66">
+        <v>0</v>
+      </c>
+      <c r="P20" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="Q20" s="82" t="str">
+      <c r="Q20" s="66" t="str">
         <f>master!F16</f>
         <v>Tunisia</v>
       </c>
-      <c r="R20" s="82"/>
-      <c r="S20" s="82"/>
-      <c r="T20" s="82">
+      <c r="R20" s="66"/>
+      <c r="S20" s="66"/>
+      <c r="T20" s="66">
         <f>IF(P20=Q20,1,0)</f>
         <v>0</v>
       </c>
-      <c r="U20" s="82"/>
-      <c r="V20" s="82"/>
-      <c r="W20" s="82"/>
-      <c r="X20" s="94">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="80"/>
-      <c r="AA20" s="80"/>
+      <c r="U20" s="66"/>
+      <c r="V20" s="66"/>
+      <c r="W20" s="66"/>
+      <c r="X20" s="66">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="64"/>
+      <c r="AA20" s="64"/>
     </row>
     <row r="21" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="83"/>
-      <c r="L21" s="83"/>
-      <c r="M21" s="83"/>
-      <c r="N21" s="99">
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="74">
         <f>SUM(N17:N20)</f>
         <v>9</v>
       </c>
-      <c r="P21" s="98"/>
-      <c r="Q21" s="80"/>
-      <c r="R21" s="80"/>
-      <c r="S21" s="80"/>
-      <c r="T21" s="80"/>
-      <c r="U21" s="80"/>
-      <c r="V21" s="80"/>
-      <c r="W21" s="80"/>
-      <c r="X21" s="81">
+      <c r="P21" s="64"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="64"/>
+      <c r="S21" s="64"/>
+      <c r="T21" s="64"/>
+      <c r="U21" s="64"/>
+      <c r="V21" s="64"/>
+      <c r="W21" s="64"/>
+      <c r="X21" s="65">
         <f>SUM(X17:X20)</f>
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="D23" s="81" t="s">
+      <c r="D23" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="E23" s="81" t="s">
+      <c r="E23" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="F23" s="81" t="s">
+      <c r="F23" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="G23" s="81" t="s">
+      <c r="G23" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="H23" s="95" t="s">
+      <c r="H23" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="I23" s="95"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="95"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="95"/>
-      <c r="N23" s="81" t="s">
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="O23" s="89"/>
-      <c r="P23" s="81" t="s">
+      <c r="O23" s="67"/>
+      <c r="P23" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="Q23" s="81" t="s">
+      <c r="Q23" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="R23" s="81" t="s">
+      <c r="R23" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="S23" s="81" t="s">
+      <c r="S23" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="T23" s="95" t="s">
+      <c r="T23" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="U23" s="95"/>
-      <c r="V23" s="95"/>
-      <c r="W23" s="95"/>
-      <c r="X23" s="81" t="s">
+      <c r="U23" s="65"/>
+      <c r="V23" s="65"/>
+      <c r="W23" s="65"/>
+      <c r="X23" s="65" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="24" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="D24" s="82" t="s">
+      <c r="D24" s="66" t="s">
         <v>170</v>
       </c>
-      <c r="E24" s="82" t="str">
+      <c r="E24" s="66" t="str">
         <f>master!B19</f>
         <v>Germany</v>
       </c>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82">
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66">
         <f>IF(D24=E24,5,0)</f>
         <v>0</v>
       </c>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="94">
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="66">
         <v>2</v>
       </c>
-      <c r="O24" s="90"/>
-      <c r="P24" s="82" t="s">
+      <c r="O24" s="64"/>
+      <c r="P24" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="Q24" s="82" t="str">
+      <c r="Q24" s="66" t="str">
         <f>master!F19</f>
         <v>Belgium</v>
       </c>
-      <c r="R24" s="82"/>
-      <c r="S24" s="82"/>
-      <c r="T24" s="82">
+      <c r="R24" s="66"/>
+      <c r="S24" s="66"/>
+      <c r="T24" s="66">
         <f>IF(P24=Q24,5,0)</f>
         <v>0</v>
       </c>
-      <c r="U24" s="82"/>
-      <c r="V24" s="82"/>
-      <c r="W24" s="82"/>
-      <c r="X24" s="94">
-        <v>0</v>
+      <c r="U24" s="66"/>
+      <c r="V24" s="66"/>
+      <c r="W24" s="66"/>
+      <c r="X24" s="66">
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="D25" s="82" t="s">
+      <c r="D25" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="E25" s="82" t="str">
+      <c r="E25" s="66" t="str">
         <f>master!B20</f>
         <v>Spain</v>
       </c>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82">
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66">
         <f>IF(D25=E25,4,0)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="82"/>
-      <c r="M25" s="82"/>
-      <c r="N25" s="94">
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="66"/>
+      <c r="N25" s="66">
         <v>2</v>
       </c>
-      <c r="O25" s="90"/>
-      <c r="P25" s="82" t="s">
+      <c r="O25" s="64"/>
+      <c r="P25" s="66" t="s">
         <v>177</v>
       </c>
-      <c r="Q25" s="82" t="str">
+      <c r="Q25" s="66" t="str">
         <f>master!F20</f>
         <v>Croatia</v>
       </c>
-      <c r="R25" s="82"/>
-      <c r="S25" s="82"/>
-      <c r="T25" s="82">
+      <c r="R25" s="66"/>
+      <c r="S25" s="66"/>
+      <c r="T25" s="66">
         <f>IF(P25=Q25,4,0)</f>
         <v>0</v>
       </c>
-      <c r="U25" s="82"/>
-      <c r="V25" s="82"/>
-      <c r="W25" s="82"/>
-      <c r="X25" s="94">
-        <v>2</v>
+      <c r="U25" s="66"/>
+      <c r="V25" s="66"/>
+      <c r="W25" s="66"/>
+      <c r="X25" s="66">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="D26" s="82" t="s">
+      <c r="D26" s="66" t="s">
         <v>173</v>
       </c>
-      <c r="E26" s="82" t="str">
+      <c r="E26" s="66" t="str">
         <f>master!B21</f>
         <v>Japan</v>
       </c>
-      <c r="F26" s="102">
-        <v>0</v>
-      </c>
-      <c r="G26" s="82">
+      <c r="F26" s="76">
+        <v>0</v>
+      </c>
+      <c r="G26" s="66">
         <f>master!C21</f>
         <v>0</v>
       </c>
-      <c r="H26" s="82">
+      <c r="H26" s="66">
         <f>IF(D26=E26,1,0)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="82">
+      <c r="I26" s="66">
         <f>IF(F26=G26,2,0)</f>
         <v>2</v>
       </c>
-      <c r="J26" s="82">
+      <c r="J26" s="66">
         <f>IF(G26=1,1,2)</f>
         <v>2</v>
       </c>
-      <c r="K26" s="82">
+      <c r="K26" s="66">
         <f>IF(J26=1,I26,0)</f>
         <v>0</v>
       </c>
-      <c r="L26" s="82"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="94">
-        <v>0</v>
-      </c>
-      <c r="O26" s="90"/>
-      <c r="P26" s="82" t="s">
+      <c r="L26" s="66"/>
+      <c r="M26" s="66"/>
+      <c r="N26" s="66">
+        <v>0</v>
+      </c>
+      <c r="O26" s="64"/>
+      <c r="P26" s="66" t="s">
         <v>176</v>
       </c>
-      <c r="Q26" s="82" t="str">
+      <c r="Q26" s="66" t="str">
         <f>master!F21</f>
         <v>Morocco</v>
       </c>
-      <c r="R26" s="102">
-        <v>1</v>
-      </c>
-      <c r="S26" s="82">
+      <c r="R26" s="76">
+        <v>1</v>
+      </c>
+      <c r="S26" s="66">
         <f>master!G21</f>
         <v>1</v>
       </c>
-      <c r="T26" s="82">
+      <c r="T26" s="66">
         <f>IF(P26=Q26,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U26" s="82">
+      <c r="U26" s="66">
         <f>IF(R26=S26,2,0)</f>
         <v>2</v>
       </c>
-      <c r="V26" s="82">
+      <c r="V26" s="66">
         <f>IF(S26=1,1,2)</f>
         <v>1</v>
       </c>
-      <c r="W26" s="82">
+      <c r="W26" s="66">
         <f>IF(V26=1,U26,0)</f>
         <v>2</v>
       </c>
-      <c r="X26" s="94">
+      <c r="X26" s="66">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="D27" s="82" t="s">
+      <c r="D27" s="66" t="s">
         <v>172</v>
       </c>
-      <c r="E27" s="82" t="str">
+      <c r="E27" s="66" t="str">
         <f>master!B22</f>
         <v>Costa Rica</v>
       </c>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82">
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66">
         <f>IF(D27=E27,1,0)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="94">
-        <v>0</v>
-      </c>
-      <c r="O27" s="90"/>
-      <c r="P27" s="82" t="s">
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="66">
+        <v>0</v>
+      </c>
+      <c r="O27" s="64"/>
+      <c r="P27" s="66" t="s">
         <v>174</v>
       </c>
-      <c r="Q27" s="82" t="str">
+      <c r="Q27" s="66" t="str">
         <f>master!F22</f>
         <v>Canada</v>
       </c>
-      <c r="R27" s="82"/>
-      <c r="S27" s="82"/>
-      <c r="T27" s="82">
+      <c r="R27" s="66"/>
+      <c r="S27" s="66"/>
+      <c r="T27" s="66">
         <f>IF(P27=Q27,1,0)</f>
         <v>0</v>
       </c>
-      <c r="U27" s="82"/>
-      <c r="V27" s="82"/>
-      <c r="W27" s="82"/>
-      <c r="X27" s="94">
+      <c r="U27" s="66"/>
+      <c r="V27" s="66"/>
+      <c r="W27" s="66"/>
+      <c r="X27" s="66">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="80"/>
-      <c r="L28" s="80"/>
-      <c r="M28" s="80"/>
-      <c r="N28" s="81">
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="65">
         <f t="shared" ref="N28:X28" si="0">SUM(N24:N27)</f>
         <v>4</v>
       </c>
-      <c r="O28" s="89"/>
-      <c r="P28" s="80"/>
-      <c r="Q28" s="80"/>
-      <c r="R28" s="80"/>
-      <c r="S28" s="80"/>
-      <c r="T28" s="80"/>
-      <c r="U28" s="80"/>
-      <c r="V28" s="80"/>
-      <c r="W28" s="80"/>
-      <c r="X28" s="99">
+      <c r="O28" s="67"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="64"/>
+      <c r="R28" s="64"/>
+      <c r="S28" s="64"/>
+      <c r="T28" s="64"/>
+      <c r="U28" s="64"/>
+      <c r="V28" s="64"/>
+      <c r="W28" s="64"/>
+      <c r="X28" s="74">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="O29" s="89"/>
+      <c r="O29" s="67"/>
     </row>
     <row r="30" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="O30" s="90"/>
+      <c r="O30" s="64"/>
     </row>
     <row r="31" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="O31" s="90"/>
+      <c r="O31" s="64"/>
     </row>
     <row r="32" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="O32" s="90"/>
+      <c r="O32" s="64"/>
     </row>
     <row r="33" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O33" s="90"/>
+      <c r="O33" s="64"/>
     </row>
     <row r="34" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O34" s="89"/>
+      <c r="O34" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3581,60 +3497,48 @@
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="B6:G6"/>
   </mergeCells>
-  <conditionalFormatting sqref="N10 X10 X17 N17 N24 X24">
-    <cfRule type="cellIs" priority="9" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
+  <conditionalFormatting sqref="N10 X10 N17 X17 N24 X24">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N18 N25 X25 X18 X11">
-    <cfRule type="cellIs" dxfId="18" priority="12" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N13 X13 X20 N20 N27 X27">
-    <cfRule type="cellIs" priority="7" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N11">
-    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N25 N18 N11 X11 X18 X25">
+  <conditionalFormatting sqref="N10:N11 X10:X11 N17:N18 X17:X18 N24:N25 X24:X25">
     <cfRule type="cellIs" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N11 X11 X25 N18 N25">
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+  <conditionalFormatting sqref="N10:N12 X10:X12 N17:N19 N24:N26 X24:X26">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N26 X26 X19 N19 N12 X12">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
-      <formula>1</formula>
+  <conditionalFormatting sqref="N11">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+      <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N12 X12 N19 X19 N26 X26">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N24 N17 N10 X10 X17 X24">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
-      <formula>2</formula>
+  <conditionalFormatting sqref="N12:N13 X12:X13 N19:N20 X19:X20 N26:N27 X26:X27">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X18">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+  <conditionalFormatting sqref="N13 X13 N20 X20 N27 X27">
+    <cfRule type="cellIs" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X11 N18 X18 N25 X25">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X17:X19">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3647,1079 +3551,1073 @@
   <dimension ref="A1:AA34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X28" sqref="X28"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="80"/>
-    <col min="4" max="4" width="13.1640625" style="80" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" style="80" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="64"/>
+    <col min="4" max="4" width="13.1640625" style="64" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="64" customWidth="1"/>
     <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.5" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="14.1640625" hidden="1" customWidth="1"/>
     <col min="11" max="13" width="15.33203125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="96"/>
     <col min="15" max="15" width="2.6640625" customWidth="1"/>
     <col min="18" max="18" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.1640625" customWidth="1"/>
     <col min="20" max="23" width="14.1640625" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="10.83203125" style="96"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="11"/>
-      <c r="B1" s="100"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="N1" s="82" t="s">
+      <c r="B1" s="75"/>
+      <c r="N1" s="66" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="87">
+      <c r="A2" s="70">
         <v>5</v>
       </c>
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="98" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="82">
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="66">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="104">
+      <c r="A3" s="78">
         <v>4</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="98" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="82">
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="66">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="93">
+      <c r="A4" s="73">
         <v>3</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="98" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="82">
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="66">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="105">
+      <c r="A5" s="79">
         <v>2</v>
       </c>
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="97"/>
-      <c r="N5" s="82">
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="66">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="88">
-        <v>1</v>
-      </c>
-      <c r="B6" s="101" t="s">
+      <c r="A6" s="71">
+        <v>1</v>
+      </c>
+      <c r="B6" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
-      <c r="N6" s="82">
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="66">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="E9" s="81" t="s">
+      <c r="E9" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="F9" s="81" t="s">
+      <c r="F9" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="G9" s="81" t="s">
+      <c r="G9" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="H9" s="95" t="s">
+      <c r="H9" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="I9" s="95" t="s">
+      <c r="I9" s="65" t="s">
         <v>182</v>
       </c>
-      <c r="J9" s="95" t="s">
+      <c r="J9" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="K9" s="95" t="s">
+      <c r="K9" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="L9" s="95"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="81" t="s">
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="O9" s="89"/>
-      <c r="P9" s="81" t="s">
+      <c r="O9" s="67"/>
+      <c r="P9" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="Q9" s="81" t="s">
+      <c r="Q9" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="R9" s="81" t="s">
+      <c r="R9" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="S9" s="81" t="s">
+      <c r="S9" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="T9" s="95" t="s">
+      <c r="T9" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="U9" s="95"/>
-      <c r="V9" s="95"/>
-      <c r="W9" s="95"/>
-      <c r="X9" s="81" t="s">
+      <c r="U9" s="65"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="Y9" s="89"/>
-      <c r="Z9" s="91" t="s">
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="AA9" s="82">
+      <c r="AA9" s="66">
         <f>N14+X14+N21+X21+N28+X28</f>
         <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D10" s="82" t="s">
+      <c r="D10" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="E10" s="82" t="str">
+      <c r="E10" s="66" t="str">
         <f>master!B7</f>
         <v>Netherlands</v>
       </c>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82">
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66">
         <f>IF(D10=E10,5,0)</f>
         <v>5</v>
       </c>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82">
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66">
         <f>IF(D10=E11,2,0)</f>
         <v>0</v>
       </c>
-      <c r="M10" s="82">
+      <c r="M10" s="66">
         <f>IF(D10=E12,2,0)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="94">
+      <c r="N10" s="66">
         <v>5</v>
       </c>
-      <c r="O10" s="90"/>
-      <c r="P10" s="82" t="s">
+      <c r="O10" s="64"/>
+      <c r="P10" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="Q10" s="82" t="str">
+      <c r="Q10" s="66" t="str">
         <f>master!F7</f>
         <v>England</v>
       </c>
-      <c r="R10" s="82"/>
-      <c r="S10" s="82"/>
-      <c r="T10" s="82">
+      <c r="R10" s="66"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="66">
         <f>IF(P10=Q10,5,0)</f>
         <v>5</v>
       </c>
-      <c r="U10" s="82"/>
-      <c r="V10" s="82"/>
-      <c r="W10" s="82"/>
-      <c r="X10" s="94">
+      <c r="U10" s="66"/>
+      <c r="V10" s="66"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="66">
         <v>5</v>
       </c>
-      <c r="Y10" s="90"/>
-      <c r="Z10" s="82" t="s">
+      <c r="Y10" s="64"/>
+      <c r="Z10" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="AA10" s="82"/>
+      <c r="AA10" s="66"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D11" s="82" t="s">
+      <c r="D11" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="E11" s="82" t="str">
+      <c r="E11" s="66" t="str">
         <f>master!B8</f>
         <v>Ecuador</v>
       </c>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82">
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66">
         <f>IF(D11=E11,4,0)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82">
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66">
         <f>IF(D11=E10,2,0)</f>
         <v>0</v>
       </c>
-      <c r="M11" s="82">
+      <c r="M11" s="66">
         <f>IF(D11=E12,2,0)</f>
         <v>2</v>
       </c>
-      <c r="N11" s="94">
+      <c r="N11" s="66">
         <v>2</v>
       </c>
-      <c r="O11" s="90"/>
-      <c r="P11" s="82" t="s">
+      <c r="O11" s="64"/>
+      <c r="P11" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="Q11" s="82" t="str">
+      <c r="Q11" s="66" t="str">
         <f>master!F8</f>
         <v>USA</v>
       </c>
-      <c r="R11" s="82"/>
-      <c r="S11" s="82"/>
-      <c r="T11" s="82">
+      <c r="R11" s="66"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="66">
         <f>IF(P11=Q11,4,0)</f>
         <v>4</v>
       </c>
-      <c r="U11" s="82"/>
-      <c r="V11" s="82"/>
-      <c r="W11" s="82"/>
-      <c r="X11" s="94">
+      <c r="U11" s="66"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="66"/>
+      <c r="X11" s="66">
         <v>4</v>
       </c>
-      <c r="Y11" s="90"/>
-      <c r="Z11" s="82" t="s">
+      <c r="Y11" s="64"/>
+      <c r="Z11" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="AA11" s="82"/>
+      <c r="AA11" s="66"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D12" s="82" t="s">
+      <c r="D12" s="66" t="s">
         <v>156</v>
       </c>
-      <c r="E12" s="82" t="str">
+      <c r="E12" s="66" t="str">
         <f>master!B9</f>
         <v>Senegal</v>
       </c>
-      <c r="F12" s="102">
-        <v>1</v>
-      </c>
-      <c r="G12" s="82">
+      <c r="F12" s="76">
+        <v>1</v>
+      </c>
+      <c r="G12" s="66">
         <f>master!C9</f>
         <v>1</v>
       </c>
-      <c r="H12" s="82">
+      <c r="H12" s="66">
         <f>IF(D12=E12,1,0)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="82">
+      <c r="I12" s="66">
         <f>IF(F12=G12,2,0)</f>
         <v>2</v>
       </c>
-      <c r="J12" s="82">
+      <c r="J12" s="66">
         <f>IF(G12=1,1,2)</f>
         <v>1</v>
       </c>
-      <c r="K12" s="82">
+      <c r="K12" s="66">
         <f>IF(J12=1,I12,0)</f>
         <v>2</v>
       </c>
-      <c r="L12" s="82">
+      <c r="L12" s="66">
         <f>IF(D12=E10,2,0)</f>
         <v>0</v>
       </c>
-      <c r="M12" s="82">
+      <c r="M12" s="66">
         <f>IF(D12=E11,2,0)</f>
         <v>2</v>
       </c>
-      <c r="N12" s="94">
+      <c r="N12" s="66">
         <v>2</v>
       </c>
-      <c r="O12" s="90"/>
-      <c r="P12" s="82" t="s">
+      <c r="O12" s="64"/>
+      <c r="P12" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="Q12" s="82" t="str">
+      <c r="Q12" s="66" t="str">
         <f>master!F9</f>
         <v>Wales</v>
       </c>
-      <c r="R12" s="102">
-        <v>0</v>
-      </c>
-      <c r="S12" s="82">
+      <c r="R12" s="76">
+        <v>0</v>
+      </c>
+      <c r="S12" s="66">
         <f>master!G9</f>
         <v>1</v>
       </c>
-      <c r="T12" s="82">
+      <c r="T12" s="66">
         <f>IF(P12=Q12,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U12" s="82">
+      <c r="U12" s="66">
         <f>IF(R12=S12,2,0)</f>
         <v>0</v>
       </c>
-      <c r="V12" s="82">
+      <c r="V12" s="66">
         <f>IF(S12=1,1,2)</f>
         <v>1</v>
       </c>
-      <c r="W12" s="82">
+      <c r="W12" s="66">
         <f>IF(V12=1,U12,0)</f>
         <v>0</v>
       </c>
-      <c r="X12" s="94">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="90"/>
-      <c r="Z12" s="82" t="s">
+      <c r="X12" s="66">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="64"/>
+      <c r="Z12" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="AA12" s="82"/>
+      <c r="AA12" s="66"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D13" s="82" t="s">
+      <c r="D13" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="E13" s="82" t="str">
+      <c r="E13" s="66" t="str">
         <f>master!B10</f>
         <v>Qatar</v>
       </c>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82">
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66">
         <f>IF(D13=E13,1,0)</f>
         <v>1</v>
       </c>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="94">
-        <v>1</v>
-      </c>
-      <c r="O13" s="90"/>
-      <c r="P13" s="82" t="s">
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66">
+        <v>1</v>
+      </c>
+      <c r="O13" s="64"/>
+      <c r="P13" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="Q13" s="82" t="str">
+      <c r="Q13" s="66" t="str">
         <f>master!F10</f>
         <v>Iran</v>
       </c>
-      <c r="R13" s="82"/>
-      <c r="S13" s="82"/>
-      <c r="T13" s="82">
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="66">
         <f>IF(P13=Q13,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U13" s="82"/>
-      <c r="V13" s="82"/>
-      <c r="W13" s="82"/>
-      <c r="X13" s="94">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="90"/>
-      <c r="Z13" s="82" t="s">
+      <c r="U13" s="66"/>
+      <c r="V13" s="66"/>
+      <c r="W13" s="66"/>
+      <c r="X13" s="66">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="64"/>
+      <c r="Z13" s="66" t="s">
         <v>152</v>
       </c>
-      <c r="AA13" s="82"/>
+      <c r="AA13" s="66"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="81">
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="65">
         <f>SUM(N10:N13)</f>
         <v>10</v>
       </c>
-      <c r="O14" s="89"/>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="83"/>
-      <c r="S14" s="83"/>
-      <c r="T14" s="83"/>
-      <c r="U14" s="83"/>
-      <c r="V14" s="83"/>
-      <c r="W14" s="83"/>
-      <c r="X14" s="81">
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="67"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="67"/>
+      <c r="V14" s="67"/>
+      <c r="W14" s="67"/>
+      <c r="X14" s="65">
         <f>SUM(X10:X13)</f>
         <v>11</v>
       </c>
-      <c r="Y14" s="89"/>
-      <c r="Z14" s="81" t="s">
+      <c r="Y14" s="67"/>
+      <c r="Z14" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="AA14" s="81">
+      <c r="AA14" s="65">
         <f>SUM(AA9:AA13)</f>
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="80"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="80"/>
-      <c r="Q15" s="80"/>
-      <c r="R15" s="80"/>
-      <c r="S15" s="80"/>
-      <c r="T15" s="80"/>
-      <c r="U15" s="80"/>
-      <c r="V15" s="80"/>
-      <c r="W15" s="80"/>
-      <c r="X15" s="80"/>
-      <c r="Y15" s="90"/>
-      <c r="Z15" s="80"/>
-      <c r="AA15" s="80"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="64"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="64"/>
+      <c r="W15" s="64"/>
+      <c r="X15" s="64"/>
+      <c r="Y15" s="64"/>
+      <c r="Z15" s="64"/>
+      <c r="AA15" s="64"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D16" s="81" t="s">
+      <c r="D16" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="E16" s="81" t="s">
+      <c r="E16" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="F16" s="81" t="s">
+      <c r="F16" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="G16" s="81" t="s">
+      <c r="G16" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="H16" s="95" t="s">
+      <c r="H16" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="95"/>
-      <c r="N16" s="81" t="s">
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="P16" s="81" t="s">
+      <c r="P16" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="Q16" s="81" t="s">
+      <c r="Q16" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="R16" s="81" t="s">
+      <c r="R16" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="S16" s="81" t="s">
+      <c r="S16" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="T16" s="95" t="s">
+      <c r="T16" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="U16" s="95"/>
-      <c r="V16" s="95"/>
-      <c r="W16" s="95"/>
-      <c r="X16" s="81" t="s">
+      <c r="U16" s="65"/>
+      <c r="V16" s="65"/>
+      <c r="W16" s="65"/>
+      <c r="X16" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="Z16" s="80"/>
-      <c r="AA16" s="80"/>
+      <c r="Z16" s="64"/>
+      <c r="AA16" s="64"/>
     </row>
     <row r="17" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="D17" s="82" t="s">
+      <c r="D17" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="E17" s="82" t="str">
+      <c r="E17" s="66" t="str">
         <f>master!B13</f>
         <v>Argentina</v>
       </c>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82">
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66">
         <f>IF(D17=E17,5,0)</f>
         <v>5</v>
       </c>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="82"/>
-      <c r="N17" s="94">
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66">
         <v>5</v>
       </c>
-      <c r="P17" s="82" t="s">
+      <c r="P17" s="66" t="s">
         <v>169</v>
       </c>
-      <c r="Q17" s="82" t="str">
+      <c r="Q17" s="66" t="str">
         <f>master!F13</f>
         <v>France</v>
       </c>
-      <c r="R17" s="82"/>
-      <c r="S17" s="82"/>
-      <c r="T17" s="82">
+      <c r="R17" s="66"/>
+      <c r="S17" s="66"/>
+      <c r="T17" s="66">
         <f>IF(P17=Q17,5,0)</f>
         <v>5</v>
       </c>
-      <c r="U17" s="82"/>
-      <c r="V17" s="82"/>
-      <c r="W17" s="82"/>
-      <c r="X17" s="94">
+      <c r="U17" s="66"/>
+      <c r="V17" s="66"/>
+      <c r="W17" s="66"/>
+      <c r="X17" s="66">
         <v>5</v>
       </c>
-      <c r="Z17" s="80"/>
-      <c r="AA17" s="80"/>
+      <c r="Z17" s="64"/>
+      <c r="AA17" s="64"/>
     </row>
     <row r="18" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="D18" s="82" t="s">
+      <c r="D18" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="E18" s="82" t="str">
+      <c r="E18" s="66" t="str">
         <f>master!B14</f>
         <v>Mexico</v>
       </c>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82">
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66">
         <f>IF(D18=E18,4,0)</f>
         <v>4</v>
       </c>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="94">
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66">
         <v>4</v>
       </c>
-      <c r="P18" s="82" t="s">
+      <c r="P18" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="Q18" s="82" t="str">
+      <c r="Q18" s="66" t="str">
         <f>master!F14</f>
         <v>Denmark</v>
       </c>
-      <c r="R18" s="82"/>
-      <c r="S18" s="82"/>
-      <c r="T18" s="82">
+      <c r="R18" s="66"/>
+      <c r="S18" s="66"/>
+      <c r="T18" s="66">
         <f>IF(P18=Q18,4,0)</f>
         <v>4</v>
       </c>
-      <c r="U18" s="82"/>
-      <c r="V18" s="82"/>
-      <c r="W18" s="82"/>
-      <c r="X18" s="94">
+      <c r="U18" s="66"/>
+      <c r="V18" s="66"/>
+      <c r="W18" s="66"/>
+      <c r="X18" s="66">
         <v>4</v>
       </c>
-      <c r="Z18" s="80"/>
-      <c r="AA18" s="80"/>
+      <c r="Z18" s="64"/>
+      <c r="AA18" s="64"/>
     </row>
     <row r="19" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="D19" s="82" t="s">
+      <c r="D19" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="E19" s="82" t="str">
+      <c r="E19" s="66" t="str">
         <f>master!B15</f>
         <v>Poland</v>
       </c>
-      <c r="F19" s="102">
-        <v>1</v>
-      </c>
-      <c r="G19" s="82">
+      <c r="F19" s="76">
+        <v>1</v>
+      </c>
+      <c r="G19" s="66">
         <f>master!C15</f>
         <v>0</v>
       </c>
-      <c r="H19" s="82">
+      <c r="H19" s="66">
         <f>IF(D19=E19,1,0)</f>
         <v>1</v>
       </c>
-      <c r="I19" s="82">
+      <c r="I19" s="66">
         <f>IF(F19=G19,2,0)</f>
         <v>0</v>
       </c>
-      <c r="J19" s="82">
+      <c r="J19" s="66">
         <f>IF(G19=1,1,2)</f>
         <v>2</v>
       </c>
-      <c r="K19" s="82">
+      <c r="K19" s="66">
         <f>IF(J19=1,I19,0)</f>
         <v>0</v>
       </c>
-      <c r="L19" s="82"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="94">
-        <v>1</v>
-      </c>
-      <c r="P19" s="82" t="s">
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66">
+        <v>1</v>
+      </c>
+      <c r="P19" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="Q19" s="82" t="str">
+      <c r="Q19" s="66" t="str">
         <f>master!F15</f>
         <v>Australia</v>
       </c>
-      <c r="R19" s="102">
-        <v>1</v>
-      </c>
-      <c r="S19" s="82">
+      <c r="R19" s="76">
+        <v>1</v>
+      </c>
+      <c r="S19" s="66">
         <f>master!G15</f>
         <v>1</v>
       </c>
-      <c r="T19" s="82">
+      <c r="T19" s="66">
         <f>IF(P19=Q19,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U19" s="82">
+      <c r="U19" s="66">
         <f>IF(R19=S19,2,0)</f>
         <v>2</v>
       </c>
-      <c r="V19" s="82">
+      <c r="V19" s="66">
         <f>IF(S19=1,1,2)</f>
         <v>1</v>
       </c>
-      <c r="W19" s="82">
+      <c r="W19" s="66">
         <f>IF(V19=1,U19,0)</f>
         <v>2</v>
       </c>
-      <c r="X19" s="94">
+      <c r="X19" s="66">
         <v>3</v>
       </c>
-      <c r="Z19" s="80"/>
-      <c r="AA19" s="80"/>
+      <c r="Z19" s="64"/>
+      <c r="AA19" s="64"/>
     </row>
     <row r="20" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="D20" s="82" t="s">
+      <c r="D20" s="66" t="s">
         <v>165</v>
       </c>
-      <c r="E20" s="82" t="str">
+      <c r="E20" s="66" t="str">
         <f>master!B16</f>
         <v>Saudi Arabia</v>
       </c>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82">
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66">
         <f>IF(D20=E20,1,0)</f>
         <v>1</v>
       </c>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="94">
-        <v>1</v>
-      </c>
-      <c r="P20" s="82" t="s">
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="66">
+        <v>1</v>
+      </c>
+      <c r="P20" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="Q20" s="82" t="str">
+      <c r="Q20" s="66" t="str">
         <f>master!F16</f>
         <v>Tunisia</v>
       </c>
-      <c r="R20" s="82"/>
-      <c r="S20" s="82"/>
-      <c r="T20" s="82">
+      <c r="R20" s="66"/>
+      <c r="S20" s="66"/>
+      <c r="T20" s="66">
         <f>IF(P20=Q20,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U20" s="82"/>
-      <c r="V20" s="82"/>
-      <c r="W20" s="82"/>
-      <c r="X20" s="94">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="80"/>
-      <c r="AA20" s="80"/>
+      <c r="U20" s="66"/>
+      <c r="V20" s="66"/>
+      <c r="W20" s="66"/>
+      <c r="X20" s="66">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="64"/>
+      <c r="AA20" s="64"/>
     </row>
     <row r="21" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="83"/>
-      <c r="L21" s="83"/>
-      <c r="M21" s="83"/>
-      <c r="N21" s="99">
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="74">
         <f>SUM(N17:N20)</f>
         <v>11</v>
       </c>
-      <c r="P21" s="98"/>
-      <c r="Q21" s="80"/>
-      <c r="R21" s="80"/>
-      <c r="S21" s="80"/>
-      <c r="T21" s="80"/>
-      <c r="U21" s="80"/>
-      <c r="V21" s="80"/>
-      <c r="W21" s="80"/>
-      <c r="X21" s="81">
+      <c r="P21" s="64"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="64"/>
+      <c r="S21" s="64"/>
+      <c r="T21" s="64"/>
+      <c r="U21" s="64"/>
+      <c r="V21" s="64"/>
+      <c r="W21" s="64"/>
+      <c r="X21" s="65">
         <f>SUM(X17:X20)</f>
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="D23" s="81" t="s">
+      <c r="D23" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="E23" s="81" t="s">
+      <c r="E23" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="F23" s="81" t="s">
+      <c r="F23" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="G23" s="81" t="s">
+      <c r="G23" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="H23" s="95" t="s">
+      <c r="H23" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="I23" s="95"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="95"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="95"/>
-      <c r="N23" s="81" t="s">
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="O23" s="89"/>
-      <c r="P23" s="81" t="s">
+      <c r="O23" s="67"/>
+      <c r="P23" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="Q23" s="81" t="s">
+      <c r="Q23" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="R23" s="81" t="s">
+      <c r="R23" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="S23" s="81" t="s">
+      <c r="S23" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="T23" s="95" t="s">
+      <c r="T23" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="U23" s="95"/>
-      <c r="V23" s="95"/>
-      <c r="W23" s="95"/>
-      <c r="X23" s="81" t="s">
+      <c r="U23" s="65"/>
+      <c r="V23" s="65"/>
+      <c r="W23" s="65"/>
+      <c r="X23" s="65" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="24" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="D24" s="82" t="s">
+      <c r="D24" s="66" t="s">
         <v>170</v>
       </c>
-      <c r="E24" s="82" t="str">
+      <c r="E24" s="66" t="str">
         <f>master!B19</f>
         <v>Germany</v>
       </c>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82">
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66">
         <f>IF(D24=E24,5,0)</f>
         <v>0</v>
       </c>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="94">
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="66">
         <v>2</v>
       </c>
-      <c r="O24" s="90"/>
-      <c r="P24" s="82" t="s">
+      <c r="O24" s="64"/>
+      <c r="P24" s="66" t="s">
         <v>174</v>
       </c>
-      <c r="Q24" s="82" t="str">
+      <c r="Q24" s="66" t="str">
         <f>master!F19</f>
         <v>Belgium</v>
       </c>
-      <c r="R24" s="82"/>
-      <c r="S24" s="82"/>
-      <c r="T24" s="82">
+      <c r="R24" s="66"/>
+      <c r="S24" s="66"/>
+      <c r="T24" s="66">
         <f>IF(P24=Q24,5,0)</f>
         <v>5</v>
       </c>
-      <c r="U24" s="82"/>
-      <c r="V24" s="82"/>
-      <c r="W24" s="82"/>
-      <c r="X24" s="94">
+      <c r="U24" s="66"/>
+      <c r="V24" s="66"/>
+      <c r="W24" s="66"/>
+      <c r="X24" s="66">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="D25" s="82" t="s">
+      <c r="D25" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="E25" s="82" t="str">
+      <c r="E25" s="66" t="str">
         <f>master!B20</f>
         <v>Spain</v>
       </c>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82">
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66">
         <f>IF(D25=E25,4,0)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="82"/>
-      <c r="M25" s="82"/>
-      <c r="N25" s="94">
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="66"/>
+      <c r="N25" s="66">
         <v>2</v>
       </c>
-      <c r="O25" s="90"/>
-      <c r="P25" s="82" t="s">
+      <c r="O25" s="64"/>
+      <c r="P25" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="Q25" s="82" t="str">
+      <c r="Q25" s="66" t="str">
         <f>master!F20</f>
         <v>Croatia</v>
       </c>
-      <c r="R25" s="82"/>
-      <c r="S25" s="82"/>
-      <c r="T25" s="82">
+      <c r="R25" s="66"/>
+      <c r="S25" s="66"/>
+      <c r="T25" s="66">
         <f>IF(P25=Q25,4,0)</f>
         <v>4</v>
       </c>
-      <c r="U25" s="82"/>
-      <c r="V25" s="82"/>
-      <c r="W25" s="82"/>
-      <c r="X25" s="94">
+      <c r="U25" s="66"/>
+      <c r="V25" s="66"/>
+      <c r="W25" s="66"/>
+      <c r="X25" s="66">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="D26" s="82" t="s">
+      <c r="D26" s="66" t="s">
         <v>172</v>
       </c>
-      <c r="E26" s="82" t="str">
+      <c r="E26" s="66" t="str">
         <f>master!B21</f>
         <v>Japan</v>
       </c>
-      <c r="F26" s="102">
-        <v>1</v>
-      </c>
-      <c r="G26" s="82">
+      <c r="F26" s="76">
+        <v>1</v>
+      </c>
+      <c r="G26" s="66">
         <f>master!C21</f>
         <v>0</v>
       </c>
-      <c r="H26" s="82">
+      <c r="H26" s="66">
         <f>IF(D26=E26,1,0)</f>
         <v>1</v>
       </c>
-      <c r="I26" s="82">
+      <c r="I26" s="66">
         <f>IF(F26=G26,2,0)</f>
         <v>0</v>
       </c>
-      <c r="J26" s="82">
+      <c r="J26" s="66">
         <f>IF(G26=1,1,2)</f>
         <v>2</v>
       </c>
-      <c r="K26" s="82">
+      <c r="K26" s="66">
         <f>IF(J26=1,I26,0)</f>
         <v>0</v>
       </c>
-      <c r="L26" s="82"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="94">
-        <v>1</v>
-      </c>
-      <c r="O26" s="90"/>
-      <c r="P26" s="82" t="s">
+      <c r="L26" s="66"/>
+      <c r="M26" s="66"/>
+      <c r="N26" s="66">
+        <v>1</v>
+      </c>
+      <c r="O26" s="64"/>
+      <c r="P26" s="66" t="s">
         <v>177</v>
       </c>
-      <c r="Q26" s="82" t="str">
+      <c r="Q26" s="66" t="str">
         <f>master!F21</f>
         <v>Morocco</v>
       </c>
-      <c r="R26" s="102">
-        <v>0</v>
-      </c>
-      <c r="S26" s="82">
+      <c r="R26" s="76">
+        <v>0</v>
+      </c>
+      <c r="S26" s="66">
         <f>master!G21</f>
         <v>1</v>
       </c>
-      <c r="T26" s="82">
+      <c r="T26" s="66">
         <f>IF(P26=Q26,1,0)</f>
         <v>0</v>
       </c>
-      <c r="U26" s="82">
+      <c r="U26" s="66">
         <f>IF(R26=S26,2,0)</f>
         <v>0</v>
       </c>
-      <c r="V26" s="82">
+      <c r="V26" s="66">
         <f>IF(S26=1,1,2)</f>
         <v>1</v>
       </c>
-      <c r="W26" s="82">
+      <c r="W26" s="66">
         <f>IF(V26=1,U26,0)</f>
         <v>0</v>
       </c>
-      <c r="X26" s="94">
+      <c r="X26" s="66">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="D27" s="82" t="s">
+      <c r="D27" s="66" t="s">
         <v>173</v>
       </c>
-      <c r="E27" s="82" t="str">
+      <c r="E27" s="66" t="str">
         <f>master!B22</f>
         <v>Costa Rica</v>
       </c>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82">
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66">
         <f>IF(D27=E27,1,0)</f>
         <v>1</v>
       </c>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="94">
-        <v>1</v>
-      </c>
-      <c r="O27" s="90"/>
-      <c r="P27" s="82" t="s">
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="66">
+        <v>1</v>
+      </c>
+      <c r="O27" s="64"/>
+      <c r="P27" s="66" t="s">
         <v>176</v>
       </c>
-      <c r="Q27" s="82" t="str">
+      <c r="Q27" s="66" t="str">
         <f>master!F22</f>
         <v>Canada</v>
       </c>
-      <c r="R27" s="82"/>
-      <c r="S27" s="82"/>
-      <c r="T27" s="82">
+      <c r="R27" s="66"/>
+      <c r="S27" s="66"/>
+      <c r="T27" s="66">
         <f>IF(P27=Q27,1,0)</f>
         <v>0</v>
       </c>
-      <c r="U27" s="82"/>
-      <c r="V27" s="82"/>
-      <c r="W27" s="82"/>
-      <c r="X27" s="94">
+      <c r="U27" s="66"/>
+      <c r="V27" s="66"/>
+      <c r="W27" s="66"/>
+      <c r="X27" s="66">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="80"/>
-      <c r="L28" s="80"/>
-      <c r="M28" s="80"/>
-      <c r="N28" s="81">
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="65">
         <f t="shared" ref="N28:X28" si="0">SUM(N24:N27)</f>
         <v>6</v>
       </c>
-      <c r="O28" s="89"/>
-      <c r="P28" s="80"/>
-      <c r="Q28" s="80"/>
-      <c r="R28" s="80"/>
-      <c r="S28" s="80"/>
-      <c r="T28" s="80"/>
-      <c r="U28" s="80"/>
-      <c r="V28" s="80"/>
-      <c r="W28" s="80"/>
-      <c r="X28" s="99">
+      <c r="O28" s="67"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="64"/>
+      <c r="R28" s="64"/>
+      <c r="S28" s="64"/>
+      <c r="T28" s="64"/>
+      <c r="U28" s="64"/>
+      <c r="V28" s="64"/>
+      <c r="W28" s="64"/>
+      <c r="X28" s="74">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="O29" s="89"/>
+      <c r="O29" s="67"/>
     </row>
     <row r="30" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="O30" s="90"/>
+      <c r="O30" s="64"/>
     </row>
     <row r="31" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="O31" s="90"/>
+      <c r="O31" s="64"/>
     </row>
     <row r="32" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="O32" s="90"/>
+      <c r="O32" s="64"/>
     </row>
     <row r="33" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O33" s="90"/>
+      <c r="O33" s="64"/>
     </row>
     <row r="34" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O34" s="89"/>
+      <c r="O34" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4729,59 +4627,47 @@
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="B6:G6"/>
   </mergeCells>
-  <conditionalFormatting sqref="N10 X10 X17 N17 N24 X24">
-    <cfRule type="cellIs" priority="9" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+  <conditionalFormatting sqref="N10 X10 N17 X17 N24 X24">
+    <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N18 N25 X25 X18 X11">
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N13 X13 X20 N20 N27 X27">
-    <cfRule type="cellIs" priority="7" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N11">
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N25 N18 N11 X11 X18 X25">
+  <conditionalFormatting sqref="N10:N11 X10:X11 N17:N18 X17:X18 N24:N25 X24:X25">
     <cfRule type="cellIs" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N11 X11 X25 N18 N25">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+  <conditionalFormatting sqref="N10:N12 X10:X12 N17:N19 N24:N26 X24:X26">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N26 X26 X19 N19 N12 X12">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
-      <formula>1</formula>
+  <conditionalFormatting sqref="N11">
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
+      <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N12 X12 N19 X19 N26 X26">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N24 N17 N10 X10 X17 X24">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>2</formula>
+  <conditionalFormatting sqref="N12:N13 X12:X13 N19:N20 X19:X20 N26:N27 X26:X27">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X18">
+  <conditionalFormatting sqref="N13 X13 N20 X20 N27 X27">
+    <cfRule type="cellIs" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X11 N18 X18 N25 X25">
+    <cfRule type="cellIs" dxfId="1" priority="12" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X17:X19">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
@@ -4818,10 +4704,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="85" t="s">
         <v>79</v>
       </c>
       <c r="C2" s="19" t="s">
@@ -4829,17 +4715,17 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="75"/>
-      <c r="B3" s="68"/>
+      <c r="A3" s="93"/>
+      <c r="B3" s="86"/>
       <c r="C3" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="92" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="92" t="s">
         <v>100</v>
       </c>
       <c r="C4" s="19" t="s">
@@ -4847,31 +4733,31 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="75"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="70" t="s">
+      <c r="A5" s="93"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="88" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="75"/>
+      <c r="A6" s="93"/>
       <c r="B6" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="70"/>
+      <c r="C6" s="88"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="76"/>
+      <c r="A7" s="94"/>
       <c r="B7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="70"/>
+      <c r="C7" s="88"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="95" t="s">
         <v>91</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -4879,17 +4765,17 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="77"/>
-      <c r="B9" s="77"/>
+      <c r="A9" s="95"/>
+      <c r="B9" s="95"/>
       <c r="C9" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="90" t="s">
         <v>104</v>
       </c>
       <c r="C10" s="19" t="s">
@@ -4897,22 +4783,22 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="71"/>
-      <c r="B11" s="73"/>
+      <c r="A11" s="89"/>
+      <c r="B11" s="91"/>
       <c r="C11" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="71"/>
-      <c r="B12" s="73"/>
+      <c r="A12" s="89"/>
+      <c r="B12" s="91"/>
       <c r="C12" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="71"/>
-      <c r="B13" s="73"/>
+      <c r="A13" s="89"/>
+      <c r="B13" s="91"/>
       <c r="C13" s="19" t="s">
         <v>28</v>
       </c>
@@ -5277,7 +5163,7 @@
       <c r="B11" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="96" t="s">
         <v>114</v>
       </c>
       <c r="D11" s="50"/>
@@ -5292,7 +5178,7 @@
       <c r="B12" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="79"/>
+      <c r="C12" s="97"/>
       <c r="D12" s="50"/>
       <c r="E12" s="50"/>
       <c r="F12" s="50"/>
@@ -5373,7 +5259,7 @@
       <c r="B17" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="78" t="s">
+      <c r="C17" s="96" t="s">
         <v>114</v>
       </c>
       <c r="D17" s="50"/>
@@ -5388,7 +5274,7 @@
       <c r="B18" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="C18" s="79"/>
+      <c r="C18" s="97"/>
       <c r="D18" s="50"/>
       <c r="E18" s="50"/>
       <c r="F18" s="50"/>
@@ -5551,244 +5437,242 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="81" t="s">
+      <c r="C6" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="D6" s="81" t="s">
+      <c r="D6" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="E6" s="89"/>
-      <c r="F6" s="81" t="s">
+      <c r="E6" s="67"/>
+      <c r="F6" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="G6" s="81" t="s">
+      <c r="G6" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="H6" s="81" t="s">
+      <c r="H6" s="65" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="82" t="s">
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="G7" s="82"/>
-      <c r="H7" s="94"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="66" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="82" t="s">
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="G8" s="82"/>
-      <c r="H8" s="94"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="82">
-        <v>1</v>
-      </c>
-      <c r="D9" s="94"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="82" t="s">
+      <c r="C9" s="66">
+        <v>1</v>
+      </c>
+      <c r="D9" s="66"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="G9" s="82">
-        <v>1</v>
-      </c>
-      <c r="H9" s="94"/>
+      <c r="G9" s="66">
+        <v>1</v>
+      </c>
+      <c r="H9" s="66"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="82"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="82" t="s">
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="G10" s="82"/>
-      <c r="H10" s="94"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="C12" s="81" t="s">
+      <c r="C12" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="D12" s="81" t="s">
+      <c r="D12" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="F12" s="81" t="s">
+      <c r="F12" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="G12" s="81" t="s">
+      <c r="G12" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="H12" s="81" t="s">
+      <c r="H12" s="65" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="94"/>
-      <c r="F13" s="82" t="s">
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="F13" s="66" t="s">
         <v>169</v>
       </c>
-      <c r="G13" s="82"/>
-      <c r="H13" s="94"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="82" t="s">
+      <c r="B14" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="C14" s="82"/>
-      <c r="D14" s="94"/>
-      <c r="F14" s="82" t="s">
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="F14" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="G14" s="82"/>
-      <c r="H14" s="94"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="82" t="s">
+      <c r="B15" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="C15" s="82">
-        <v>0</v>
-      </c>
-      <c r="D15" s="94"/>
-      <c r="F15" s="82" t="s">
+      <c r="C15" s="66">
+        <v>0</v>
+      </c>
+      <c r="D15" s="66"/>
+      <c r="F15" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="G15" s="82">
-        <v>1</v>
-      </c>
-      <c r="H15" s="94"/>
+      <c r="G15" s="66">
+        <v>1</v>
+      </c>
+      <c r="H15" s="66"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="66" t="s">
         <v>165</v>
       </c>
-      <c r="C16" s="82"/>
-      <c r="D16" s="94"/>
-      <c r="F16" s="82" t="s">
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="F16" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="G16" s="82"/>
-      <c r="H16" s="94"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="80"/>
-      <c r="D17" s="96"/>
-      <c r="H17" s="96"/>
+      <c r="B17" s="64"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="81" t="s">
+      <c r="B18" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="C18" s="81" t="s">
+      <c r="C18" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="D18" s="81" t="s">
+      <c r="D18" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="E18" s="89"/>
-      <c r="F18" s="81" t="s">
+      <c r="E18" s="67"/>
+      <c r="F18" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="G18" s="81" t="s">
+      <c r="G18" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="H18" s="81" t="s">
+      <c r="H18" s="65" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="C19" s="82"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="82" t="s">
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="66" t="s">
         <v>174</v>
       </c>
-      <c r="G19" s="82"/>
-      <c r="H19" s="94"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="82" t="s">
+      <c r="B20" s="66" t="s">
         <v>170</v>
       </c>
-      <c r="C20" s="82"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="82" t="s">
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="G20" s="82"/>
-      <c r="H20" s="94"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="82" t="s">
+      <c r="B21" s="66" t="s">
         <v>172</v>
       </c>
-      <c r="C21" s="82">
-        <v>0</v>
-      </c>
-      <c r="D21" s="94"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="82" t="s">
+      <c r="C21" s="66">
+        <v>0</v>
+      </c>
+      <c r="D21" s="66"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="66" t="s">
         <v>176</v>
       </c>
-      <c r="G21" s="82">
-        <v>1</v>
-      </c>
-      <c r="H21" s="94"/>
+      <c r="G21" s="66">
+        <v>1</v>
+      </c>
+      <c r="H21" s="66"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="82" t="s">
+      <c r="B22" s="66" t="s">
         <v>173</v>
       </c>
-      <c r="C22" s="82"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="82" t="s">
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="66" t="s">
         <v>177</v>
       </c>
-      <c r="G22" s="82"/>
-      <c r="H22" s="94"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5800,1026 +5684,1020 @@
   <dimension ref="A1:Y34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="80"/>
-    <col min="4" max="4" width="13.1640625" style="80" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" style="80" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="64"/>
+    <col min="4" max="4" width="13.1640625" style="64" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="64" customWidth="1"/>
     <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.5" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="14.1640625" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="15.33203125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="96"/>
     <col min="13" max="13" width="2.6640625" customWidth="1"/>
     <col min="16" max="16" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="17" max="21" width="14.1640625" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="10.83203125" style="96"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="11"/>
-      <c r="B1" s="100"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="L1" s="82" t="s">
+      <c r="B1" s="75"/>
+      <c r="L1" s="66" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" s="85"/>
-      <c r="B2" s="101" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="98" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="82">
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="66">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3" s="103"/>
-      <c r="B3" s="101" t="s">
+      <c r="A3" s="77"/>
+      <c r="B3" s="98" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="82">
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="66">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" s="92"/>
-      <c r="B4" s="101" t="s">
+      <c r="A4" s="72"/>
+      <c r="B4" s="98" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="82">
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="66">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A5" s="86"/>
-      <c r="B5" s="101" t="s">
+      <c r="A5" s="69"/>
+      <c r="B5" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="82">
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="66">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="22"/>
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="82">
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="66">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="E9" s="81" t="s">
+      <c r="E9" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="F9" s="81" t="s">
+      <c r="F9" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="G9" s="81" t="s">
+      <c r="G9" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="H9" s="95" t="s">
+      <c r="H9" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="I9" s="95" t="s">
+      <c r="I9" s="65" t="s">
         <v>182</v>
       </c>
-      <c r="J9" s="95" t="s">
+      <c r="J9" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="K9" s="95" t="s">
+      <c r="K9" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="L9" s="81" t="s">
+      <c r="L9" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="M9" s="89"/>
-      <c r="N9" s="81" t="s">
+      <c r="M9" s="67"/>
+      <c r="N9" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="O9" s="81" t="s">
+      <c r="O9" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="P9" s="81" t="s">
+      <c r="P9" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="Q9" s="81" t="s">
+      <c r="Q9" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="R9" s="95" t="s">
+      <c r="R9" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="S9" s="95"/>
-      <c r="T9" s="95"/>
-      <c r="U9" s="95"/>
-      <c r="V9" s="81" t="s">
+      <c r="S9" s="65"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="65"/>
+      <c r="V9" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="W9" s="89"/>
-      <c r="X9" s="91" t="s">
+      <c r="W9" s="67"/>
+      <c r="X9" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="Y9" s="82">
+      <c r="Y9" s="66">
         <f>L14+V14+L21+V21+L28+V28</f>
         <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="D10" s="102" t="s">
+      <c r="D10" s="76" t="s">
         <v>157</v>
       </c>
-      <c r="E10" s="82" t="str">
+      <c r="E10" s="66" t="str">
         <f>master!B7</f>
         <v>Netherlands</v>
       </c>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82">
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66">
         <f>IF(D10=E10,5,0)</f>
         <v>5</v>
       </c>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="94">
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66">
         <f>H10</f>
         <v>5</v>
       </c>
-      <c r="M10" s="90"/>
-      <c r="N10" s="102" t="s">
+      <c r="M10" s="64"/>
+      <c r="N10" s="76" t="s">
         <v>161</v>
       </c>
-      <c r="O10" s="82" t="str">
+      <c r="O10" s="66" t="str">
         <f>master!F7</f>
         <v>England</v>
       </c>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="82"/>
-      <c r="R10" s="82">
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66">
         <f>IF(N10=O10,5,0)</f>
         <v>5</v>
       </c>
-      <c r="S10" s="82"/>
-      <c r="T10" s="82"/>
-      <c r="U10" s="82"/>
-      <c r="V10" s="94">
+      <c r="S10" s="66"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="66"/>
+      <c r="V10" s="66">
         <f>R10</f>
         <v>5</v>
       </c>
-      <c r="W10" s="90"/>
-      <c r="X10" s="82" t="s">
+      <c r="W10" s="64"/>
+      <c r="X10" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="Y10" s="82"/>
+      <c r="Y10" s="66"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="D11" s="102" t="s">
+      <c r="D11" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="E11" s="82" t="str">
+      <c r="E11" s="66" t="str">
         <f>master!B8</f>
         <v>Ecuador</v>
       </c>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82">
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66">
         <f>IF(D11=E11,4,0)</f>
         <v>4</v>
       </c>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="94">
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66">
         <f>H11</f>
         <v>4</v>
       </c>
-      <c r="M11" s="90"/>
-      <c r="N11" s="102" t="s">
+      <c r="M11" s="64"/>
+      <c r="N11" s="76" t="s">
         <v>160</v>
       </c>
-      <c r="O11" s="82" t="str">
+      <c r="O11" s="66" t="str">
         <f>master!F8</f>
         <v>USA</v>
       </c>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="82">
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66">
         <f>IF(N11=O11,4,0)</f>
         <v>4</v>
       </c>
-      <c r="S11" s="82"/>
-      <c r="T11" s="82"/>
-      <c r="U11" s="82"/>
-      <c r="V11" s="94">
+      <c r="S11" s="66"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="66"/>
+      <c r="V11" s="66">
         <f t="shared" ref="V11:V13" si="0">R11</f>
         <v>4</v>
       </c>
-      <c r="W11" s="90"/>
-      <c r="X11" s="82" t="s">
+      <c r="W11" s="64"/>
+      <c r="X11" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="Y11" s="82"/>
+      <c r="Y11" s="66"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="D12" s="102" t="s">
+      <c r="D12" s="76" t="s">
         <v>154</v>
       </c>
-      <c r="E12" s="82" t="str">
+      <c r="E12" s="66" t="str">
         <f>master!B9</f>
         <v>Senegal</v>
       </c>
-      <c r="F12" s="102">
-        <v>1</v>
-      </c>
-      <c r="G12" s="82">
+      <c r="F12" s="76">
+        <v>1</v>
+      </c>
+      <c r="G12" s="66">
         <f>master!C9</f>
         <v>1</v>
       </c>
-      <c r="H12" s="82">
+      <c r="H12" s="66">
         <f>IF(D12=E12,1,0)</f>
         <v>1</v>
       </c>
-      <c r="I12" s="82">
+      <c r="I12" s="66">
         <f>IF(F12=G12,2,0)</f>
         <v>2</v>
       </c>
-      <c r="J12" s="82">
+      <c r="J12" s="66">
         <f>IF(G12=1,1,2)</f>
         <v>1</v>
       </c>
-      <c r="K12" s="82">
+      <c r="K12" s="66">
         <f>IF(J12=1,I12,0)</f>
         <v>2</v>
       </c>
-      <c r="L12" s="94">
+      <c r="L12" s="66">
         <f>H12+K12</f>
         <v>3</v>
       </c>
-      <c r="M12" s="90"/>
-      <c r="N12" s="102" t="s">
+      <c r="M12" s="64"/>
+      <c r="N12" s="76" t="s">
         <v>159</v>
       </c>
-      <c r="O12" s="82" t="str">
+      <c r="O12" s="66" t="str">
         <f>master!F9</f>
         <v>Wales</v>
       </c>
-      <c r="P12" s="102">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="82">
+      <c r="P12" s="76">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="66">
         <f>master!G9</f>
         <v>1</v>
       </c>
-      <c r="R12" s="82">
+      <c r="R12" s="66">
         <f>IF(N12=O12,1,0)</f>
         <v>1</v>
       </c>
-      <c r="S12" s="82">
+      <c r="S12" s="66">
         <f>IF(P12=Q12,2,0)</f>
         <v>2</v>
       </c>
-      <c r="T12" s="82">
+      <c r="T12" s="66">
         <f>IF(Q12=1,1,2)</f>
         <v>1</v>
       </c>
-      <c r="U12" s="82">
+      <c r="U12" s="66">
         <f>IF(T12=1,S12,0)</f>
         <v>2</v>
       </c>
-      <c r="V12" s="94">
+      <c r="V12" s="66">
         <f>R12+U12</f>
         <v>3</v>
       </c>
-      <c r="W12" s="90"/>
-      <c r="X12" s="82" t="s">
+      <c r="W12" s="64"/>
+      <c r="X12" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="Y12" s="82"/>
+      <c r="Y12" s="66"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="D13" s="102" t="s">
+      <c r="D13" s="76" t="s">
         <v>155</v>
       </c>
-      <c r="E13" s="82" t="str">
+      <c r="E13" s="66" t="str">
         <f>master!B10</f>
         <v>Qatar</v>
       </c>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82">
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66">
         <f>IF(D13=E13,1,0)</f>
         <v>1</v>
       </c>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="94">
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66">
         <f>H13</f>
         <v>1</v>
       </c>
-      <c r="M13" s="90"/>
-      <c r="N13" s="102" t="s">
+      <c r="M13" s="64"/>
+      <c r="N13" s="76" t="s">
         <v>158</v>
       </c>
-      <c r="O13" s="82" t="str">
+      <c r="O13" s="66" t="str">
         <f>master!F10</f>
         <v>Iran</v>
       </c>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="82">
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66">
         <f>IF(N13=O13,1,0)</f>
         <v>1</v>
       </c>
-      <c r="S13" s="82"/>
-      <c r="T13" s="82"/>
-      <c r="U13" s="82"/>
-      <c r="V13" s="94">
+      <c r="S13" s="66"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="66"/>
+      <c r="V13" s="66">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="W13" s="90"/>
-      <c r="X13" s="82" t="s">
+      <c r="W13" s="64"/>
+      <c r="X13" s="66" t="s">
         <v>152</v>
       </c>
-      <c r="Y13" s="82"/>
+      <c r="Y13" s="66"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="81">
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="65">
         <f>SUM(L10:L13)</f>
         <v>13</v>
       </c>
-      <c r="M14" s="89"/>
-      <c r="N14" s="83"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="83"/>
-      <c r="S14" s="83"/>
-      <c r="T14" s="83"/>
-      <c r="U14" s="83"/>
-      <c r="V14" s="81">
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="67"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="67"/>
+      <c r="V14" s="65">
         <f>SUM(V10:V13)</f>
         <v>13</v>
       </c>
-      <c r="W14" s="89"/>
-      <c r="X14" s="81" t="s">
+      <c r="W14" s="67"/>
+      <c r="X14" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="Y14" s="81">
+      <c r="Y14" s="65">
         <f>SUM(Y9:Y13)</f>
         <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="90"/>
-      <c r="N15" s="80"/>
-      <c r="O15" s="80"/>
-      <c r="P15" s="80"/>
-      <c r="Q15" s="80"/>
-      <c r="R15" s="80"/>
-      <c r="S15" s="80"/>
-      <c r="T15" s="80"/>
-      <c r="U15" s="80"/>
-      <c r="V15" s="80"/>
-      <c r="W15" s="90"/>
-      <c r="X15" s="80"/>
-      <c r="Y15" s="80"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="64"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="64"/>
+      <c r="W15" s="64"/>
+      <c r="X15" s="64"/>
+      <c r="Y15" s="64"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="D16" s="81" t="s">
+      <c r="D16" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="E16" s="81" t="s">
+      <c r="E16" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="F16" s="81" t="s">
+      <c r="F16" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="G16" s="81" t="s">
+      <c r="G16" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="H16" s="95" t="s">
+      <c r="H16" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="81" t="s">
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="N16" s="81" t="s">
+      <c r="N16" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="O16" s="81" t="s">
+      <c r="O16" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="P16" s="81" t="s">
+      <c r="P16" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="Q16" s="81" t="s">
+      <c r="Q16" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="R16" s="95" t="s">
+      <c r="R16" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="S16" s="95"/>
-      <c r="T16" s="95"/>
-      <c r="U16" s="95"/>
-      <c r="V16" s="81" t="s">
+      <c r="S16" s="65"/>
+      <c r="T16" s="65"/>
+      <c r="U16" s="65"/>
+      <c r="V16" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="X16" s="80"/>
-      <c r="Y16" s="80"/>
+      <c r="X16" s="64"/>
+      <c r="Y16" s="64"/>
     </row>
     <row r="17" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D17" s="102" t="s">
+      <c r="D17" s="76" t="s">
         <v>162</v>
       </c>
-      <c r="E17" s="82" t="str">
+      <c r="E17" s="66" t="str">
         <f>master!B13</f>
         <v>Argentina</v>
       </c>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82">
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66">
         <f>IF(D17=E17,5,0)</f>
         <v>5</v>
       </c>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="94">
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66">
         <f>H17</f>
         <v>5</v>
       </c>
-      <c r="N17" s="102" t="s">
+      <c r="N17" s="76" t="s">
         <v>169</v>
       </c>
-      <c r="O17" s="82" t="str">
+      <c r="O17" s="66" t="str">
         <f>master!F13</f>
         <v>France</v>
       </c>
-      <c r="P17" s="82"/>
-      <c r="Q17" s="82"/>
-      <c r="R17" s="82">
+      <c r="P17" s="66"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="66">
         <f>IF(N17=O17,5,0)</f>
         <v>5</v>
       </c>
-      <c r="S17" s="82"/>
-      <c r="T17" s="82"/>
-      <c r="U17" s="82"/>
-      <c r="V17" s="94">
+      <c r="S17" s="66"/>
+      <c r="T17" s="66"/>
+      <c r="U17" s="66"/>
+      <c r="V17" s="66">
         <f>R17</f>
         <v>5</v>
       </c>
-      <c r="X17" s="80"/>
-      <c r="Y17" s="80"/>
+      <c r="X17" s="64"/>
+      <c r="Y17" s="64"/>
     </row>
     <row r="18" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D18" s="102" t="s">
+      <c r="D18" s="76" t="s">
         <v>163</v>
       </c>
-      <c r="E18" s="82" t="str">
+      <c r="E18" s="66" t="str">
         <f>master!B14</f>
         <v>Mexico</v>
       </c>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82">
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66">
         <f>IF(D18=E18,4,0)</f>
         <v>4</v>
       </c>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="94">
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66">
         <f>H18</f>
         <v>4</v>
       </c>
-      <c r="N18" s="102" t="s">
+      <c r="N18" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="O18" s="82" t="str">
+      <c r="O18" s="66" t="str">
         <f>master!F14</f>
         <v>Denmark</v>
       </c>
-      <c r="P18" s="82"/>
-      <c r="Q18" s="82"/>
-      <c r="R18" s="82">
+      <c r="P18" s="66"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="66">
         <f>IF(N18=O18,4,0)</f>
         <v>4</v>
       </c>
-      <c r="S18" s="82"/>
-      <c r="T18" s="82"/>
-      <c r="U18" s="82"/>
-      <c r="V18" s="94">
+      <c r="S18" s="66"/>
+      <c r="T18" s="66"/>
+      <c r="U18" s="66"/>
+      <c r="V18" s="66">
         <f t="shared" ref="V18:V20" si="1">R18</f>
         <v>4</v>
       </c>
-      <c r="X18" s="80"/>
-      <c r="Y18" s="80"/>
+      <c r="X18" s="64"/>
+      <c r="Y18" s="64"/>
     </row>
     <row r="19" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D19" s="102" t="s">
+      <c r="D19" s="76" t="s">
         <v>164</v>
       </c>
-      <c r="E19" s="82" t="str">
+      <c r="E19" s="66" t="str">
         <f>master!B15</f>
         <v>Poland</v>
       </c>
-      <c r="F19" s="102">
-        <v>0</v>
-      </c>
-      <c r="G19" s="82">
+      <c r="F19" s="76">
+        <v>0</v>
+      </c>
+      <c r="G19" s="66">
         <f>master!C15</f>
         <v>0</v>
       </c>
-      <c r="H19" s="82">
+      <c r="H19" s="66">
         <f>IF(D19=E19,1,0)</f>
         <v>1</v>
       </c>
-      <c r="I19" s="82">
+      <c r="I19" s="66">
         <f>IF(F19=G19,2,0)</f>
         <v>2</v>
       </c>
-      <c r="J19" s="82">
+      <c r="J19" s="66">
         <f>IF(G19=1,1,2)</f>
         <v>2</v>
       </c>
-      <c r="K19" s="82">
+      <c r="K19" s="66">
         <f>IF(J19=1,I19,0)</f>
         <v>0</v>
       </c>
-      <c r="L19" s="94">
+      <c r="L19" s="66">
         <f>H19+K19</f>
         <v>1</v>
       </c>
-      <c r="N19" s="102" t="s">
+      <c r="N19" s="76" t="s">
         <v>166</v>
       </c>
-      <c r="O19" s="82" t="str">
+      <c r="O19" s="66" t="str">
         <f>master!F15</f>
         <v>Australia</v>
       </c>
-      <c r="P19" s="102">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="82">
+      <c r="P19" s="76">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="66">
         <f>master!G15</f>
         <v>1</v>
       </c>
-      <c r="R19" s="82">
+      <c r="R19" s="66">
         <f>IF(N19=O19,1,0)</f>
         <v>1</v>
       </c>
-      <c r="S19" s="82">
+      <c r="S19" s="66">
         <f>IF(P19=Q19,2,0)</f>
         <v>2</v>
       </c>
-      <c r="T19" s="82">
+      <c r="T19" s="66">
         <f>IF(Q19=1,1,2)</f>
         <v>1</v>
       </c>
-      <c r="U19" s="82">
+      <c r="U19" s="66">
         <f>IF(T19=1,S19,0)</f>
         <v>2</v>
       </c>
-      <c r="V19" s="94">
+      <c r="V19" s="66">
         <f>R19+U19</f>
         <v>3</v>
       </c>
-      <c r="X19" s="80"/>
-      <c r="Y19" s="80"/>
+      <c r="X19" s="64"/>
+      <c r="Y19" s="64"/>
     </row>
     <row r="20" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D20" s="102" t="s">
+      <c r="D20" s="76" t="s">
         <v>165</v>
       </c>
-      <c r="E20" s="82" t="str">
+      <c r="E20" s="66" t="str">
         <f>master!B16</f>
         <v>Saudi Arabia</v>
       </c>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82">
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66">
         <f>IF(D20=E20,1,0)</f>
         <v>1</v>
       </c>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="94">
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66">
         <f>H20</f>
         <v>1</v>
       </c>
-      <c r="N20" s="102" t="s">
+      <c r="N20" s="76" t="s">
         <v>167</v>
       </c>
-      <c r="O20" s="82" t="str">
+      <c r="O20" s="66" t="str">
         <f>master!F16</f>
         <v>Tunisia</v>
       </c>
-      <c r="P20" s="82"/>
-      <c r="Q20" s="82"/>
-      <c r="R20" s="82">
+      <c r="P20" s="66"/>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="66">
         <f>IF(N20=O20,1,0)</f>
         <v>1</v>
       </c>
-      <c r="S20" s="82"/>
-      <c r="T20" s="82"/>
-      <c r="U20" s="82"/>
-      <c r="V20" s="94">
+      <c r="S20" s="66"/>
+      <c r="T20" s="66"/>
+      <c r="U20" s="66"/>
+      <c r="V20" s="66">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="X20" s="80"/>
-      <c r="Y20" s="80"/>
+      <c r="X20" s="64"/>
+      <c r="Y20" s="64"/>
     </row>
     <row r="21" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="83"/>
-      <c r="L21" s="99">
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="74">
         <f>SUM(L17:L20)</f>
         <v>11</v>
       </c>
-      <c r="N21" s="98"/>
-      <c r="O21" s="80"/>
-      <c r="P21" s="80"/>
-      <c r="Q21" s="80"/>
-      <c r="R21" s="80"/>
-      <c r="S21" s="80"/>
-      <c r="T21" s="80"/>
-      <c r="U21" s="80"/>
-      <c r="V21" s="81">
+      <c r="N21" s="64"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="64"/>
+      <c r="S21" s="64"/>
+      <c r="T21" s="64"/>
+      <c r="U21" s="64"/>
+      <c r="V21" s="65">
         <f>SUM(V17:V20)</f>
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D23" s="81" t="s">
+      <c r="D23" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="E23" s="81" t="s">
+      <c r="E23" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="F23" s="81" t="s">
+      <c r="F23" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="G23" s="81" t="s">
+      <c r="G23" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="H23" s="95" t="s">
+      <c r="H23" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="I23" s="95"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="95"/>
-      <c r="L23" s="81" t="s">
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="M23" s="89"/>
-      <c r="N23" s="81" t="s">
+      <c r="M23" s="67"/>
+      <c r="N23" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="O23" s="81" t="s">
+      <c r="O23" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="P23" s="81" t="s">
+      <c r="P23" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="Q23" s="81" t="s">
+      <c r="Q23" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="R23" s="95" t="s">
+      <c r="R23" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="S23" s="95"/>
-      <c r="T23" s="95"/>
-      <c r="U23" s="95"/>
-      <c r="V23" s="81" t="s">
+      <c r="S23" s="65"/>
+      <c r="T23" s="65"/>
+      <c r="U23" s="65"/>
+      <c r="V23" s="65" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="24" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D24" s="102" t="s">
+      <c r="D24" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="E24" s="82" t="str">
+      <c r="E24" s="66" t="str">
         <f>master!B19</f>
         <v>Germany</v>
       </c>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82">
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66">
         <f>IF(D24=E24,5,0)</f>
         <v>5</v>
       </c>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="94">
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66">
         <f>H24</f>
         <v>5</v>
       </c>
-      <c r="M24" s="90"/>
-      <c r="N24" s="102" t="s">
+      <c r="M24" s="64"/>
+      <c r="N24" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="O24" s="82" t="str">
+      <c r="O24" s="66" t="str">
         <f>master!F19</f>
         <v>Belgium</v>
       </c>
-      <c r="P24" s="82"/>
-      <c r="Q24" s="82"/>
-      <c r="R24" s="82">
+      <c r="P24" s="66"/>
+      <c r="Q24" s="66"/>
+      <c r="R24" s="66">
         <f>IF(N24=O24,5,0)</f>
         <v>5</v>
       </c>
-      <c r="S24" s="82"/>
-      <c r="T24" s="82"/>
-      <c r="U24" s="82"/>
-      <c r="V24" s="94">
+      <c r="S24" s="66"/>
+      <c r="T24" s="66"/>
+      <c r="U24" s="66"/>
+      <c r="V24" s="66">
         <f>R24</f>
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D25" s="102" t="s">
+      <c r="D25" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="E25" s="82" t="str">
+      <c r="E25" s="66" t="str">
         <f>master!B20</f>
         <v>Spain</v>
       </c>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82">
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66">
         <f>IF(D25=E25,4,0)</f>
         <v>4</v>
       </c>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="94">
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66">
         <f>H25</f>
         <v>4</v>
       </c>
-      <c r="M25" s="90"/>
-      <c r="N25" s="102" t="s">
+      <c r="M25" s="64"/>
+      <c r="N25" s="76" t="s">
         <v>175</v>
       </c>
-      <c r="O25" s="82" t="str">
+      <c r="O25" s="66" t="str">
         <f>master!F20</f>
         <v>Croatia</v>
       </c>
-      <c r="P25" s="82"/>
-      <c r="Q25" s="82"/>
-      <c r="R25" s="82">
+      <c r="P25" s="66"/>
+      <c r="Q25" s="66"/>
+      <c r="R25" s="66">
         <f>IF(N25=O25,4,0)</f>
         <v>4</v>
       </c>
-      <c r="S25" s="82"/>
-      <c r="T25" s="82"/>
-      <c r="U25" s="82"/>
-      <c r="V25" s="94">
+      <c r="S25" s="66"/>
+      <c r="T25" s="66"/>
+      <c r="U25" s="66"/>
+      <c r="V25" s="66">
         <f t="shared" ref="V25:V27" si="2">R25</f>
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D26" s="102" t="s">
+      <c r="D26" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="E26" s="82" t="str">
+      <c r="E26" s="66" t="str">
         <f>master!B21</f>
         <v>Japan</v>
       </c>
-      <c r="F26" s="102">
-        <v>0</v>
-      </c>
-      <c r="G26" s="82">
+      <c r="F26" s="76">
+        <v>0</v>
+      </c>
+      <c r="G26" s="66">
         <f>master!C21</f>
         <v>0</v>
       </c>
-      <c r="H26" s="82">
+      <c r="H26" s="66">
         <f>IF(D26=E26,1,0)</f>
         <v>1</v>
       </c>
-      <c r="I26" s="82">
+      <c r="I26" s="66">
         <f>IF(F26=G26,2,0)</f>
         <v>2</v>
       </c>
-      <c r="J26" s="82">
+      <c r="J26" s="66">
         <f>IF(G26=1,1,2)</f>
         <v>2</v>
       </c>
-      <c r="K26" s="82">
+      <c r="K26" s="66">
         <f>IF(J26=1,I26,0)</f>
         <v>0</v>
       </c>
-      <c r="L26" s="94">
+      <c r="L26" s="66">
         <f>H26+K26</f>
         <v>1</v>
       </c>
-      <c r="M26" s="90"/>
-      <c r="N26" s="102" t="s">
+      <c r="M26" s="64"/>
+      <c r="N26" s="76" t="s">
         <v>176</v>
       </c>
-      <c r="O26" s="82" t="str">
+      <c r="O26" s="66" t="str">
         <f>master!F21</f>
         <v>Morocco</v>
       </c>
-      <c r="P26" s="102">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="82">
+      <c r="P26" s="76">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="66">
         <f>master!G21</f>
         <v>1</v>
       </c>
-      <c r="R26" s="82">
+      <c r="R26" s="66">
         <f>IF(N26=O26,1,0)</f>
         <v>1</v>
       </c>
-      <c r="S26" s="82">
+      <c r="S26" s="66">
         <f>IF(P26=Q26,2,0)</f>
         <v>2</v>
       </c>
-      <c r="T26" s="82">
+      <c r="T26" s="66">
         <f>IF(Q26=1,1,2)</f>
         <v>1</v>
       </c>
-      <c r="U26" s="82">
+      <c r="U26" s="66">
         <f>IF(T26=1,S26,0)</f>
         <v>2</v>
       </c>
-      <c r="V26" s="94">
+      <c r="V26" s="66">
         <f>R26+U26</f>
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D27" s="102" t="s">
+      <c r="D27" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="E27" s="82" t="str">
+      <c r="E27" s="66" t="str">
         <f>master!B22</f>
         <v>Costa Rica</v>
       </c>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82">
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66">
         <f>IF(D27=E27,1,0)</f>
         <v>1</v>
       </c>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="94">
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66">
         <f>H27</f>
         <v>1</v>
       </c>
-      <c r="M27" s="90"/>
-      <c r="N27" s="102" t="s">
+      <c r="M27" s="64"/>
+      <c r="N27" s="76" t="s">
         <v>177</v>
       </c>
-      <c r="O27" s="82" t="str">
+      <c r="O27" s="66" t="str">
         <f>master!F22</f>
         <v>Canada</v>
       </c>
-      <c r="P27" s="82"/>
-      <c r="Q27" s="82"/>
-      <c r="R27" s="82">
+      <c r="P27" s="66"/>
+      <c r="Q27" s="66"/>
+      <c r="R27" s="66">
         <f>IF(N27=O27,1,0)</f>
         <v>1</v>
       </c>
-      <c r="S27" s="82"/>
-      <c r="T27" s="82"/>
-      <c r="U27" s="82"/>
-      <c r="V27" s="94">
+      <c r="S27" s="66"/>
+      <c r="T27" s="66"/>
+      <c r="U27" s="66"/>
+      <c r="V27" s="66">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="80"/>
-      <c r="L28" s="81">
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="65">
         <f t="shared" ref="L28:V28" si="3">SUM(L24:L27)</f>
         <v>11</v>
       </c>
-      <c r="M28" s="89"/>
-      <c r="N28" s="80"/>
-      <c r="O28" s="80"/>
-      <c r="P28" s="80"/>
-      <c r="Q28" s="80"/>
-      <c r="R28" s="80"/>
-      <c r="S28" s="80"/>
-      <c r="T28" s="80"/>
-      <c r="U28" s="80"/>
-      <c r="V28" s="99">
+      <c r="M28" s="67"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="64"/>
+      <c r="R28" s="64"/>
+      <c r="S28" s="64"/>
+      <c r="T28" s="64"/>
+      <c r="U28" s="64"/>
+      <c r="V28" s="74">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
     </row>
     <row r="29" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="M29" s="89"/>
+      <c r="M29" s="67"/>
     </row>
     <row r="30" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="M30" s="90"/>
+      <c r="M30" s="64"/>
     </row>
     <row r="31" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="M31" s="90"/>
+      <c r="M31" s="64"/>
     </row>
     <row r="32" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="M32" s="90"/>
+      <c r="M32" s="64"/>
     </row>
     <row r="33" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M33" s="90"/>
+      <c r="M33" s="64"/>
     </row>
     <row r="34" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M34" s="89"/>
+      <c r="M34" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6829,26 +6707,26 @@
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="B6:G6"/>
   </mergeCells>
-  <conditionalFormatting sqref="L10 V10 V17 L17 L24 V24">
-    <cfRule type="cellIs" dxfId="46" priority="6" operator="equal">
+  <conditionalFormatting sqref="L10 V10 L17 V17 L24 V24">
+    <cfRule type="cellIs" dxfId="32" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L11 L18 L25 V25 V18 V11">
-    <cfRule type="cellIs" dxfId="44" priority="4" operator="equal">
+  <conditionalFormatting sqref="L11 V11 L18 V18 L25 V25">
+    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L12 L19 L26 V12 V19 V26">
-    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
+  <conditionalFormatting sqref="L12 V12 L19 V19 L26 V26">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L13 V13 V20 L20 L27 V27">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
+  <conditionalFormatting sqref="L13 V13 L20 V20 L27 V27">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6858,1086 +6736,1143 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BA53A3-896F-5548-BE26-1B0315E4CCCA}">
-  <dimension ref="A1:AA34"/>
+  <dimension ref="A1:AC41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="80"/>
-    <col min="4" max="4" width="13.1640625" style="80" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" style="80" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="64"/>
+    <col min="4" max="4" width="13.1640625" style="64" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="64" customWidth="1"/>
     <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.5" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="14.1640625" hidden="1" customWidth="1"/>
     <col min="11" max="13" width="15.33203125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="96"/>
     <col min="15" max="15" width="2.6640625" customWidth="1"/>
     <col min="18" max="18" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.1640625" customWidth="1"/>
     <col min="20" max="23" width="14.1640625" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="10.83203125" style="96"/>
+    <col min="28" max="28" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="11"/>
-      <c r="B1" s="100"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="N1" s="82" t="s">
+      <c r="B1" s="75"/>
+      <c r="N1" s="66" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="87">
+      <c r="A2" s="70">
         <v>5</v>
       </c>
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="98" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="82">
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="66">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="104">
+      <c r="A3" s="78">
         <v>4</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="98" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="82">
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="66">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="93">
+      <c r="A4" s="73">
         <v>3</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="98" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="82">
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="66">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="105">
+      <c r="A5" s="79">
         <v>2</v>
       </c>
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="97"/>
-      <c r="N5" s="82">
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="66">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="88">
-        <v>1</v>
-      </c>
-      <c r="B6" s="101" t="s">
+      <c r="A6" s="71">
+        <v>1</v>
+      </c>
+      <c r="B6" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
-      <c r="N6" s="82">
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="66">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="E9" s="81" t="s">
+      <c r="E9" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="F9" s="81" t="s">
+      <c r="F9" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="G9" s="81" t="s">
+      <c r="G9" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="H9" s="95" t="s">
+      <c r="H9" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="I9" s="95" t="s">
+      <c r="I9" s="65" t="s">
         <v>182</v>
       </c>
-      <c r="J9" s="95" t="s">
+      <c r="J9" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="K9" s="95" t="s">
+      <c r="K9" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="L9" s="95"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="81" t="s">
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="O9" s="89"/>
-      <c r="P9" s="81" t="s">
+      <c r="O9" s="67"/>
+      <c r="P9" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="Q9" s="81" t="s">
+      <c r="Q9" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="R9" s="81" t="s">
+      <c r="R9" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="S9" s="81" t="s">
+      <c r="S9" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="T9" s="95" t="s">
+      <c r="T9" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="U9" s="95"/>
-      <c r="V9" s="95"/>
-      <c r="W9" s="95"/>
-      <c r="X9" s="81" t="s">
+      <c r="U9" s="65"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="Y9" s="89"/>
-      <c r="Z9" s="91" t="s">
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="AA9" s="82">
+      <c r="AA9" s="66">
         <f>N14+X14+N21+X21+N28+X28</f>
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D10" s="94" t="s">
+      <c r="D10" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="E10" s="82" t="str">
+      <c r="E10" s="66" t="str">
         <f>master!B7</f>
         <v>Netherlands</v>
       </c>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82">
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66">
         <f>IF(D10=E10,5,0)</f>
         <v>5</v>
       </c>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82">
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66">
         <f>IF(D10=E11,2,0)</f>
         <v>0</v>
       </c>
-      <c r="M10" s="82">
+      <c r="M10" s="66">
         <f>IF(D10=E12,2,0)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="94">
+      <c r="N10" s="66">
         <v>5</v>
       </c>
-      <c r="O10" s="90"/>
-      <c r="P10" s="82" t="s">
+      <c r="O10" s="64"/>
+      <c r="P10" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="Q10" s="82" t="str">
+      <c r="Q10" s="66" t="str">
         <f>master!F7</f>
         <v>England</v>
       </c>
-      <c r="R10" s="82"/>
-      <c r="S10" s="82"/>
-      <c r="T10" s="82">
+      <c r="R10" s="66"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="66">
         <f>IF(P10=Q10,5,0)</f>
         <v>5</v>
       </c>
-      <c r="U10" s="82"/>
-      <c r="V10" s="82"/>
-      <c r="W10" s="82"/>
-      <c r="X10" s="94">
+      <c r="U10" s="66"/>
+      <c r="V10" s="66"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="66">
         <f>T10</f>
         <v>5</v>
       </c>
-      <c r="Y10" s="90"/>
-      <c r="Z10" s="82" t="s">
+      <c r="Y10" s="64"/>
+      <c r="Z10" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="AA10" s="82"/>
+      <c r="AA10" s="66"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D11" s="94" t="s">
+      <c r="D11" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="E11" s="82" t="str">
+      <c r="E11" s="66" t="str">
         <f>master!B8</f>
         <v>Ecuador</v>
       </c>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82">
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66">
         <f>IF(D11=E11,4,0)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82">
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66">
         <f>IF(D11=E10,2,0)</f>
         <v>0</v>
       </c>
-      <c r="M11" s="82">
+      <c r="M11" s="66">
         <f>IF(D11=E12,2,0)</f>
         <v>2</v>
       </c>
-      <c r="N11" s="94">
-        <v>0</v>
-      </c>
-      <c r="O11" s="90"/>
-      <c r="P11" s="82" t="s">
+      <c r="N11" s="66">
+        <v>2</v>
+      </c>
+      <c r="O11" s="64"/>
+      <c r="P11" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="Q11" s="82" t="str">
+      <c r="Q11" s="66" t="str">
         <f>master!F8</f>
         <v>USA</v>
       </c>
-      <c r="R11" s="82"/>
-      <c r="S11" s="82"/>
-      <c r="T11" s="82">
+      <c r="R11" s="66"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="66">
         <f>IF(P11=Q11,4,0)</f>
         <v>4</v>
       </c>
-      <c r="U11" s="82"/>
-      <c r="V11" s="82"/>
-      <c r="W11" s="82"/>
-      <c r="X11" s="94">
+      <c r="U11" s="66"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="66"/>
+      <c r="X11" s="66">
         <f t="shared" ref="X11:X13" si="0">T11</f>
         <v>4</v>
       </c>
-      <c r="Y11" s="90"/>
-      <c r="Z11" s="82" t="s">
+      <c r="Y11" s="64"/>
+      <c r="Z11" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="AA11" s="82"/>
+      <c r="AA11" s="66"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D12" s="94" t="s">
+      <c r="D12" s="66" t="s">
         <v>156</v>
       </c>
-      <c r="E12" s="82" t="str">
+      <c r="E12" s="66" t="str">
         <f>master!B9</f>
         <v>Senegal</v>
       </c>
-      <c r="F12" s="102">
-        <v>0</v>
-      </c>
-      <c r="G12" s="82">
+      <c r="F12" s="76">
+        <v>0</v>
+      </c>
+      <c r="G12" s="66">
         <f>master!C9</f>
         <v>1</v>
       </c>
-      <c r="H12" s="82">
+      <c r="H12" s="66">
         <f>IF(D12=E12,1,0)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="82">
+      <c r="I12" s="66">
         <f>IF(F12=G12,2,0)</f>
         <v>0</v>
       </c>
-      <c r="J12" s="82">
+      <c r="J12" s="66">
         <f>IF(G12=1,1,2)</f>
         <v>1</v>
       </c>
-      <c r="K12" s="82">
+      <c r="K12" s="66">
         <f>IF(J12=1,I12,0)</f>
         <v>0</v>
       </c>
-      <c r="L12" s="82">
+      <c r="L12" s="66">
         <f>IF(D12=E10,2,0)</f>
         <v>0</v>
       </c>
-      <c r="M12" s="82">
+      <c r="M12" s="66">
         <f>IF(D12=E11,2,0)</f>
         <v>2</v>
       </c>
-      <c r="N12" s="94">
-        <v>2</v>
-      </c>
-      <c r="O12" s="90"/>
-      <c r="P12" s="82" t="s">
+      <c r="N12" s="66">
+        <v>0</v>
+      </c>
+      <c r="O12" s="64"/>
+      <c r="P12" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="Q12" s="82" t="str">
+      <c r="Q12" s="66" t="str">
         <f>master!F9</f>
         <v>Wales</v>
       </c>
-      <c r="R12" s="102">
-        <v>1</v>
-      </c>
-      <c r="S12" s="82">
+      <c r="R12" s="76">
+        <v>1</v>
+      </c>
+      <c r="S12" s="66">
         <f>master!G9</f>
         <v>1</v>
       </c>
-      <c r="T12" s="82">
+      <c r="T12" s="66">
         <f>IF(P12=Q12,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U12" s="82">
+      <c r="U12" s="66">
         <f>IF(R12=S12,2,0)</f>
         <v>2</v>
       </c>
-      <c r="V12" s="82">
+      <c r="V12" s="66">
         <f>IF(S12=1,1,2)</f>
         <v>1</v>
       </c>
-      <c r="W12" s="82">
+      <c r="W12" s="66">
         <f>IF(V12=1,U12,0)</f>
         <v>2</v>
       </c>
-      <c r="X12" s="94">
+      <c r="X12" s="66">
         <f>T12+W12</f>
         <v>3</v>
       </c>
-      <c r="Y12" s="90"/>
-      <c r="Z12" s="82" t="s">
+      <c r="Y12" s="64"/>
+      <c r="Z12" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="AA12" s="82"/>
+      <c r="AA12" s="66"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D13" s="94" t="s">
+      <c r="D13" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="E13" s="82" t="str">
+      <c r="E13" s="66" t="str">
         <f>master!B10</f>
         <v>Qatar</v>
       </c>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82">
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66">
         <f>IF(D13=E13,1,0)</f>
         <v>1</v>
       </c>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="94">
-        <v>1</v>
-      </c>
-      <c r="O13" s="90"/>
-      <c r="P13" s="82" t="s">
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66">
+        <v>1</v>
+      </c>
+      <c r="O13" s="64"/>
+      <c r="P13" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="Q13" s="82" t="str">
+      <c r="Q13" s="66" t="str">
         <f>master!F10</f>
         <v>Iran</v>
       </c>
-      <c r="R13" s="82"/>
-      <c r="S13" s="82"/>
-      <c r="T13" s="82">
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="66">
         <f>IF(P13=Q13,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U13" s="82"/>
-      <c r="V13" s="82"/>
-      <c r="W13" s="82"/>
-      <c r="X13" s="94">
+      <c r="U13" s="66"/>
+      <c r="V13" s="66"/>
+      <c r="W13" s="66"/>
+      <c r="X13" s="66">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y13" s="90"/>
-      <c r="Z13" s="82" t="s">
+      <c r="Y13" s="64"/>
+      <c r="Z13" s="66" t="s">
         <v>152</v>
       </c>
-      <c r="AA13" s="82"/>
+      <c r="AA13" s="66"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="81">
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="65">
         <f>SUM(N10:N13)</f>
         <v>8</v>
       </c>
-      <c r="O14" s="89"/>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="83"/>
-      <c r="S14" s="83"/>
-      <c r="T14" s="83"/>
-      <c r="U14" s="83"/>
-      <c r="V14" s="83"/>
-      <c r="W14" s="83"/>
-      <c r="X14" s="81">
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="67"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="67"/>
+      <c r="V14" s="67"/>
+      <c r="W14" s="67"/>
+      <c r="X14" s="65">
         <f>SUM(X10:X13)</f>
         <v>13</v>
       </c>
-      <c r="Y14" s="89"/>
-      <c r="Z14" s="81" t="s">
+      <c r="Y14" s="67"/>
+      <c r="Z14" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="AA14" s="81">
+      <c r="AA14" s="65">
         <f>SUM(AA9:AA13)</f>
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="80"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="80"/>
-      <c r="Q15" s="80"/>
-      <c r="R15" s="80"/>
-      <c r="S15" s="80"/>
-      <c r="T15" s="80"/>
-      <c r="U15" s="80"/>
-      <c r="V15" s="80"/>
-      <c r="W15" s="80"/>
-      <c r="X15" s="80"/>
-      <c r="Y15" s="90"/>
-      <c r="Z15" s="80"/>
-      <c r="AA15" s="80"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="64"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="64"/>
+      <c r="W15" s="64"/>
+      <c r="X15" s="64"/>
+      <c r="Y15" s="64"/>
+      <c r="Z15" s="64"/>
+      <c r="AA15" s="64"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D16" s="81" t="s">
+      <c r="D16" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="E16" s="81" t="s">
+      <c r="E16" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="F16" s="81" t="s">
+      <c r="F16" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="G16" s="81" t="s">
+      <c r="G16" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="H16" s="95" t="s">
+      <c r="H16" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="95"/>
-      <c r="N16" s="81" t="s">
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="P16" s="81" t="s">
+      <c r="P16" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="Q16" s="81" t="s">
+      <c r="Q16" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="R16" s="81" t="s">
+      <c r="R16" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="S16" s="81" t="s">
+      <c r="S16" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="T16" s="95" t="s">
+      <c r="T16" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="U16" s="95"/>
-      <c r="V16" s="95"/>
-      <c r="W16" s="95"/>
-      <c r="X16" s="81" t="s">
+      <c r="U16" s="65"/>
+      <c r="V16" s="65"/>
+      <c r="W16" s="65"/>
+      <c r="X16" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="Z16" s="80"/>
-      <c r="AA16" s="80"/>
-    </row>
-    <row r="17" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="D17" s="82" t="s">
+      <c r="Z16" s="64"/>
+      <c r="AA16" s="64"/>
+    </row>
+    <row r="17" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D17" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="E17" s="82" t="str">
+      <c r="E17" s="66" t="str">
         <f>master!B13</f>
         <v>Argentina</v>
       </c>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82">
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66">
         <f>IF(D17=E17,5,0)</f>
         <v>5</v>
       </c>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="82"/>
-      <c r="N17" s="94">
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66">
         <v>5</v>
       </c>
-      <c r="P17" s="82" t="s">
+      <c r="P17" s="66" t="s">
         <v>169</v>
       </c>
-      <c r="Q17" s="82" t="str">
+      <c r="Q17" s="66" t="str">
         <f>master!F13</f>
         <v>France</v>
       </c>
-      <c r="R17" s="82"/>
-      <c r="S17" s="82"/>
-      <c r="T17" s="82">
+      <c r="R17" s="66"/>
+      <c r="S17" s="66"/>
+      <c r="T17" s="66">
         <f>IF(P17=Q17,5,0)</f>
         <v>5</v>
       </c>
-      <c r="U17" s="82"/>
-      <c r="V17" s="82"/>
-      <c r="W17" s="82"/>
-      <c r="X17" s="94">
+      <c r="U17" s="66"/>
+      <c r="V17" s="66"/>
+      <c r="W17" s="66"/>
+      <c r="X17" s="66">
         <v>5</v>
       </c>
-      <c r="Z17" s="80"/>
-      <c r="AA17" s="80"/>
-    </row>
-    <row r="18" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="D18" s="82" t="s">
+      <c r="Z17" s="64"/>
+      <c r="AA17" s="64"/>
+    </row>
+    <row r="18" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D18" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="E18" s="82" t="str">
+      <c r="E18" s="66" t="str">
         <f>master!B14</f>
         <v>Mexico</v>
       </c>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82">
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66">
         <f>IF(D18=E18,4,0)</f>
         <v>4</v>
       </c>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="94">
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66">
         <v>4</v>
       </c>
-      <c r="P18" s="82" t="s">
+      <c r="P18" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="Q18" s="82" t="str">
+      <c r="Q18" s="66" t="str">
         <f>master!F14</f>
         <v>Denmark</v>
       </c>
-      <c r="R18" s="82"/>
-      <c r="S18" s="82"/>
-      <c r="T18" s="82">
+      <c r="R18" s="66"/>
+      <c r="S18" s="66"/>
+      <c r="T18" s="66">
         <f>IF(P18=Q18,4,0)</f>
         <v>4</v>
       </c>
-      <c r="U18" s="82"/>
-      <c r="V18" s="82"/>
-      <c r="W18" s="82"/>
-      <c r="X18" s="94">
+      <c r="U18" s="66"/>
+      <c r="V18" s="66"/>
+      <c r="W18" s="66"/>
+      <c r="X18" s="66">
         <v>4</v>
       </c>
-      <c r="Z18" s="80"/>
-      <c r="AA18" s="80"/>
-    </row>
-    <row r="19" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="D19" s="82" t="s">
+      <c r="Z18" s="64"/>
+      <c r="AA18" s="64"/>
+    </row>
+    <row r="19" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D19" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="E19" s="82" t="str">
+      <c r="E19" s="66" t="str">
         <f>master!B15</f>
         <v>Poland</v>
       </c>
-      <c r="F19" s="102">
-        <v>1</v>
-      </c>
-      <c r="G19" s="82">
+      <c r="F19" s="76">
+        <v>1</v>
+      </c>
+      <c r="G19" s="66">
         <f>master!C15</f>
         <v>0</v>
       </c>
-      <c r="H19" s="82">
+      <c r="H19" s="66">
         <f>IF(D19=E19,1,0)</f>
         <v>1</v>
       </c>
-      <c r="I19" s="82">
+      <c r="I19" s="66">
         <f>IF(F19=G19,2,0)</f>
         <v>0</v>
       </c>
-      <c r="J19" s="82">
+      <c r="J19" s="66">
         <f>IF(G19=1,1,2)</f>
         <v>2</v>
       </c>
-      <c r="K19" s="82">
+      <c r="K19" s="66">
         <f>IF(J19=1,I19,0)</f>
         <v>0</v>
       </c>
-      <c r="L19" s="82"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="94">
-        <v>3</v>
-      </c>
-      <c r="P19" s="82" t="s">
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66">
+        <v>1</v>
+      </c>
+      <c r="P19" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="Q19" s="82" t="str">
+      <c r="Q19" s="66" t="str">
         <f>master!F15</f>
         <v>Australia</v>
       </c>
-      <c r="R19" s="102">
-        <v>1</v>
-      </c>
-      <c r="S19" s="82">
+      <c r="R19" s="76">
+        <v>1</v>
+      </c>
+      <c r="S19" s="66">
         <f>master!G15</f>
         <v>1</v>
       </c>
-      <c r="T19" s="82">
+      <c r="T19" s="66">
         <f>IF(P19=Q19,1,0)</f>
         <v>0</v>
       </c>
-      <c r="U19" s="82">
+      <c r="U19" s="66">
         <f>IF(R19=S19,2,0)</f>
         <v>2</v>
       </c>
-      <c r="V19" s="82">
+      <c r="V19" s="66">
         <f>IF(S19=1,1,2)</f>
         <v>1</v>
       </c>
-      <c r="W19" s="82">
+      <c r="W19" s="66">
         <f>IF(V19=1,U19,0)</f>
         <v>2</v>
       </c>
-      <c r="X19" s="94"/>
-      <c r="Z19" s="80"/>
-      <c r="AA19" s="80"/>
-    </row>
-    <row r="20" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="D20" s="82" t="s">
+      <c r="X19" s="66">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="64"/>
+      <c r="AA19" s="64"/>
+    </row>
+    <row r="20" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D20" s="66" t="s">
         <v>165</v>
       </c>
-      <c r="E20" s="82" t="str">
+      <c r="E20" s="66" t="str">
         <f>master!B16</f>
         <v>Saudi Arabia</v>
       </c>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82">
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66">
         <f>IF(D20=E20,1,0)</f>
         <v>1</v>
       </c>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="94">
-        <v>1</v>
-      </c>
-      <c r="P20" s="82" t="s">
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="66">
+        <v>1</v>
+      </c>
+      <c r="P20" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="Q20" s="82" t="str">
+      <c r="Q20" s="66" t="str">
         <f>master!F16</f>
         <v>Tunisia</v>
       </c>
-      <c r="R20" s="82"/>
-      <c r="S20" s="82"/>
-      <c r="T20" s="82">
+      <c r="R20" s="66"/>
+      <c r="S20" s="66"/>
+      <c r="T20" s="66">
         <f>IF(P20=Q20,1,0)</f>
         <v>0</v>
       </c>
-      <c r="U20" s="82"/>
-      <c r="V20" s="82"/>
-      <c r="W20" s="82"/>
-      <c r="X20" s="94"/>
-      <c r="Z20" s="80"/>
-      <c r="AA20" s="80"/>
-    </row>
-    <row r="21" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="83"/>
-      <c r="L21" s="83"/>
-      <c r="M21" s="83"/>
-      <c r="N21" s="99">
+      <c r="U20" s="66"/>
+      <c r="V20" s="66"/>
+      <c r="W20" s="66"/>
+      <c r="X20" s="66">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="64"/>
+      <c r="AA20" s="64"/>
+    </row>
+    <row r="21" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="74">
         <f>SUM(N17:N20)</f>
-        <v>13</v>
-      </c>
-      <c r="P21" s="98"/>
-      <c r="Q21" s="80"/>
-      <c r="R21" s="80"/>
-      <c r="S21" s="80"/>
-      <c r="T21" s="80"/>
-      <c r="U21" s="80"/>
-      <c r="V21" s="80"/>
-      <c r="W21" s="80"/>
-      <c r="X21" s="81">
+        <v>11</v>
+      </c>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="64"/>
+      <c r="S21" s="64"/>
+      <c r="T21" s="64"/>
+      <c r="U21" s="64"/>
+      <c r="V21" s="64"/>
+      <c r="W21" s="64"/>
+      <c r="X21" s="65">
         <f>SUM(X17:X20)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="D23" s="81" t="s">
+    <row r="23" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D23" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="E23" s="81" t="s">
+      <c r="E23" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="F23" s="81" t="s">
+      <c r="F23" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="G23" s="81" t="s">
+      <c r="G23" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="H23" s="95" t="s">
+      <c r="H23" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="I23" s="95"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="95"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="95"/>
-      <c r="N23" s="81" t="s">
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="O23" s="89"/>
-      <c r="P23" s="81" t="s">
+      <c r="O23" s="67"/>
+      <c r="P23" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="Q23" s="81" t="s">
+      <c r="Q23" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="R23" s="81" t="s">
+      <c r="R23" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="S23" s="81" t="s">
+      <c r="S23" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="T23" s="95" t="s">
+      <c r="T23" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="U23" s="95"/>
-      <c r="V23" s="95"/>
-      <c r="W23" s="95"/>
-      <c r="X23" s="81" t="s">
+      <c r="U23" s="65"/>
+      <c r="V23" s="65"/>
+      <c r="W23" s="65"/>
+      <c r="X23" s="65" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="D24" s="82" t="s">
+    <row r="24" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D24" s="66" t="s">
         <v>170</v>
       </c>
-      <c r="E24" s="82" t="str">
+      <c r="E24" s="66" t="str">
         <f>master!B19</f>
         <v>Germany</v>
       </c>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82">
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66">
         <f>IF(D24=E24,5,0)</f>
         <v>0</v>
       </c>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="94">
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="66">
         <v>2</v>
       </c>
-      <c r="O24" s="90"/>
-      <c r="P24" s="82" t="s">
+      <c r="O24" s="64"/>
+      <c r="P24" s="66" t="s">
         <v>174</v>
       </c>
-      <c r="Q24" s="82" t="str">
+      <c r="Q24" s="66" t="str">
         <f>master!F19</f>
         <v>Belgium</v>
       </c>
-      <c r="R24" s="82"/>
-      <c r="S24" s="82"/>
-      <c r="T24" s="82">
+      <c r="R24" s="66"/>
+      <c r="S24" s="66"/>
+      <c r="T24" s="66">
         <f>IF(P24=Q24,5,0)</f>
         <v>5</v>
       </c>
-      <c r="U24" s="82"/>
-      <c r="V24" s="82"/>
-      <c r="W24" s="82"/>
-      <c r="X24" s="94">
+      <c r="U24" s="66"/>
+      <c r="V24" s="66"/>
+      <c r="W24" s="66"/>
+      <c r="X24" s="66">
         <f>T24</f>
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="D25" s="82" t="s">
+    <row r="25" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D25" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="E25" s="82" t="str">
+      <c r="E25" s="66" t="str">
         <f>master!B20</f>
         <v>Spain</v>
       </c>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82">
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66">
         <f>IF(D25=E25,4,0)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="82"/>
-      <c r="M25" s="82"/>
-      <c r="N25" s="94">
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="66"/>
+      <c r="N25" s="66">
         <v>2</v>
       </c>
-      <c r="O25" s="90"/>
-      <c r="P25" s="82" t="s">
+      <c r="O25" s="64"/>
+      <c r="P25" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="Q25" s="82" t="str">
+      <c r="Q25" s="66" t="str">
         <f>master!F20</f>
         <v>Croatia</v>
       </c>
-      <c r="R25" s="82"/>
-      <c r="S25" s="82"/>
-      <c r="T25" s="82">
+      <c r="R25" s="66"/>
+      <c r="S25" s="66"/>
+      <c r="T25" s="66">
         <f>IF(P25=Q25,4,0)</f>
         <v>4</v>
       </c>
-      <c r="U25" s="82"/>
-      <c r="V25" s="82"/>
-      <c r="W25" s="82"/>
-      <c r="X25" s="94">
+      <c r="U25" s="66"/>
+      <c r="V25" s="66"/>
+      <c r="W25" s="66"/>
+      <c r="X25" s="66">
         <f t="shared" ref="X25:X27" si="1">T25</f>
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="D26" s="82" t="s">
+    <row r="26" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D26" s="66" t="s">
         <v>172</v>
       </c>
-      <c r="E26" s="82" t="str">
+      <c r="E26" s="66" t="str">
         <f>master!B21</f>
         <v>Japan</v>
       </c>
-      <c r="F26" s="102">
-        <v>0</v>
-      </c>
-      <c r="G26" s="82">
+      <c r="F26" s="76">
+        <v>0</v>
+      </c>
+      <c r="G26" s="66">
         <f>master!C21</f>
         <v>0</v>
       </c>
-      <c r="H26" s="82">
+      <c r="H26" s="66">
         <f>IF(D26=E26,1,0)</f>
         <v>1</v>
       </c>
-      <c r="I26" s="82">
+      <c r="I26" s="66">
         <f>IF(F26=G26,2,0)</f>
         <v>2</v>
       </c>
-      <c r="J26" s="82">
+      <c r="J26" s="66">
         <f>IF(G26=1,1,2)</f>
         <v>2</v>
       </c>
-      <c r="K26" s="82">
+      <c r="K26" s="66">
         <f>IF(J26=1,I26,0)</f>
         <v>0</v>
       </c>
-      <c r="L26" s="82"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="94">
-        <v>1</v>
-      </c>
-      <c r="O26" s="90"/>
-      <c r="P26" s="82" t="s">
+      <c r="L26" s="66"/>
+      <c r="M26" s="66"/>
+      <c r="N26" s="66">
+        <v>1</v>
+      </c>
+      <c r="O26" s="64"/>
+      <c r="P26" s="66" t="s">
         <v>176</v>
       </c>
-      <c r="Q26" s="82" t="str">
+      <c r="Q26" s="66" t="str">
         <f>master!F21</f>
         <v>Morocco</v>
       </c>
-      <c r="R26" s="102">
-        <v>1</v>
-      </c>
-      <c r="S26" s="82">
+      <c r="R26" s="76">
+        <v>1</v>
+      </c>
+      <c r="S26" s="66">
         <f>master!G21</f>
         <v>1</v>
       </c>
-      <c r="T26" s="82">
+      <c r="T26" s="66">
         <f>IF(P26=Q26,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U26" s="82">
+      <c r="U26" s="66">
         <f>IF(R26=S26,2,0)</f>
         <v>2</v>
       </c>
-      <c r="V26" s="82">
+      <c r="V26" s="66">
         <f>IF(S26=1,1,2)</f>
         <v>1</v>
       </c>
-      <c r="W26" s="82">
+      <c r="W26" s="66">
         <f>IF(V26=1,U26,0)</f>
         <v>2</v>
       </c>
-      <c r="X26" s="94">
+      <c r="X26" s="66">
         <f>T26+W26</f>
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="D27" s="82" t="s">
+    <row r="27" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D27" s="66" t="s">
         <v>173</v>
       </c>
-      <c r="E27" s="82" t="str">
+      <c r="E27" s="66" t="str">
         <f>master!B22</f>
         <v>Costa Rica</v>
       </c>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82">
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66">
         <f>IF(D27=E27,1,0)</f>
         <v>1</v>
       </c>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="94">
-        <v>1</v>
-      </c>
-      <c r="O27" s="90"/>
-      <c r="P27" s="82" t="s">
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="66">
+        <v>1</v>
+      </c>
+      <c r="O27" s="64"/>
+      <c r="P27" s="66" t="s">
         <v>177</v>
       </c>
-      <c r="Q27" s="82" t="str">
+      <c r="Q27" s="66" t="str">
         <f>master!F22</f>
         <v>Canada</v>
       </c>
-      <c r="R27" s="82"/>
-      <c r="S27" s="82"/>
-      <c r="T27" s="82">
+      <c r="R27" s="66"/>
+      <c r="S27" s="66"/>
+      <c r="T27" s="66">
         <f>IF(P27=Q27,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U27" s="82"/>
-      <c r="V27" s="82"/>
-      <c r="W27" s="82"/>
-      <c r="X27" s="94">
+      <c r="U27" s="66"/>
+      <c r="V27" s="66"/>
+      <c r="W27" s="66"/>
+      <c r="X27" s="66">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="80"/>
-      <c r="L28" s="80"/>
-      <c r="M28" s="80"/>
-      <c r="N28" s="81">
+    <row r="28" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="65">
         <f t="shared" ref="N28:X28" si="2">SUM(N24:N27)</f>
         <v>6</v>
       </c>
-      <c r="O28" s="89"/>
-      <c r="P28" s="80"/>
-      <c r="Q28" s="80"/>
-      <c r="R28" s="80"/>
-      <c r="S28" s="80"/>
-      <c r="T28" s="80"/>
-      <c r="U28" s="80"/>
-      <c r="V28" s="80"/>
-      <c r="W28" s="80"/>
-      <c r="X28" s="99">
+      <c r="O28" s="67"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="64"/>
+      <c r="R28" s="64"/>
+      <c r="S28" s="64"/>
+      <c r="T28" s="64"/>
+      <c r="U28" s="64"/>
+      <c r="V28" s="64"/>
+      <c r="W28" s="64"/>
+      <c r="X28" s="74">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="O29" s="89"/>
-    </row>
-    <row r="30" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="O30" s="90"/>
-    </row>
-    <row r="31" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="O31" s="90"/>
-    </row>
-    <row r="32" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="O32" s="90"/>
-    </row>
-    <row r="33" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O33" s="90"/>
-    </row>
-    <row r="34" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O34" s="89"/>
+    <row r="29" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="O29" s="67"/>
+    </row>
+    <row r="30" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="O30" s="64"/>
+    </row>
+    <row r="31" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="O31" s="64"/>
+      <c r="AC31" s="80" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="O32" s="64"/>
+      <c r="AB32" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC32" s="81" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="15:29" x14ac:dyDescent="0.2">
+      <c r="O33" s="64"/>
+      <c r="AB33" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC33" s="81" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="15:29" x14ac:dyDescent="0.2">
+      <c r="O34" s="67"/>
+    </row>
+    <row r="35" spans="15:29" x14ac:dyDescent="0.2">
+      <c r="AC35" s="80" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" spans="15:29" x14ac:dyDescent="0.2">
+      <c r="AB36" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC36" s="81" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="37" spans="15:29" x14ac:dyDescent="0.2">
+      <c r="AB37" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC37" s="81" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="15:29" x14ac:dyDescent="0.2">
+      <c r="AC39" s="80" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40" spans="15:29" x14ac:dyDescent="0.2">
+      <c r="AB40" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC40" s="81" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="41" spans="15:29" x14ac:dyDescent="0.2">
+      <c r="AB41" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC41" s="81" t="s">
+        <v>185</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7947,55 +7882,48 @@
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="B6:G6"/>
   </mergeCells>
-  <conditionalFormatting sqref="N10 X10 X17 N17 N24 X24">
-    <cfRule type="cellIs" priority="8" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="14" operator="equal">
+  <conditionalFormatting sqref="N10 X10 N17 X17 N24 X24">
+    <cfRule type="cellIs" dxfId="27" priority="14" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N18 N25 X25 X18 X11">
-    <cfRule type="cellIs" dxfId="39" priority="13" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N13 X13 X20 N20 N27 X27">
-    <cfRule type="cellIs" priority="6" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="10" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N11">
-    <cfRule type="cellIs" dxfId="35" priority="9" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N25 N18 N11 X11 X18 X25">
+  <conditionalFormatting sqref="N10:N11 X10:X11 N17:N18 X17:X18 N24:N25 X24:X25">
     <cfRule type="cellIs" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N11 X11 X25 N18 N25">
-    <cfRule type="cellIs" dxfId="34" priority="5" operator="equal">
+  <conditionalFormatting sqref="N10:N12 X10:X12 X17 N17:N19 N24:N26 X24:X26">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N26 X26 X19 N19 N12 X12">
-    <cfRule type="cellIs" dxfId="32" priority="4" operator="equal">
+  <conditionalFormatting sqref="N11">
+    <cfRule type="cellIs" dxfId="25" priority="9" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N12 X12 N19 X19 N26 X26">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N12:N13 X12:X13 N19:N20 X19:X20 N26:N27 X26:X27">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N24 N17 N10 X10 X17 X24">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
+  <conditionalFormatting sqref="N13 X13 N20 X20 N27 X27">
+    <cfRule type="cellIs" priority="6" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X11 N18 X18 N25 X25">
+    <cfRule type="cellIs" dxfId="22" priority="13" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X19">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8008,1079 +7936,1073 @@
   <dimension ref="A1:AA34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X28" sqref="X28"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="80"/>
-    <col min="4" max="4" width="13.1640625" style="80" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" style="80" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="64"/>
+    <col min="4" max="4" width="13.1640625" style="64" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="64" customWidth="1"/>
     <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.5" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="14.1640625" hidden="1" customWidth="1"/>
     <col min="11" max="13" width="15.33203125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="96"/>
     <col min="15" max="15" width="2.6640625" customWidth="1"/>
     <col min="18" max="18" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.1640625" customWidth="1"/>
     <col min="20" max="23" width="14.1640625" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="10.83203125" style="96"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="11"/>
-      <c r="B1" s="100"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="N1" s="82" t="s">
+      <c r="B1" s="75"/>
+      <c r="N1" s="66" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="87">
+      <c r="A2" s="70">
         <v>5</v>
       </c>
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="98" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="82">
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="66">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="104">
+      <c r="A3" s="78">
         <v>4</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="98" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="82">
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="66">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="93">
+      <c r="A4" s="73">
         <v>3</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="98" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="82">
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="66">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="105">
+      <c r="A5" s="79">
         <v>2</v>
       </c>
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="97"/>
-      <c r="N5" s="82">
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="66">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="88">
-        <v>1</v>
-      </c>
-      <c r="B6" s="101" t="s">
+      <c r="A6" s="71">
+        <v>1</v>
+      </c>
+      <c r="B6" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
-      <c r="N6" s="82">
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="66">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="E9" s="81" t="s">
+      <c r="E9" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="F9" s="81" t="s">
+      <c r="F9" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="G9" s="81" t="s">
+      <c r="G9" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="H9" s="95" t="s">
+      <c r="H9" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="I9" s="95" t="s">
+      <c r="I9" s="65" t="s">
         <v>182</v>
       </c>
-      <c r="J9" s="95" t="s">
+      <c r="J9" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="K9" s="95" t="s">
+      <c r="K9" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="L9" s="95"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="81" t="s">
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="O9" s="89"/>
-      <c r="P9" s="81" t="s">
+      <c r="O9" s="67"/>
+      <c r="P9" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="Q9" s="81" t="s">
+      <c r="Q9" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="R9" s="81" t="s">
+      <c r="R9" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="S9" s="81" t="s">
+      <c r="S9" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="T9" s="95" t="s">
+      <c r="T9" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="U9" s="95"/>
-      <c r="V9" s="95"/>
-      <c r="W9" s="95"/>
-      <c r="X9" s="81" t="s">
+      <c r="U9" s="65"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="Y9" s="89"/>
-      <c r="Z9" s="91" t="s">
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="AA9" s="82">
+      <c r="AA9" s="66">
         <f>N14+X14+N21+X21+N28+X28</f>
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D10" s="82" t="s">
+      <c r="D10" s="66" t="s">
         <v>156</v>
       </c>
-      <c r="E10" s="82" t="str">
+      <c r="E10" s="66" t="str">
         <f>master!B7</f>
         <v>Netherlands</v>
       </c>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82">
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66">
         <f>IF(D10=E10,5,0)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82">
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66">
         <f>IF(D10=E11,2,0)</f>
         <v>2</v>
       </c>
-      <c r="M10" s="82">
+      <c r="M10" s="66">
         <f>IF(D10=E12,2,0)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="94">
-        <v>0</v>
-      </c>
-      <c r="O10" s="90"/>
-      <c r="P10" s="82" t="s">
+      <c r="N10" s="66">
+        <v>2</v>
+      </c>
+      <c r="O10" s="64"/>
+      <c r="P10" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="Q10" s="82" t="str">
+      <c r="Q10" s="66" t="str">
         <f>master!F7</f>
         <v>England</v>
       </c>
-      <c r="R10" s="82"/>
-      <c r="S10" s="82"/>
-      <c r="T10" s="82">
+      <c r="R10" s="66"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="66">
         <f>IF(P10=Q10,5,0)</f>
         <v>5</v>
       </c>
-      <c r="U10" s="82"/>
-      <c r="V10" s="82"/>
-      <c r="W10" s="82"/>
-      <c r="X10" s="94">
+      <c r="U10" s="66"/>
+      <c r="V10" s="66"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="66">
         <v>5</v>
       </c>
-      <c r="Y10" s="90"/>
-      <c r="Z10" s="82" t="s">
+      <c r="Y10" s="64"/>
+      <c r="Z10" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="AA10" s="82"/>
+      <c r="AA10" s="66"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D11" s="82" t="s">
+      <c r="D11" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="E11" s="82" t="str">
+      <c r="E11" s="66" t="str">
         <f>master!B8</f>
         <v>Ecuador</v>
       </c>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82">
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66">
         <f>IF(D11=E11,4,0)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82">
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66">
         <f>IF(D11=E10,2,0)</f>
         <v>0</v>
       </c>
-      <c r="M11" s="82">
+      <c r="M11" s="66">
         <f>IF(D11=E12,2,0)</f>
         <v>2</v>
       </c>
-      <c r="N11" s="94">
+      <c r="N11" s="66">
         <v>2</v>
       </c>
-      <c r="O11" s="90"/>
-      <c r="P11" s="82" t="s">
+      <c r="O11" s="64"/>
+      <c r="P11" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="Q11" s="82" t="str">
+      <c r="Q11" s="66" t="str">
         <f>master!F8</f>
         <v>USA</v>
       </c>
-      <c r="R11" s="82"/>
-      <c r="S11" s="82"/>
-      <c r="T11" s="82">
+      <c r="R11" s="66"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="66">
         <f>IF(P11=Q11,4,0)</f>
         <v>0</v>
       </c>
-      <c r="U11" s="82"/>
-      <c r="V11" s="82"/>
-      <c r="W11" s="82"/>
-      <c r="X11" s="94">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="90"/>
-      <c r="Z11" s="82" t="s">
+      <c r="U11" s="66"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="66"/>
+      <c r="X11" s="66">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="64"/>
+      <c r="Z11" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="AA11" s="82"/>
+      <c r="AA11" s="66"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D12" s="82" t="s">
+      <c r="D12" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="E12" s="82" t="str">
+      <c r="E12" s="66" t="str">
         <f>master!B9</f>
         <v>Senegal</v>
       </c>
-      <c r="F12" s="102">
-        <v>0</v>
-      </c>
-      <c r="G12" s="82">
+      <c r="F12" s="76">
+        <v>0</v>
+      </c>
+      <c r="G12" s="66">
         <f>master!C9</f>
         <v>1</v>
       </c>
-      <c r="H12" s="82">
+      <c r="H12" s="66">
         <f>IF(D12=E12,1,0)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="82">
+      <c r="I12" s="66">
         <f>IF(F12=G12,2,0)</f>
         <v>0</v>
       </c>
-      <c r="J12" s="82">
+      <c r="J12" s="66">
         <f>IF(G12=1,1,2)</f>
         <v>1</v>
       </c>
-      <c r="K12" s="82">
+      <c r="K12" s="66">
         <f>IF(J12=1,I12,0)</f>
         <v>0</v>
       </c>
-      <c r="L12" s="82">
+      <c r="L12" s="66">
         <f>IF(D12=E10,2,0)</f>
         <v>0</v>
       </c>
-      <c r="M12" s="82">
+      <c r="M12" s="66">
         <f>IF(D12=E11,2,0)</f>
         <v>0</v>
       </c>
-      <c r="N12" s="94">
-        <v>2</v>
-      </c>
-      <c r="O12" s="90"/>
-      <c r="P12" s="82" t="s">
+      <c r="N12" s="66">
+        <v>0</v>
+      </c>
+      <c r="O12" s="64"/>
+      <c r="P12" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="Q12" s="82" t="str">
+      <c r="Q12" s="66" t="str">
         <f>master!F9</f>
         <v>Wales</v>
       </c>
-      <c r="R12" s="102">
-        <v>0</v>
-      </c>
-      <c r="S12" s="82">
+      <c r="R12" s="76">
+        <v>0</v>
+      </c>
+      <c r="S12" s="66">
         <f>master!G9</f>
         <v>1</v>
       </c>
-      <c r="T12" s="82">
+      <c r="T12" s="66">
         <f>IF(P12=Q12,1,0)</f>
         <v>0</v>
       </c>
-      <c r="U12" s="82">
+      <c r="U12" s="66">
         <f>IF(R12=S12,2,0)</f>
         <v>0</v>
       </c>
-      <c r="V12" s="82">
+      <c r="V12" s="66">
         <f>IF(S12=1,1,2)</f>
         <v>1</v>
       </c>
-      <c r="W12" s="82">
+      <c r="W12" s="66">
         <f>IF(V12=1,U12,0)</f>
         <v>0</v>
       </c>
-      <c r="X12" s="94">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="90"/>
-      <c r="Z12" s="82" t="s">
+      <c r="X12" s="66">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="64"/>
+      <c r="Z12" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="AA12" s="82"/>
+      <c r="AA12" s="66"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D13" s="82" t="s">
+      <c r="D13" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="E13" s="82" t="str">
+      <c r="E13" s="66" t="str">
         <f>master!B10</f>
         <v>Qatar</v>
       </c>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82">
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66">
         <f>IF(D13=E13,1,0)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="94">
-        <v>0</v>
-      </c>
-      <c r="O13" s="90"/>
-      <c r="P13" s="82" t="s">
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66">
+        <v>0</v>
+      </c>
+      <c r="O13" s="64"/>
+      <c r="P13" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="Q13" s="82" t="str">
+      <c r="Q13" s="66" t="str">
         <f>master!F10</f>
         <v>Iran</v>
       </c>
-      <c r="R13" s="82"/>
-      <c r="S13" s="82"/>
-      <c r="T13" s="82">
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="66">
         <f>IF(P13=Q13,1,0)</f>
         <v>0</v>
       </c>
-      <c r="U13" s="82"/>
-      <c r="V13" s="82"/>
-      <c r="W13" s="82"/>
-      <c r="X13" s="94">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="90"/>
-      <c r="Z13" s="82" t="s">
+      <c r="U13" s="66"/>
+      <c r="V13" s="66"/>
+      <c r="W13" s="66"/>
+      <c r="X13" s="66">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="64"/>
+      <c r="Z13" s="66" t="s">
         <v>152</v>
       </c>
-      <c r="AA13" s="82"/>
+      <c r="AA13" s="66"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="81">
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="65">
         <f>SUM(N10:N13)</f>
         <v>4</v>
       </c>
-      <c r="O14" s="89"/>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="83"/>
-      <c r="S14" s="83"/>
-      <c r="T14" s="83"/>
-      <c r="U14" s="83"/>
-      <c r="V14" s="83"/>
-      <c r="W14" s="83"/>
-      <c r="X14" s="81">
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="67"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="67"/>
+      <c r="V14" s="67"/>
+      <c r="W14" s="67"/>
+      <c r="X14" s="65">
         <f>SUM(X10:X13)</f>
         <v>5</v>
       </c>
-      <c r="Y14" s="89"/>
-      <c r="Z14" s="81" t="s">
+      <c r="Y14" s="67"/>
+      <c r="Z14" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="AA14" s="81">
+      <c r="AA14" s="65">
         <f>SUM(AA9:AA13)</f>
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="80"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="80"/>
-      <c r="Q15" s="80"/>
-      <c r="R15" s="80"/>
-      <c r="S15" s="80"/>
-      <c r="T15" s="80"/>
-      <c r="U15" s="80"/>
-      <c r="V15" s="80"/>
-      <c r="W15" s="80"/>
-      <c r="X15" s="80"/>
-      <c r="Y15" s="90"/>
-      <c r="Z15" s="80"/>
-      <c r="AA15" s="80"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="64"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="64"/>
+      <c r="W15" s="64"/>
+      <c r="X15" s="64"/>
+      <c r="Y15" s="64"/>
+      <c r="Z15" s="64"/>
+      <c r="AA15" s="64"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D16" s="81" t="s">
+      <c r="D16" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="E16" s="81" t="s">
+      <c r="E16" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="F16" s="81" t="s">
+      <c r="F16" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="G16" s="81" t="s">
+      <c r="G16" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="H16" s="95" t="s">
+      <c r="H16" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="95"/>
-      <c r="N16" s="81" t="s">
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="P16" s="81" t="s">
+      <c r="P16" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="Q16" s="81" t="s">
+      <c r="Q16" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="R16" s="81" t="s">
+      <c r="R16" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="S16" s="81" t="s">
+      <c r="S16" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="T16" s="95" t="s">
+      <c r="T16" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="U16" s="95"/>
-      <c r="V16" s="95"/>
-      <c r="W16" s="95"/>
-      <c r="X16" s="81" t="s">
+      <c r="U16" s="65"/>
+      <c r="V16" s="65"/>
+      <c r="W16" s="65"/>
+      <c r="X16" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="Z16" s="80"/>
-      <c r="AA16" s="80"/>
+      <c r="Z16" s="64"/>
+      <c r="AA16" s="64"/>
     </row>
     <row r="17" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="D17" s="82" t="s">
+      <c r="D17" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="E17" s="82" t="str">
+      <c r="E17" s="66" t="str">
         <f>master!B13</f>
         <v>Argentina</v>
       </c>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82">
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66">
         <f>IF(D17=E17,5,0)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="82"/>
-      <c r="N17" s="94">
-        <v>0</v>
-      </c>
-      <c r="P17" s="82" t="s">
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66">
+        <v>2</v>
+      </c>
+      <c r="P17" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="Q17" s="82" t="str">
+      <c r="Q17" s="66" t="str">
         <f>master!F13</f>
         <v>France</v>
       </c>
-      <c r="R17" s="82"/>
-      <c r="S17" s="82"/>
-      <c r="T17" s="82">
+      <c r="R17" s="66"/>
+      <c r="S17" s="66"/>
+      <c r="T17" s="66">
         <f>IF(P17=Q17,5,0)</f>
         <v>0</v>
       </c>
-      <c r="U17" s="82"/>
-      <c r="V17" s="82"/>
-      <c r="W17" s="82"/>
-      <c r="X17" s="94">
-        <v>2</v>
-      </c>
-      <c r="Z17" s="80"/>
-      <c r="AA17" s="80"/>
+      <c r="U17" s="66"/>
+      <c r="V17" s="66"/>
+      <c r="W17" s="66"/>
+      <c r="X17" s="66">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="64"/>
+      <c r="AA17" s="64"/>
     </row>
     <row r="18" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="D18" s="82" t="s">
+      <c r="D18" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="E18" s="82" t="str">
+      <c r="E18" s="66" t="str">
         <f>master!B14</f>
         <v>Mexico</v>
       </c>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82">
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66">
         <f>IF(D18=E18,4,0)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="94">
-        <v>2</v>
-      </c>
-      <c r="P18" s="82" t="s">
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66">
+        <v>0</v>
+      </c>
+      <c r="P18" s="66" t="s">
         <v>169</v>
       </c>
-      <c r="Q18" s="82" t="str">
+      <c r="Q18" s="66" t="str">
         <f>master!F14</f>
         <v>Denmark</v>
       </c>
-      <c r="R18" s="82"/>
-      <c r="S18" s="82"/>
-      <c r="T18" s="82">
+      <c r="R18" s="66"/>
+      <c r="S18" s="66"/>
+      <c r="T18" s="66">
         <f>IF(P18=Q18,4,0)</f>
         <v>0</v>
       </c>
-      <c r="U18" s="82"/>
-      <c r="V18" s="82"/>
-      <c r="W18" s="82"/>
-      <c r="X18" s="94">
+      <c r="U18" s="66"/>
+      <c r="V18" s="66"/>
+      <c r="W18" s="66"/>
+      <c r="X18" s="66">
         <v>2</v>
       </c>
-      <c r="Z18" s="80"/>
-      <c r="AA18" s="80"/>
+      <c r="Z18" s="64"/>
+      <c r="AA18" s="64"/>
     </row>
     <row r="19" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="D19" s="82" t="s">
+      <c r="D19" s="66" t="s">
         <v>165</v>
       </c>
-      <c r="E19" s="82" t="str">
+      <c r="E19" s="66" t="str">
         <f>master!B15</f>
         <v>Poland</v>
       </c>
-      <c r="F19" s="102">
-        <v>1</v>
-      </c>
-      <c r="G19" s="82">
+      <c r="F19" s="76">
+        <v>1</v>
+      </c>
+      <c r="G19" s="66">
         <f>master!C15</f>
         <v>0</v>
       </c>
-      <c r="H19" s="82">
+      <c r="H19" s="66">
         <f>IF(D19=E19,1,0)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="82">
+      <c r="I19" s="66">
         <f>IF(F19=G19,2,0)</f>
         <v>0</v>
       </c>
-      <c r="J19" s="82">
+      <c r="J19" s="66">
         <f>IF(G19=1,1,2)</f>
         <v>2</v>
       </c>
-      <c r="K19" s="82">
+      <c r="K19" s="66">
         <f>IF(J19=1,I19,0)</f>
         <v>0</v>
       </c>
-      <c r="L19" s="82"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="94">
-        <v>2</v>
-      </c>
-      <c r="P19" s="82" t="s">
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66">
+        <v>0</v>
+      </c>
+      <c r="P19" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="Q19" s="82" t="str">
+      <c r="Q19" s="66" t="str">
         <f>master!F15</f>
         <v>Australia</v>
       </c>
-      <c r="R19" s="102">
-        <v>1</v>
-      </c>
-      <c r="S19" s="82">
+      <c r="R19" s="76">
+        <v>1</v>
+      </c>
+      <c r="S19" s="66">
         <f>master!G15</f>
         <v>1</v>
       </c>
-      <c r="T19" s="82">
+      <c r="T19" s="66">
         <f>IF(P19=Q19,1,0)</f>
         <v>0</v>
       </c>
-      <c r="U19" s="82">
+      <c r="U19" s="66">
         <f>IF(R19=S19,2,0)</f>
         <v>2</v>
       </c>
-      <c r="V19" s="82">
+      <c r="V19" s="66">
         <f>IF(S19=1,1,2)</f>
         <v>1</v>
       </c>
-      <c r="W19" s="82">
+      <c r="W19" s="66">
         <f>IF(V19=1,U19,0)</f>
         <v>2</v>
       </c>
-      <c r="X19" s="94">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="80"/>
-      <c r="AA19" s="80"/>
+      <c r="X19" s="66">
+        <v>2</v>
+      </c>
+      <c r="Z19" s="64"/>
+      <c r="AA19" s="64"/>
     </row>
     <row r="20" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="D20" s="82" t="s">
+      <c r="D20" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="E20" s="82" t="str">
+      <c r="E20" s="66" t="str">
         <f>master!B16</f>
         <v>Saudi Arabia</v>
       </c>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82">
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66">
         <f>IF(D20=E20,1,0)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="94">
-        <v>0</v>
-      </c>
-      <c r="P20" s="82" t="s">
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="66">
+        <v>0</v>
+      </c>
+      <c r="P20" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="Q20" s="82" t="str">
+      <c r="Q20" s="66" t="str">
         <f>master!F16</f>
         <v>Tunisia</v>
       </c>
-      <c r="R20" s="82"/>
-      <c r="S20" s="82"/>
-      <c r="T20" s="82">
+      <c r="R20" s="66"/>
+      <c r="S20" s="66"/>
+      <c r="T20" s="66">
         <f>IF(P20=Q20,1,0)</f>
         <v>0</v>
       </c>
-      <c r="U20" s="82"/>
-      <c r="V20" s="82"/>
-      <c r="W20" s="82"/>
-      <c r="X20" s="94">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="80"/>
-      <c r="AA20" s="80"/>
+      <c r="U20" s="66"/>
+      <c r="V20" s="66"/>
+      <c r="W20" s="66"/>
+      <c r="X20" s="66">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="64"/>
+      <c r="AA20" s="64"/>
     </row>
     <row r="21" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="83"/>
-      <c r="L21" s="83"/>
-      <c r="M21" s="83"/>
-      <c r="N21" s="99">
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="74">
         <f>SUM(N17:N20)</f>
-        <v>4</v>
-      </c>
-      <c r="P21" s="98"/>
-      <c r="Q21" s="80"/>
-      <c r="R21" s="80"/>
-      <c r="S21" s="80"/>
-      <c r="T21" s="80"/>
-      <c r="U21" s="80"/>
-      <c r="V21" s="80"/>
-      <c r="W21" s="80"/>
-      <c r="X21" s="81">
+        <v>2</v>
+      </c>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="64"/>
+      <c r="S21" s="64"/>
+      <c r="T21" s="64"/>
+      <c r="U21" s="64"/>
+      <c r="V21" s="64"/>
+      <c r="W21" s="64"/>
+      <c r="X21" s="65">
         <f>SUM(X17:X20)</f>
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="D23" s="81" t="s">
+      <c r="D23" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="E23" s="81" t="s">
+      <c r="E23" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="F23" s="81" t="s">
+      <c r="F23" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="G23" s="81" t="s">
+      <c r="G23" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="H23" s="95" t="s">
+      <c r="H23" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="I23" s="95"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="95"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="95"/>
-      <c r="N23" s="81" t="s">
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="O23" s="89"/>
-      <c r="P23" s="81" t="s">
+      <c r="O23" s="67"/>
+      <c r="P23" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="Q23" s="81" t="s">
+      <c r="Q23" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="R23" s="81" t="s">
+      <c r="R23" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="S23" s="81" t="s">
+      <c r="S23" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="T23" s="95" t="s">
+      <c r="T23" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="U23" s="95"/>
-      <c r="V23" s="95"/>
-      <c r="W23" s="95"/>
-      <c r="X23" s="81" t="s">
+      <c r="U23" s="65"/>
+      <c r="V23" s="65"/>
+      <c r="W23" s="65"/>
+      <c r="X23" s="65" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="24" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="D24" s="82" t="s">
+      <c r="D24" s="66" t="s">
         <v>170</v>
       </c>
-      <c r="E24" s="82" t="str">
+      <c r="E24" s="66" t="str">
         <f>master!B19</f>
         <v>Germany</v>
       </c>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82">
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66">
         <f>IF(D24=E24,5,0)</f>
         <v>0</v>
       </c>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="94">
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="66">
         <v>2</v>
       </c>
-      <c r="O24" s="90"/>
-      <c r="P24" s="82" t="s">
+      <c r="O24" s="64"/>
+      <c r="P24" s="66" t="s">
         <v>174</v>
       </c>
-      <c r="Q24" s="82" t="str">
+      <c r="Q24" s="66" t="str">
         <f>master!F19</f>
         <v>Belgium</v>
       </c>
-      <c r="R24" s="82"/>
-      <c r="S24" s="82"/>
-      <c r="T24" s="82">
+      <c r="R24" s="66"/>
+      <c r="S24" s="66"/>
+      <c r="T24" s="66">
         <f>IF(P24=Q24,5,0)</f>
         <v>5</v>
       </c>
-      <c r="U24" s="82"/>
-      <c r="V24" s="82"/>
-      <c r="W24" s="82"/>
-      <c r="X24" s="94">
+      <c r="U24" s="66"/>
+      <c r="V24" s="66"/>
+      <c r="W24" s="66"/>
+      <c r="X24" s="66">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="D25" s="82" t="s">
+      <c r="D25" s="66" t="s">
         <v>173</v>
       </c>
-      <c r="E25" s="82" t="str">
+      <c r="E25" s="66" t="str">
         <f>master!B20</f>
         <v>Spain</v>
       </c>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82">
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66">
         <f>IF(D25=E25,4,0)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="82"/>
-      <c r="M25" s="82"/>
-      <c r="N25" s="94">
-        <v>2</v>
-      </c>
-      <c r="O25" s="90"/>
-      <c r="P25" s="82" t="s">
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="66"/>
+      <c r="N25" s="66">
+        <v>0</v>
+      </c>
+      <c r="O25" s="64"/>
+      <c r="P25" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="Q25" s="82" t="str">
+      <c r="Q25" s="66" t="str">
         <f>master!F20</f>
         <v>Croatia</v>
       </c>
-      <c r="R25" s="82"/>
-      <c r="S25" s="82"/>
-      <c r="T25" s="82">
+      <c r="R25" s="66"/>
+      <c r="S25" s="66"/>
+      <c r="T25" s="66">
         <f>IF(P25=Q25,4,0)</f>
         <v>4</v>
       </c>
-      <c r="U25" s="82"/>
-      <c r="V25" s="82"/>
-      <c r="W25" s="82"/>
-      <c r="X25" s="94">
+      <c r="U25" s="66"/>
+      <c r="V25" s="66"/>
+      <c r="W25" s="66"/>
+      <c r="X25" s="66">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="D26" s="82" t="s">
+      <c r="D26" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="E26" s="82" t="str">
+      <c r="E26" s="66" t="str">
         <f>master!B21</f>
         <v>Japan</v>
       </c>
-      <c r="F26" s="102">
-        <v>1</v>
-      </c>
-      <c r="G26" s="82">
+      <c r="F26" s="76">
+        <v>1</v>
+      </c>
+      <c r="G26" s="66">
         <f>master!C21</f>
         <v>0</v>
       </c>
-      <c r="H26" s="82">
+      <c r="H26" s="66">
         <f>IF(D26=E26,1,0)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="82">
+      <c r="I26" s="66">
         <f>IF(F26=G26,2,0)</f>
         <v>0</v>
       </c>
-      <c r="J26" s="82">
+      <c r="J26" s="66">
         <f>IF(G26=1,1,2)</f>
         <v>2</v>
       </c>
-      <c r="K26" s="82">
+      <c r="K26" s="66">
         <f>IF(J26=1,I26,0)</f>
         <v>0</v>
       </c>
-      <c r="L26" s="82"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="94">
-        <v>0</v>
-      </c>
-      <c r="O26" s="90"/>
-      <c r="P26" s="82" t="s">
+      <c r="L26" s="66"/>
+      <c r="M26" s="66"/>
+      <c r="N26" s="66">
+        <v>2</v>
+      </c>
+      <c r="O26" s="64"/>
+      <c r="P26" s="66" t="s">
         <v>176</v>
       </c>
-      <c r="Q26" s="82" t="str">
+      <c r="Q26" s="66" t="str">
         <f>master!F21</f>
         <v>Morocco</v>
       </c>
-      <c r="R26" s="102">
-        <v>1</v>
-      </c>
-      <c r="S26" s="82">
+      <c r="R26" s="76">
+        <v>1</v>
+      </c>
+      <c r="S26" s="66">
         <f>master!G21</f>
         <v>1</v>
       </c>
-      <c r="T26" s="82">
+      <c r="T26" s="66">
         <f>IF(P26=Q26,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U26" s="82">
+      <c r="U26" s="66">
         <f>IF(R26=S26,2,0)</f>
         <v>2</v>
       </c>
-      <c r="V26" s="82">
+      <c r="V26" s="66">
         <f>IF(S26=1,1,2)</f>
         <v>1</v>
       </c>
-      <c r="W26" s="82">
+      <c r="W26" s="66">
         <f>IF(V26=1,U26,0)</f>
         <v>2</v>
       </c>
-      <c r="X26" s="94">
+      <c r="X26" s="66">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="D27" s="82" t="s">
+      <c r="D27" s="66" t="s">
         <v>172</v>
       </c>
-      <c r="E27" s="82" t="str">
+      <c r="E27" s="66" t="str">
         <f>master!B22</f>
         <v>Costa Rica</v>
       </c>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82">
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66">
         <f>IF(D27=E27,1,0)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="94">
-        <v>0</v>
-      </c>
-      <c r="O27" s="90"/>
-      <c r="P27" s="82" t="s">
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="66">
+        <v>0</v>
+      </c>
+      <c r="O27" s="64"/>
+      <c r="P27" s="66" t="s">
         <v>177</v>
       </c>
-      <c r="Q27" s="82" t="str">
+      <c r="Q27" s="66" t="str">
         <f>master!F22</f>
         <v>Canada</v>
       </c>
-      <c r="R27" s="82"/>
-      <c r="S27" s="82"/>
-      <c r="T27" s="82">
+      <c r="R27" s="66"/>
+      <c r="S27" s="66"/>
+      <c r="T27" s="66">
         <f>IF(P27=Q27,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U27" s="82"/>
-      <c r="V27" s="82"/>
-      <c r="W27" s="82"/>
-      <c r="X27" s="94">
+      <c r="U27" s="66"/>
+      <c r="V27" s="66"/>
+      <c r="W27" s="66"/>
+      <c r="X27" s="66">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="80"/>
-      <c r="L28" s="80"/>
-      <c r="M28" s="80"/>
-      <c r="N28" s="81">
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="65">
         <f t="shared" ref="N28:X28" si="0">SUM(N24:N27)</f>
         <v>4</v>
       </c>
-      <c r="O28" s="89"/>
-      <c r="P28" s="80"/>
-      <c r="Q28" s="80"/>
-      <c r="R28" s="80"/>
-      <c r="S28" s="80"/>
-      <c r="T28" s="80"/>
-      <c r="U28" s="80"/>
-      <c r="V28" s="80"/>
-      <c r="W28" s="80"/>
-      <c r="X28" s="99">
+      <c r="O28" s="67"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="64"/>
+      <c r="R28" s="64"/>
+      <c r="S28" s="64"/>
+      <c r="T28" s="64"/>
+      <c r="U28" s="64"/>
+      <c r="V28" s="64"/>
+      <c r="W28" s="64"/>
+      <c r="X28" s="74">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
     <row r="29" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="O29" s="89"/>
+      <c r="O29" s="67"/>
     </row>
     <row r="30" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="O30" s="90"/>
+      <c r="O30" s="64"/>
     </row>
     <row r="31" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="O31" s="90"/>
+      <c r="O31" s="64"/>
     </row>
     <row r="32" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="O32" s="90"/>
+      <c r="O32" s="64"/>
     </row>
     <row r="33" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O33" s="90"/>
+      <c r="O33" s="64"/>
     </row>
     <row r="34" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O34" s="89"/>
+      <c r="O34" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -9090,60 +9012,48 @@
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="B6:G6"/>
   </mergeCells>
-  <conditionalFormatting sqref="N10 X10 X17 N17 N24 X24">
-    <cfRule type="cellIs" priority="9" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="13" operator="equal">
+  <conditionalFormatting sqref="N10 X10 N17 X17 N24 X24">
+    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N18 N25 X25 X18 X11">
-    <cfRule type="cellIs" dxfId="28" priority="12" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N13 X13 X20 N20 N27 X27">
-    <cfRule type="cellIs" priority="7" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="11" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N11">
-    <cfRule type="cellIs" dxfId="26" priority="10" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N25 N18 N11 X11 X18 X25">
+  <conditionalFormatting sqref="N10:N11 X10:X11 N17:N18 X17:X18 N24:N25 X24:X25">
     <cfRule type="cellIs" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N11 X11 X25 N18 N25">
-    <cfRule type="cellIs" dxfId="25" priority="6" operator="equal">
+  <conditionalFormatting sqref="N10:N12 X10:X12 N17:N19 N24:N26 X24:X26">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N26 X26 X19 N19 N12 X12">
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
-      <formula>1</formula>
+  <conditionalFormatting sqref="N11">
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
+      <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="5" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N12 X12 N19 X19 N26 X26">
+    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N24 N17 N10 X10 X17 X24">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
-      <formula>2</formula>
+  <conditionalFormatting sqref="N12:N13 X12:X13 N19:N20 X19:X20 N26:N27 X26:X27">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X18">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+  <conditionalFormatting sqref="N13 X13 N20 X20 N27 X27">
+    <cfRule type="cellIs" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X11 N18 X18 N25 X25">
+    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X17:X19">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/excel-docs/euro - lifecycle info.xlsx
+++ b/excel-docs/euro - lifecycle info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseph.collins/Documents/personal-projects/euro/2024_euro/excel-docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB45C74-F9F8-E949-ACCA-42E26FFE96FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424B29E7-C1DE-CA4D-A386-1CCB135BF4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34560" yWindow="500" windowWidth="38400" windowHeight="21100" firstSheet="4" activeTab="10" xr2:uid="{D89656BD-B983-D041-A997-C1184058734E}"/>
+    <workbookView xWindow="23300" yWindow="1760" windowWidth="10000" windowHeight="20120" firstSheet="8" activeTab="11" xr2:uid="{D89656BD-B983-D041-A997-C1184058734E}"/>
   </bookViews>
   <sheets>
     <sheet name="life cycle actions" sheetId="6" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="kevin" sheetId="13" r:id="rId9"/>
     <sheet name="sarah" sheetId="14" r:id="rId10"/>
     <sheet name="pat" sheetId="15" r:id="rId11"/>
+    <sheet name="ko" sheetId="16" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="247">
   <si>
     <t>need to submit a number for tiebreaker score</t>
   </si>
@@ -722,6 +723,159 @@
   </si>
   <si>
     <t>kevin - group D</t>
+  </si>
+  <si>
+    <t>belgium</t>
+  </si>
+  <si>
+    <t>portugal</t>
+  </si>
+  <si>
+    <t>italy</t>
+  </si>
+  <si>
+    <t>austria</t>
+  </si>
+  <si>
+    <t>switz</t>
+  </si>
+  <si>
+    <t>croatia</t>
+  </si>
+  <si>
+    <t>spain</t>
+  </si>
+  <si>
+    <t>sweden</t>
+  </si>
+  <si>
+    <t>ukraine</t>
+  </si>
+  <si>
+    <t>england</t>
+  </si>
+  <si>
+    <t>germany</t>
+  </si>
+  <si>
+    <t>dutch</t>
+  </si>
+  <si>
+    <t>czech</t>
+  </si>
+  <si>
+    <t>wales</t>
+  </si>
+  <si>
+    <t>denmark</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>france</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>absolute match-ups</t>
+  </si>
+  <si>
+    <t>euro 2020</t>
+  </si>
+  <si>
+    <t>Dutch</t>
+  </si>
+  <si>
+    <t>senegal</t>
+  </si>
+  <si>
+    <t>argentina</t>
+  </si>
+  <si>
+    <t>mexico</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>ACDE mock testing</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>poland</t>
+  </si>
+  <si>
+    <t>austrailia</t>
+  </si>
+  <si>
+    <t>japan</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1215,6 +1369,8 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1264,6 +1420,22 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1504,9 +1676,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF180F1A"/>
       <color rgb="FFFF2FB7"/>
       <color rgb="FFBE1FFF"/>
-      <color rgb="FF180F1A"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1846,7 +2018,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="85">
+      <c r="A2" s="87">
         <v>1</v>
       </c>
       <c r="B2" s="33" t="s">
@@ -1854,25 +2026,25 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="86"/>
+      <c r="A3" s="88"/>
       <c r="B3" s="32" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="86"/>
+      <c r="A4" s="88"/>
       <c r="B4" s="32" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="86"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="32" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="87"/>
+      <c r="A6" s="89"/>
       <c r="B6" s="32" t="s">
         <v>16</v>
       </c>
@@ -1882,7 +2054,7 @@
       <c r="B7" s="15"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="83">
+      <c r="A8" s="85">
         <v>2</v>
       </c>
       <c r="B8" s="32" t="s">
@@ -1890,7 +2062,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="84"/>
+      <c r="A9" s="86"/>
       <c r="B9" s="33" t="s">
         <v>94</v>
       </c>
@@ -1900,7 +2072,7 @@
       <c r="B10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="82">
+      <c r="A11" s="84">
         <v>3</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -1908,79 +2080,79 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="82"/>
+      <c r="A12" s="84"/>
       <c r="B12" s="23" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="82"/>
+      <c r="A13" s="84"/>
       <c r="B13" s="23" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="82"/>
+      <c r="A14" s="84"/>
       <c r="B14" s="34" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="82"/>
+      <c r="A15" s="84"/>
       <c r="B15" s="34" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="82"/>
+      <c r="A16" s="84"/>
       <c r="B16" s="34" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="82"/>
+      <c r="A17" s="84"/>
       <c r="B17" s="34" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="82"/>
+      <c r="A18" s="84"/>
       <c r="B18" s="34" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="82"/>
+      <c r="A19" s="84"/>
       <c r="B19" s="34" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="82"/>
+      <c r="A20" s="84"/>
       <c r="B20" s="34" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="82"/>
+      <c r="A21" s="84"/>
       <c r="B21" s="34" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="82"/>
+      <c r="A22" s="84"/>
       <c r="B22" s="34" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="82"/>
+      <c r="A23" s="84"/>
       <c r="B23" s="34" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="82"/>
+      <c r="A24" s="84"/>
       <c r="B24" s="34" t="s">
         <v>64</v>
       </c>
@@ -1990,7 +2162,7 @@
       <c r="B25" s="7"/>
     </row>
     <row r="26" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A26" s="82">
+      <c r="A26" s="84">
         <v>4</v>
       </c>
       <c r="B26" s="10" t="s">
@@ -1998,61 +2170,61 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="24" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="82"/>
+      <c r="A27" s="84"/>
       <c r="B27" s="23" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="24" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="82"/>
+      <c r="A28" s="84"/>
       <c r="B28" s="23" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="82"/>
+      <c r="A29" s="84"/>
       <c r="B29" s="21" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="82"/>
+      <c r="A30" s="84"/>
       <c r="B30" s="34" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="82"/>
+      <c r="A31" s="84"/>
       <c r="B31" s="34" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="82"/>
+      <c r="A32" s="84"/>
       <c r="B32" s="34" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="82"/>
+      <c r="A33" s="84"/>
       <c r="B33" s="34" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="82"/>
+      <c r="A34" s="84"/>
       <c r="B34" s="34" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="82"/>
+      <c r="A35" s="84"/>
       <c r="B35" s="34" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="82"/>
+      <c r="A36" s="84"/>
       <c r="B36" s="34" t="s">
         <v>64</v>
       </c>
@@ -2453,14 +2625,14 @@
       <c r="A2" s="70">
         <v>5</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="100" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
@@ -2475,14 +2647,14 @@
       <c r="A3" s="78">
         <v>4</v>
       </c>
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -2497,14 +2669,14 @@
       <c r="A4" s="73">
         <v>3</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="100" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -2519,14 +2691,14 @@
       <c r="A5" s="79">
         <v>2</v>
       </c>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
@@ -2541,14 +2713,14 @@
       <c r="A6" s="71">
         <v>1</v>
       </c>
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
@@ -3550,7 +3722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08564AC3-4506-8F41-9905-B73B2E25376A}">
   <dimension ref="A1:AA34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -3583,14 +3755,14 @@
       <c r="A2" s="70">
         <v>5</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="100" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
@@ -3605,14 +3777,14 @@
       <c r="A3" s="78">
         <v>4</v>
       </c>
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -3627,14 +3799,14 @@
       <c r="A4" s="73">
         <v>3</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="100" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -3649,14 +3821,14 @@
       <c r="A5" s="79">
         <v>2</v>
       </c>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
@@ -3671,14 +3843,14 @@
       <c r="A6" s="71">
         <v>1</v>
       </c>
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
@@ -4676,6 +4848,419 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB61D7A-DE06-5C4A-93AA-F7A81E59FD2A}">
+  <dimension ref="A1:J27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="2.5" customWidth="1"/>
+    <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I1" s="82"/>
+      <c r="J1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="105" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="106" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" s="103" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="104" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="83"/>
+      <c r="E3" s="104" t="s">
+        <v>203</v>
+      </c>
+      <c r="F3" s="103" t="s">
+        <v>222</v>
+      </c>
+      <c r="G3" s="106" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="102"/>
+      <c r="B4" s="76" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4" s="83"/>
+      <c r="E4" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F4" s="76" t="s">
+        <v>218</v>
+      </c>
+      <c r="G4" s="102"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="66"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="66"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="101" t="s">
+        <v>235</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" s="83"/>
+      <c r="E6" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="F6" s="70" t="s">
+        <v>219</v>
+      </c>
+      <c r="G6" s="101" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="102"/>
+      <c r="B7" s="70" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="D7" s="83"/>
+      <c r="E7" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="F7" s="70" t="s">
+        <v>226</v>
+      </c>
+      <c r="G7" s="102"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="66"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="66"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="101" t="s">
+        <v>236</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D9" s="83"/>
+      <c r="E9" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="F9" s="66" t="s">
+        <v>216</v>
+      </c>
+      <c r="G9" s="101" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="102"/>
+      <c r="B10" s="76" t="s">
+        <v>214</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D10" s="83"/>
+      <c r="E10" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="F10" s="76" t="s">
+        <v>221</v>
+      </c>
+      <c r="G10" s="102"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="66"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="66"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="101" t="s">
+        <v>237</v>
+      </c>
+      <c r="B12" s="70" t="s">
+        <v>220</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" s="83"/>
+      <c r="E12" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="F12" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="G12" s="101" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="102"/>
+      <c r="B13" s="70" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D13" s="83"/>
+      <c r="E13" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="F13" s="70" t="s">
+        <v>215</v>
+      </c>
+      <c r="G13" s="102"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="105" t="s">
+        <v>242</v>
+      </c>
+      <c r="B16" s="105"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="101" t="s">
+        <v>234</v>
+      </c>
+      <c r="B17" s="103" t="s">
+        <v>211</v>
+      </c>
+      <c r="C17" s="104" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="83"/>
+      <c r="E17" s="104" t="s">
+        <v>206</v>
+      </c>
+      <c r="F17" s="103" t="s">
+        <v>222</v>
+      </c>
+      <c r="G17" s="101" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="102"/>
+      <c r="B18" s="76" t="s">
+        <v>243</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D18" s="83"/>
+      <c r="E18" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="F18" s="76" t="s">
+        <v>218</v>
+      </c>
+      <c r="G18" s="102"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="66"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="66"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="101" t="s">
+        <v>235</v>
+      </c>
+      <c r="B20" s="70" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D20" s="83"/>
+      <c r="E20" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="F20" s="70" t="s">
+        <v>219</v>
+      </c>
+      <c r="G20" s="101" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="102"/>
+      <c r="B21" s="70" t="s">
+        <v>217</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D21" s="83"/>
+      <c r="E21" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="F21" s="70" t="s">
+        <v>226</v>
+      </c>
+      <c r="G21" s="102"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="66"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="66"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="101" t="s">
+        <v>236</v>
+      </c>
+      <c r="B23" s="66" t="s">
+        <v>225</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="D23" s="83"/>
+      <c r="E23" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="F23" s="66" t="s">
+        <v>216</v>
+      </c>
+      <c r="G23" s="101" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="102"/>
+      <c r="B24" s="76" t="s">
+        <v>214</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D24" s="83"/>
+      <c r="E24" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="F24" s="76" t="s">
+        <v>221</v>
+      </c>
+      <c r="G24" s="102"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="66"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="66"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="101" t="s">
+        <v>237</v>
+      </c>
+      <c r="B26" s="70" t="s">
+        <v>220</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="D26" s="83"/>
+      <c r="E26" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F26" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="G26" s="101" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="102"/>
+      <c r="B27" s="70" t="s">
+        <v>223</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D27" s="83"/>
+      <c r="E27" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F27" s="70" t="s">
+        <v>215</v>
+      </c>
+      <c r="G27" s="102"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B757BA3-9E92-1F4D-A48F-D74F4F5BF1E1}">
   <dimension ref="A1:C13"/>
@@ -4704,10 +5289,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="87" t="s">
         <v>79</v>
       </c>
       <c r="C2" s="19" t="s">
@@ -4715,17 +5300,17 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="93"/>
-      <c r="B3" s="86"/>
+      <c r="A3" s="95"/>
+      <c r="B3" s="88"/>
       <c r="C3" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="94" t="s">
         <v>100</v>
       </c>
       <c r="C4" s="19" t="s">
@@ -4733,31 +5318,31 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="93"/>
-      <c r="B5" s="94"/>
-      <c r="C5" s="88" t="s">
+      <c r="A5" s="95"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="90" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="93"/>
+      <c r="A6" s="95"/>
       <c r="B6" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="88"/>
+      <c r="C6" s="90"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="94"/>
+      <c r="A7" s="96"/>
       <c r="B7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="88"/>
+      <c r="C7" s="90"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="97" t="s">
         <v>91</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -4765,17 +5350,17 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="95"/>
-      <c r="B9" s="95"/>
+      <c r="A9" s="97"/>
+      <c r="B9" s="97"/>
       <c r="C9" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="92" t="s">
         <v>104</v>
       </c>
       <c r="C10" s="19" t="s">
@@ -4783,22 +5368,22 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="89"/>
-      <c r="B11" s="91"/>
+      <c r="A11" s="91"/>
+      <c r="B11" s="93"/>
       <c r="C11" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="89"/>
-      <c r="B12" s="91"/>
+      <c r="A12" s="91"/>
+      <c r="B12" s="93"/>
       <c r="C12" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="89"/>
-      <c r="B13" s="91"/>
+      <c r="A13" s="91"/>
+      <c r="B13" s="93"/>
       <c r="C13" s="19" t="s">
         <v>28</v>
       </c>
@@ -5163,7 +5748,7 @@
       <c r="B11" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="96" t="s">
+      <c r="C11" s="98" t="s">
         <v>114</v>
       </c>
       <c r="D11" s="50"/>
@@ -5178,7 +5763,7 @@
       <c r="B12" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="97"/>
+      <c r="C12" s="99"/>
       <c r="D12" s="50"/>
       <c r="E12" s="50"/>
       <c r="F12" s="50"/>
@@ -5259,7 +5844,7 @@
       <c r="B17" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="96" t="s">
+      <c r="C17" s="98" t="s">
         <v>114</v>
       </c>
       <c r="D17" s="50"/>
@@ -5274,7 +5859,7 @@
       <c r="B18" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="C18" s="97"/>
+      <c r="C18" s="99"/>
       <c r="D18" s="50"/>
       <c r="E18" s="50"/>
       <c r="F18" s="50"/>
@@ -5713,14 +6298,14 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="68"/>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="100" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
@@ -5731,14 +6316,14 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="77"/>
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -5749,14 +6334,14 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="72"/>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="100" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -5767,14 +6352,14 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="69"/>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
@@ -5785,14 +6370,14 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="22"/>
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
@@ -6773,14 +7358,14 @@
       <c r="A2" s="70">
         <v>5</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="100" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
@@ -6795,14 +7380,14 @@
       <c r="A3" s="78">
         <v>4</v>
       </c>
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -6817,14 +7402,14 @@
       <c r="A4" s="73">
         <v>3</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="100" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -6839,14 +7424,14 @@
       <c r="A5" s="79">
         <v>2</v>
       </c>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
@@ -6861,14 +7446,14 @@
       <c r="A6" s="71">
         <v>1</v>
       </c>
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
@@ -7968,14 +8553,14 @@
       <c r="A2" s="70">
         <v>5</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="100" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
@@ -7990,14 +8575,14 @@
       <c r="A3" s="78">
         <v>4</v>
       </c>
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -8012,14 +8597,14 @@
       <c r="A4" s="73">
         <v>3</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="100" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -8034,14 +8619,14 @@
       <c r="A5" s="79">
         <v>2</v>
       </c>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
@@ -8056,14 +8641,14 @@
       <c r="A6" s="71">
         <v>1</v>
       </c>
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>

--- a/excel-docs/euro - lifecycle info.xlsx
+++ b/excel-docs/euro - lifecycle info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseph.collins/Documents/personal-projects/euro/2024_euro/excel-docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA271B5F-5F65-E949-BFFA-69D9652510D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42A7C16-D948-8F45-AA27-A116157BA303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20120" firstSheet="2" activeTab="6" xr2:uid="{D89656BD-B983-D041-A997-C1184058734E}"/>
+    <workbookView xWindow="18000" yWindow="760" windowWidth="16560" windowHeight="20120" firstSheet="4" activeTab="6" xr2:uid="{D89656BD-B983-D041-A997-C1184058734E}"/>
   </bookViews>
   <sheets>
     <sheet name="life cycle actions" sheetId="6" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="257">
   <si>
     <t>need to submit a number for tiebreaker score</t>
   </si>
@@ -903,6 +903,9 @@
   </si>
   <si>
     <t>results</t>
+  </si>
+  <si>
+    <t>B3</t>
   </si>
 </sst>
 </file>
@@ -1238,7 +1241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1430,6 +1433,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1478,39 +1496,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1522,18 +1508,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1542,8 +1521,17 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2127,7 +2115,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="92">
+      <c r="A2" s="97">
         <v>1</v>
       </c>
       <c r="B2" s="33" t="s">
@@ -2135,25 +2123,25 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="93"/>
+      <c r="A3" s="98"/>
       <c r="B3" s="32" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="93"/>
+      <c r="A4" s="98"/>
       <c r="B4" s="32" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="93"/>
+      <c r="A5" s="98"/>
       <c r="B5" s="32" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="94"/>
+      <c r="A6" s="99"/>
       <c r="B6" s="32" t="s">
         <v>16</v>
       </c>
@@ -2163,7 +2151,7 @@
       <c r="B7" s="15"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="90">
+      <c r="A8" s="95">
         <v>2</v>
       </c>
       <c r="B8" s="32" t="s">
@@ -2171,7 +2159,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="91"/>
+      <c r="A9" s="96"/>
       <c r="B9" s="33" t="s">
         <v>94</v>
       </c>
@@ -2181,7 +2169,7 @@
       <c r="B10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="89">
+      <c r="A11" s="94">
         <v>3</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -2189,79 +2177,79 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="89"/>
+      <c r="A12" s="94"/>
       <c r="B12" s="23" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="89"/>
+      <c r="A13" s="94"/>
       <c r="B13" s="23" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="89"/>
+      <c r="A14" s="94"/>
       <c r="B14" s="34" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="89"/>
+      <c r="A15" s="94"/>
       <c r="B15" s="34" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="89"/>
+      <c r="A16" s="94"/>
       <c r="B16" s="34" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="89"/>
+      <c r="A17" s="94"/>
       <c r="B17" s="34" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="89"/>
+      <c r="A18" s="94"/>
       <c r="B18" s="34" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="89"/>
+      <c r="A19" s="94"/>
       <c r="B19" s="34" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="89"/>
+      <c r="A20" s="94"/>
       <c r="B20" s="34" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="89"/>
+      <c r="A21" s="94"/>
       <c r="B21" s="34" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="89"/>
+      <c r="A22" s="94"/>
       <c r="B22" s="34" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="89"/>
+      <c r="A23" s="94"/>
       <c r="B23" s="34" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="89"/>
+      <c r="A24" s="94"/>
       <c r="B24" s="34" t="s">
         <v>64</v>
       </c>
@@ -2271,7 +2259,7 @@
       <c r="B25" s="7"/>
     </row>
     <row r="26" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A26" s="89">
+      <c r="A26" s="94">
         <v>4</v>
       </c>
       <c r="B26" s="10" t="s">
@@ -2279,61 +2267,61 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="24" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="89"/>
+      <c r="A27" s="94"/>
       <c r="B27" s="23" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="24" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="89"/>
+      <c r="A28" s="94"/>
       <c r="B28" s="23" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="89"/>
+      <c r="A29" s="94"/>
       <c r="B29" s="21" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="89"/>
+      <c r="A30" s="94"/>
       <c r="B30" s="34" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="89"/>
+      <c r="A31" s="94"/>
       <c r="B31" s="34" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="89"/>
+      <c r="A32" s="94"/>
       <c r="B32" s="34" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="89"/>
+      <c r="A33" s="94"/>
       <c r="B33" s="34" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="89"/>
+      <c r="A34" s="94"/>
       <c r="B34" s="34" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="89"/>
+      <c r="A35" s="94"/>
       <c r="B35" s="34" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="89"/>
+      <c r="A36" s="94"/>
       <c r="B36" s="34" t="s">
         <v>64</v>
       </c>
@@ -2701,8 +2689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08564AC3-4506-8F41-9905-B73B2E25376A}">
   <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView topLeftCell="K17" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2729,14 +2717,14 @@
       <c r="A2" s="70">
         <v>5</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="115" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
       <c r="H2" s="66">
         <v>5</v>
       </c>
@@ -2745,14 +2733,14 @@
       <c r="A3" s="78">
         <v>4</v>
       </c>
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="115" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
       <c r="H3" s="66">
         <v>4</v>
       </c>
@@ -2761,14 +2749,14 @@
       <c r="A4" s="73">
         <v>3</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="115" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
       <c r="H4" s="66">
         <v>3</v>
       </c>
@@ -2777,14 +2765,14 @@
       <c r="A5" s="79">
         <v>2</v>
       </c>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="115" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
       <c r="H5" s="66">
         <v>2</v>
       </c>
@@ -2793,14 +2781,14 @@
       <c r="A6" s="71">
         <v>1</v>
       </c>
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="115" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
       <c r="H6" s="66">
         <v>1</v>
       </c>
@@ -3397,19 +3385,19 @@
       <c r="S30" s="66" t="s">
         <v>206</v>
       </c>
-      <c r="T30" s="66" t="s">
+      <c r="T30" s="85" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="31" spans="4:20" x14ac:dyDescent="0.2">
       <c r="I31" s="64"/>
       <c r="J31" s="76" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="K31" s="66" t="s">
         <v>249</v>
       </c>
-      <c r="L31" s="126" t="s">
+      <c r="L31" s="92" t="s">
         <v>249</v>
       </c>
       <c r="M31" s="67" t="s">
@@ -3418,14 +3406,14 @@
       <c r="Q31" s="67" t="s">
         <v>253</v>
       </c>
-      <c r="R31" s="129" t="s">
+      <c r="R31" s="93" t="s">
         <v>206</v>
       </c>
       <c r="S31" s="66" t="s">
         <v>231</v>
       </c>
       <c r="T31" s="76" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="4:20" x14ac:dyDescent="0.2">
@@ -3433,10 +3421,10 @@
       <c r="J32" s="88"/>
       <c r="K32" s="67"/>
       <c r="L32" s="64"/>
-      <c r="M32" s="127" t="s">
+      <c r="M32" s="117" t="s">
         <v>233</v>
       </c>
-      <c r="Q32" s="126" t="s">
+      <c r="Q32" s="92" t="s">
         <v>224</v>
       </c>
       <c r="S32" s="66"/>
@@ -3453,12 +3441,12 @@
       <c r="L33" s="65" t="s">
         <v>235</v>
       </c>
-      <c r="M33" s="128"/>
+      <c r="M33" s="118"/>
       <c r="O33" s="65" t="s">
         <v>152</v>
       </c>
       <c r="Q33" s="84"/>
-      <c r="R33" s="115" t="s">
+      <c r="R33" s="90" t="s">
         <v>239</v>
       </c>
       <c r="S33" s="66" t="s">
@@ -3476,19 +3464,19 @@
       <c r="K34" s="87" t="s">
         <v>233</v>
       </c>
-      <c r="L34" s="126" t="s">
+      <c r="L34" s="92" t="s">
         <v>233</v>
       </c>
       <c r="N34" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="O34" s="126" t="s">
+      <c r="O34" s="92" t="s">
         <v>224</v>
       </c>
       <c r="P34" s="65" t="s">
         <v>226</v>
       </c>
-      <c r="R34" s="129" t="s">
+      <c r="R34" s="93" t="s">
         <v>224</v>
       </c>
       <c r="S34" s="66" t="s">
@@ -3502,11 +3490,11 @@
       <c r="J35" s="88"/>
       <c r="K35" s="67"/>
       <c r="L35" s="64"/>
-      <c r="N35" s="126" t="s">
+      <c r="N35" s="92" t="s">
         <v>196</v>
       </c>
       <c r="O35" s="84"/>
-      <c r="P35" s="126" t="s">
+      <c r="P35" s="92" t="s">
         <v>224</v>
       </c>
       <c r="S35" s="66"/>
@@ -3536,12 +3524,12 @@
     </row>
     <row r="37" spans="9:20" x14ac:dyDescent="0.2">
       <c r="J37" s="76" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="K37" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="L37" s="126" t="s">
+      <c r="L37" s="92" t="s">
         <v>196</v>
       </c>
       <c r="M37" s="65" t="s">
@@ -3550,24 +3538,24 @@
       <c r="Q37" s="65" t="s">
         <v>254</v>
       </c>
-      <c r="R37" s="129" t="s">
+      <c r="R37" s="93" t="s">
         <v>250</v>
       </c>
       <c r="S37" s="66" t="s">
         <v>250</v>
       </c>
       <c r="T37" s="76" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="9:20" x14ac:dyDescent="0.2">
       <c r="J38" s="88"/>
       <c r="K38" s="64"/>
       <c r="L38" s="64"/>
-      <c r="M38" s="127" t="s">
+      <c r="M38" s="117" t="s">
         <v>196</v>
       </c>
-      <c r="Q38" s="126" t="s">
+      <c r="Q38" s="92" t="s">
         <v>251</v>
       </c>
       <c r="S38" s="66"/>
@@ -3583,7 +3571,7 @@
       <c r="L39" s="65" t="s">
         <v>237</v>
       </c>
-      <c r="M39" s="128"/>
+      <c r="M39" s="118"/>
       <c r="Q39" s="84"/>
       <c r="R39" s="65" t="s">
         <v>241</v>
@@ -3602,10 +3590,10 @@
       <c r="K40" s="87" t="s">
         <v>202</v>
       </c>
-      <c r="L40" s="126" t="s">
+      <c r="L40" s="92" t="s">
         <v>210</v>
       </c>
-      <c r="R40" s="129" t="s">
+      <c r="R40" s="93" t="s">
         <v>251</v>
       </c>
       <c r="S40" s="66" t="s">
@@ -3620,22 +3608,22 @@
       <c r="K41" s="64"/>
     </row>
     <row r="42" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="J42" s="110" t="s">
+      <c r="J42" s="114" t="s">
         <v>255</v>
       </c>
-      <c r="K42" s="110"/>
-      <c r="L42" s="110"/>
-      <c r="M42" s="110"/>
-      <c r="N42" s="110"/>
-      <c r="O42" s="110"/>
-      <c r="P42" s="110"/>
-      <c r="Q42" s="110"/>
-      <c r="R42" s="110"/>
-      <c r="S42" s="110"/>
-      <c r="T42" s="110"/>
+      <c r="K42" s="114"/>
+      <c r="L42" s="114"/>
+      <c r="M42" s="114"/>
+      <c r="N42" s="114"/>
+      <c r="O42" s="114"/>
+      <c r="P42" s="114"/>
+      <c r="Q42" s="114"/>
+      <c r="R42" s="114"/>
+      <c r="S42" s="114"/>
+      <c r="T42" s="114"/>
     </row>
     <row r="43" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="J43" s="85" t="s">
+      <c r="J43" s="66" t="s">
         <v>211</v>
       </c>
       <c r="K43" s="85" t="s">
@@ -3656,12 +3644,12 @@
     </row>
     <row r="44" spans="9:20" x14ac:dyDescent="0.2">
       <c r="J44" s="76" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="K44" s="66" t="s">
         <v>249</v>
       </c>
-      <c r="L44" s="117" t="str">
+      <c r="L44" s="91" t="str">
         <f>master!F26</f>
         <v>england</v>
       </c>
@@ -3679,7 +3667,7 @@
         <v>231</v>
       </c>
       <c r="T44" s="76" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="9:20" x14ac:dyDescent="0.2">
@@ -3689,11 +3677,11 @@
         <f>IF(L44=L31,2,0)</f>
         <v>0</v>
       </c>
-      <c r="M45" s="118" t="str">
+      <c r="M45" s="111" t="str">
         <f>master!G27</f>
         <v>england</v>
       </c>
-      <c r="Q45" s="118" t="str">
+      <c r="Q45" s="111" t="str">
         <f>master!K27</f>
         <v>france</v>
       </c>
@@ -3714,12 +3702,12 @@
       <c r="L46" s="65" t="s">
         <v>235</v>
       </c>
-      <c r="M46" s="119"/>
+      <c r="M46" s="112"/>
       <c r="O46" s="65" t="s">
         <v>152</v>
       </c>
-      <c r="Q46" s="121"/>
-      <c r="R46" s="115" t="s">
+      <c r="Q46" s="119"/>
+      <c r="R46" s="90" t="s">
         <v>239</v>
       </c>
       <c r="S46" s="66" t="s">
@@ -3736,7 +3724,7 @@
       <c r="K47" s="87" t="s">
         <v>233</v>
       </c>
-      <c r="L47" s="117" t="str">
+      <c r="L47" s="91" t="str">
         <f>master!F29</f>
         <v>mexico</v>
       </c>
@@ -3747,7 +3735,7 @@
       <c r="N47" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="O47" s="117" t="str">
+      <c r="O47" s="91" t="str">
         <f>master!I29</f>
         <v>france</v>
       </c>
@@ -3776,12 +3764,12 @@
         <f>IF(L47=L34,2,0)</f>
         <v>2</v>
       </c>
-      <c r="N48" s="117" t="str">
+      <c r="N48" s="91" t="str">
         <f>master!H30</f>
         <v>england</v>
       </c>
-      <c r="O48" s="125"/>
-      <c r="P48" s="117" t="str">
+      <c r="O48" s="84"/>
+      <c r="P48" s="91" t="str">
         <f>master!J30</f>
         <v>france</v>
       </c>
@@ -3802,12 +3790,12 @@
       <c r="L49" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="N49" s="125"/>
+      <c r="N49" s="84"/>
       <c r="O49" s="64">
         <f>IF(O47=O34,10,0)</f>
         <v>10</v>
       </c>
-      <c r="P49" s="125"/>
+      <c r="P49" s="84"/>
       <c r="R49" s="65" t="s">
         <v>240</v>
       </c>
@@ -3820,12 +3808,12 @@
     </row>
     <row r="50" spans="10:20" x14ac:dyDescent="0.2">
       <c r="J50" s="76" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="K50" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="L50" s="117" t="str">
+      <c r="L50" s="91" t="str">
         <f>master!F32</f>
         <v>belgium</v>
       </c>
@@ -3851,7 +3839,7 @@
         <v>250</v>
       </c>
       <c r="T50" s="76" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="51" spans="10:20" x14ac:dyDescent="0.2">
@@ -3861,11 +3849,11 @@
         <f>IF(L50=L37,2,0)</f>
         <v>2</v>
       </c>
-      <c r="M51" s="118" t="str">
+      <c r="M51" s="111" t="str">
         <f>master!G33</f>
         <v>spain</v>
       </c>
-      <c r="Q51" s="118" t="str">
+      <c r="Q51" s="111" t="str">
         <f>master!K33</f>
         <v>usa</v>
       </c>
@@ -3886,8 +3874,8 @@
       <c r="L52" s="65" t="s">
         <v>237</v>
       </c>
-      <c r="M52" s="119"/>
-      <c r="Q52" s="121"/>
+      <c r="M52" s="112"/>
+      <c r="Q52" s="119"/>
       <c r="R52" s="65" t="s">
         <v>241</v>
       </c>
@@ -3905,7 +3893,7 @@
       <c r="K53" s="87" t="s">
         <v>202</v>
       </c>
-      <c r="L53" s="117" t="str">
+      <c r="L53" s="91" t="str">
         <f>master!F35</f>
         <v>spain</v>
       </c>
@@ -3978,6 +3966,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
     <mergeCell ref="M51:M52"/>
     <mergeCell ref="Q51:Q52"/>
     <mergeCell ref="M32:M33"/>
@@ -3985,11 +3978,1349 @@
     <mergeCell ref="J42:T42"/>
     <mergeCell ref="M45:M46"/>
     <mergeCell ref="Q45:Q46"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H10 N10 H17 N17 H24 N24">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:H11 N10:N11 H17:H18 N17:N18 H24:H25 N24:N25">
+    <cfRule type="cellIs" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:H12 N10:N12 H17:H19 H24:H26 N24:N26">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12 N12 H19 N19 H26 N26">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:H13 N12:N13 H19:H20 N19:N20 H26:H27 N26:N27">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13 N13 H20 N20 H27 N27">
+    <cfRule type="cellIs" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N11 H18 N18 H25 N25">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N17:N19">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC49F1C-9819-6A4D-BA8A-D847526C8B5C}">
+  <dimension ref="A1:T56"/>
+  <sheetViews>
+    <sheetView topLeftCell="J11" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42:T42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="64"/>
+    <col min="4" max="4" width="13.1640625" style="64" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.6640625" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="11"/>
+      <c r="B1" s="75"/>
+      <c r="H1" s="66" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="70">
+        <v>5</v>
+      </c>
+      <c r="B2" s="115" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="78">
+        <v>4</v>
+      </c>
+      <c r="B3" s="115" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="73">
+        <v>3</v>
+      </c>
+      <c r="B4" s="115" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="79">
+        <v>2</v>
+      </c>
+      <c r="B5" s="115" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="71">
+        <v>1</v>
+      </c>
+      <c r="B6" s="115" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D9" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="G9" s="65" t="s">
+        <v>180</v>
+      </c>
+      <c r="H9" s="65" t="s">
+        <v>147</v>
+      </c>
+      <c r="I9" s="67"/>
+      <c r="J9" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="K9" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="L9" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="M9" s="65" t="s">
+        <v>180</v>
+      </c>
+      <c r="N9" s="65" t="s">
+        <v>147</v>
+      </c>
+      <c r="O9" s="67"/>
+      <c r="P9" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q9" s="66">
+        <f>H14+N14+H21+N21+H28+N28</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D10" s="66" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" s="66" t="str">
+        <f>master!B7</f>
+        <v>Netherlands</v>
+      </c>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66">
+        <v>2</v>
+      </c>
+      <c r="I10" s="64"/>
+      <c r="J10" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="K10" s="66" t="str">
+        <f>master!F7</f>
+        <v>England</v>
+      </c>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66">
+        <v>2</v>
+      </c>
+      <c r="O10" s="64"/>
+      <c r="P10" s="66" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q10" s="66">
+        <f>L56+R56</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D11" s="66" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" s="66" t="str">
+        <f>master!B8</f>
+        <v>Ecuador</v>
+      </c>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66">
+        <v>0</v>
+      </c>
+      <c r="I11" s="64"/>
+      <c r="J11" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="K11" s="66" t="str">
+        <f>master!F8</f>
+        <v>USA</v>
+      </c>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66">
+        <v>4</v>
+      </c>
+      <c r="O11" s="64"/>
+      <c r="P11" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q11" s="66">
+        <f>M56+Q56</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D12" s="66" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" s="66" t="str">
+        <f>master!B9</f>
+        <v>Senegal</v>
+      </c>
+      <c r="F12" s="76">
+        <v>1</v>
+      </c>
+      <c r="G12" s="66">
+        <f>master!C9</f>
+        <v>1</v>
+      </c>
+      <c r="H12" s="66">
+        <v>2</v>
+      </c>
+      <c r="I12" s="64"/>
+      <c r="J12" s="66" t="s">
+        <v>161</v>
+      </c>
+      <c r="K12" s="66" t="str">
+        <f>master!F9</f>
+        <v>Wales</v>
+      </c>
+      <c r="L12" s="76">
+        <v>1</v>
+      </c>
+      <c r="M12" s="66">
+        <f>master!G9</f>
+        <v>1</v>
+      </c>
+      <c r="N12" s="66">
+        <v>2</v>
+      </c>
+      <c r="O12" s="64"/>
+      <c r="P12" s="66" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q12" s="66">
+        <f>N56+P56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D13" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" s="66" t="str">
+        <f>master!B10</f>
+        <v>Qatar</v>
+      </c>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66">
+        <v>0</v>
+      </c>
+      <c r="I13" s="64"/>
+      <c r="J13" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="K13" s="66" t="str">
+        <f>master!F10</f>
+        <v>Iran</v>
+      </c>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66">
+        <v>1</v>
+      </c>
+      <c r="O13" s="64"/>
+      <c r="P13" s="66" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q13" s="66">
+        <f>O56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="65">
+        <f>SUM(H10:H13)</f>
+        <v>4</v>
+      </c>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="65">
+        <f>SUM(N10:N13)</f>
+        <v>9</v>
+      </c>
+      <c r="O14" s="67"/>
+      <c r="P14" s="65" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q14" s="65">
+        <f>SUM(Q9:Q13)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D16" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="F16" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="G16" s="65" t="s">
+        <v>180</v>
+      </c>
+      <c r="H16" s="65" t="s">
+        <v>147</v>
+      </c>
+      <c r="J16" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="K16" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="L16" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="M16" s="65" t="s">
+        <v>180</v>
+      </c>
+      <c r="N16" s="65" t="s">
+        <v>147</v>
+      </c>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+    </row>
+    <row r="17" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D17" s="66" t="s">
+        <v>162</v>
+      </c>
+      <c r="E17" s="66" t="str">
+        <f>master!B13</f>
+        <v>Argentina</v>
+      </c>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66">
+        <v>5</v>
+      </c>
+      <c r="J17" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="K17" s="66" t="str">
+        <f>master!F13</f>
+        <v>France</v>
+      </c>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66">
+        <v>2</v>
+      </c>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="64"/>
+    </row>
+    <row r="18" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D18" s="66" t="s">
+        <v>163</v>
+      </c>
+      <c r="E18" s="66" t="str">
+        <f>master!B14</f>
+        <v>Mexico</v>
+      </c>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66">
+        <v>4</v>
+      </c>
+      <c r="J18" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="K18" s="66" t="str">
+        <f>master!F14</f>
+        <v>Denmark</v>
+      </c>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66">
+        <v>2</v>
+      </c>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="64"/>
+    </row>
+    <row r="19" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D19" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" s="66" t="str">
+        <f>master!B15</f>
+        <v>Poland</v>
+      </c>
+      <c r="F19" s="76">
+        <v>0</v>
+      </c>
+      <c r="G19" s="66">
+        <f>master!C15</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="66">
+        <v>0</v>
+      </c>
+      <c r="J19" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="K19" s="66" t="str">
+        <f>master!F15</f>
+        <v>Australia</v>
+      </c>
+      <c r="L19" s="76">
+        <v>1</v>
+      </c>
+      <c r="M19" s="66">
+        <f>master!G15</f>
+        <v>1</v>
+      </c>
+      <c r="N19" s="66">
+        <v>0</v>
+      </c>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
+    </row>
+    <row r="20" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D20" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" s="66" t="str">
+        <f>master!B16</f>
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66">
+        <v>0</v>
+      </c>
+      <c r="J20" s="66" t="s">
+        <v>166</v>
+      </c>
+      <c r="K20" s="66" t="str">
+        <f>master!F16</f>
+        <v>Tunisia</v>
+      </c>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="66">
+        <v>0</v>
+      </c>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="64"/>
+    </row>
+    <row r="21" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="74">
+        <f>SUM(H17:H20)</f>
+        <v>9</v>
+      </c>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="65">
+        <f>SUM(N17:N20)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D23" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="F23" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="G23" s="65" t="s">
+        <v>180</v>
+      </c>
+      <c r="H23" s="65" t="s">
+        <v>147</v>
+      </c>
+      <c r="I23" s="67"/>
+      <c r="J23" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="K23" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="L23" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="M23" s="65" t="s">
+        <v>180</v>
+      </c>
+      <c r="N23" s="65" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D24" s="66" t="s">
+        <v>170</v>
+      </c>
+      <c r="E24" s="66" t="str">
+        <f>master!B19</f>
+        <v>Germany</v>
+      </c>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66">
+        <v>2</v>
+      </c>
+      <c r="I24" s="64"/>
+      <c r="J24" s="66" t="s">
+        <v>175</v>
+      </c>
+      <c r="K24" s="66" t="str">
+        <f>master!F19</f>
+        <v>Belgium</v>
+      </c>
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D25" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="E25" s="66" t="str">
+        <f>master!B20</f>
+        <v>Spain</v>
+      </c>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66">
+        <v>2</v>
+      </c>
+      <c r="I25" s="64"/>
+      <c r="J25" s="66" t="s">
+        <v>177</v>
+      </c>
+      <c r="K25" s="66" t="str">
+        <f>master!F20</f>
+        <v>Croatia</v>
+      </c>
+      <c r="L25" s="66"/>
+      <c r="M25" s="66"/>
+      <c r="N25" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D26" s="66" t="s">
+        <v>173</v>
+      </c>
+      <c r="E26" s="66" t="str">
+        <f>master!B21</f>
+        <v>Japan</v>
+      </c>
+      <c r="F26" s="76">
+        <v>0</v>
+      </c>
+      <c r="G26" s="66">
+        <f>master!C21</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="66">
+        <v>0</v>
+      </c>
+      <c r="I26" s="64"/>
+      <c r="J26" s="66" t="s">
+        <v>176</v>
+      </c>
+      <c r="K26" s="66" t="str">
+        <f>master!F21</f>
+        <v>Morocco</v>
+      </c>
+      <c r="L26" s="76">
+        <v>1</v>
+      </c>
+      <c r="M26" s="66">
+        <f>master!G21</f>
+        <v>1</v>
+      </c>
+      <c r="N26" s="66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D27" s="66" t="s">
+        <v>172</v>
+      </c>
+      <c r="E27" s="66" t="str">
+        <f>master!B22</f>
+        <v>Costa Rica</v>
+      </c>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66">
+        <v>0</v>
+      </c>
+      <c r="I27" s="64"/>
+      <c r="J27" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="K27" s="66" t="str">
+        <f>master!F22</f>
+        <v>Canada</v>
+      </c>
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="65">
+        <f t="shared" ref="H28:N28" si="0">SUM(H24:H27)</f>
+        <v>4</v>
+      </c>
+      <c r="I28" s="67"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="74">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="I29" s="67"/>
+    </row>
+    <row r="30" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="I30" s="64"/>
+      <c r="J30" s="66" t="s">
+        <v>211</v>
+      </c>
+      <c r="K30" s="66" t="s">
+        <v>205</v>
+      </c>
+      <c r="L30" s="65" t="s">
+        <v>234</v>
+      </c>
+      <c r="R30" s="65" t="s">
+        <v>238</v>
+      </c>
+      <c r="S30" s="66" t="s">
+        <v>206</v>
+      </c>
+      <c r="T30" s="85" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="31" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="I31" s="64"/>
+      <c r="J31" s="76" t="s">
+        <v>221</v>
+      </c>
+      <c r="K31" s="66" t="s">
+        <v>249</v>
+      </c>
+      <c r="L31" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="M31" s="67" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q31" s="67" t="s">
+        <v>253</v>
+      </c>
+      <c r="R31" s="93" t="s">
+        <v>231</v>
+      </c>
+      <c r="S31" s="66" t="s">
+        <v>231</v>
+      </c>
+      <c r="T31" s="76" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="I32" s="64"/>
+      <c r="J32" s="88"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="117" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q32" s="92" t="s">
+        <v>224</v>
+      </c>
+      <c r="S32" s="66"/>
+      <c r="T32" s="66"/>
+    </row>
+    <row r="33" spans="9:20" x14ac:dyDescent="0.2">
+      <c r="I33" s="64"/>
+      <c r="J33" s="70" t="s">
+        <v>212</v>
+      </c>
+      <c r="K33" s="66" t="s">
+        <v>207</v>
+      </c>
+      <c r="L33" s="65" t="s">
+        <v>235</v>
+      </c>
+      <c r="M33" s="118"/>
+      <c r="O33" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q33" s="84"/>
+      <c r="R33" s="90" t="s">
+        <v>239</v>
+      </c>
+      <c r="S33" s="66" t="s">
+        <v>224</v>
+      </c>
+      <c r="T33" s="70" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="34" spans="9:20" x14ac:dyDescent="0.2">
+      <c r="I34" s="67"/>
+      <c r="J34" s="70" t="s">
+        <v>217</v>
+      </c>
+      <c r="K34" s="87" t="s">
+        <v>233</v>
+      </c>
+      <c r="L34" s="92" t="s">
+        <v>233</v>
+      </c>
+      <c r="N34" s="65" t="s">
+        <v>225</v>
+      </c>
+      <c r="O34" s="92" t="s">
+        <v>202</v>
+      </c>
+      <c r="P34" s="65" t="s">
+        <v>226</v>
+      </c>
+      <c r="R34" s="93" t="s">
+        <v>224</v>
+      </c>
+      <c r="S34" s="66" t="s">
+        <v>201</v>
+      </c>
+      <c r="T34" s="70" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="35" spans="9:20" x14ac:dyDescent="0.2">
+      <c r="J35" s="88"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="64"/>
+      <c r="N35" s="92" t="s">
+        <v>202</v>
+      </c>
+      <c r="O35" s="84"/>
+      <c r="P35" s="92" t="s">
+        <v>232</v>
+      </c>
+      <c r="S35" s="66"/>
+      <c r="T35" s="66"/>
+    </row>
+    <row r="36" spans="9:20" x14ac:dyDescent="0.2">
+      <c r="J36" s="66" t="s">
+        <v>225</v>
+      </c>
+      <c r="K36" s="66" t="s">
+        <v>196</v>
+      </c>
+      <c r="L36" s="65" t="s">
+        <v>236</v>
+      </c>
+      <c r="N36" s="84"/>
+      <c r="P36" s="84"/>
+      <c r="R36" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="S36" s="66" t="s">
+        <v>232</v>
+      </c>
+      <c r="T36" s="66" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="37" spans="9:20" x14ac:dyDescent="0.2">
+      <c r="J37" s="76" t="s">
+        <v>256</v>
+      </c>
+      <c r="K37" s="87" t="s">
+        <v>209</v>
+      </c>
+      <c r="L37" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="M37" s="65" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q37" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="R37" s="93" t="s">
+        <v>232</v>
+      </c>
+      <c r="S37" s="66" t="s">
+        <v>250</v>
+      </c>
+      <c r="T37" s="76" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="38" spans="9:20" x14ac:dyDescent="0.2">
+      <c r="J38" s="88"/>
+      <c r="K38" s="64"/>
+      <c r="L38" s="64"/>
+      <c r="M38" s="117" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q38" s="92" t="s">
+        <v>232</v>
+      </c>
+      <c r="S38" s="66"/>
+      <c r="T38" s="66"/>
+    </row>
+    <row r="39" spans="9:20" x14ac:dyDescent="0.2">
+      <c r="J39" s="70" t="s">
+        <v>220</v>
+      </c>
+      <c r="K39" s="66" t="s">
+        <v>210</v>
+      </c>
+      <c r="L39" s="65" t="s">
+        <v>237</v>
+      </c>
+      <c r="M39" s="118"/>
+      <c r="Q39" s="84"/>
+      <c r="R39" s="65" t="s">
+        <v>241</v>
+      </c>
+      <c r="S39" s="66" t="s">
+        <v>251</v>
+      </c>
+      <c r="T39" s="70" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40" spans="9:20" x14ac:dyDescent="0.2">
+      <c r="J40" s="70" t="s">
+        <v>223</v>
+      </c>
+      <c r="K40" s="87" t="s">
+        <v>202</v>
+      </c>
+      <c r="L40" s="92" t="s">
+        <v>202</v>
+      </c>
+      <c r="R40" s="93" t="s">
+        <v>252</v>
+      </c>
+      <c r="S40" s="66" t="s">
+        <v>252</v>
+      </c>
+      <c r="T40" s="70" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41" spans="9:20" x14ac:dyDescent="0.2">
+      <c r="J41" s="64"/>
+      <c r="K41" s="64"/>
+    </row>
+    <row r="42" spans="9:20" x14ac:dyDescent="0.2">
+      <c r="J42" s="114" t="s">
+        <v>255</v>
+      </c>
+      <c r="K42" s="114"/>
+      <c r="L42" s="114"/>
+      <c r="M42" s="114"/>
+      <c r="N42" s="114"/>
+      <c r="O42" s="114"/>
+      <c r="P42" s="114"/>
+      <c r="Q42" s="114"/>
+      <c r="R42" s="114"/>
+      <c r="S42" s="114"/>
+      <c r="T42" s="114"/>
+    </row>
+    <row r="43" spans="9:20" x14ac:dyDescent="0.2">
+      <c r="J43" s="66" t="s">
+        <v>211</v>
+      </c>
+      <c r="K43" s="85" t="s">
+        <v>205</v>
+      </c>
+      <c r="L43" s="74" t="s">
+        <v>234</v>
+      </c>
+      <c r="R43" s="74" t="s">
+        <v>238</v>
+      </c>
+      <c r="S43" s="85" t="s">
+        <v>206</v>
+      </c>
+      <c r="T43" s="85" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="44" spans="9:20" x14ac:dyDescent="0.2">
+      <c r="J44" s="76" t="s">
+        <v>221</v>
+      </c>
+      <c r="K44" s="66" t="s">
+        <v>249</v>
+      </c>
+      <c r="L44" s="91" t="str">
+        <f>master!F26</f>
+        <v>england</v>
+      </c>
+      <c r="M44" s="67" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q44" s="67" t="s">
+        <v>253</v>
+      </c>
+      <c r="R44" s="76" t="str">
+        <f>master!L26</f>
+        <v>germany</v>
+      </c>
+      <c r="S44" s="66" t="s">
+        <v>231</v>
+      </c>
+      <c r="T44" s="76" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="45" spans="9:20" x14ac:dyDescent="0.2">
+      <c r="J45" s="88"/>
+      <c r="K45" s="67"/>
+      <c r="L45" s="64">
+        <f>IF(L44=L31,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="M45" s="111" t="str">
+        <f>master!G27</f>
+        <v>england</v>
+      </c>
+      <c r="Q45" s="111" t="str">
+        <f>master!K27</f>
+        <v>france</v>
+      </c>
+      <c r="R45" s="64">
+        <f>IF(R44=R31,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S45" s="66"/>
+      <c r="T45" s="66"/>
+    </row>
+    <row r="46" spans="9:20" x14ac:dyDescent="0.2">
+      <c r="J46" s="70" t="s">
+        <v>212</v>
+      </c>
+      <c r="K46" s="66" t="s">
+        <v>207</v>
+      </c>
+      <c r="L46" s="65" t="s">
+        <v>235</v>
+      </c>
+      <c r="M46" s="112"/>
+      <c r="O46" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q46" s="119"/>
+      <c r="R46" s="90" t="s">
+        <v>239</v>
+      </c>
+      <c r="S46" s="66" t="s">
+        <v>224</v>
+      </c>
+      <c r="T46" s="70" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="47" spans="9:20" x14ac:dyDescent="0.2">
+      <c r="J47" s="70" t="s">
+        <v>217</v>
+      </c>
+      <c r="K47" s="87" t="s">
+        <v>233</v>
+      </c>
+      <c r="L47" s="91" t="str">
+        <f>master!F29</f>
+        <v>mexico</v>
+      </c>
+      <c r="M47" s="64">
+        <f>IF(M45=M32,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N47" s="65" t="s">
+        <v>225</v>
+      </c>
+      <c r="O47" s="91" t="str">
+        <f>master!I29</f>
+        <v>france</v>
+      </c>
+      <c r="P47" s="65" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q47" s="64">
+        <f>IF(Q45=Q32,4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="R47" s="76" t="str">
+        <f>master!L29</f>
+        <v>france</v>
+      </c>
+      <c r="S47" s="66" t="s">
+        <v>201</v>
+      </c>
+      <c r="T47" s="70" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="48" spans="9:20" x14ac:dyDescent="0.2">
+      <c r="J48" s="88"/>
+      <c r="K48" s="67"/>
+      <c r="L48" s="64">
+        <f>IF(L47=L34,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="N48" s="91" t="str">
+        <f>master!H30</f>
+        <v>england</v>
+      </c>
+      <c r="O48" s="84"/>
+      <c r="P48" s="91" t="str">
+        <f>master!J30</f>
+        <v>france</v>
+      </c>
+      <c r="R48" s="64">
+        <f>IF(R47=R34,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="S48" s="66"/>
+      <c r="T48" s="66"/>
+    </row>
+    <row r="49" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J49" s="66" t="s">
+        <v>225</v>
+      </c>
+      <c r="K49" s="66" t="s">
+        <v>196</v>
+      </c>
+      <c r="L49" s="65" t="s">
+        <v>236</v>
+      </c>
+      <c r="N49" s="84"/>
+      <c r="O49" s="64">
+        <f>IF(O47=O34,10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P49" s="84"/>
+      <c r="R49" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="S49" s="66" t="s">
+        <v>232</v>
+      </c>
+      <c r="T49" s="66" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="50" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J50" s="76" t="s">
+        <v>256</v>
+      </c>
+      <c r="K50" s="87" t="s">
+        <v>209</v>
+      </c>
+      <c r="L50" s="91" t="str">
+        <f>master!F32</f>
+        <v>belgium</v>
+      </c>
+      <c r="M50" s="65" t="s">
+        <v>248</v>
+      </c>
+      <c r="N50" s="64">
+        <f>IF(N48=N35,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P50" s="64">
+        <f>IF(P48=P35,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="R50" s="76" t="str">
+        <f>master!L32</f>
+        <v>argentina</v>
+      </c>
+      <c r="S50" s="66" t="s">
+        <v>250</v>
+      </c>
+      <c r="T50" s="76" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="51" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J51" s="88"/>
+      <c r="K51" s="64"/>
+      <c r="L51" s="64">
+        <f>IF(L50=L37,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M51" s="111" t="str">
+        <f>master!G33</f>
+        <v>spain</v>
+      </c>
+      <c r="Q51" s="111" t="str">
+        <f>master!K33</f>
+        <v>usa</v>
+      </c>
+      <c r="R51" s="64">
+        <f>IF(R50=R37,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="S51" s="66"/>
+      <c r="T51" s="66"/>
+    </row>
+    <row r="52" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J52" s="70" t="s">
+        <v>220</v>
+      </c>
+      <c r="K52" s="66" t="s">
+        <v>210</v>
+      </c>
+      <c r="L52" s="65" t="s">
+        <v>237</v>
+      </c>
+      <c r="M52" s="112"/>
+      <c r="Q52" s="119"/>
+      <c r="R52" s="65" t="s">
+        <v>241</v>
+      </c>
+      <c r="S52" s="66" t="s">
+        <v>251</v>
+      </c>
+      <c r="T52" s="70" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="53" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J53" s="70" t="s">
+        <v>223</v>
+      </c>
+      <c r="K53" s="87" t="s">
+        <v>202</v>
+      </c>
+      <c r="L53" s="91" t="str">
+        <f>master!F35</f>
+        <v>spain</v>
+      </c>
+      <c r="M53" s="64">
+        <f>IF(M51=M38,4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="Q53" s="64">
+        <f>IF(Q51=Q38,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R53" s="76" t="str">
+        <f>master!L35</f>
+        <v>usa</v>
+      </c>
+      <c r="S53" s="66" t="s">
+        <v>252</v>
+      </c>
+      <c r="T53" s="70" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="54" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J54" s="64"/>
+      <c r="K54" s="64"/>
+      <c r="L54" s="64">
+        <f>IF(L53=L40,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="R54" s="64">
+        <f>IF(R53=R40,2,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J55" s="64"/>
+      <c r="K55" s="64"/>
+    </row>
+    <row r="56" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J56" s="64"/>
+      <c r="K56" s="64"/>
+      <c r="L56" s="64">
+        <f>SUM(L54+L51+L48+L45)</f>
+        <v>6</v>
+      </c>
+      <c r="M56" s="64">
+        <f>M47+M53</f>
+        <v>4</v>
+      </c>
+      <c r="N56" s="64">
+        <f>N50</f>
+        <v>0</v>
+      </c>
+      <c r="O56" s="64">
+        <f>O49</f>
+        <v>0</v>
+      </c>
+      <c r="P56" s="64">
+        <f>P50</f>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="64">
+        <f>Q47+Q53</f>
+        <v>4</v>
+      </c>
+      <c r="R56" s="64">
+        <f>SUM(R54+R51+R48+R45)</f>
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="B6:G6"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="Q51:Q52"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="J42:T42"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="Q45:Q46"/>
   </mergeCells>
   <conditionalFormatting sqref="H10 N10 H17 N17 H24 N24">
     <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
@@ -4040,1355 +5371,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC49F1C-9819-6A4D-BA8A-D847526C8B5C}">
-  <dimension ref="A1:T56"/>
-  <sheetViews>
-    <sheetView topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30:T56"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="64"/>
-    <col min="4" max="4" width="13.1640625" style="64" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" style="64" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.6640625" customWidth="1"/>
-    <col min="12" max="12" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="11"/>
-      <c r="B1" s="75"/>
-      <c r="H1" s="66" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="70">
-        <v>5</v>
-      </c>
-      <c r="B2" s="109" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="66">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="78">
-        <v>4</v>
-      </c>
-      <c r="B3" s="109" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="66">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="73">
-        <v>3</v>
-      </c>
-      <c r="B4" s="109" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="66">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="79">
-        <v>2</v>
-      </c>
-      <c r="B5" s="109" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="71">
-        <v>1</v>
-      </c>
-      <c r="B6" s="109" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D9" s="65" t="s">
-        <v>135</v>
-      </c>
-      <c r="E9" s="65" t="s">
-        <v>179</v>
-      </c>
-      <c r="F9" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="G9" s="65" t="s">
-        <v>180</v>
-      </c>
-      <c r="H9" s="65" t="s">
-        <v>147</v>
-      </c>
-      <c r="I9" s="67"/>
-      <c r="J9" s="65" t="s">
-        <v>136</v>
-      </c>
-      <c r="K9" s="65" t="s">
-        <v>179</v>
-      </c>
-      <c r="L9" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="M9" s="65" t="s">
-        <v>180</v>
-      </c>
-      <c r="N9" s="65" t="s">
-        <v>147</v>
-      </c>
-      <c r="O9" s="67"/>
-      <c r="P9" s="66" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q9" s="66">
-        <f>H14+N14+H21+N21+H28+N28</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D10" s="66" t="s">
-        <v>156</v>
-      </c>
-      <c r="E10" s="66" t="str">
-        <f>master!B7</f>
-        <v>Netherlands</v>
-      </c>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66">
-        <v>2</v>
-      </c>
-      <c r="I10" s="64"/>
-      <c r="J10" s="66" t="s">
-        <v>159</v>
-      </c>
-      <c r="K10" s="66" t="str">
-        <f>master!F7</f>
-        <v>England</v>
-      </c>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66">
-        <v>2</v>
-      </c>
-      <c r="O10" s="64"/>
-      <c r="P10" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q10" s="66">
-        <f>L56+R56</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D11" s="66" t="s">
-        <v>155</v>
-      </c>
-      <c r="E11" s="66" t="str">
-        <f>master!B8</f>
-        <v>Ecuador</v>
-      </c>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66">
-        <v>0</v>
-      </c>
-      <c r="I11" s="64"/>
-      <c r="J11" s="66" t="s">
-        <v>160</v>
-      </c>
-      <c r="K11" s="66" t="str">
-        <f>master!F8</f>
-        <v>USA</v>
-      </c>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66">
-        <v>4</v>
-      </c>
-      <c r="O11" s="64"/>
-      <c r="P11" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q11" s="66">
-        <f>M56+Q56</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D12" s="66" t="s">
-        <v>157</v>
-      </c>
-      <c r="E12" s="66" t="str">
-        <f>master!B9</f>
-        <v>Senegal</v>
-      </c>
-      <c r="F12" s="76">
-        <v>1</v>
-      </c>
-      <c r="G12" s="66">
-        <f>master!C9</f>
-        <v>1</v>
-      </c>
-      <c r="H12" s="66">
-        <v>2</v>
-      </c>
-      <c r="I12" s="64"/>
-      <c r="J12" s="66" t="s">
-        <v>161</v>
-      </c>
-      <c r="K12" s="66" t="str">
-        <f>master!F9</f>
-        <v>Wales</v>
-      </c>
-      <c r="L12" s="76">
-        <v>1</v>
-      </c>
-      <c r="M12" s="66">
-        <f>master!G9</f>
-        <v>1</v>
-      </c>
-      <c r="N12" s="66">
-        <v>2</v>
-      </c>
-      <c r="O12" s="64"/>
-      <c r="P12" s="66" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q12" s="66">
-        <f>N56+P56</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D13" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="E13" s="66" t="str">
-        <f>master!B10</f>
-        <v>Qatar</v>
-      </c>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66">
-        <v>0</v>
-      </c>
-      <c r="I13" s="64"/>
-      <c r="J13" s="66" t="s">
-        <v>158</v>
-      </c>
-      <c r="K13" s="66" t="str">
-        <f>master!F10</f>
-        <v>Iran</v>
-      </c>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66">
-        <v>1</v>
-      </c>
-      <c r="O13" s="64"/>
-      <c r="P13" s="66" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q13" s="66">
-        <f>O56</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="65">
-        <f>SUM(H10:H13)</f>
-        <v>4</v>
-      </c>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="65">
-        <f>SUM(N10:N13)</f>
-        <v>9</v>
-      </c>
-      <c r="O14" s="67"/>
-      <c r="P14" s="65" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q14" s="65">
-        <f>SUM(Q9:Q13)</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="64"/>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="64"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D16" s="65" t="s">
-        <v>137</v>
-      </c>
-      <c r="E16" s="65" t="s">
-        <v>179</v>
-      </c>
-      <c r="F16" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="G16" s="65" t="s">
-        <v>180</v>
-      </c>
-      <c r="H16" s="65" t="s">
-        <v>147</v>
-      </c>
-      <c r="J16" s="65" t="s">
-        <v>138</v>
-      </c>
-      <c r="K16" s="65" t="s">
-        <v>179</v>
-      </c>
-      <c r="L16" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="M16" s="65" t="s">
-        <v>180</v>
-      </c>
-      <c r="N16" s="65" t="s">
-        <v>147</v>
-      </c>
-      <c r="P16" s="64"/>
-      <c r="Q16" s="64"/>
-    </row>
-    <row r="17" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="D17" s="66" t="s">
-        <v>162</v>
-      </c>
-      <c r="E17" s="66" t="str">
-        <f>master!B13</f>
-        <v>Argentina</v>
-      </c>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66">
-        <v>5</v>
-      </c>
-      <c r="J17" s="66" t="s">
-        <v>168</v>
-      </c>
-      <c r="K17" s="66" t="str">
-        <f>master!F13</f>
-        <v>France</v>
-      </c>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66">
-        <v>2</v>
-      </c>
-      <c r="P17" s="64"/>
-      <c r="Q17" s="64"/>
-    </row>
-    <row r="18" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="D18" s="66" t="s">
-        <v>163</v>
-      </c>
-      <c r="E18" s="66" t="str">
-        <f>master!B14</f>
-        <v>Mexico</v>
-      </c>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66">
-        <v>4</v>
-      </c>
-      <c r="J18" s="66" t="s">
-        <v>169</v>
-      </c>
-      <c r="K18" s="66" t="str">
-        <f>master!F14</f>
-        <v>Denmark</v>
-      </c>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66">
-        <v>2</v>
-      </c>
-      <c r="P18" s="64"/>
-      <c r="Q18" s="64"/>
-    </row>
-    <row r="19" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="D19" s="66" t="s">
-        <v>165</v>
-      </c>
-      <c r="E19" s="66" t="str">
-        <f>master!B15</f>
-        <v>Poland</v>
-      </c>
-      <c r="F19" s="76">
-        <v>0</v>
-      </c>
-      <c r="G19" s="66">
-        <f>master!C15</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="66">
-        <v>0</v>
-      </c>
-      <c r="J19" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="K19" s="66" t="str">
-        <f>master!F15</f>
-        <v>Australia</v>
-      </c>
-      <c r="L19" s="76">
-        <v>1</v>
-      </c>
-      <c r="M19" s="66">
-        <f>master!G15</f>
-        <v>1</v>
-      </c>
-      <c r="N19" s="66">
-        <v>0</v>
-      </c>
-      <c r="P19" s="64"/>
-      <c r="Q19" s="64"/>
-    </row>
-    <row r="20" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="D20" s="66" t="s">
-        <v>164</v>
-      </c>
-      <c r="E20" s="66" t="str">
-        <f>master!B16</f>
-        <v>Saudi Arabia</v>
-      </c>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66">
-        <v>0</v>
-      </c>
-      <c r="J20" s="66" t="s">
-        <v>166</v>
-      </c>
-      <c r="K20" s="66" t="str">
-        <f>master!F16</f>
-        <v>Tunisia</v>
-      </c>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66">
-        <v>0</v>
-      </c>
-      <c r="P20" s="64"/>
-      <c r="Q20" s="64"/>
-    </row>
-    <row r="21" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="74">
-        <f>SUM(H17:H20)</f>
-        <v>9</v>
-      </c>
-      <c r="J21" s="64"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="64"/>
-      <c r="M21" s="64"/>
-      <c r="N21" s="65">
-        <f>SUM(N17:N20)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="D23" s="65" t="s">
-        <v>139</v>
-      </c>
-      <c r="E23" s="65" t="s">
-        <v>179</v>
-      </c>
-      <c r="F23" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="G23" s="65" t="s">
-        <v>180</v>
-      </c>
-      <c r="H23" s="65" t="s">
-        <v>147</v>
-      </c>
-      <c r="I23" s="67"/>
-      <c r="J23" s="65" t="s">
-        <v>140</v>
-      </c>
-      <c r="K23" s="65" t="s">
-        <v>179</v>
-      </c>
-      <c r="L23" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="M23" s="65" t="s">
-        <v>180</v>
-      </c>
-      <c r="N23" s="65" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="24" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="D24" s="66" t="s">
-        <v>170</v>
-      </c>
-      <c r="E24" s="66" t="str">
-        <f>master!B19</f>
-        <v>Germany</v>
-      </c>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66">
-        <v>2</v>
-      </c>
-      <c r="I24" s="64"/>
-      <c r="J24" s="66" t="s">
-        <v>175</v>
-      </c>
-      <c r="K24" s="66" t="str">
-        <f>master!F19</f>
-        <v>Belgium</v>
-      </c>
-      <c r="L24" s="66"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="D25" s="66" t="s">
-        <v>171</v>
-      </c>
-      <c r="E25" s="66" t="str">
-        <f>master!B20</f>
-        <v>Spain</v>
-      </c>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66">
-        <v>2</v>
-      </c>
-      <c r="I25" s="64"/>
-      <c r="J25" s="66" t="s">
-        <v>177</v>
-      </c>
-      <c r="K25" s="66" t="str">
-        <f>master!F20</f>
-        <v>Croatia</v>
-      </c>
-      <c r="L25" s="66"/>
-      <c r="M25" s="66"/>
-      <c r="N25" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="D26" s="66" t="s">
-        <v>173</v>
-      </c>
-      <c r="E26" s="66" t="str">
-        <f>master!B21</f>
-        <v>Japan</v>
-      </c>
-      <c r="F26" s="76">
-        <v>0</v>
-      </c>
-      <c r="G26" s="66">
-        <f>master!C21</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="66">
-        <v>0</v>
-      </c>
-      <c r="I26" s="64"/>
-      <c r="J26" s="66" t="s">
-        <v>176</v>
-      </c>
-      <c r="K26" s="66" t="str">
-        <f>master!F21</f>
-        <v>Morocco</v>
-      </c>
-      <c r="L26" s="76">
-        <v>1</v>
-      </c>
-      <c r="M26" s="66">
-        <f>master!G21</f>
-        <v>1</v>
-      </c>
-      <c r="N26" s="66">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="D27" s="66" t="s">
-        <v>172</v>
-      </c>
-      <c r="E27" s="66" t="str">
-        <f>master!B22</f>
-        <v>Costa Rica</v>
-      </c>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66">
-        <v>0</v>
-      </c>
-      <c r="I27" s="64"/>
-      <c r="J27" s="66" t="s">
-        <v>174</v>
-      </c>
-      <c r="K27" s="66" t="str">
-        <f>master!F22</f>
-        <v>Canada</v>
-      </c>
-      <c r="L27" s="66"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="65">
-        <f t="shared" ref="H28:N28" si="0">SUM(H24:H27)</f>
-        <v>4</v>
-      </c>
-      <c r="I28" s="67"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="64"/>
-      <c r="M28" s="64"/>
-      <c r="N28" s="74">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="I29" s="67"/>
-    </row>
-    <row r="30" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="I30" s="64"/>
-      <c r="J30" s="66" t="s">
-        <v>211</v>
-      </c>
-      <c r="K30" s="66" t="s">
-        <v>205</v>
-      </c>
-      <c r="L30" s="65" t="s">
-        <v>234</v>
-      </c>
-      <c r="R30" s="65" t="s">
-        <v>238</v>
-      </c>
-      <c r="S30" s="66" t="s">
-        <v>206</v>
-      </c>
-      <c r="T30" s="66" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="31" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="I31" s="64"/>
-      <c r="J31" s="76" t="s">
-        <v>227</v>
-      </c>
-      <c r="K31" s="66" t="s">
-        <v>249</v>
-      </c>
-      <c r="L31" s="126" t="s">
-        <v>205</v>
-      </c>
-      <c r="M31" s="67" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q31" s="67" t="s">
-        <v>253</v>
-      </c>
-      <c r="R31" s="129" t="s">
-        <v>231</v>
-      </c>
-      <c r="S31" s="66" t="s">
-        <v>231</v>
-      </c>
-      <c r="T31" s="76" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="32" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="I32" s="64"/>
-      <c r="J32" s="88"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="64"/>
-      <c r="M32" s="127" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q32" s="126" t="s">
-        <v>224</v>
-      </c>
-      <c r="S32" s="66"/>
-      <c r="T32" s="66"/>
-    </row>
-    <row r="33" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="I33" s="64"/>
-      <c r="J33" s="70" t="s">
-        <v>212</v>
-      </c>
-      <c r="K33" s="66" t="s">
-        <v>207</v>
-      </c>
-      <c r="L33" s="65" t="s">
-        <v>235</v>
-      </c>
-      <c r="M33" s="128"/>
-      <c r="O33" s="65" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q33" s="84"/>
-      <c r="R33" s="115" t="s">
-        <v>239</v>
-      </c>
-      <c r="S33" s="66" t="s">
-        <v>224</v>
-      </c>
-      <c r="T33" s="70" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="34" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="I34" s="67"/>
-      <c r="J34" s="70" t="s">
-        <v>217</v>
-      </c>
-      <c r="K34" s="87" t="s">
-        <v>233</v>
-      </c>
-      <c r="L34" s="126" t="s">
-        <v>233</v>
-      </c>
-      <c r="N34" s="65" t="s">
-        <v>225</v>
-      </c>
-      <c r="O34" s="126" t="s">
-        <v>202</v>
-      </c>
-      <c r="P34" s="65" t="s">
-        <v>226</v>
-      </c>
-      <c r="R34" s="129" t="s">
-        <v>224</v>
-      </c>
-      <c r="S34" s="66" t="s">
-        <v>201</v>
-      </c>
-      <c r="T34" s="70" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="35" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="J35" s="88"/>
-      <c r="K35" s="67"/>
-      <c r="L35" s="64"/>
-      <c r="N35" s="126" t="s">
-        <v>202</v>
-      </c>
-      <c r="O35" s="84"/>
-      <c r="P35" s="126" t="s">
-        <v>232</v>
-      </c>
-      <c r="S35" s="66"/>
-      <c r="T35" s="66"/>
-    </row>
-    <row r="36" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="J36" s="66" t="s">
-        <v>225</v>
-      </c>
-      <c r="K36" s="66" t="s">
-        <v>196</v>
-      </c>
-      <c r="L36" s="65" t="s">
-        <v>236</v>
-      </c>
-      <c r="N36" s="84"/>
-      <c r="P36" s="84"/>
-      <c r="R36" s="65" t="s">
-        <v>240</v>
-      </c>
-      <c r="S36" s="66" t="s">
-        <v>232</v>
-      </c>
-      <c r="T36" s="66" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="37" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="J37" s="76" t="s">
-        <v>214</v>
-      </c>
-      <c r="K37" s="87" t="s">
-        <v>209</v>
-      </c>
-      <c r="L37" s="126" t="s">
-        <v>209</v>
-      </c>
-      <c r="M37" s="65" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q37" s="65" t="s">
-        <v>254</v>
-      </c>
-      <c r="R37" s="129" t="s">
-        <v>232</v>
-      </c>
-      <c r="S37" s="66" t="s">
-        <v>250</v>
-      </c>
-      <c r="T37" s="76" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="38" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="J38" s="88"/>
-      <c r="K38" s="64"/>
-      <c r="L38" s="64"/>
-      <c r="M38" s="127" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q38" s="126" t="s">
-        <v>232</v>
-      </c>
-      <c r="S38" s="66"/>
-      <c r="T38" s="66"/>
-    </row>
-    <row r="39" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="J39" s="70" t="s">
-        <v>220</v>
-      </c>
-      <c r="K39" s="66" t="s">
-        <v>210</v>
-      </c>
-      <c r="L39" s="65" t="s">
-        <v>237</v>
-      </c>
-      <c r="M39" s="128"/>
-      <c r="Q39" s="84"/>
-      <c r="R39" s="65" t="s">
-        <v>241</v>
-      </c>
-      <c r="S39" s="66" t="s">
-        <v>251</v>
-      </c>
-      <c r="T39" s="70" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="40" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="J40" s="70" t="s">
-        <v>223</v>
-      </c>
-      <c r="K40" s="87" t="s">
-        <v>202</v>
-      </c>
-      <c r="L40" s="126" t="s">
-        <v>202</v>
-      </c>
-      <c r="R40" s="129" t="s">
-        <v>252</v>
-      </c>
-      <c r="S40" s="66" t="s">
-        <v>252</v>
-      </c>
-      <c r="T40" s="70" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="41" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="J41" s="64"/>
-      <c r="K41" s="64"/>
-    </row>
-    <row r="42" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="J42" s="110" t="s">
-        <v>255</v>
-      </c>
-      <c r="K42" s="110"/>
-      <c r="L42" s="110"/>
-      <c r="M42" s="110"/>
-      <c r="N42" s="110"/>
-      <c r="O42" s="110"/>
-      <c r="P42" s="110"/>
-      <c r="Q42" s="110"/>
-      <c r="R42" s="110"/>
-      <c r="S42" s="110"/>
-      <c r="T42" s="110"/>
-    </row>
-    <row r="43" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="J43" s="85" t="s">
-        <v>211</v>
-      </c>
-      <c r="K43" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="L43" s="74" t="s">
-        <v>234</v>
-      </c>
-      <c r="R43" s="74" t="s">
-        <v>238</v>
-      </c>
-      <c r="S43" s="85" t="s">
-        <v>206</v>
-      </c>
-      <c r="T43" s="85" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="44" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="J44" s="76" t="s">
-        <v>227</v>
-      </c>
-      <c r="K44" s="66" t="s">
-        <v>249</v>
-      </c>
-      <c r="L44" s="117" t="str">
-        <f>master!F26</f>
-        <v>england</v>
-      </c>
-      <c r="M44" s="67" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q44" s="67" t="s">
-        <v>253</v>
-      </c>
-      <c r="R44" s="76" t="str">
-        <f>master!L26</f>
-        <v>germany</v>
-      </c>
-      <c r="S44" s="66" t="s">
-        <v>231</v>
-      </c>
-      <c r="T44" s="76" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="45" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="J45" s="88"/>
-      <c r="K45" s="67"/>
-      <c r="L45" s="64">
-        <f>IF(L44=L31,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="M45" s="118" t="str">
-        <f>master!G27</f>
-        <v>england</v>
-      </c>
-      <c r="Q45" s="118" t="str">
-        <f>master!K27</f>
-        <v>france</v>
-      </c>
-      <c r="R45" s="64">
-        <f>IF(R44=R31,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S45" s="66"/>
-      <c r="T45" s="66"/>
-    </row>
-    <row r="46" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="J46" s="70" t="s">
-        <v>212</v>
-      </c>
-      <c r="K46" s="66" t="s">
-        <v>207</v>
-      </c>
-      <c r="L46" s="65" t="s">
-        <v>235</v>
-      </c>
-      <c r="M46" s="119"/>
-      <c r="O46" s="65" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q46" s="121"/>
-      <c r="R46" s="115" t="s">
-        <v>239</v>
-      </c>
-      <c r="S46" s="66" t="s">
-        <v>224</v>
-      </c>
-      <c r="T46" s="70" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="47" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="J47" s="70" t="s">
-        <v>217</v>
-      </c>
-      <c r="K47" s="87" t="s">
-        <v>233</v>
-      </c>
-      <c r="L47" s="117" t="str">
-        <f>master!F29</f>
-        <v>mexico</v>
-      </c>
-      <c r="M47" s="64">
-        <f>IF(M45=M32,4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N47" s="65" t="s">
-        <v>225</v>
-      </c>
-      <c r="O47" s="117" t="str">
-        <f>master!I29</f>
-        <v>france</v>
-      </c>
-      <c r="P47" s="65" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q47" s="64">
-        <f>IF(Q45=Q32,4,0)</f>
-        <v>4</v>
-      </c>
-      <c r="R47" s="76" t="str">
-        <f>master!L29</f>
-        <v>france</v>
-      </c>
-      <c r="S47" s="66" t="s">
-        <v>201</v>
-      </c>
-      <c r="T47" s="70" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="48" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="J48" s="88"/>
-      <c r="K48" s="67"/>
-      <c r="L48" s="64">
-        <f>IF(L47=L34,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="N48" s="117" t="str">
-        <f>master!H30</f>
-        <v>england</v>
-      </c>
-      <c r="O48" s="125"/>
-      <c r="P48" s="117" t="str">
-        <f>master!J30</f>
-        <v>france</v>
-      </c>
-      <c r="R48" s="64">
-        <f>IF(R47=R34,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="S48" s="66"/>
-      <c r="T48" s="66"/>
-    </row>
-    <row r="49" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J49" s="66" t="s">
-        <v>225</v>
-      </c>
-      <c r="K49" s="66" t="s">
-        <v>196</v>
-      </c>
-      <c r="L49" s="65" t="s">
-        <v>236</v>
-      </c>
-      <c r="N49" s="125"/>
-      <c r="O49" s="64">
-        <f>IF(O47=O34,10,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P49" s="125"/>
-      <c r="R49" s="65" t="s">
-        <v>240</v>
-      </c>
-      <c r="S49" s="66" t="s">
-        <v>232</v>
-      </c>
-      <c r="T49" s="66" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="50" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J50" s="76" t="s">
-        <v>214</v>
-      </c>
-      <c r="K50" s="87" t="s">
-        <v>209</v>
-      </c>
-      <c r="L50" s="117" t="str">
-        <f>master!F32</f>
-        <v>belgium</v>
-      </c>
-      <c r="M50" s="65" t="s">
-        <v>248</v>
-      </c>
-      <c r="N50" s="64">
-        <f>IF(N48=N35,6,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P50" s="64">
-        <f>IF(P48=P35,6,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q50" s="65" t="s">
-        <v>254</v>
-      </c>
-      <c r="R50" s="76" t="str">
-        <f>master!L32</f>
-        <v>argentina</v>
-      </c>
-      <c r="S50" s="66" t="s">
-        <v>250</v>
-      </c>
-      <c r="T50" s="76" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="51" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J51" s="88"/>
-      <c r="K51" s="64"/>
-      <c r="L51" s="64">
-        <f>IF(L50=L37,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M51" s="118" t="str">
-        <f>master!G33</f>
-        <v>spain</v>
-      </c>
-      <c r="Q51" s="118" t="str">
-        <f>master!K33</f>
-        <v>usa</v>
-      </c>
-      <c r="R51" s="64">
-        <f>IF(R50=R37,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="S51" s="66"/>
-      <c r="T51" s="66"/>
-    </row>
-    <row r="52" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J52" s="70" t="s">
-        <v>220</v>
-      </c>
-      <c r="K52" s="66" t="s">
-        <v>210</v>
-      </c>
-      <c r="L52" s="65" t="s">
-        <v>237</v>
-      </c>
-      <c r="M52" s="119"/>
-      <c r="Q52" s="121"/>
-      <c r="R52" s="65" t="s">
-        <v>241</v>
-      </c>
-      <c r="S52" s="66" t="s">
-        <v>251</v>
-      </c>
-      <c r="T52" s="70" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="53" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J53" s="70" t="s">
-        <v>223</v>
-      </c>
-      <c r="K53" s="87" t="s">
-        <v>202</v>
-      </c>
-      <c r="L53" s="117" t="str">
-        <f>master!F35</f>
-        <v>spain</v>
-      </c>
-      <c r="M53" s="64">
-        <f>IF(M51=M38,4,0)</f>
-        <v>4</v>
-      </c>
-      <c r="Q53" s="64">
-        <f>IF(Q51=Q38,4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="R53" s="76" t="str">
-        <f>master!L35</f>
-        <v>usa</v>
-      </c>
-      <c r="S53" s="66" t="s">
-        <v>252</v>
-      </c>
-      <c r="T53" s="70" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="54" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J54" s="64"/>
-      <c r="K54" s="64"/>
-      <c r="L54" s="64">
-        <f>IF(L53=L40,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="R54" s="64">
-        <f>IF(R53=R40,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J55" s="64"/>
-      <c r="K55" s="64"/>
-    </row>
-    <row r="56" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J56" s="64"/>
-      <c r="K56" s="64"/>
-      <c r="L56" s="64">
-        <f>SUM(L54+L51+L48+L45)</f>
-        <v>6</v>
-      </c>
-      <c r="M56" s="64">
-        <f>M47+M53</f>
-        <v>4</v>
-      </c>
-      <c r="N56" s="64">
-        <f>N50</f>
-        <v>0</v>
-      </c>
-      <c r="O56" s="64">
-        <f>O49</f>
-        <v>0</v>
-      </c>
-      <c r="P56" s="64">
-        <f>P50</f>
-        <v>0</v>
-      </c>
-      <c r="Q56" s="64">
-        <f>Q47+Q53</f>
-        <v>4</v>
-      </c>
-      <c r="R56" s="64">
-        <f>SUM(R54+R51+R48+R45)</f>
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="Q51:Q52"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="J42:T42"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-  </mergeCells>
-  <conditionalFormatting sqref="H10 N10 H17 N17 H24 N24">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10:H11 N10:N11 H17:H18 N17:N18 H24:H25 N24:N25">
-    <cfRule type="cellIs" priority="8" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10:H12 N10:N12 H17:H19 H24:H26 N24:N26">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12 N12 H19 N19 H26 N26">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H13 N12:N13 H19:H20 N19:N20 H26:H27 N26:N27">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13 N13 H20 N20 H27 N27">
-    <cfRule type="cellIs" priority="7" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N11 H18 N18 H25 N25">
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N17:N19">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB61D7A-DE06-5C4A-93AA-F7A81E59FD2A}">
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="A3:G13"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5404,18 +5392,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="114" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="122" t="s">
         <v>234</v>
       </c>
       <c r="B3" s="85" t="s">
@@ -5431,12 +5419,12 @@
       <c r="F3" s="85" t="s">
         <v>222</v>
       </c>
-      <c r="G3" s="111" t="s">
+      <c r="G3" s="122" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="107"/>
+      <c r="A4" s="121"/>
       <c r="B4" s="76" t="s">
         <v>227</v>
       </c>
@@ -5450,7 +5438,7 @@
       <c r="F4" s="76" t="s">
         <v>218</v>
       </c>
-      <c r="G4" s="107"/>
+      <c r="G4" s="121"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="66"/>
@@ -5460,7 +5448,7 @@
       <c r="F5" s="66"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="120" t="s">
         <v>235</v>
       </c>
       <c r="B6" s="70" t="s">
@@ -5476,12 +5464,12 @@
       <c r="F6" s="70" t="s">
         <v>219</v>
       </c>
-      <c r="G6" s="106" t="s">
+      <c r="G6" s="120" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="107"/>
+      <c r="A7" s="121"/>
       <c r="B7" s="70" t="s">
         <v>217</v>
       </c>
@@ -5495,7 +5483,7 @@
       <c r="F7" s="70" t="s">
         <v>226</v>
       </c>
-      <c r="G7" s="107"/>
+      <c r="G7" s="121"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="66"/>
@@ -5505,7 +5493,7 @@
       <c r="F8" s="66"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="106" t="s">
+      <c r="A9" s="120" t="s">
         <v>236</v>
       </c>
       <c r="B9" s="66" t="s">
@@ -5521,12 +5509,12 @@
       <c r="F9" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="G9" s="106" t="s">
+      <c r="G9" s="120" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="107"/>
+      <c r="A10" s="121"/>
       <c r="B10" s="76" t="s">
         <v>214</v>
       </c>
@@ -5540,7 +5528,7 @@
       <c r="F10" s="76" t="s">
         <v>221</v>
       </c>
-      <c r="G10" s="107"/>
+      <c r="G10" s="121"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="66"/>
@@ -5550,7 +5538,7 @@
       <c r="F11" s="66"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="106" t="s">
+      <c r="A12" s="120" t="s">
         <v>237</v>
       </c>
       <c r="B12" s="70" t="s">
@@ -5566,12 +5554,12 @@
       <c r="F12" s="70" t="s">
         <v>213</v>
       </c>
-      <c r="G12" s="106" t="s">
+      <c r="G12" s="120" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="107"/>
+      <c r="A13" s="121"/>
       <c r="B13" s="70" t="s">
         <v>223</v>
       </c>
@@ -5585,21 +5573,21 @@
       <c r="F13" s="70" t="s">
         <v>215</v>
       </c>
-      <c r="G13" s="107"/>
+      <c r="G13" s="121"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="110" t="s">
+      <c r="A16" s="114" t="s">
         <v>242</v>
       </c>
-      <c r="B16" s="110"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="106" t="s">
+      <c r="A17" s="120" t="s">
         <v>234</v>
       </c>
       <c r="B17" s="85" t="s">
@@ -5615,12 +5603,12 @@
       <c r="F17" s="85" t="s">
         <v>222</v>
       </c>
-      <c r="G17" s="106" t="s">
+      <c r="G17" s="120" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="107"/>
+      <c r="A18" s="121"/>
       <c r="B18" s="76" t="s">
         <v>243</v>
       </c>
@@ -5634,7 +5622,7 @@
       <c r="F18" s="76" t="s">
         <v>218</v>
       </c>
-      <c r="G18" s="107"/>
+      <c r="G18" s="121"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B19" s="66"/>
@@ -5644,7 +5632,7 @@
       <c r="F19" s="66"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="106" t="s">
+      <c r="A20" s="120" t="s">
         <v>235</v>
       </c>
       <c r="B20" s="70" t="s">
@@ -5660,12 +5648,12 @@
       <c r="F20" s="70" t="s">
         <v>219</v>
       </c>
-      <c r="G20" s="106" t="s">
+      <c r="G20" s="120" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="107"/>
+      <c r="A21" s="121"/>
       <c r="B21" s="70" t="s">
         <v>217</v>
       </c>
@@ -5679,7 +5667,7 @@
       <c r="F21" s="70" t="s">
         <v>226</v>
       </c>
-      <c r="G21" s="107"/>
+      <c r="G21" s="121"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B22" s="66"/>
@@ -5689,7 +5677,7 @@
       <c r="F22" s="66"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="106" t="s">
+      <c r="A23" s="120" t="s">
         <v>236</v>
       </c>
       <c r="B23" s="66" t="s">
@@ -5705,12 +5693,12 @@
       <c r="F23" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="G23" s="106" t="s">
+      <c r="G23" s="120" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="107"/>
+      <c r="A24" s="121"/>
       <c r="B24" s="76" t="s">
         <v>214</v>
       </c>
@@ -5724,7 +5712,7 @@
       <c r="F24" s="76" t="s">
         <v>221</v>
       </c>
-      <c r="G24" s="107"/>
+      <c r="G24" s="121"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B25" s="66"/>
@@ -5734,7 +5722,7 @@
       <c r="F25" s="66"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="106" t="s">
+      <c r="A26" s="120" t="s">
         <v>237</v>
       </c>
       <c r="B26" s="70" t="s">
@@ -5750,12 +5738,12 @@
       <c r="F26" s="70" t="s">
         <v>213</v>
       </c>
-      <c r="G26" s="106" t="s">
+      <c r="G26" s="120" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="107"/>
+      <c r="A27" s="121"/>
       <c r="B27" s="70" t="s">
         <v>223</v>
       </c>
@@ -5769,10 +5757,14 @@
       <c r="F27" s="70" t="s">
         <v>215</v>
       </c>
-      <c r="G27" s="107"/>
+      <c r="G27" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A23:A24"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="G6:G7"/>
@@ -5787,10 +5779,6 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A23:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5824,10 +5812,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="97" t="s">
         <v>79</v>
       </c>
       <c r="C2" s="19" t="s">
@@ -5835,17 +5823,17 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="100"/>
-      <c r="B3" s="93"/>
+      <c r="A3" s="105"/>
+      <c r="B3" s="98"/>
       <c r="C3" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="104" t="s">
         <v>100</v>
       </c>
       <c r="C4" s="19" t="s">
@@ -5853,31 +5841,31 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="100"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="95" t="s">
+      <c r="A5" s="105"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="100" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="100"/>
+      <c r="A6" s="105"/>
       <c r="B6" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="95"/>
+      <c r="C6" s="100"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="101"/>
+      <c r="A7" s="106"/>
       <c r="B7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="95"/>
+      <c r="C7" s="100"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="102" t="s">
+      <c r="A8" s="107" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="107" t="s">
         <v>91</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -5885,17 +5873,17 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="102"/>
-      <c r="B9" s="102"/>
+      <c r="A9" s="107"/>
+      <c r="B9" s="107"/>
       <c r="C9" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="101" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="97" t="s">
+      <c r="B10" s="102" t="s">
         <v>104</v>
       </c>
       <c r="C10" s="19" t="s">
@@ -5903,22 +5891,22 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="96"/>
-      <c r="B11" s="98"/>
+      <c r="A11" s="101"/>
+      <c r="B11" s="103"/>
       <c r="C11" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="96"/>
-      <c r="B12" s="98"/>
+      <c r="A12" s="101"/>
+      <c r="B12" s="103"/>
       <c r="C12" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="96"/>
-      <c r="B13" s="98"/>
+      <c r="A13" s="101"/>
+      <c r="B13" s="103"/>
       <c r="C13" s="19" t="s">
         <v>28</v>
       </c>
@@ -6283,7 +6271,7 @@
       <c r="B11" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="103" t="s">
+      <c r="C11" s="108" t="s">
         <v>114</v>
       </c>
       <c r="D11" s="50"/>
@@ -6298,7 +6286,7 @@
       <c r="B12" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="104"/>
+      <c r="C12" s="109"/>
       <c r="D12" s="50"/>
       <c r="E12" s="50"/>
       <c r="F12" s="50"/>
@@ -6379,7 +6367,7 @@
       <c r="B17" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="103" t="s">
+      <c r="C17" s="108" t="s">
         <v>114</v>
       </c>
       <c r="D17" s="50"/>
@@ -6394,7 +6382,7 @@
       <c r="B18" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="C18" s="104"/>
+      <c r="C18" s="109"/>
       <c r="D18" s="50"/>
       <c r="E18" s="50"/>
       <c r="F18" s="50"/>
@@ -6551,7 +6539,7 @@
   <dimension ref="B6:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6810,13 +6798,13 @@
       <c r="M25" s="66" t="s">
         <v>206</v>
       </c>
-      <c r="N25" s="66" t="s">
+      <c r="N25" s="85" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D26" s="76" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E26" s="66" t="s">
         <v>249</v>
@@ -6837,17 +6825,17 @@
         <v>231</v>
       </c>
       <c r="N26" s="76" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D27" s="88"/>
       <c r="E27" s="67"/>
       <c r="F27" s="64"/>
-      <c r="G27" s="92" t="s">
+      <c r="G27" s="97" t="s">
         <v>205</v>
       </c>
-      <c r="K27" s="92" t="s">
+      <c r="K27" s="97" t="s">
         <v>224</v>
       </c>
       <c r="M27" s="66"/>
@@ -6863,12 +6851,12 @@
       <c r="F28" s="65" t="s">
         <v>235</v>
       </c>
-      <c r="G28" s="108"/>
+      <c r="G28" s="110"/>
       <c r="I28" s="65" t="s">
         <v>152</v>
       </c>
-      <c r="K28" s="94"/>
-      <c r="L28" s="115" t="s">
+      <c r="K28" s="99"/>
+      <c r="L28" s="90" t="s">
         <v>239</v>
       </c>
       <c r="M28" s="66" t="s">
@@ -6914,7 +6902,7 @@
       <c r="H30" s="84" t="s">
         <v>205</v>
       </c>
-      <c r="I30" s="116"/>
+      <c r="I30" s="2"/>
       <c r="J30" s="84" t="s">
         <v>224</v>
       </c>
@@ -6945,7 +6933,7 @@
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D32" s="76" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="E32" s="87" t="s">
         <v>209</v>
@@ -6966,17 +6954,17 @@
         <v>250</v>
       </c>
       <c r="N32" s="76" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D33" s="88"/>
       <c r="E33" s="64"/>
       <c r="F33" s="64"/>
-      <c r="G33" s="92" t="s">
+      <c r="G33" s="97" t="s">
         <v>202</v>
       </c>
-      <c r="K33" s="92" t="s">
+      <c r="K33" s="97" t="s">
         <v>252</v>
       </c>
       <c r="M33" s="66"/>
@@ -6992,8 +6980,8 @@
       <c r="F34" s="65" t="s">
         <v>237</v>
       </c>
-      <c r="G34" s="108"/>
-      <c r="K34" s="94"/>
+      <c r="G34" s="110"/>
+      <c r="K34" s="99"/>
       <c r="L34" s="65" t="s">
         <v>241</v>
       </c>
@@ -7039,8 +7027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F2D8727-69E7-4348-A9F0-3DA347775291}">
   <dimension ref="A1:AE57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="AB25" sqref="AB25"/>
+    <sheetView tabSelected="1" topLeftCell="C12" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7069,14 +7057,14 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="68"/>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="115" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
@@ -7087,14 +7075,14 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="77"/>
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="115" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -7105,14 +7093,14 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="72"/>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="115" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -7123,14 +7111,14 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="69"/>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="115" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
@@ -7141,14 +7129,14 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="22"/>
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="115" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
@@ -7909,7 +7897,6 @@
         <f t="shared" ref="V25:V27" si="2">R25</f>
         <v>4</v>
       </c>
-      <c r="AE25" s="112"/>
     </row>
     <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="D26" s="76" t="s">
@@ -7981,7 +7968,6 @@
         <f>R26+U26</f>
         <v>3</v>
       </c>
-      <c r="AE26" s="112"/>
     </row>
     <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="D27" s="76" t="s">
@@ -8025,7 +8011,6 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AE27" s="112"/>
     </row>
     <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="F28" s="64"/>
@@ -8051,19 +8036,18 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="AE28" s="112"/>
     </row>
     <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="M29" s="67"/>
-      <c r="AE29" s="113"/>
+      <c r="AE29" s="89"/>
     </row>
     <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="E30" s="67"/>
       <c r="M30" s="64"/>
-      <c r="AE30" s="113"/>
+      <c r="AE30" s="89"/>
     </row>
     <row r="31" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C31" s="105"/>
+      <c r="C31" s="116"/>
       <c r="D31" s="66" t="s">
         <v>211</v>
       </c>
@@ -8080,15 +8064,14 @@
       <c r="W31" s="66" t="s">
         <v>206</v>
       </c>
-      <c r="X31" s="66" t="s">
+      <c r="X31" s="85" t="s">
         <v>222</v>
       </c>
-      <c r="AE31" s="112"/>
     </row>
     <row r="32" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C32" s="105"/>
+      <c r="C32" s="116"/>
       <c r="D32" s="76" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E32" s="66" t="s">
         <v>249</v>
@@ -8110,28 +8093,28 @@
         <v>231</v>
       </c>
       <c r="X32" s="76" t="s">
-        <v>218</v>
-      </c>
-      <c r="AE32" s="113"/>
+        <v>214</v>
+      </c>
+      <c r="AE32" s="89"/>
     </row>
     <row r="33" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C33"/>
       <c r="D33" s="88"/>
       <c r="E33" s="67"/>
       <c r="F33" s="64"/>
-      <c r="G33" s="92" t="s">
+      <c r="G33" s="97" t="s">
         <v>205</v>
       </c>
       <c r="M33" s="64"/>
-      <c r="P33" s="96" t="s">
+      <c r="P33" s="101" t="s">
         <v>224</v>
       </c>
       <c r="W33" s="66"/>
       <c r="X33" s="66"/>
-      <c r="AE33" s="113"/>
+      <c r="AE33" s="89"/>
     </row>
     <row r="34" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C34" s="105"/>
+      <c r="C34" s="116"/>
       <c r="D34" s="70" t="s">
         <v>212</v>
       </c>
@@ -8141,13 +8124,13 @@
       <c r="F34" s="65" t="s">
         <v>235</v>
       </c>
-      <c r="G34" s="108"/>
+      <c r="G34" s="110"/>
       <c r="M34" s="67"/>
       <c r="N34" s="65" t="s">
         <v>152</v>
       </c>
-      <c r="P34" s="96"/>
-      <c r="V34" s="115" t="s">
+      <c r="P34" s="101"/>
+      <c r="V34" s="90" t="s">
         <v>239</v>
       </c>
       <c r="W34" s="66" t="s">
@@ -8156,10 +8139,9 @@
       <c r="X34" s="70" t="s">
         <v>219</v>
       </c>
-      <c r="AE34" s="112"/>
     </row>
     <row r="35" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C35" s="105"/>
+      <c r="C35" s="116"/>
       <c r="D35" s="70" t="s">
         <v>217</v>
       </c>
@@ -8172,7 +8154,7 @@
       <c r="L35" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="N35" s="96" t="s">
+      <c r="N35" s="101" t="s">
         <v>224</v>
       </c>
       <c r="O35" s="65" t="s">
@@ -8187,26 +8169,26 @@
       <c r="X35" s="70" t="s">
         <v>226</v>
       </c>
-      <c r="AE35" s="113"/>
+      <c r="AE35" s="89"/>
     </row>
     <row r="36" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C36"/>
       <c r="D36" s="88"/>
       <c r="E36" s="67"/>
       <c r="F36" s="64"/>
-      <c r="L36" s="96" t="s">
+      <c r="L36" s="101" t="s">
         <v>205</v>
       </c>
-      <c r="N36" s="96"/>
-      <c r="O36" s="96" t="s">
+      <c r="N36" s="101"/>
+      <c r="O36" s="101" t="s">
         <v>224</v>
       </c>
       <c r="W36" s="66"/>
       <c r="X36" s="66"/>
-      <c r="AE36" s="113"/>
+      <c r="AE36" s="89"/>
     </row>
     <row r="37" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C37" s="105"/>
+      <c r="C37" s="116"/>
       <c r="D37" s="66" t="s">
         <v>225</v>
       </c>
@@ -8216,8 +8198,8 @@
       <c r="F37" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="L37" s="96"/>
-      <c r="O37" s="96"/>
+      <c r="L37" s="101"/>
+      <c r="O37" s="101"/>
       <c r="V37" s="65" t="s">
         <v>240</v>
       </c>
@@ -8227,12 +8209,11 @@
       <c r="X37" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="AE37" s="112"/>
     </row>
     <row r="38" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C38" s="105"/>
+      <c r="C38" s="116"/>
       <c r="D38" s="76" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="E38" s="87" t="s">
         <v>209</v>
@@ -8253,26 +8234,26 @@
         <v>250</v>
       </c>
       <c r="X38" s="76" t="s">
-        <v>221</v>
-      </c>
-      <c r="AE38" s="114"/>
+        <v>227</v>
+      </c>
+      <c r="AE38" s="116"/>
     </row>
     <row r="39" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C39"/>
       <c r="D39" s="88"/>
       <c r="F39" s="64"/>
-      <c r="G39" s="92" t="s">
+      <c r="G39" s="97" t="s">
         <v>202</v>
       </c>
-      <c r="P39" s="96" t="s">
+      <c r="P39" s="101" t="s">
         <v>252</v>
       </c>
       <c r="W39" s="66"/>
       <c r="X39" s="66"/>
-      <c r="AE39" s="114"/>
+      <c r="AE39" s="116"/>
     </row>
     <row r="40" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C40" s="105"/>
+      <c r="C40" s="116"/>
       <c r="D40" s="70" t="s">
         <v>220</v>
       </c>
@@ -8282,8 +8263,8 @@
       <c r="F40" s="65" t="s">
         <v>237</v>
       </c>
-      <c r="G40" s="108"/>
-      <c r="P40" s="96"/>
+      <c r="G40" s="110"/>
+      <c r="P40" s="101"/>
       <c r="V40" s="65" t="s">
         <v>241</v>
       </c>
@@ -8293,10 +8274,9 @@
       <c r="X40" s="70" t="s">
         <v>213</v>
       </c>
-      <c r="AE40" s="112"/>
     </row>
     <row r="41" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C41" s="105"/>
+      <c r="C41" s="116"/>
       <c r="D41" s="70" t="s">
         <v>223</v>
       </c>
@@ -8315,39 +8295,34 @@
       <c r="X41" s="70" t="s">
         <v>215</v>
       </c>
-      <c r="AE41" s="112"/>
-    </row>
-    <row r="42" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="AE42" s="112"/>
     </row>
     <row r="43" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="D43" s="110" t="s">
+      <c r="D43" s="114" t="s">
         <v>255</v>
       </c>
-      <c r="E43" s="110"/>
-      <c r="F43" s="110"/>
-      <c r="G43" s="110"/>
-      <c r="H43" s="110"/>
-      <c r="I43" s="110"/>
-      <c r="J43" s="110"/>
-      <c r="K43" s="110"/>
-      <c r="L43" s="110"/>
-      <c r="M43" s="110"/>
-      <c r="N43" s="110"/>
-      <c r="O43" s="110"/>
-      <c r="P43" s="110"/>
-      <c r="Q43" s="110"/>
-      <c r="R43" s="110"/>
-      <c r="S43" s="110"/>
-      <c r="T43" s="110"/>
-      <c r="U43" s="110"/>
-      <c r="V43" s="110"/>
-      <c r="W43" s="110"/>
-      <c r="X43" s="110"/>
-      <c r="AE43" s="112"/>
+      <c r="E43" s="114"/>
+      <c r="F43" s="114"/>
+      <c r="G43" s="114"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="114"/>
+      <c r="J43" s="114"/>
+      <c r="K43" s="114"/>
+      <c r="L43" s="114"/>
+      <c r="M43" s="114"/>
+      <c r="N43" s="114"/>
+      <c r="O43" s="114"/>
+      <c r="P43" s="114"/>
+      <c r="Q43" s="114"/>
+      <c r="R43" s="114"/>
+      <c r="S43" s="114"/>
+      <c r="T43" s="114"/>
+      <c r="U43" s="114"/>
+      <c r="V43" s="114"/>
+      <c r="W43" s="114"/>
+      <c r="X43" s="114"/>
     </row>
     <row r="44" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="D44" s="85" t="s">
+      <c r="D44" s="66" t="s">
         <v>211</v>
       </c>
       <c r="E44" s="85" t="s">
@@ -8369,12 +8344,12 @@
     </row>
     <row r="45" spans="3:31" x14ac:dyDescent="0.2">
       <c r="D45" s="76" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E45" s="66" t="s">
         <v>249</v>
       </c>
-      <c r="F45" s="117" t="str">
+      <c r="F45" s="91" t="str">
         <f>master!F26</f>
         <v>england</v>
       </c>
@@ -8393,7 +8368,7 @@
         <v>231</v>
       </c>
       <c r="X45" s="76" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="3:31" x14ac:dyDescent="0.2">
@@ -8403,12 +8378,12 @@
         <f>IF(F45=F32,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G46" s="118" t="str">
+      <c r="G46" s="111" t="str">
         <f>master!G27</f>
         <v>england</v>
       </c>
       <c r="M46" s="64"/>
-      <c r="P46" s="120" t="str">
+      <c r="P46" s="113" t="str">
         <f>master!K27</f>
         <v>france</v>
       </c>
@@ -8429,13 +8404,13 @@
       <c r="F47" s="65" t="s">
         <v>235</v>
       </c>
-      <c r="G47" s="119"/>
+      <c r="G47" s="112"/>
       <c r="M47" s="67"/>
       <c r="N47" s="65" t="s">
         <v>152</v>
       </c>
-      <c r="P47" s="120"/>
-      <c r="V47" s="115" t="s">
+      <c r="P47" s="113"/>
+      <c r="V47" s="90" t="s">
         <v>239</v>
       </c>
       <c r="W47" s="66" t="s">
@@ -8452,7 +8427,7 @@
       <c r="E48" s="87" t="s">
         <v>233</v>
       </c>
-      <c r="F48" s="117" t="str">
+      <c r="F48" s="91" t="str">
         <f>master!F29</f>
         <v>mexico</v>
       </c>
@@ -8463,7 +8438,7 @@
       <c r="L48" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="N48" s="120" t="str">
+      <c r="N48" s="113" t="str">
         <f>master!I29</f>
         <v>france</v>
       </c>
@@ -8492,12 +8467,12 @@
         <f>IF(F48=F35,2,0)</f>
         <v>2</v>
       </c>
-      <c r="L49" s="120" t="str">
+      <c r="L49" s="113" t="str">
         <f>master!H30</f>
         <v>england</v>
       </c>
-      <c r="N49" s="120"/>
-      <c r="O49" s="120" t="str">
+      <c r="N49" s="113"/>
+      <c r="O49" s="113" t="str">
         <f>master!J30</f>
         <v>france</v>
       </c>
@@ -8518,12 +8493,12 @@
       <c r="F50" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="L50" s="120"/>
+      <c r="L50" s="113"/>
       <c r="N50" s="64">
         <f>IF(N48=N35,10,0)</f>
         <v>10</v>
       </c>
-      <c r="O50" s="120"/>
+      <c r="O50" s="113"/>
       <c r="V50" s="65" t="s">
         <v>240</v>
       </c>
@@ -8536,12 +8511,12 @@
     </row>
     <row r="51" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D51" s="76" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="E51" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="F51" s="117" t="str">
+      <c r="F51" s="91" t="str">
         <f>master!F32</f>
         <v>belgium</v>
       </c>
@@ -8567,7 +8542,7 @@
         <v>250</v>
       </c>
       <c r="X51" s="76" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="52" spans="4:24" x14ac:dyDescent="0.2">
@@ -8576,11 +8551,11 @@
         <f>IF(F51=F38,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G52" s="118" t="str">
+      <c r="G52" s="111" t="str">
         <f>master!G33</f>
         <v>spain</v>
       </c>
-      <c r="P52" s="120" t="str">
+      <c r="P52" s="113" t="str">
         <f>master!K33</f>
         <v>usa</v>
       </c>
@@ -8601,8 +8576,8 @@
       <c r="F53" s="65" t="s">
         <v>237</v>
       </c>
-      <c r="G53" s="119"/>
-      <c r="P53" s="120"/>
+      <c r="G53" s="112"/>
+      <c r="P53" s="113"/>
       <c r="V53" s="65" t="s">
         <v>241</v>
       </c>
@@ -8620,7 +8595,7 @@
       <c r="E54" s="87" t="s">
         <v>202</v>
       </c>
-      <c r="F54" s="117" t="str">
+      <c r="F54" s="91" t="str">
         <f>master!F35</f>
         <v>spain</v>
       </c>
@@ -8696,7 +8671,7 @@
         <v>8</v>
       </c>
       <c r="Q57" s="64">
-        <f t="shared" ref="G57:V57" si="5">SUM(Q55+Q52+Q49+Q46)</f>
+        <f t="shared" ref="Q57:V57" si="5">SUM(Q55+Q52+Q49+Q46)</f>
         <v>0</v>
       </c>
       <c r="R57" s="64">
@@ -8722,19 +8697,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="D43:X43"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="P46:P47"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="AE38:AE39"/>
     <mergeCell ref="G39:G40"/>
@@ -8747,6 +8709,19 @@
     <mergeCell ref="L36:L37"/>
     <mergeCell ref="O36:O37"/>
     <mergeCell ref="N35:N36"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="D43:X43"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="P46:P47"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="O49:O50"/>
   </mergeCells>
   <conditionalFormatting sqref="L10 V10 L17 V17 L24 V24">
     <cfRule type="cellIs" dxfId="32" priority="6" operator="equal">
@@ -8779,8 +8754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BA53A3-896F-5548-BE26-1B0315E4CCCA}">
   <dimension ref="A1:AD56"/>
   <sheetViews>
-    <sheetView topLeftCell="G12" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8808,14 +8783,14 @@
       <c r="A2" s="70">
         <v>5</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="115" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
       <c r="H2" s="66">
         <v>5</v>
       </c>
@@ -8824,14 +8799,14 @@
       <c r="A3" s="78">
         <v>4</v>
       </c>
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="115" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
       <c r="H3" s="66">
         <v>4</v>
       </c>
@@ -8840,14 +8815,14 @@
       <c r="A4" s="73">
         <v>3</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="115" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
       <c r="H4" s="66">
         <v>3</v>
       </c>
@@ -8856,14 +8831,14 @@
       <c r="A5" s="79">
         <v>2</v>
       </c>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="115" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
       <c r="H5" s="66">
         <v>2</v>
       </c>
@@ -8872,14 +8847,14 @@
       <c r="A6" s="71">
         <v>1</v>
       </c>
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="115" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
       <c r="H6" s="66">
         <v>1</v>
       </c>
@@ -8953,7 +8928,7 @@
       </c>
       <c r="P10" s="66">
         <f>L56+R56</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -9086,7 +9061,7 @@
       </c>
       <c r="P14" s="65">
         <f>SUM(P9:P13)</f>
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -9429,8 +9404,8 @@
       <c r="C30" s="80" t="s">
         <v>188</v>
       </c>
-      <c r="H30" s="122"/>
-      <c r="I30" s="122"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
       <c r="J30" s="66" t="s">
         <v>211</v>
       </c>
@@ -9446,7 +9421,7 @@
       <c r="S30" s="66" t="s">
         <v>206</v>
       </c>
-      <c r="T30" s="66" t="s">
+      <c r="T30" s="85" t="s">
         <v>222</v>
       </c>
     </row>
@@ -9457,15 +9432,15 @@
       <c r="C31" s="81" t="s">
         <v>185</v>
       </c>
-      <c r="H31" s="122"/>
-      <c r="I31" s="122"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
       <c r="J31" s="76" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="K31" s="66" t="s">
         <v>249</v>
       </c>
-      <c r="L31" s="126" t="s">
+      <c r="L31" s="92" t="s">
         <v>249</v>
       </c>
       <c r="M31" s="67" t="s">
@@ -9474,14 +9449,14 @@
       <c r="Q31" s="67" t="s">
         <v>253</v>
       </c>
-      <c r="R31" s="129" t="s">
+      <c r="R31" s="93" t="s">
         <v>206</v>
       </c>
       <c r="S31" s="66" t="s">
         <v>231</v>
       </c>
       <c r="T31" s="76" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.2">
@@ -9491,15 +9466,15 @@
       <c r="C32" s="81" t="s">
         <v>186</v>
       </c>
-      <c r="H32" s="122"/>
-      <c r="I32" s="122"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
       <c r="J32" s="88"/>
       <c r="K32" s="67"/>
       <c r="L32" s="64"/>
-      <c r="M32" s="127" t="s">
+      <c r="M32" s="117" t="s">
         <v>233</v>
       </c>
-      <c r="Q32" s="126" t="s">
+      <c r="Q32" s="92" t="s">
         <v>224</v>
       </c>
       <c r="S32" s="66"/>
@@ -9507,8 +9482,6 @@
     </row>
     <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33"/>
-      <c r="H33" s="123"/>
-      <c r="I33" s="123"/>
       <c r="J33" s="70" t="s">
         <v>212</v>
       </c>
@@ -9518,12 +9491,12 @@
       <c r="L33" s="65" t="s">
         <v>235</v>
       </c>
-      <c r="M33" s="128"/>
+      <c r="M33" s="118"/>
       <c r="O33" s="65" t="s">
         <v>152</v>
       </c>
       <c r="Q33" s="84"/>
-      <c r="R33" s="115" t="s">
+      <c r="R33" s="90" t="s">
         <v>239</v>
       </c>
       <c r="S33" s="66" t="s">
@@ -9537,27 +9510,25 @@
       <c r="C34" s="80" t="s">
         <v>187</v>
       </c>
-      <c r="H34" s="123"/>
-      <c r="I34" s="123"/>
       <c r="J34" s="70" t="s">
         <v>217</v>
       </c>
       <c r="K34" s="87" t="s">
         <v>233</v>
       </c>
-      <c r="L34" s="126" t="s">
+      <c r="L34" s="92" t="s">
         <v>233</v>
       </c>
       <c r="N34" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="O34" s="126" t="s">
+      <c r="O34" s="92" t="s">
         <v>233</v>
       </c>
       <c r="P34" s="65" t="s">
         <v>226</v>
       </c>
-      <c r="R34" s="129" t="s">
+      <c r="R34" s="93" t="s">
         <v>224</v>
       </c>
       <c r="S34" s="66" t="s">
@@ -9577,11 +9548,11 @@
       <c r="J35" s="88"/>
       <c r="K35" s="67"/>
       <c r="L35" s="64"/>
-      <c r="N35" s="126" t="s">
+      <c r="N35" s="92" t="s">
         <v>233</v>
       </c>
       <c r="O35" s="84"/>
-      <c r="P35" s="126" t="s">
+      <c r="P35" s="92" t="s">
         <v>224</v>
       </c>
       <c r="S35" s="66"/>
@@ -9618,12 +9589,12 @@
     <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C37"/>
       <c r="J37" s="76" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="K37" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="L37" s="126" t="s">
+      <c r="L37" s="92" t="s">
         <v>196</v>
       </c>
       <c r="M37" s="65" t="s">
@@ -9632,14 +9603,14 @@
       <c r="Q37" s="65" t="s">
         <v>254</v>
       </c>
-      <c r="R37" s="129" t="s">
+      <c r="R37" s="93" t="s">
         <v>232</v>
       </c>
       <c r="S37" s="66" t="s">
         <v>250</v>
       </c>
       <c r="T37" s="76" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="2:30" x14ac:dyDescent="0.2">
@@ -9649,10 +9620,10 @@
       <c r="J38" s="88"/>
       <c r="K38" s="64"/>
       <c r="L38" s="64"/>
-      <c r="M38" s="127" t="s">
+      <c r="M38" s="117" t="s">
         <v>196</v>
       </c>
-      <c r="Q38" s="126" t="s">
+      <c r="Q38" s="92" t="s">
         <v>232</v>
       </c>
       <c r="S38" s="66"/>
@@ -9674,7 +9645,7 @@
       <c r="L39" s="65" t="s">
         <v>237</v>
       </c>
-      <c r="M39" s="128"/>
+      <c r="M39" s="118"/>
       <c r="Q39" s="84"/>
       <c r="R39" s="65" t="s">
         <v>241</v>
@@ -9699,10 +9670,10 @@
       <c r="K40" s="87" t="s">
         <v>202</v>
       </c>
-      <c r="L40" s="126" t="s">
-        <v>210</v>
-      </c>
-      <c r="R40" s="129" t="s">
+      <c r="L40" s="92" t="s">
+        <v>202</v>
+      </c>
+      <c r="R40" s="93" t="s">
         <v>251</v>
       </c>
       <c r="S40" s="66" t="s">
@@ -9717,32 +9688,32 @@
       <c r="K41" s="64"/>
     </row>
     <row r="42" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="J42" s="110" t="s">
+      <c r="J42" s="114" t="s">
         <v>255</v>
       </c>
-      <c r="K42" s="110"/>
-      <c r="L42" s="110"/>
-      <c r="M42" s="110"/>
-      <c r="N42" s="110"/>
-      <c r="O42" s="110"/>
-      <c r="P42" s="110"/>
-      <c r="Q42" s="110"/>
-      <c r="R42" s="110"/>
-      <c r="S42" s="110"/>
-      <c r="T42" s="110"/>
-      <c r="U42" s="124"/>
-      <c r="V42" s="124"/>
-      <c r="W42" s="124"/>
-      <c r="X42" s="124"/>
-      <c r="Y42" s="124"/>
-      <c r="Z42" s="124"/>
-      <c r="AA42" s="124"/>
-      <c r="AB42" s="124"/>
-      <c r="AC42" s="124"/>
-      <c r="AD42" s="124"/>
+      <c r="K42" s="114"/>
+      <c r="L42" s="114"/>
+      <c r="M42" s="114"/>
+      <c r="N42" s="114"/>
+      <c r="O42" s="114"/>
+      <c r="P42" s="114"/>
+      <c r="Q42" s="114"/>
+      <c r="R42" s="114"/>
+      <c r="S42" s="114"/>
+      <c r="T42" s="114"/>
+      <c r="U42" s="80"/>
+      <c r="V42" s="80"/>
+      <c r="W42" s="80"/>
+      <c r="X42" s="80"/>
+      <c r="Y42" s="80"/>
+      <c r="Z42" s="80"/>
+      <c r="AA42" s="80"/>
+      <c r="AB42" s="80"/>
+      <c r="AC42" s="80"/>
+      <c r="AD42" s="80"/>
     </row>
     <row r="43" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="J43" s="85" t="s">
+      <c r="J43" s="66" t="s">
         <v>211</v>
       </c>
       <c r="K43" s="85" t="s">
@@ -9763,12 +9734,12 @@
     </row>
     <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="J44" s="76" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="K44" s="66" t="s">
         <v>249</v>
       </c>
-      <c r="L44" s="117" t="str">
+      <c r="L44" s="91" t="str">
         <f>master!F26</f>
         <v>england</v>
       </c>
@@ -9786,7 +9757,7 @@
         <v>231</v>
       </c>
       <c r="T44" s="76" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="2:30" x14ac:dyDescent="0.2">
@@ -9796,11 +9767,11 @@
         <f>IF(L44=L31,2,0)</f>
         <v>0</v>
       </c>
-      <c r="M45" s="118" t="str">
+      <c r="M45" s="111" t="str">
         <f>master!G27</f>
         <v>england</v>
       </c>
-      <c r="Q45" s="118" t="str">
+      <c r="Q45" s="111" t="str">
         <f>master!K27</f>
         <v>france</v>
       </c>
@@ -9821,12 +9792,12 @@
       <c r="L46" s="65" t="s">
         <v>235</v>
       </c>
-      <c r="M46" s="119"/>
+      <c r="M46" s="112"/>
       <c r="O46" s="65" t="s">
         <v>152</v>
       </c>
-      <c r="Q46" s="121"/>
-      <c r="R46" s="115" t="s">
+      <c r="Q46" s="119"/>
+      <c r="R46" s="90" t="s">
         <v>239</v>
       </c>
       <c r="S46" s="66" t="s">
@@ -9843,7 +9814,7 @@
       <c r="K47" s="87" t="s">
         <v>233</v>
       </c>
-      <c r="L47" s="117" t="str">
+      <c r="L47" s="91" t="str">
         <f>master!F29</f>
         <v>mexico</v>
       </c>
@@ -9854,7 +9825,7 @@
       <c r="N47" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="O47" s="117" t="str">
+      <c r="O47" s="91" t="str">
         <f>master!I29</f>
         <v>france</v>
       </c>
@@ -9883,12 +9854,12 @@
         <f>IF(L47=L34,2,0)</f>
         <v>2</v>
       </c>
-      <c r="N48" s="117" t="str">
+      <c r="N48" s="91" t="str">
         <f>master!H30</f>
         <v>england</v>
       </c>
-      <c r="O48" s="125"/>
-      <c r="P48" s="117" t="str">
+      <c r="O48" s="84"/>
+      <c r="P48" s="91" t="str">
         <f>master!J30</f>
         <v>france</v>
       </c>
@@ -9909,12 +9880,12 @@
       <c r="L49" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="N49" s="125"/>
+      <c r="N49" s="84"/>
       <c r="O49" s="64">
         <f>IF(O47=O34,10,0)</f>
         <v>0</v>
       </c>
-      <c r="P49" s="125"/>
+      <c r="P49" s="84"/>
       <c r="R49" s="65" t="s">
         <v>240</v>
       </c>
@@ -9927,12 +9898,12 @@
     </row>
     <row r="50" spans="10:22" x14ac:dyDescent="0.2">
       <c r="J50" s="76" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="K50" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="L50" s="117" t="str">
+      <c r="L50" s="91" t="str">
         <f>master!F32</f>
         <v>belgium</v>
       </c>
@@ -9958,7 +9929,7 @@
         <v>250</v>
       </c>
       <c r="T50" s="76" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="51" spans="10:22" x14ac:dyDescent="0.2">
@@ -9968,11 +9939,11 @@
         <f>IF(L50=L37,2,0)</f>
         <v>2</v>
       </c>
-      <c r="M51" s="118" t="str">
+      <c r="M51" s="111" t="str">
         <f>master!G33</f>
         <v>spain</v>
       </c>
-      <c r="Q51" s="118" t="str">
+      <c r="Q51" s="111" t="str">
         <f>master!K33</f>
         <v>usa</v>
       </c>
@@ -9993,8 +9964,8 @@
       <c r="L52" s="65" t="s">
         <v>237</v>
       </c>
-      <c r="M52" s="119"/>
-      <c r="Q52" s="121"/>
+      <c r="M52" s="112"/>
+      <c r="Q52" s="119"/>
       <c r="R52" s="65" t="s">
         <v>241</v>
       </c>
@@ -10012,7 +9983,7 @@
       <c r="K53" s="87" t="s">
         <v>202</v>
       </c>
-      <c r="L53" s="117" t="str">
+      <c r="L53" s="91" t="str">
         <f>master!F35</f>
         <v>spain</v>
       </c>
@@ -10040,7 +10011,7 @@
       <c r="K54" s="64"/>
       <c r="L54" s="64">
         <f>IF(L53=L40,2,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R54" s="64">
         <f>IF(R53=R40,2,0)</f>
@@ -10056,7 +10027,7 @@
       <c r="K56" s="64"/>
       <c r="L56" s="64">
         <f>SUM(L54+L51+L48+L45)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M56" s="64">
         <f>M47+M53</f>
@@ -10087,11 +10058,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="J42:T42"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="Q51:Q52"/>
     <mergeCell ref="M32:M33"/>
     <mergeCell ref="Q45:Q46"/>
     <mergeCell ref="B2:G2"/>
@@ -10099,6 +10065,11 @@
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="B6:G6"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="J42:T42"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="Q51:Q52"/>
   </mergeCells>
   <conditionalFormatting sqref="H10 M10 H17 M17 H24 M24">
     <cfRule type="cellIs" dxfId="27" priority="14" operator="equal">
@@ -10153,8 +10124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3292362C-0E51-2145-8D28-B6F8E9B96320}">
   <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30:T56"/>
+    <sheetView topLeftCell="G14" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10181,14 +10152,14 @@
       <c r="A2" s="70">
         <v>5</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="115" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
       <c r="H2" s="66">
         <v>5</v>
       </c>
@@ -10197,14 +10168,14 @@
       <c r="A3" s="78">
         <v>4</v>
       </c>
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="115" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
       <c r="H3" s="66">
         <v>4</v>
       </c>
@@ -10213,14 +10184,14 @@
       <c r="A4" s="73">
         <v>3</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="115" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
       <c r="H4" s="66">
         <v>3</v>
       </c>
@@ -10229,14 +10200,14 @@
       <c r="A5" s="79">
         <v>2</v>
       </c>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="115" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
       <c r="H5" s="66">
         <v>2</v>
       </c>
@@ -10245,14 +10216,14 @@
       <c r="A6" s="71">
         <v>1</v>
       </c>
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="115" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
       <c r="H6" s="66">
         <v>1</v>
       </c>
@@ -10849,19 +10820,19 @@
       <c r="S30" s="66" t="s">
         <v>206</v>
       </c>
-      <c r="T30" s="66" t="s">
+      <c r="T30" s="85" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="31" spans="4:20" x14ac:dyDescent="0.2">
       <c r="I31" s="64"/>
       <c r="J31" s="76" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="K31" s="66" t="s">
         <v>249</v>
       </c>
-      <c r="L31" s="126" t="s">
+      <c r="L31" s="92" t="s">
         <v>205</v>
       </c>
       <c r="M31" s="67" t="s">
@@ -10870,14 +10841,14 @@
       <c r="Q31" s="67" t="s">
         <v>253</v>
       </c>
-      <c r="R31" s="129" t="s">
+      <c r="R31" s="93" t="s">
         <v>206</v>
       </c>
       <c r="S31" s="66" t="s">
         <v>231</v>
       </c>
       <c r="T31" s="76" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="4:20" x14ac:dyDescent="0.2">
@@ -10885,10 +10856,10 @@
       <c r="J32" s="88"/>
       <c r="K32" s="67"/>
       <c r="L32" s="64"/>
-      <c r="M32" s="127" t="s">
+      <c r="M32" s="117" t="s">
         <v>205</v>
       </c>
-      <c r="Q32" s="126" t="s">
+      <c r="Q32" s="92" t="s">
         <v>201</v>
       </c>
       <c r="S32" s="66"/>
@@ -10905,12 +10876,12 @@
       <c r="L33" s="65" t="s">
         <v>235</v>
       </c>
-      <c r="M33" s="128"/>
+      <c r="M33" s="118"/>
       <c r="O33" s="65" t="s">
         <v>152</v>
       </c>
       <c r="Q33" s="84"/>
-      <c r="R33" s="115" t="s">
+      <c r="R33" s="90" t="s">
         <v>239</v>
       </c>
       <c r="S33" s="66" t="s">
@@ -10928,19 +10899,19 @@
       <c r="K34" s="87" t="s">
         <v>233</v>
       </c>
-      <c r="L34" s="126" t="s">
+      <c r="L34" s="92" t="s">
         <v>207</v>
       </c>
       <c r="N34" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="O34" s="126" t="s">
+      <c r="O34" s="92" t="s">
         <v>205</v>
       </c>
       <c r="P34" s="65" t="s">
         <v>226</v>
       </c>
-      <c r="R34" s="129" t="s">
+      <c r="R34" s="93" t="s">
         <v>201</v>
       </c>
       <c r="S34" s="66" t="s">
@@ -10954,11 +10925,11 @@
       <c r="J35" s="88"/>
       <c r="K35" s="67"/>
       <c r="L35" s="64"/>
-      <c r="N35" s="126" t="s">
+      <c r="N35" s="92" t="s">
         <v>205</v>
       </c>
       <c r="O35" s="84"/>
-      <c r="P35" s="126" t="s">
+      <c r="P35" s="92" t="s">
         <v>252</v>
       </c>
       <c r="S35" s="66"/>
@@ -10988,12 +10959,12 @@
     </row>
     <row r="37" spans="9:20" x14ac:dyDescent="0.2">
       <c r="J37" s="76" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="K37" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="L37" s="126" t="s">
+      <c r="L37" s="92" t="s">
         <v>209</v>
       </c>
       <c r="M37" s="65" t="s">
@@ -11002,24 +10973,24 @@
       <c r="Q37" s="65" t="s">
         <v>254</v>
       </c>
-      <c r="R37" s="129" t="s">
+      <c r="R37" s="93" t="s">
         <v>250</v>
       </c>
       <c r="S37" s="66" t="s">
         <v>250</v>
       </c>
       <c r="T37" s="76" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="9:20" x14ac:dyDescent="0.2">
       <c r="J38" s="88"/>
       <c r="K38" s="64"/>
       <c r="L38" s="64"/>
-      <c r="M38" s="127" t="s">
+      <c r="M38" s="117" t="s">
         <v>209</v>
       </c>
-      <c r="Q38" s="126" t="s">
+      <c r="Q38" s="92" t="s">
         <v>252</v>
       </c>
       <c r="S38" s="66"/>
@@ -11035,7 +11006,7 @@
       <c r="L39" s="65" t="s">
         <v>237</v>
       </c>
-      <c r="M39" s="128"/>
+      <c r="M39" s="118"/>
       <c r="Q39" s="84"/>
       <c r="R39" s="65" t="s">
         <v>241</v>
@@ -11054,10 +11025,10 @@
       <c r="K40" s="87" t="s">
         <v>202</v>
       </c>
-      <c r="L40" s="126" t="s">
+      <c r="L40" s="92" t="s">
         <v>210</v>
       </c>
-      <c r="R40" s="129" t="s">
+      <c r="R40" s="93" t="s">
         <v>252</v>
       </c>
       <c r="S40" s="66" t="s">
@@ -11072,22 +11043,22 @@
       <c r="K41" s="64"/>
     </row>
     <row r="42" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="J42" s="110" t="s">
+      <c r="J42" s="114" t="s">
         <v>255</v>
       </c>
-      <c r="K42" s="110"/>
-      <c r="L42" s="110"/>
-      <c r="M42" s="110"/>
-      <c r="N42" s="110"/>
-      <c r="O42" s="110"/>
-      <c r="P42" s="110"/>
-      <c r="Q42" s="110"/>
-      <c r="R42" s="110"/>
-      <c r="S42" s="110"/>
-      <c r="T42" s="110"/>
+      <c r="K42" s="114"/>
+      <c r="L42" s="114"/>
+      <c r="M42" s="114"/>
+      <c r="N42" s="114"/>
+      <c r="O42" s="114"/>
+      <c r="P42" s="114"/>
+      <c r="Q42" s="114"/>
+      <c r="R42" s="114"/>
+      <c r="S42" s="114"/>
+      <c r="T42" s="114"/>
     </row>
     <row r="43" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="J43" s="85" t="s">
+      <c r="J43" s="66" t="s">
         <v>211</v>
       </c>
       <c r="K43" s="85" t="s">
@@ -11108,12 +11079,12 @@
     </row>
     <row r="44" spans="9:20" x14ac:dyDescent="0.2">
       <c r="J44" s="76" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="K44" s="66" t="s">
         <v>249</v>
       </c>
-      <c r="L44" s="117" t="str">
+      <c r="L44" s="91" t="str">
         <f>master!F26</f>
         <v>england</v>
       </c>
@@ -11131,7 +11102,7 @@
         <v>231</v>
       </c>
       <c r="T44" s="76" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="9:20" x14ac:dyDescent="0.2">
@@ -11141,11 +11112,11 @@
         <f>IF(L44=L31,2,0)</f>
         <v>2</v>
       </c>
-      <c r="M45" s="118" t="str">
+      <c r="M45" s="111" t="str">
         <f>master!G27</f>
         <v>england</v>
       </c>
-      <c r="Q45" s="118" t="str">
+      <c r="Q45" s="111" t="str">
         <f>master!K27</f>
         <v>france</v>
       </c>
@@ -11166,12 +11137,12 @@
       <c r="L46" s="65" t="s">
         <v>235</v>
       </c>
-      <c r="M46" s="119"/>
+      <c r="M46" s="112"/>
       <c r="O46" s="65" t="s">
         <v>152</v>
       </c>
-      <c r="Q46" s="121"/>
-      <c r="R46" s="115" t="s">
+      <c r="Q46" s="119"/>
+      <c r="R46" s="90" t="s">
         <v>239</v>
       </c>
       <c r="S46" s="66" t="s">
@@ -11188,7 +11159,7 @@
       <c r="K47" s="87" t="s">
         <v>233</v>
       </c>
-      <c r="L47" s="117" t="str">
+      <c r="L47" s="91" t="str">
         <f>master!F29</f>
         <v>mexico</v>
       </c>
@@ -11199,7 +11170,7 @@
       <c r="N47" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="O47" s="117" t="str">
+      <c r="O47" s="91" t="str">
         <f>master!I29</f>
         <v>france</v>
       </c>
@@ -11228,12 +11199,12 @@
         <f>IF(L47=L34,2,0)</f>
         <v>0</v>
       </c>
-      <c r="N48" s="117" t="str">
+      <c r="N48" s="91" t="str">
         <f>master!H30</f>
         <v>england</v>
       </c>
-      <c r="O48" s="125"/>
-      <c r="P48" s="117" t="str">
+      <c r="O48" s="84"/>
+      <c r="P48" s="91" t="str">
         <f>master!J30</f>
         <v>france</v>
       </c>
@@ -11254,12 +11225,12 @@
       <c r="L49" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="N49" s="125"/>
+      <c r="N49" s="84"/>
       <c r="O49" s="64">
         <f>IF(O47=O34,10,0)</f>
         <v>0</v>
       </c>
-      <c r="P49" s="125"/>
+      <c r="P49" s="84"/>
       <c r="R49" s="65" t="s">
         <v>240</v>
       </c>
@@ -11272,12 +11243,12 @@
     </row>
     <row r="50" spans="10:20" x14ac:dyDescent="0.2">
       <c r="J50" s="76" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="K50" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="L50" s="117" t="str">
+      <c r="L50" s="91" t="str">
         <f>master!F32</f>
         <v>belgium</v>
       </c>
@@ -11303,7 +11274,7 @@
         <v>250</v>
       </c>
       <c r="T50" s="76" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="51" spans="10:20" x14ac:dyDescent="0.2">
@@ -11313,11 +11284,11 @@
         <f>IF(L50=L37,2,0)</f>
         <v>0</v>
       </c>
-      <c r="M51" s="118" t="str">
+      <c r="M51" s="111" t="str">
         <f>master!G33</f>
         <v>spain</v>
       </c>
-      <c r="Q51" s="118" t="str">
+      <c r="Q51" s="111" t="str">
         <f>master!K33</f>
         <v>usa</v>
       </c>
@@ -11338,8 +11309,8 @@
       <c r="L52" s="65" t="s">
         <v>237</v>
       </c>
-      <c r="M52" s="119"/>
-      <c r="Q52" s="121"/>
+      <c r="M52" s="112"/>
+      <c r="Q52" s="119"/>
       <c r="R52" s="65" t="s">
         <v>241</v>
       </c>
@@ -11357,7 +11328,7 @@
       <c r="K53" s="87" t="s">
         <v>202</v>
       </c>
-      <c r="L53" s="117" t="str">
+      <c r="L53" s="91" t="str">
         <f>master!F35</f>
         <v>spain</v>
       </c>
@@ -11430,6 +11401,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
     <mergeCell ref="M51:M52"/>
     <mergeCell ref="Q51:Q52"/>
     <mergeCell ref="M32:M33"/>
@@ -11437,11 +11413,6 @@
     <mergeCell ref="J42:T42"/>
     <mergeCell ref="M45:M46"/>
     <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <conditionalFormatting sqref="H10 N10 H17 N17 H24 N24">
     <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">

--- a/excel-docs/euro - lifecycle info.xlsx
+++ b/excel-docs/euro - lifecycle info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseph.collins/Documents/personal-projects/euro/2024_euro/excel-docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42A7C16-D948-8F45-AA27-A116157BA303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B64B124-D620-D544-A5CC-37E56C09082A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18000" yWindow="760" windowWidth="16560" windowHeight="20120" firstSheet="4" activeTab="6" xr2:uid="{D89656BD-B983-D041-A997-C1184058734E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="20480" windowHeight="20120" firstSheet="4" activeTab="7" xr2:uid="{D89656BD-B983-D041-A997-C1184058734E}"/>
   </bookViews>
   <sheets>
     <sheet name="life cycle actions" sheetId="6" r:id="rId1"/>
@@ -1499,6 +1499,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1510,10 +1514,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2689,7 +2689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08564AC3-4506-8F41-9905-B73B2E25376A}">
   <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView topLeftCell="K17" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
@@ -2717,14 +2717,14 @@
       <c r="A2" s="70">
         <v>5</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
       <c r="H2" s="66">
         <v>5</v>
       </c>
@@ -2733,14 +2733,14 @@
       <c r="A3" s="78">
         <v>4</v>
       </c>
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="112" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
       <c r="H3" s="66">
         <v>4</v>
       </c>
@@ -2749,14 +2749,14 @@
       <c r="A4" s="73">
         <v>3</v>
       </c>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="112" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
       <c r="H4" s="66">
         <v>3</v>
       </c>
@@ -2765,14 +2765,14 @@
       <c r="A5" s="79">
         <v>2</v>
       </c>
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
       <c r="H5" s="66">
         <v>2</v>
       </c>
@@ -2781,14 +2781,14 @@
       <c r="A6" s="71">
         <v>1</v>
       </c>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="112" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
       <c r="H6" s="66">
         <v>1</v>
       </c>
@@ -3608,19 +3608,19 @@
       <c r="K41" s="64"/>
     </row>
     <row r="42" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="J42" s="114" t="s">
+      <c r="J42" s="116" t="s">
         <v>255</v>
       </c>
-      <c r="K42" s="114"/>
-      <c r="L42" s="114"/>
-      <c r="M42" s="114"/>
-      <c r="N42" s="114"/>
-      <c r="O42" s="114"/>
-      <c r="P42" s="114"/>
-      <c r="Q42" s="114"/>
-      <c r="R42" s="114"/>
-      <c r="S42" s="114"/>
-      <c r="T42" s="114"/>
+      <c r="K42" s="116"/>
+      <c r="L42" s="116"/>
+      <c r="M42" s="116"/>
+      <c r="N42" s="116"/>
+      <c r="O42" s="116"/>
+      <c r="P42" s="116"/>
+      <c r="Q42" s="116"/>
+      <c r="R42" s="116"/>
+      <c r="S42" s="116"/>
+      <c r="T42" s="116"/>
     </row>
     <row r="43" spans="9:20" x14ac:dyDescent="0.2">
       <c r="J43" s="66" t="s">
@@ -3677,11 +3677,11 @@
         <f>IF(L44=L31,2,0)</f>
         <v>0</v>
       </c>
-      <c r="M45" s="111" t="str">
+      <c r="M45" s="113" t="str">
         <f>master!G27</f>
         <v>england</v>
       </c>
-      <c r="Q45" s="111" t="str">
+      <c r="Q45" s="113" t="str">
         <f>master!K27</f>
         <v>france</v>
       </c>
@@ -3702,7 +3702,7 @@
       <c r="L46" s="65" t="s">
         <v>235</v>
       </c>
-      <c r="M46" s="112"/>
+      <c r="M46" s="114"/>
       <c r="O46" s="65" t="s">
         <v>152</v>
       </c>
@@ -3849,11 +3849,11 @@
         <f>IF(L50=L37,2,0)</f>
         <v>2</v>
       </c>
-      <c r="M51" s="111" t="str">
+      <c r="M51" s="113" t="str">
         <f>master!G33</f>
         <v>spain</v>
       </c>
-      <c r="Q51" s="111" t="str">
+      <c r="Q51" s="113" t="str">
         <f>master!K33</f>
         <v>usa</v>
       </c>
@@ -3874,7 +3874,7 @@
       <c r="L52" s="65" t="s">
         <v>237</v>
       </c>
-      <c r="M52" s="112"/>
+      <c r="M52" s="114"/>
       <c r="Q52" s="119"/>
       <c r="R52" s="65" t="s">
         <v>241</v>
@@ -3966,11 +3966,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
     <mergeCell ref="M51:M52"/>
     <mergeCell ref="Q51:Q52"/>
     <mergeCell ref="M32:M33"/>
@@ -3978,6 +3973,11 @@
     <mergeCell ref="J42:T42"/>
     <mergeCell ref="M45:M46"/>
     <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <conditionalFormatting sqref="H10 N10 H17 N17 H24 N24">
     <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
@@ -4032,8 +4032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC49F1C-9819-6A4D-BA8A-D847526C8B5C}">
   <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView topLeftCell="J11" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42:T42"/>
+    <sheetView topLeftCell="G10" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q9:Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4060,14 +4060,14 @@
       <c r="A2" s="70">
         <v>5</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
       <c r="H2" s="66">
         <v>5</v>
       </c>
@@ -4076,14 +4076,14 @@
       <c r="A3" s="78">
         <v>4</v>
       </c>
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="112" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
       <c r="H3" s="66">
         <v>4</v>
       </c>
@@ -4092,14 +4092,14 @@
       <c r="A4" s="73">
         <v>3</v>
       </c>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="112" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
       <c r="H4" s="66">
         <v>3</v>
       </c>
@@ -4108,14 +4108,14 @@
       <c r="A5" s="79">
         <v>2</v>
       </c>
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
       <c r="H5" s="66">
         <v>2</v>
       </c>
@@ -4124,14 +4124,14 @@
       <c r="A6" s="71">
         <v>1</v>
       </c>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="112" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
       <c r="H6" s="66">
         <v>1</v>
       </c>
@@ -4951,19 +4951,19 @@
       <c r="K41" s="64"/>
     </row>
     <row r="42" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="J42" s="114" t="s">
+      <c r="J42" s="116" t="s">
         <v>255</v>
       </c>
-      <c r="K42" s="114"/>
-      <c r="L42" s="114"/>
-      <c r="M42" s="114"/>
-      <c r="N42" s="114"/>
-      <c r="O42" s="114"/>
-      <c r="P42" s="114"/>
-      <c r="Q42" s="114"/>
-      <c r="R42" s="114"/>
-      <c r="S42" s="114"/>
-      <c r="T42" s="114"/>
+      <c r="K42" s="116"/>
+      <c r="L42" s="116"/>
+      <c r="M42" s="116"/>
+      <c r="N42" s="116"/>
+      <c r="O42" s="116"/>
+      <c r="P42" s="116"/>
+      <c r="Q42" s="116"/>
+      <c r="R42" s="116"/>
+      <c r="S42" s="116"/>
+      <c r="T42" s="116"/>
     </row>
     <row r="43" spans="9:20" x14ac:dyDescent="0.2">
       <c r="J43" s="66" t="s">
@@ -5020,11 +5020,11 @@
         <f>IF(L44=L31,2,0)</f>
         <v>2</v>
       </c>
-      <c r="M45" s="111" t="str">
+      <c r="M45" s="113" t="str">
         <f>master!G27</f>
         <v>england</v>
       </c>
-      <c r="Q45" s="111" t="str">
+      <c r="Q45" s="113" t="str">
         <f>master!K27</f>
         <v>france</v>
       </c>
@@ -5045,7 +5045,7 @@
       <c r="L46" s="65" t="s">
         <v>235</v>
       </c>
-      <c r="M46" s="112"/>
+      <c r="M46" s="114"/>
       <c r="O46" s="65" t="s">
         <v>152</v>
       </c>
@@ -5192,11 +5192,11 @@
         <f>IF(L50=L37,2,0)</f>
         <v>0</v>
       </c>
-      <c r="M51" s="111" t="str">
+      <c r="M51" s="113" t="str">
         <f>master!G33</f>
         <v>spain</v>
       </c>
-      <c r="Q51" s="111" t="str">
+      <c r="Q51" s="113" t="str">
         <f>master!K33</f>
         <v>usa</v>
       </c>
@@ -5217,7 +5217,7 @@
       <c r="L52" s="65" t="s">
         <v>237</v>
       </c>
-      <c r="M52" s="112"/>
+      <c r="M52" s="114"/>
       <c r="Q52" s="119"/>
       <c r="R52" s="65" t="s">
         <v>241</v>
@@ -5309,11 +5309,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
     <mergeCell ref="M51:M52"/>
     <mergeCell ref="Q51:Q52"/>
     <mergeCell ref="M32:M33"/>
@@ -5321,6 +5316,11 @@
     <mergeCell ref="J42:T42"/>
     <mergeCell ref="M45:M46"/>
     <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <conditionalFormatting sqref="H10 N10 H17 N17 H24 N24">
     <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
@@ -5392,15 +5392,15 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="116" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="122" t="s">
@@ -5576,15 +5576,15 @@
       <c r="G13" s="121"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="114" t="s">
+      <c r="A16" s="116" t="s">
         <v>242</v>
       </c>
-      <c r="B16" s="114"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="120" t="s">
@@ -5761,6 +5761,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A20:A21"/>
@@ -5777,8 +5779,6 @@
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7027,8 +7027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F2D8727-69E7-4348-A9F0-3DA347775291}">
   <dimension ref="A1:AE57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Y10" sqref="Y10:Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7057,14 +7057,14 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="68"/>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
@@ -7075,14 +7075,14 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="77"/>
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="112" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -7093,14 +7093,14 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="72"/>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="112" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -7111,14 +7111,14 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="69"/>
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
@@ -7129,14 +7129,14 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="22"/>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="112" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
@@ -8047,7 +8047,7 @@
       <c r="AE30" s="89"/>
     </row>
     <row r="31" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C31" s="116"/>
+      <c r="C31" s="111"/>
       <c r="D31" s="66" t="s">
         <v>211</v>
       </c>
@@ -8069,7 +8069,7 @@
       </c>
     </row>
     <row r="32" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C32" s="116"/>
+      <c r="C32" s="111"/>
       <c r="D32" s="76" t="s">
         <v>221</v>
       </c>
@@ -8114,7 +8114,7 @@
       <c r="AE33" s="89"/>
     </row>
     <row r="34" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C34" s="116"/>
+      <c r="C34" s="111"/>
       <c r="D34" s="70" t="s">
         <v>212</v>
       </c>
@@ -8141,7 +8141,7 @@
       </c>
     </row>
     <row r="35" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C35" s="116"/>
+      <c r="C35" s="111"/>
       <c r="D35" s="70" t="s">
         <v>217</v>
       </c>
@@ -8188,7 +8188,7 @@
       <c r="AE36" s="89"/>
     </row>
     <row r="37" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C37" s="116"/>
+      <c r="C37" s="111"/>
       <c r="D37" s="66" t="s">
         <v>225</v>
       </c>
@@ -8211,7 +8211,7 @@
       </c>
     </row>
     <row r="38" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C38" s="116"/>
+      <c r="C38" s="111"/>
       <c r="D38" s="76" t="s">
         <v>256</v>
       </c>
@@ -8236,7 +8236,7 @@
       <c r="X38" s="76" t="s">
         <v>227</v>
       </c>
-      <c r="AE38" s="116"/>
+      <c r="AE38" s="111"/>
     </row>
     <row r="39" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C39"/>
@@ -8250,10 +8250,10 @@
       </c>
       <c r="W39" s="66"/>
       <c r="X39" s="66"/>
-      <c r="AE39" s="116"/>
+      <c r="AE39" s="111"/>
     </row>
     <row r="40" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C40" s="116"/>
+      <c r="C40" s="111"/>
       <c r="D40" s="70" t="s">
         <v>220</v>
       </c>
@@ -8276,7 +8276,7 @@
       </c>
     </row>
     <row r="41" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C41" s="116"/>
+      <c r="C41" s="111"/>
       <c r="D41" s="70" t="s">
         <v>223</v>
       </c>
@@ -8297,29 +8297,29 @@
       </c>
     </row>
     <row r="43" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="D43" s="114" t="s">
+      <c r="D43" s="116" t="s">
         <v>255</v>
       </c>
-      <c r="E43" s="114"/>
-      <c r="F43" s="114"/>
-      <c r="G43" s="114"/>
-      <c r="H43" s="114"/>
-      <c r="I43" s="114"/>
-      <c r="J43" s="114"/>
-      <c r="K43" s="114"/>
-      <c r="L43" s="114"/>
-      <c r="M43" s="114"/>
-      <c r="N43" s="114"/>
-      <c r="O43" s="114"/>
-      <c r="P43" s="114"/>
-      <c r="Q43" s="114"/>
-      <c r="R43" s="114"/>
-      <c r="S43" s="114"/>
-      <c r="T43" s="114"/>
-      <c r="U43" s="114"/>
-      <c r="V43" s="114"/>
-      <c r="W43" s="114"/>
-      <c r="X43" s="114"/>
+      <c r="E43" s="116"/>
+      <c r="F43" s="116"/>
+      <c r="G43" s="116"/>
+      <c r="H43" s="116"/>
+      <c r="I43" s="116"/>
+      <c r="J43" s="116"/>
+      <c r="K43" s="116"/>
+      <c r="L43" s="116"/>
+      <c r="M43" s="116"/>
+      <c r="N43" s="116"/>
+      <c r="O43" s="116"/>
+      <c r="P43" s="116"/>
+      <c r="Q43" s="116"/>
+      <c r="R43" s="116"/>
+      <c r="S43" s="116"/>
+      <c r="T43" s="116"/>
+      <c r="U43" s="116"/>
+      <c r="V43" s="116"/>
+      <c r="W43" s="116"/>
+      <c r="X43" s="116"/>
     </row>
     <row r="44" spans="3:31" x14ac:dyDescent="0.2">
       <c r="D44" s="66" t="s">
@@ -8378,12 +8378,12 @@
         <f>IF(F45=F32,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G46" s="111" t="str">
+      <c r="G46" s="113" t="str">
         <f>master!G27</f>
         <v>england</v>
       </c>
       <c r="M46" s="64"/>
-      <c r="P46" s="113" t="str">
+      <c r="P46" s="115" t="str">
         <f>master!K27</f>
         <v>france</v>
       </c>
@@ -8404,12 +8404,12 @@
       <c r="F47" s="65" t="s">
         <v>235</v>
       </c>
-      <c r="G47" s="112"/>
+      <c r="G47" s="114"/>
       <c r="M47" s="67"/>
       <c r="N47" s="65" t="s">
         <v>152</v>
       </c>
-      <c r="P47" s="113"/>
+      <c r="P47" s="115"/>
       <c r="V47" s="90" t="s">
         <v>239</v>
       </c>
@@ -8438,7 +8438,7 @@
       <c r="L48" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="N48" s="113" t="str">
+      <c r="N48" s="115" t="str">
         <f>master!I29</f>
         <v>france</v>
       </c>
@@ -8467,12 +8467,12 @@
         <f>IF(F48=F35,2,0)</f>
         <v>2</v>
       </c>
-      <c r="L49" s="113" t="str">
+      <c r="L49" s="115" t="str">
         <f>master!H30</f>
         <v>england</v>
       </c>
-      <c r="N49" s="113"/>
-      <c r="O49" s="113" t="str">
+      <c r="N49" s="115"/>
+      <c r="O49" s="115" t="str">
         <f>master!J30</f>
         <v>france</v>
       </c>
@@ -8493,12 +8493,12 @@
       <c r="F50" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="L50" s="113"/>
+      <c r="L50" s="115"/>
       <c r="N50" s="64">
         <f>IF(N48=N35,10,0)</f>
         <v>10</v>
       </c>
-      <c r="O50" s="113"/>
+      <c r="O50" s="115"/>
       <c r="V50" s="65" t="s">
         <v>240</v>
       </c>
@@ -8551,11 +8551,11 @@
         <f>IF(F51=F38,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G52" s="111" t="str">
+      <c r="G52" s="113" t="str">
         <f>master!G33</f>
         <v>spain</v>
       </c>
-      <c r="P52" s="113" t="str">
+      <c r="P52" s="115" t="str">
         <f>master!K33</f>
         <v>usa</v>
       </c>
@@ -8576,8 +8576,8 @@
       <c r="F53" s="65" t="s">
         <v>237</v>
       </c>
-      <c r="G53" s="112"/>
-      <c r="P53" s="113"/>
+      <c r="G53" s="114"/>
+      <c r="P53" s="115"/>
       <c r="V53" s="65" t="s">
         <v>241</v>
       </c>
@@ -8697,6 +8697,19 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="D43:X43"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="P46:P47"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="AE38:AE39"/>
     <mergeCell ref="G39:G40"/>
@@ -8709,19 +8722,6 @@
     <mergeCell ref="L36:L37"/>
     <mergeCell ref="O36:O37"/>
     <mergeCell ref="N35:N36"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="D43:X43"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="P46:P47"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="O49:O50"/>
   </mergeCells>
   <conditionalFormatting sqref="L10 V10 L17 V17 L24 V24">
     <cfRule type="cellIs" dxfId="32" priority="6" operator="equal">
@@ -8754,8 +8754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BA53A3-896F-5548-BE26-1B0315E4CCCA}">
   <dimension ref="A1:AD56"/>
   <sheetViews>
-    <sheetView topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView tabSelected="1" topLeftCell="H12" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8783,14 +8783,14 @@
       <c r="A2" s="70">
         <v>5</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
       <c r="H2" s="66">
         <v>5</v>
       </c>
@@ -8799,14 +8799,14 @@
       <c r="A3" s="78">
         <v>4</v>
       </c>
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="112" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
       <c r="H3" s="66">
         <v>4</v>
       </c>
@@ -8815,14 +8815,14 @@
       <c r="A4" s="73">
         <v>3</v>
       </c>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="112" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
       <c r="H4" s="66">
         <v>3</v>
       </c>
@@ -8831,14 +8831,14 @@
       <c r="A5" s="79">
         <v>2</v>
       </c>
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
       <c r="H5" s="66">
         <v>2</v>
       </c>
@@ -8847,14 +8847,14 @@
       <c r="A6" s="71">
         <v>1</v>
       </c>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="112" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
       <c r="H6" s="66">
         <v>1</v>
       </c>
@@ -9161,6 +9161,9 @@
       </c>
       <c r="O18" s="64"/>
       <c r="P18" s="64"/>
+      <c r="Q18">
+        <v>72</v>
+      </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D19" s="66" t="s">
@@ -9195,6 +9198,9 @@
       </c>
       <c r="O19" s="64"/>
       <c r="P19" s="64"/>
+      <c r="Q19">
+        <v>6</v>
+      </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D20" s="66" t="s">
@@ -9688,19 +9694,19 @@
       <c r="K41" s="64"/>
     </row>
     <row r="42" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="J42" s="114" t="s">
+      <c r="J42" s="116" t="s">
         <v>255</v>
       </c>
-      <c r="K42" s="114"/>
-      <c r="L42" s="114"/>
-      <c r="M42" s="114"/>
-      <c r="N42" s="114"/>
-      <c r="O42" s="114"/>
-      <c r="P42" s="114"/>
-      <c r="Q42" s="114"/>
-      <c r="R42" s="114"/>
-      <c r="S42" s="114"/>
-      <c r="T42" s="114"/>
+      <c r="K42" s="116"/>
+      <c r="L42" s="116"/>
+      <c r="M42" s="116"/>
+      <c r="N42" s="116"/>
+      <c r="O42" s="116"/>
+      <c r="P42" s="116"/>
+      <c r="Q42" s="116"/>
+      <c r="R42" s="116"/>
+      <c r="S42" s="116"/>
+      <c r="T42" s="116"/>
       <c r="U42" s="80"/>
       <c r="V42" s="80"/>
       <c r="W42" s="80"/>
@@ -9767,11 +9773,11 @@
         <f>IF(L44=L31,2,0)</f>
         <v>0</v>
       </c>
-      <c r="M45" s="111" t="str">
+      <c r="M45" s="113" t="str">
         <f>master!G27</f>
         <v>england</v>
       </c>
-      <c r="Q45" s="111" t="str">
+      <c r="Q45" s="113" t="str">
         <f>master!K27</f>
         <v>france</v>
       </c>
@@ -9792,7 +9798,7 @@
       <c r="L46" s="65" t="s">
         <v>235</v>
       </c>
-      <c r="M46" s="112"/>
+      <c r="M46" s="114"/>
       <c r="O46" s="65" t="s">
         <v>152</v>
       </c>
@@ -9939,11 +9945,11 @@
         <f>IF(L50=L37,2,0)</f>
         <v>2</v>
       </c>
-      <c r="M51" s="111" t="str">
+      <c r="M51" s="113" t="str">
         <f>master!G33</f>
         <v>spain</v>
       </c>
-      <c r="Q51" s="111" t="str">
+      <c r="Q51" s="113" t="str">
         <f>master!K33</f>
         <v>usa</v>
       </c>
@@ -9964,7 +9970,7 @@
       <c r="L52" s="65" t="s">
         <v>237</v>
       </c>
-      <c r="M52" s="112"/>
+      <c r="M52" s="114"/>
       <c r="Q52" s="119"/>
       <c r="R52" s="65" t="s">
         <v>241</v>
@@ -10058,6 +10064,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="J42:T42"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="Q51:Q52"/>
     <mergeCell ref="M32:M33"/>
     <mergeCell ref="Q45:Q46"/>
     <mergeCell ref="B2:G2"/>
@@ -10065,11 +10076,6 @@
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="B6:G6"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="J42:T42"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="Q51:Q52"/>
   </mergeCells>
   <conditionalFormatting sqref="H10 M10 H17 M17 H24 M24">
     <cfRule type="cellIs" dxfId="27" priority="14" operator="equal">
@@ -10124,7 +10130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3292362C-0E51-2145-8D28-B6F8E9B96320}">
   <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView topLeftCell="G14" workbookViewId="0">
+    <sheetView topLeftCell="E7" workbookViewId="0">
       <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
@@ -10152,14 +10158,14 @@
       <c r="A2" s="70">
         <v>5</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
       <c r="H2" s="66">
         <v>5</v>
       </c>
@@ -10168,14 +10174,14 @@
       <c r="A3" s="78">
         <v>4</v>
       </c>
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="112" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
       <c r="H3" s="66">
         <v>4</v>
       </c>
@@ -10184,14 +10190,14 @@
       <c r="A4" s="73">
         <v>3</v>
       </c>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="112" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
       <c r="H4" s="66">
         <v>3</v>
       </c>
@@ -10200,14 +10206,14 @@
       <c r="A5" s="79">
         <v>2</v>
       </c>
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
       <c r="H5" s="66">
         <v>2</v>
       </c>
@@ -10216,14 +10222,14 @@
       <c r="A6" s="71">
         <v>1</v>
       </c>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="112" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
       <c r="H6" s="66">
         <v>1</v>
       </c>
@@ -11043,19 +11049,19 @@
       <c r="K41" s="64"/>
     </row>
     <row r="42" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="J42" s="114" t="s">
+      <c r="J42" s="116" t="s">
         <v>255</v>
       </c>
-      <c r="K42" s="114"/>
-      <c r="L42" s="114"/>
-      <c r="M42" s="114"/>
-      <c r="N42" s="114"/>
-      <c r="O42" s="114"/>
-      <c r="P42" s="114"/>
-      <c r="Q42" s="114"/>
-      <c r="R42" s="114"/>
-      <c r="S42" s="114"/>
-      <c r="T42" s="114"/>
+      <c r="K42" s="116"/>
+      <c r="L42" s="116"/>
+      <c r="M42" s="116"/>
+      <c r="N42" s="116"/>
+      <c r="O42" s="116"/>
+      <c r="P42" s="116"/>
+      <c r="Q42" s="116"/>
+      <c r="R42" s="116"/>
+      <c r="S42" s="116"/>
+      <c r="T42" s="116"/>
     </row>
     <row r="43" spans="9:20" x14ac:dyDescent="0.2">
       <c r="J43" s="66" t="s">
@@ -11112,11 +11118,11 @@
         <f>IF(L44=L31,2,0)</f>
         <v>2</v>
       </c>
-      <c r="M45" s="111" t="str">
+      <c r="M45" s="113" t="str">
         <f>master!G27</f>
         <v>england</v>
       </c>
-      <c r="Q45" s="111" t="str">
+      <c r="Q45" s="113" t="str">
         <f>master!K27</f>
         <v>france</v>
       </c>
@@ -11137,7 +11143,7 @@
       <c r="L46" s="65" t="s">
         <v>235</v>
       </c>
-      <c r="M46" s="112"/>
+      <c r="M46" s="114"/>
       <c r="O46" s="65" t="s">
         <v>152</v>
       </c>
@@ -11284,11 +11290,11 @@
         <f>IF(L50=L37,2,0)</f>
         <v>0</v>
       </c>
-      <c r="M51" s="111" t="str">
+      <c r="M51" s="113" t="str">
         <f>master!G33</f>
         <v>spain</v>
       </c>
-      <c r="Q51" s="111" t="str">
+      <c r="Q51" s="113" t="str">
         <f>master!K33</f>
         <v>usa</v>
       </c>
@@ -11309,7 +11315,7 @@
       <c r="L52" s="65" t="s">
         <v>237</v>
       </c>
-      <c r="M52" s="112"/>
+      <c r="M52" s="114"/>
       <c r="Q52" s="119"/>
       <c r="R52" s="65" t="s">
         <v>241</v>
@@ -11401,11 +11407,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
     <mergeCell ref="M51:M52"/>
     <mergeCell ref="Q51:Q52"/>
     <mergeCell ref="M32:M33"/>
@@ -11413,6 +11414,11 @@
     <mergeCell ref="J42:T42"/>
     <mergeCell ref="M45:M46"/>
     <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <conditionalFormatting sqref="H10 N10 H17 N17 H24 N24">
     <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">

--- a/excel-docs/euro - lifecycle info.xlsx
+++ b/excel-docs/euro - lifecycle info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseph.collins/Documents/personal-projects/euro/2024_euro/excel-docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B64B124-D620-D544-A5CC-37E56C09082A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD20B6C2-7083-A445-BB72-8F2FC141BDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="20480" windowHeight="20120" firstSheet="4" activeTab="7" xr2:uid="{D89656BD-B983-D041-A997-C1184058734E}"/>
+    <workbookView xWindow="34560" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{D89656BD-B983-D041-A997-C1184058734E}"/>
   </bookViews>
   <sheets>
     <sheet name="life cycle actions" sheetId="6" r:id="rId1"/>
@@ -535,377 +535,385 @@
     <t>throw error</t>
   </si>
   <si>
+    <t>Group A</t>
+  </si>
+  <si>
+    <t>Group B</t>
+  </si>
+  <si>
+    <t>Group C</t>
+  </si>
+  <si>
+    <t>Group D</t>
+  </si>
+  <si>
+    <t>Group E</t>
+  </si>
+  <si>
+    <t>Group F</t>
+  </si>
+  <si>
+    <t>picked correct country to win group</t>
+  </si>
+  <si>
+    <t>picked correct runner-up country</t>
+  </si>
+  <si>
+    <t>pts</t>
+  </si>
+  <si>
+    <t>picked correct country to take 3rd in in the group and advance to the Knockout Stage</t>
+  </si>
+  <si>
+    <t>picked correct country to advance, but not in the correct 1/2/3 position</t>
+  </si>
+  <si>
+    <t>picked correct country for the 3/4 position - 3rd place team did not advance from group</t>
+  </si>
+  <si>
+    <t>Pts</t>
+  </si>
+  <si>
+    <t>group total</t>
+  </si>
+  <si>
+    <t>quarters</t>
+  </si>
+  <si>
+    <t>semis</t>
+  </si>
+  <si>
+    <t>final</t>
+  </si>
+  <si>
+    <t>champ</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Wales</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>advance to KO</t>
+  </si>
+  <si>
+    <t>correct</t>
+  </si>
+  <si>
+    <t>correct advance</t>
+  </si>
+  <si>
+    <t>correct spot</t>
+  </si>
+  <si>
+    <t>correct 3rd advance</t>
+  </si>
+  <si>
+    <t>3rd pts needed</t>
+  </si>
+  <si>
+    <t>pts for advancing</t>
+  </si>
+  <si>
+    <t>finishes 2nd</t>
+  </si>
+  <si>
+    <t>finishes 3rd and advances</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user 2nd ranked team </t>
+  </si>
+  <si>
+    <t xml:space="preserve">user 1st ranked team </t>
+  </si>
+  <si>
+    <t>finishes 1st</t>
+  </si>
+  <si>
+    <t>sarah - group B</t>
+  </si>
+  <si>
+    <t>anthony - group E</t>
+  </si>
+  <si>
+    <t>kevin - group A</t>
+  </si>
+  <si>
+    <t>user 3rd ranked team to advance</t>
+  </si>
+  <si>
+    <t>kevin - group E</t>
+  </si>
+  <si>
+    <t>kevin - group D</t>
+  </si>
+  <si>
+    <t>belgium</t>
+  </si>
+  <si>
+    <t>portugal</t>
+  </si>
+  <si>
+    <t>italy</t>
+  </si>
+  <si>
+    <t>austria</t>
+  </si>
+  <si>
+    <t>switz</t>
+  </si>
+  <si>
+    <t>croatia</t>
+  </si>
+  <si>
+    <t>spain</t>
+  </si>
+  <si>
+    <t>sweden</t>
+  </si>
+  <si>
+    <t>ukraine</t>
+  </si>
+  <si>
+    <t>england</t>
+  </si>
+  <si>
+    <t>germany</t>
+  </si>
+  <si>
+    <t>dutch</t>
+  </si>
+  <si>
+    <t>czech</t>
+  </si>
+  <si>
+    <t>wales</t>
+  </si>
+  <si>
+    <t>denmark</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>france</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>absolute match-ups</t>
+  </si>
+  <si>
+    <t>euro 2020</t>
+  </si>
+  <si>
+    <t>Dutch</t>
+  </si>
+  <si>
+    <t>senegal</t>
+  </si>
+  <si>
+    <t>argentina</t>
+  </si>
+  <si>
+    <t>mexico</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>ACDE mock testing</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>poland</t>
+  </si>
+  <si>
+    <t>austrailia</t>
+  </si>
+  <si>
+    <t>japan</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>australia</t>
+  </si>
+  <si>
+    <t>morocco</t>
+  </si>
+  <si>
+    <t>ecuador</t>
+  </si>
+  <si>
+    <t>usa</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>results</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
     <t>find the team with the longest name, and make sure all looks well with the following pages:
 groupDetails
+-comp view
+-mobile view
 myPicks locked
+-comp view
+-mobile view
 myPicks unlocked
-KO stages</t>
-  </si>
-  <si>
-    <t>Group A</t>
-  </si>
-  <si>
-    <t>Group B</t>
-  </si>
-  <si>
-    <t>Group C</t>
-  </si>
-  <si>
-    <t>Group D</t>
-  </si>
-  <si>
-    <t>Group E</t>
-  </si>
-  <si>
-    <t>Group F</t>
-  </si>
-  <si>
-    <t>picked correct country to win group</t>
-  </si>
-  <si>
-    <t>picked correct runner-up country</t>
-  </si>
-  <si>
-    <t>pts</t>
-  </si>
-  <si>
-    <t>picked correct country to take 3rd in in the group and advance to the Knockout Stage</t>
-  </si>
-  <si>
-    <t>picked correct country to advance, but not in the correct 1/2/3 position</t>
-  </si>
-  <si>
-    <t>picked correct country for the 3/4 position - 3rd place team did not advance from group</t>
-  </si>
-  <si>
-    <t>Pts</t>
-  </si>
-  <si>
-    <t>group total</t>
-  </si>
-  <si>
-    <t>quarters</t>
-  </si>
-  <si>
-    <t>semis</t>
-  </si>
-  <si>
-    <t>final</t>
-  </si>
-  <si>
-    <t>champ</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>Iran</t>
-  </si>
-  <si>
-    <t>Wales</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>England</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>advance to KO</t>
-  </si>
-  <si>
-    <t>correct</t>
-  </si>
-  <si>
-    <t>correct advance</t>
-  </si>
-  <si>
-    <t>correct spot</t>
-  </si>
-  <si>
-    <t>correct 3rd advance</t>
-  </si>
-  <si>
-    <t>3rd pts needed</t>
-  </si>
-  <si>
-    <t>pts for advancing</t>
-  </si>
-  <si>
-    <t>finishes 2nd</t>
-  </si>
-  <si>
-    <t>finishes 3rd and advances</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user 2nd ranked team </t>
-  </si>
-  <si>
-    <t xml:space="preserve">user 1st ranked team </t>
-  </si>
-  <si>
-    <t>finishes 1st</t>
-  </si>
-  <si>
-    <t>sarah - group B</t>
-  </si>
-  <si>
-    <t>anthony - group E</t>
-  </si>
-  <si>
-    <t>kevin - group A</t>
-  </si>
-  <si>
-    <t>user 3rd ranked team to advance</t>
-  </si>
-  <si>
-    <t>kevin - group E</t>
-  </si>
-  <si>
-    <t>kevin - group D</t>
-  </si>
-  <si>
-    <t>belgium</t>
-  </si>
-  <si>
-    <t>portugal</t>
-  </si>
-  <si>
-    <t>italy</t>
-  </si>
-  <si>
-    <t>austria</t>
-  </si>
-  <si>
-    <t>switz</t>
-  </si>
-  <si>
-    <t>croatia</t>
-  </si>
-  <si>
-    <t>spain</t>
-  </si>
-  <si>
-    <t>sweden</t>
-  </si>
-  <si>
-    <t>ukraine</t>
-  </si>
-  <si>
-    <t>england</t>
-  </si>
-  <si>
-    <t>germany</t>
-  </si>
-  <si>
-    <t>dutch</t>
-  </si>
-  <si>
-    <t>czech</t>
-  </si>
-  <si>
-    <t>wales</t>
-  </si>
-  <si>
-    <t>denmark</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>france</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>absolute match-ups</t>
-  </si>
-  <si>
-    <t>euro 2020</t>
-  </si>
-  <si>
-    <t>Dutch</t>
-  </si>
-  <si>
-    <t>senegal</t>
-  </si>
-  <si>
-    <t>argentina</t>
-  </si>
-  <si>
-    <t>mexico</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>Q3</t>
-  </si>
-  <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>Q5</t>
-  </si>
-  <si>
-    <t>Q6</t>
-  </si>
-  <si>
-    <t>Q7</t>
-  </si>
-  <si>
-    <t>Q8</t>
-  </si>
-  <si>
-    <t>ACDE mock testing</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>poland</t>
-  </si>
-  <si>
-    <t>austrailia</t>
-  </si>
-  <si>
-    <t>japan</t>
-  </si>
-  <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>australia</t>
-  </si>
-  <si>
-    <t>morocco</t>
-  </si>
-  <si>
-    <t>ecuador</t>
-  </si>
-  <si>
-    <t>usa</t>
-  </si>
-  <si>
-    <t>S3</t>
-  </si>
-  <si>
-    <t>S4</t>
-  </si>
-  <si>
-    <t>results</t>
-  </si>
-  <si>
-    <t>B3</t>
+-comp view
+-mobile view
+KO stages
+-comp view
+-mobile view</t>
   </si>
 </sst>
 </file>
@@ -1499,10 +1507,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1514,6 +1518,10 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2091,8 +2099,8 @@
   </sheetPr>
   <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView zoomScale="160" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2119,7 +2127,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>134</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2710,21 +2718,21 @@
       <c r="A1" s="11"/>
       <c r="B1" s="75"/>
       <c r="H1" s="66" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="70">
         <v>5</v>
       </c>
-      <c r="B2" s="112" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
+      <c r="B2" s="115" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
       <c r="H2" s="66">
         <v>5</v>
       </c>
@@ -2733,14 +2741,14 @@
       <c r="A3" s="78">
         <v>4</v>
       </c>
-      <c r="B3" s="112" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
+      <c r="B3" s="115" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
       <c r="H3" s="66">
         <v>4</v>
       </c>
@@ -2749,14 +2757,14 @@
       <c r="A4" s="73">
         <v>3</v>
       </c>
-      <c r="B4" s="112" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
+      <c r="B4" s="115" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
       <c r="H4" s="66">
         <v>3</v>
       </c>
@@ -2765,14 +2773,14 @@
       <c r="A5" s="79">
         <v>2</v>
       </c>
-      <c r="B5" s="112" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
+      <c r="B5" s="115" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
       <c r="H5" s="66">
         <v>2</v>
       </c>
@@ -2781,53 +2789,53 @@
       <c r="A6" s="71">
         <v>1</v>
       </c>
-      <c r="B6" s="112" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
+      <c r="B6" s="115" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
       <c r="H6" s="66">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D9" s="65" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E9" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="F9" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="G9" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="F9" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="G9" s="65" t="s">
-        <v>180</v>
-      </c>
       <c r="H9" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I9" s="67"/>
       <c r="J9" s="65" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K9" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="L9" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="M9" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="L9" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="M9" s="65" t="s">
-        <v>180</v>
-      </c>
       <c r="N9" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O9" s="67"/>
       <c r="P9" s="66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q9" s="66">
         <f>H14+N14+H21+N21+H28+N28</f>
@@ -2836,7 +2844,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D10" s="66" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E10" s="66" t="str">
         <f>master!B7</f>
@@ -2849,7 +2857,7 @@
       </c>
       <c r="I10" s="64"/>
       <c r="J10" s="66" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K10" s="66" t="str">
         <f>master!F7</f>
@@ -2862,7 +2870,7 @@
       </c>
       <c r="O10" s="64"/>
       <c r="P10" s="66" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q10" s="66">
         <f>L56+R56</f>
@@ -2871,7 +2879,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D11" s="66" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E11" s="66" t="str">
         <f>master!B8</f>
@@ -2884,7 +2892,7 @@
       </c>
       <c r="I11" s="64"/>
       <c r="J11" s="66" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K11" s="66" t="str">
         <f>master!F8</f>
@@ -2897,7 +2905,7 @@
       </c>
       <c r="O11" s="64"/>
       <c r="P11" s="66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q11" s="66">
         <f>M56+Q56</f>
@@ -2906,7 +2914,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D12" s="66" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E12" s="66" t="str">
         <f>master!B9</f>
@@ -2924,7 +2932,7 @@
       </c>
       <c r="I12" s="64"/>
       <c r="J12" s="66" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K12" s="66" t="str">
         <f>master!F9</f>
@@ -2942,7 +2950,7 @@
       </c>
       <c r="O12" s="64"/>
       <c r="P12" s="66" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q12" s="66">
         <f>N56+P56</f>
@@ -2951,7 +2959,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D13" s="66" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E13" s="66" t="str">
         <f>master!B10</f>
@@ -2964,7 +2972,7 @@
       </c>
       <c r="I13" s="64"/>
       <c r="J13" s="66" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K13" s="66" t="str">
         <f>master!F10</f>
@@ -2977,7 +2985,7 @@
       </c>
       <c r="O13" s="64"/>
       <c r="P13" s="66" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q13" s="66">
         <f>O56</f>
@@ -3002,7 +3010,7 @@
       </c>
       <c r="O14" s="67"/>
       <c r="P14" s="65" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q14" s="65">
         <f>SUM(Q9:Q13)</f>
@@ -3025,41 +3033,41 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="G16" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="H16" s="65" t="s">
+        <v>146</v>
+      </c>
+      <c r="J16" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="E16" s="65" t="s">
+      <c r="K16" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="L16" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="M16" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="F16" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="G16" s="65" t="s">
-        <v>180</v>
-      </c>
-      <c r="H16" s="65" t="s">
-        <v>147</v>
-      </c>
-      <c r="J16" s="65" t="s">
-        <v>138</v>
-      </c>
-      <c r="K16" s="65" t="s">
-        <v>179</v>
-      </c>
-      <c r="L16" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="M16" s="65" t="s">
-        <v>180</v>
-      </c>
       <c r="N16" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P16" s="64"/>
       <c r="Q16" s="64"/>
     </row>
     <row r="17" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D17" s="66" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E17" s="66" t="str">
         <f>master!B13</f>
@@ -3071,7 +3079,7 @@
         <v>5</v>
       </c>
       <c r="J17" s="66" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K17" s="66" t="str">
         <f>master!F13</f>
@@ -3087,7 +3095,7 @@
     </row>
     <row r="18" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D18" s="66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E18" s="66" t="str">
         <f>master!B14</f>
@@ -3099,7 +3107,7 @@
         <v>4</v>
       </c>
       <c r="J18" s="66" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K18" s="66" t="str">
         <f>master!F14</f>
@@ -3115,7 +3123,7 @@
     </row>
     <row r="19" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D19" s="66" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E19" s="66" t="str">
         <f>master!B15</f>
@@ -3132,7 +3140,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="66" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K19" s="66" t="str">
         <f>master!F15</f>
@@ -3153,7 +3161,7 @@
     </row>
     <row r="20" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D20" s="66" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E20" s="66" t="str">
         <f>master!B16</f>
@@ -3165,7 +3173,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="66" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K20" s="66" t="str">
         <f>master!F16</f>
@@ -3199,40 +3207,40 @@
     </row>
     <row r="23" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D23" s="65" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E23" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="F23" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="G23" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="F23" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="G23" s="65" t="s">
-        <v>180</v>
-      </c>
       <c r="H23" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I23" s="67"/>
       <c r="J23" s="65" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K23" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="L23" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="M23" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="L23" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="M23" s="65" t="s">
-        <v>180</v>
-      </c>
       <c r="N23" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D24" s="66" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E24" s="66" t="str">
         <f>master!B19</f>
@@ -3245,7 +3253,7 @@
       </c>
       <c r="I24" s="64"/>
       <c r="J24" s="66" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K24" s="66" t="str">
         <f>master!F19</f>
@@ -3259,7 +3267,7 @@
     </row>
     <row r="25" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D25" s="66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E25" s="66" t="str">
         <f>master!B20</f>
@@ -3272,7 +3280,7 @@
       </c>
       <c r="I25" s="64"/>
       <c r="J25" s="66" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K25" s="66" t="str">
         <f>master!F20</f>
@@ -3286,7 +3294,7 @@
     </row>
     <row r="26" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D26" s="66" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E26" s="66" t="str">
         <f>master!B21</f>
@@ -3304,7 +3312,7 @@
       </c>
       <c r="I26" s="64"/>
       <c r="J26" s="66" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K26" s="66" t="str">
         <f>master!F21</f>
@@ -3323,7 +3331,7 @@
     </row>
     <row r="27" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D27" s="66" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E27" s="66" t="str">
         <f>master!B22</f>
@@ -3336,7 +3344,7 @@
       </c>
       <c r="I27" s="64"/>
       <c r="J27" s="66" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K27" s="66" t="str">
         <f>master!F22</f>
@@ -3371,49 +3379,49 @@
     <row r="30" spans="4:20" x14ac:dyDescent="0.2">
       <c r="I30" s="64"/>
       <c r="J30" s="66" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K30" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="L30" s="65" t="s">
+        <v>233</v>
+      </c>
+      <c r="R30" s="65" t="s">
+        <v>237</v>
+      </c>
+      <c r="S30" s="66" t="s">
         <v>205</v>
       </c>
-      <c r="L30" s="65" t="s">
-        <v>234</v>
-      </c>
-      <c r="R30" s="65" t="s">
-        <v>238</v>
-      </c>
-      <c r="S30" s="66" t="s">
-        <v>206</v>
-      </c>
       <c r="T30" s="85" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="4:20" x14ac:dyDescent="0.2">
       <c r="I31" s="64"/>
       <c r="J31" s="76" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K31" s="66" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L31" s="92" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M31" s="67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q31" s="67" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R31" s="93" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="S31" s="66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="T31" s="76" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="4:20" x14ac:dyDescent="0.2">
@@ -3422,10 +3430,10 @@
       <c r="K32" s="67"/>
       <c r="L32" s="64"/>
       <c r="M32" s="117" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Q32" s="92" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="S32" s="66"/>
       <c r="T32" s="66"/>
@@ -3433,57 +3441,57 @@
     <row r="33" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I33" s="64"/>
       <c r="J33" s="70" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K33" s="66" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L33" s="65" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M33" s="118"/>
       <c r="O33" s="65" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q33" s="84"/>
       <c r="R33" s="90" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S33" s="66" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T33" s="70" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I34" s="67"/>
       <c r="J34" s="70" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K34" s="87" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L34" s="92" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N34" s="65" t="s">
+        <v>224</v>
+      </c>
+      <c r="O34" s="92" t="s">
+        <v>223</v>
+      </c>
+      <c r="P34" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="O34" s="92" t="s">
-        <v>224</v>
-      </c>
-      <c r="P34" s="65" t="s">
-        <v>226</v>
-      </c>
       <c r="R34" s="93" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="S34" s="66" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T34" s="70" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="9:20" x14ac:dyDescent="0.2">
@@ -3491,61 +3499,61 @@
       <c r="K35" s="67"/>
       <c r="L35" s="64"/>
       <c r="N35" s="92" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O35" s="84"/>
       <c r="P35" s="92" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="S35" s="66"/>
       <c r="T35" s="66"/>
     </row>
     <row r="36" spans="9:20" x14ac:dyDescent="0.2">
       <c r="J36" s="66" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K36" s="66" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L36" s="65" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N36" s="84"/>
       <c r="P36" s="84"/>
       <c r="R36" s="65" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="S36" s="66" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="T36" s="66" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="9:20" x14ac:dyDescent="0.2">
       <c r="J37" s="76" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K37" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L37" s="92" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M37" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Q37" s="65" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="R37" s="93" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S37" s="66" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T37" s="76" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="9:20" x14ac:dyDescent="0.2">
@@ -3553,54 +3561,54 @@
       <c r="K38" s="64"/>
       <c r="L38" s="64"/>
       <c r="M38" s="117" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q38" s="92" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="S38" s="66"/>
       <c r="T38" s="66"/>
     </row>
     <row r="39" spans="9:20" x14ac:dyDescent="0.2">
       <c r="J39" s="70" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K39" s="66" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L39" s="65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M39" s="118"/>
       <c r="Q39" s="84"/>
       <c r="R39" s="65" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="S39" s="66" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T39" s="70" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="9:20" x14ac:dyDescent="0.2">
       <c r="J40" s="70" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K40" s="87" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L40" s="92" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R40" s="93" t="s">
+        <v>250</v>
+      </c>
+      <c r="S40" s="66" t="s">
         <v>251</v>
       </c>
-      <c r="S40" s="66" t="s">
-        <v>252</v>
-      </c>
       <c r="T40" s="70" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="9:20" x14ac:dyDescent="0.2">
@@ -3608,66 +3616,66 @@
       <c r="K41" s="64"/>
     </row>
     <row r="42" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="J42" s="116" t="s">
-        <v>255</v>
-      </c>
-      <c r="K42" s="116"/>
-      <c r="L42" s="116"/>
-      <c r="M42" s="116"/>
-      <c r="N42" s="116"/>
-      <c r="O42" s="116"/>
-      <c r="P42" s="116"/>
-      <c r="Q42" s="116"/>
-      <c r="R42" s="116"/>
-      <c r="S42" s="116"/>
-      <c r="T42" s="116"/>
+      <c r="J42" s="114" t="s">
+        <v>254</v>
+      </c>
+      <c r="K42" s="114"/>
+      <c r="L42" s="114"/>
+      <c r="M42" s="114"/>
+      <c r="N42" s="114"/>
+      <c r="O42" s="114"/>
+      <c r="P42" s="114"/>
+      <c r="Q42" s="114"/>
+      <c r="R42" s="114"/>
+      <c r="S42" s="114"/>
+      <c r="T42" s="114"/>
     </row>
     <row r="43" spans="9:20" x14ac:dyDescent="0.2">
       <c r="J43" s="66" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K43" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="L43" s="74" t="s">
+        <v>233</v>
+      </c>
+      <c r="R43" s="74" t="s">
+        <v>237</v>
+      </c>
+      <c r="S43" s="85" t="s">
         <v>205</v>
       </c>
-      <c r="L43" s="74" t="s">
-        <v>234</v>
-      </c>
-      <c r="R43" s="74" t="s">
-        <v>238</v>
-      </c>
-      <c r="S43" s="85" t="s">
-        <v>206</v>
-      </c>
       <c r="T43" s="85" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="44" spans="9:20" x14ac:dyDescent="0.2">
       <c r="J44" s="76" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K44" s="66" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L44" s="91" t="str">
         <f>master!F26</f>
         <v>england</v>
       </c>
       <c r="M44" s="67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q44" s="67" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R44" s="76" t="str">
         <f>master!L26</f>
         <v>germany</v>
       </c>
       <c r="S44" s="66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="T44" s="76" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="9:20" x14ac:dyDescent="0.2">
@@ -3677,11 +3685,11 @@
         <f>IF(L44=L31,2,0)</f>
         <v>0</v>
       </c>
-      <c r="M45" s="113" t="str">
+      <c r="M45" s="111" t="str">
         <f>master!G27</f>
         <v>england</v>
       </c>
-      <c r="Q45" s="113" t="str">
+      <c r="Q45" s="111" t="str">
         <f>master!K27</f>
         <v>france</v>
       </c>
@@ -3694,35 +3702,35 @@
     </row>
     <row r="46" spans="9:20" x14ac:dyDescent="0.2">
       <c r="J46" s="70" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K46" s="66" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L46" s="65" t="s">
-        <v>235</v>
-      </c>
-      <c r="M46" s="114"/>
+        <v>234</v>
+      </c>
+      <c r="M46" s="112"/>
       <c r="O46" s="65" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q46" s="119"/>
       <c r="R46" s="90" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S46" s="66" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T46" s="70" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="9:20" x14ac:dyDescent="0.2">
       <c r="J47" s="70" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K47" s="87" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L47" s="91" t="str">
         <f>master!F29</f>
@@ -3733,14 +3741,14 @@
         <v>0</v>
       </c>
       <c r="N47" s="65" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O47" s="91" t="str">
         <f>master!I29</f>
         <v>france</v>
       </c>
       <c r="P47" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q47" s="64">
         <f>IF(Q45=Q32,4,0)</f>
@@ -3751,10 +3759,10 @@
         <v>france</v>
       </c>
       <c r="S47" s="66" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T47" s="70" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48" spans="9:20" x14ac:dyDescent="0.2">
@@ -3782,13 +3790,13 @@
     </row>
     <row r="49" spans="10:20" x14ac:dyDescent="0.2">
       <c r="J49" s="66" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K49" s="66" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L49" s="65" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N49" s="84"/>
       <c r="O49" s="64">
@@ -3797,28 +3805,28 @@
       </c>
       <c r="P49" s="84"/>
       <c r="R49" s="65" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="S49" s="66" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="T49" s="66" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50" spans="10:20" x14ac:dyDescent="0.2">
       <c r="J50" s="76" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K50" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L50" s="91" t="str">
         <f>master!F32</f>
         <v>belgium</v>
       </c>
       <c r="M50" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N50" s="64">
         <f>IF(N48=N35,6,0)</f>
@@ -3829,17 +3837,17 @@
         <v>6</v>
       </c>
       <c r="Q50" s="65" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="R50" s="76" t="str">
         <f>master!L32</f>
         <v>argentina</v>
       </c>
       <c r="S50" s="66" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T50" s="76" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="51" spans="10:20" x14ac:dyDescent="0.2">
@@ -3849,11 +3857,11 @@
         <f>IF(L50=L37,2,0)</f>
         <v>2</v>
       </c>
-      <c r="M51" s="113" t="str">
+      <c r="M51" s="111" t="str">
         <f>master!G33</f>
         <v>spain</v>
       </c>
-      <c r="Q51" s="113" t="str">
+      <c r="Q51" s="111" t="str">
         <f>master!K33</f>
         <v>usa</v>
       </c>
@@ -3866,32 +3874,32 @@
     </row>
     <row r="52" spans="10:20" x14ac:dyDescent="0.2">
       <c r="J52" s="70" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K52" s="66" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L52" s="65" t="s">
-        <v>237</v>
-      </c>
-      <c r="M52" s="114"/>
+        <v>236</v>
+      </c>
+      <c r="M52" s="112"/>
       <c r="Q52" s="119"/>
       <c r="R52" s="65" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="S52" s="66" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T52" s="70" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53" spans="10:20" x14ac:dyDescent="0.2">
       <c r="J53" s="70" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K53" s="87" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L53" s="91" t="str">
         <f>master!F35</f>
@@ -3910,10 +3918,10 @@
         <v>usa</v>
       </c>
       <c r="S53" s="66" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T53" s="70" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="54" spans="10:20" x14ac:dyDescent="0.2">
@@ -3966,6 +3974,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
     <mergeCell ref="M51:M52"/>
     <mergeCell ref="Q51:Q52"/>
     <mergeCell ref="M32:M33"/>
@@ -3973,11 +3986,6 @@
     <mergeCell ref="J42:T42"/>
     <mergeCell ref="M45:M46"/>
     <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <conditionalFormatting sqref="H10 N10 H17 N17 H24 N24">
     <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
@@ -4053,21 +4061,21 @@
       <c r="A1" s="11"/>
       <c r="B1" s="75"/>
       <c r="H1" s="66" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="70">
         <v>5</v>
       </c>
-      <c r="B2" s="112" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
+      <c r="B2" s="115" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
       <c r="H2" s="66">
         <v>5</v>
       </c>
@@ -4076,14 +4084,14 @@
       <c r="A3" s="78">
         <v>4</v>
       </c>
-      <c r="B3" s="112" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
+      <c r="B3" s="115" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
       <c r="H3" s="66">
         <v>4</v>
       </c>
@@ -4092,14 +4100,14 @@
       <c r="A4" s="73">
         <v>3</v>
       </c>
-      <c r="B4" s="112" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
+      <c r="B4" s="115" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
       <c r="H4" s="66">
         <v>3</v>
       </c>
@@ -4108,14 +4116,14 @@
       <c r="A5" s="79">
         <v>2</v>
       </c>
-      <c r="B5" s="112" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
+      <c r="B5" s="115" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
       <c r="H5" s="66">
         <v>2</v>
       </c>
@@ -4124,53 +4132,53 @@
       <c r="A6" s="71">
         <v>1</v>
       </c>
-      <c r="B6" s="112" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
+      <c r="B6" s="115" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
       <c r="H6" s="66">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D9" s="65" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E9" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="F9" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="G9" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="F9" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="G9" s="65" t="s">
-        <v>180</v>
-      </c>
       <c r="H9" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I9" s="67"/>
       <c r="J9" s="65" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K9" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="L9" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="M9" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="L9" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="M9" s="65" t="s">
-        <v>180</v>
-      </c>
       <c r="N9" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O9" s="67"/>
       <c r="P9" s="66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q9" s="66">
         <f>H14+N14+H21+N21+H28+N28</f>
@@ -4179,7 +4187,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D10" s="66" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E10" s="66" t="str">
         <f>master!B7</f>
@@ -4192,7 +4200,7 @@
       </c>
       <c r="I10" s="64"/>
       <c r="J10" s="66" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K10" s="66" t="str">
         <f>master!F7</f>
@@ -4205,7 +4213,7 @@
       </c>
       <c r="O10" s="64"/>
       <c r="P10" s="66" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q10" s="66">
         <f>L56+R56</f>
@@ -4214,7 +4222,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D11" s="66" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E11" s="66" t="str">
         <f>master!B8</f>
@@ -4227,7 +4235,7 @@
       </c>
       <c r="I11" s="64"/>
       <c r="J11" s="66" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K11" s="66" t="str">
         <f>master!F8</f>
@@ -4240,7 +4248,7 @@
       </c>
       <c r="O11" s="64"/>
       <c r="P11" s="66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q11" s="66">
         <f>M56+Q56</f>
@@ -4249,7 +4257,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D12" s="66" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E12" s="66" t="str">
         <f>master!B9</f>
@@ -4267,7 +4275,7 @@
       </c>
       <c r="I12" s="64"/>
       <c r="J12" s="66" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K12" s="66" t="str">
         <f>master!F9</f>
@@ -4285,7 +4293,7 @@
       </c>
       <c r="O12" s="64"/>
       <c r="P12" s="66" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q12" s="66">
         <f>N56+P56</f>
@@ -4294,7 +4302,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D13" s="66" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E13" s="66" t="str">
         <f>master!B10</f>
@@ -4307,7 +4315,7 @@
       </c>
       <c r="I13" s="64"/>
       <c r="J13" s="66" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K13" s="66" t="str">
         <f>master!F10</f>
@@ -4320,7 +4328,7 @@
       </c>
       <c r="O13" s="64"/>
       <c r="P13" s="66" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q13" s="66">
         <f>O56</f>
@@ -4345,7 +4353,7 @@
       </c>
       <c r="O14" s="67"/>
       <c r="P14" s="65" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q14" s="65">
         <f>SUM(Q9:Q13)</f>
@@ -4368,41 +4376,41 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="G16" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="H16" s="65" t="s">
+        <v>146</v>
+      </c>
+      <c r="J16" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="E16" s="65" t="s">
+      <c r="K16" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="L16" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="M16" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="F16" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="G16" s="65" t="s">
-        <v>180</v>
-      </c>
-      <c r="H16" s="65" t="s">
-        <v>147</v>
-      </c>
-      <c r="J16" s="65" t="s">
-        <v>138</v>
-      </c>
-      <c r="K16" s="65" t="s">
-        <v>179</v>
-      </c>
-      <c r="L16" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="M16" s="65" t="s">
-        <v>180</v>
-      </c>
       <c r="N16" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P16" s="64"/>
       <c r="Q16" s="64"/>
     </row>
     <row r="17" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D17" s="66" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E17" s="66" t="str">
         <f>master!B13</f>
@@ -4414,7 +4422,7 @@
         <v>5</v>
       </c>
       <c r="J17" s="66" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K17" s="66" t="str">
         <f>master!F13</f>
@@ -4430,7 +4438,7 @@
     </row>
     <row r="18" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D18" s="66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E18" s="66" t="str">
         <f>master!B14</f>
@@ -4442,7 +4450,7 @@
         <v>4</v>
       </c>
       <c r="J18" s="66" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K18" s="66" t="str">
         <f>master!F14</f>
@@ -4458,7 +4466,7 @@
     </row>
     <row r="19" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D19" s="66" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E19" s="66" t="str">
         <f>master!B15</f>
@@ -4475,7 +4483,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="66" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K19" s="66" t="str">
         <f>master!F15</f>
@@ -4496,7 +4504,7 @@
     </row>
     <row r="20" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D20" s="66" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E20" s="66" t="str">
         <f>master!B16</f>
@@ -4508,7 +4516,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="66" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K20" s="66" t="str">
         <f>master!F16</f>
@@ -4542,40 +4550,40 @@
     </row>
     <row r="23" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D23" s="65" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E23" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="F23" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="G23" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="F23" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="G23" s="65" t="s">
-        <v>180</v>
-      </c>
       <c r="H23" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I23" s="67"/>
       <c r="J23" s="65" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K23" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="L23" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="M23" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="L23" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="M23" s="65" t="s">
-        <v>180</v>
-      </c>
       <c r="N23" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D24" s="66" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E24" s="66" t="str">
         <f>master!B19</f>
@@ -4588,7 +4596,7 @@
       </c>
       <c r="I24" s="64"/>
       <c r="J24" s="66" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K24" s="66" t="str">
         <f>master!F19</f>
@@ -4602,7 +4610,7 @@
     </row>
     <row r="25" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D25" s="66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E25" s="66" t="str">
         <f>master!B20</f>
@@ -4615,7 +4623,7 @@
       </c>
       <c r="I25" s="64"/>
       <c r="J25" s="66" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K25" s="66" t="str">
         <f>master!F20</f>
@@ -4629,7 +4637,7 @@
     </row>
     <row r="26" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D26" s="66" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E26" s="66" t="str">
         <f>master!B21</f>
@@ -4647,7 +4655,7 @@
       </c>
       <c r="I26" s="64"/>
       <c r="J26" s="66" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K26" s="66" t="str">
         <f>master!F21</f>
@@ -4666,7 +4674,7 @@
     </row>
     <row r="27" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D27" s="66" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E27" s="66" t="str">
         <f>master!B22</f>
@@ -4679,7 +4687,7 @@
       </c>
       <c r="I27" s="64"/>
       <c r="J27" s="66" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K27" s="66" t="str">
         <f>master!F22</f>
@@ -4714,49 +4722,49 @@
     <row r="30" spans="4:20" x14ac:dyDescent="0.2">
       <c r="I30" s="64"/>
       <c r="J30" s="66" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K30" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="L30" s="65" t="s">
+        <v>233</v>
+      </c>
+      <c r="R30" s="65" t="s">
+        <v>237</v>
+      </c>
+      <c r="S30" s="66" t="s">
         <v>205</v>
       </c>
-      <c r="L30" s="65" t="s">
-        <v>234</v>
-      </c>
-      <c r="R30" s="65" t="s">
-        <v>238</v>
-      </c>
-      <c r="S30" s="66" t="s">
-        <v>206</v>
-      </c>
       <c r="T30" s="85" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="4:20" x14ac:dyDescent="0.2">
       <c r="I31" s="64"/>
       <c r="J31" s="76" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K31" s="66" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L31" s="92" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M31" s="67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q31" s="67" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R31" s="93" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="S31" s="66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="T31" s="76" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="4:20" x14ac:dyDescent="0.2">
@@ -4765,10 +4773,10 @@
       <c r="K32" s="67"/>
       <c r="L32" s="64"/>
       <c r="M32" s="117" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Q32" s="92" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="S32" s="66"/>
       <c r="T32" s="66"/>
@@ -4776,57 +4784,57 @@
     <row r="33" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I33" s="64"/>
       <c r="J33" s="70" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K33" s="66" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L33" s="65" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M33" s="118"/>
       <c r="O33" s="65" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q33" s="84"/>
       <c r="R33" s="90" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S33" s="66" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T33" s="70" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I34" s="67"/>
       <c r="J34" s="70" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K34" s="87" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L34" s="92" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N34" s="65" t="s">
+        <v>224</v>
+      </c>
+      <c r="O34" s="92" t="s">
+        <v>201</v>
+      </c>
+      <c r="P34" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="O34" s="92" t="s">
-        <v>202</v>
-      </c>
-      <c r="P34" s="65" t="s">
-        <v>226</v>
-      </c>
       <c r="R34" s="93" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="S34" s="66" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T34" s="70" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="9:20" x14ac:dyDescent="0.2">
@@ -4834,61 +4842,61 @@
       <c r="K35" s="67"/>
       <c r="L35" s="64"/>
       <c r="N35" s="92" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O35" s="84"/>
       <c r="P35" s="92" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="S35" s="66"/>
       <c r="T35" s="66"/>
     </row>
     <row r="36" spans="9:20" x14ac:dyDescent="0.2">
       <c r="J36" s="66" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K36" s="66" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L36" s="65" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N36" s="84"/>
       <c r="P36" s="84"/>
       <c r="R36" s="65" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="S36" s="66" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="T36" s="66" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="9:20" x14ac:dyDescent="0.2">
       <c r="J37" s="76" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K37" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L37" s="92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M37" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Q37" s="65" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="R37" s="93" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="S37" s="66" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T37" s="76" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="9:20" x14ac:dyDescent="0.2">
@@ -4896,54 +4904,54 @@
       <c r="K38" s="64"/>
       <c r="L38" s="64"/>
       <c r="M38" s="117" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q38" s="92" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="S38" s="66"/>
       <c r="T38" s="66"/>
     </row>
     <row r="39" spans="9:20" x14ac:dyDescent="0.2">
       <c r="J39" s="70" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K39" s="66" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L39" s="65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M39" s="118"/>
       <c r="Q39" s="84"/>
       <c r="R39" s="65" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="S39" s="66" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T39" s="70" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="9:20" x14ac:dyDescent="0.2">
       <c r="J40" s="70" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K40" s="87" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L40" s="92" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R40" s="93" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S40" s="66" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T40" s="70" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="9:20" x14ac:dyDescent="0.2">
@@ -4951,66 +4959,66 @@
       <c r="K41" s="64"/>
     </row>
     <row r="42" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="J42" s="116" t="s">
-        <v>255</v>
-      </c>
-      <c r="K42" s="116"/>
-      <c r="L42" s="116"/>
-      <c r="M42" s="116"/>
-      <c r="N42" s="116"/>
-      <c r="O42" s="116"/>
-      <c r="P42" s="116"/>
-      <c r="Q42" s="116"/>
-      <c r="R42" s="116"/>
-      <c r="S42" s="116"/>
-      <c r="T42" s="116"/>
+      <c r="J42" s="114" t="s">
+        <v>254</v>
+      </c>
+      <c r="K42" s="114"/>
+      <c r="L42" s="114"/>
+      <c r="M42" s="114"/>
+      <c r="N42" s="114"/>
+      <c r="O42" s="114"/>
+      <c r="P42" s="114"/>
+      <c r="Q42" s="114"/>
+      <c r="R42" s="114"/>
+      <c r="S42" s="114"/>
+      <c r="T42" s="114"/>
     </row>
     <row r="43" spans="9:20" x14ac:dyDescent="0.2">
       <c r="J43" s="66" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K43" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="L43" s="74" t="s">
+        <v>233</v>
+      </c>
+      <c r="R43" s="74" t="s">
+        <v>237</v>
+      </c>
+      <c r="S43" s="85" t="s">
         <v>205</v>
       </c>
-      <c r="L43" s="74" t="s">
-        <v>234</v>
-      </c>
-      <c r="R43" s="74" t="s">
-        <v>238</v>
-      </c>
-      <c r="S43" s="85" t="s">
-        <v>206</v>
-      </c>
       <c r="T43" s="85" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="44" spans="9:20" x14ac:dyDescent="0.2">
       <c r="J44" s="76" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K44" s="66" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L44" s="91" t="str">
         <f>master!F26</f>
         <v>england</v>
       </c>
       <c r="M44" s="67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q44" s="67" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R44" s="76" t="str">
         <f>master!L26</f>
         <v>germany</v>
       </c>
       <c r="S44" s="66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="T44" s="76" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="9:20" x14ac:dyDescent="0.2">
@@ -5020,11 +5028,11 @@
         <f>IF(L44=L31,2,0)</f>
         <v>2</v>
       </c>
-      <c r="M45" s="113" t="str">
+      <c r="M45" s="111" t="str">
         <f>master!G27</f>
         <v>england</v>
       </c>
-      <c r="Q45" s="113" t="str">
+      <c r="Q45" s="111" t="str">
         <f>master!K27</f>
         <v>france</v>
       </c>
@@ -5037,35 +5045,35 @@
     </row>
     <row r="46" spans="9:20" x14ac:dyDescent="0.2">
       <c r="J46" s="70" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K46" s="66" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L46" s="65" t="s">
-        <v>235</v>
-      </c>
-      <c r="M46" s="114"/>
+        <v>234</v>
+      </c>
+      <c r="M46" s="112"/>
       <c r="O46" s="65" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q46" s="119"/>
       <c r="R46" s="90" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S46" s="66" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T46" s="70" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="9:20" x14ac:dyDescent="0.2">
       <c r="J47" s="70" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K47" s="87" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L47" s="91" t="str">
         <f>master!F29</f>
@@ -5076,14 +5084,14 @@
         <v>0</v>
       </c>
       <c r="N47" s="65" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O47" s="91" t="str">
         <f>master!I29</f>
         <v>france</v>
       </c>
       <c r="P47" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q47" s="64">
         <f>IF(Q45=Q32,4,0)</f>
@@ -5094,10 +5102,10 @@
         <v>france</v>
       </c>
       <c r="S47" s="66" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T47" s="70" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48" spans="9:20" x14ac:dyDescent="0.2">
@@ -5125,13 +5133,13 @@
     </row>
     <row r="49" spans="10:20" x14ac:dyDescent="0.2">
       <c r="J49" s="66" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K49" s="66" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L49" s="65" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N49" s="84"/>
       <c r="O49" s="64">
@@ -5140,28 +5148,28 @@
       </c>
       <c r="P49" s="84"/>
       <c r="R49" s="65" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="S49" s="66" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="T49" s="66" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50" spans="10:20" x14ac:dyDescent="0.2">
       <c r="J50" s="76" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K50" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L50" s="91" t="str">
         <f>master!F32</f>
         <v>belgium</v>
       </c>
       <c r="M50" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N50" s="64">
         <f>IF(N48=N35,6,0)</f>
@@ -5172,17 +5180,17 @@
         <v>0</v>
       </c>
       <c r="Q50" s="65" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="R50" s="76" t="str">
         <f>master!L32</f>
         <v>argentina</v>
       </c>
       <c r="S50" s="66" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T50" s="76" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="51" spans="10:20" x14ac:dyDescent="0.2">
@@ -5192,11 +5200,11 @@
         <f>IF(L50=L37,2,0)</f>
         <v>0</v>
       </c>
-      <c r="M51" s="113" t="str">
+      <c r="M51" s="111" t="str">
         <f>master!G33</f>
         <v>spain</v>
       </c>
-      <c r="Q51" s="113" t="str">
+      <c r="Q51" s="111" t="str">
         <f>master!K33</f>
         <v>usa</v>
       </c>
@@ -5209,32 +5217,32 @@
     </row>
     <row r="52" spans="10:20" x14ac:dyDescent="0.2">
       <c r="J52" s="70" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K52" s="66" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L52" s="65" t="s">
-        <v>237</v>
-      </c>
-      <c r="M52" s="114"/>
+        <v>236</v>
+      </c>
+      <c r="M52" s="112"/>
       <c r="Q52" s="119"/>
       <c r="R52" s="65" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="S52" s="66" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T52" s="70" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53" spans="10:20" x14ac:dyDescent="0.2">
       <c r="J53" s="70" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K53" s="87" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L53" s="91" t="str">
         <f>master!F35</f>
@@ -5253,10 +5261,10 @@
         <v>usa</v>
       </c>
       <c r="S53" s="66" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T53" s="70" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="54" spans="10:20" x14ac:dyDescent="0.2">
@@ -5309,6 +5317,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
     <mergeCell ref="M51:M52"/>
     <mergeCell ref="Q51:Q52"/>
     <mergeCell ref="M32:M33"/>
@@ -5316,11 +5329,6 @@
     <mergeCell ref="J42:T42"/>
     <mergeCell ref="M45:M46"/>
     <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <conditionalFormatting sqref="H10 N10 H17 N17 H24 N24">
     <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
@@ -5388,55 +5396,55 @@
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I1" s="82"/>
       <c r="J1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="114" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="116" t="s">
-        <v>229</v>
-      </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="122" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B3" s="85" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C3" s="86" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D3" s="83"/>
       <c r="E3" s="86" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F3" s="85" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G3" s="122" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="121"/>
       <c r="B4" s="76" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D4" s="83"/>
       <c r="E4" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F4" s="76" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G4" s="121"/>
     </row>
@@ -5449,39 +5457,39 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="120" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D6" s="83"/>
       <c r="E6" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F6" s="70" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G6" s="120" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="121"/>
       <c r="B7" s="70" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D7" s="83"/>
       <c r="E7" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F7" s="70" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G7" s="121"/>
     </row>
@@ -5494,39 +5502,39 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="120" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B9" s="66" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D9" s="83"/>
       <c r="E9" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F9" s="66" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G9" s="120" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="121"/>
       <c r="B10" s="76" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D10" s="83"/>
       <c r="E10" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F10" s="76" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G10" s="121"/>
     </row>
@@ -5539,88 +5547,88 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="120" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B12" s="70" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D12" s="83"/>
       <c r="E12" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F12" s="70" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G12" s="120" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="121"/>
       <c r="B13" s="70" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D13" s="83"/>
       <c r="E13" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F13" s="70" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G13" s="121"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="116" t="s">
-        <v>242</v>
-      </c>
-      <c r="B16" s="116"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
+      <c r="A16" s="114" t="s">
+        <v>241</v>
+      </c>
+      <c r="B16" s="114"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="120" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B17" s="85" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C17" s="86" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D17" s="83"/>
       <c r="E17" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F17" s="85" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G17" s="120" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="121"/>
       <c r="B18" s="76" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D18" s="83"/>
       <c r="E18" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F18" s="76" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G18" s="121"/>
     </row>
@@ -5633,39 +5641,39 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="120" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B20" s="70" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D20" s="83"/>
       <c r="E20" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F20" s="70" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G20" s="120" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="121"/>
       <c r="B21" s="70" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D21" s="83"/>
       <c r="E21" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F21" s="70" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G21" s="121"/>
     </row>
@@ -5678,39 +5686,39 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="120" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B23" s="66" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D23" s="83"/>
       <c r="E23" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F23" s="66" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G23" s="120" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="121"/>
       <c r="B24" s="76" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D24" s="83"/>
       <c r="E24" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F24" s="76" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G24" s="121"/>
     </row>
@@ -5723,49 +5731,44 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="120" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B26" s="70" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D26" s="83"/>
       <c r="E26" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F26" s="70" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G26" s="120" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="121"/>
       <c r="B27" s="70" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D27" s="83"/>
       <c r="E27" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F27" s="70" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G27" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="G3:G4"/>
@@ -5779,6 +5782,11 @@
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6546,54 +6554,54 @@
   <sheetData>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="65" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D6" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E6" s="67"/>
       <c r="F6" s="65" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G6" s="65" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H6" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="66" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C7" s="66"/>
       <c r="D7" s="66"/>
       <c r="E7" s="64"/>
       <c r="F7" s="66" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G7" s="66"/>
       <c r="H7" s="66"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="66" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C8" s="66"/>
       <c r="D8" s="66"/>
       <c r="E8" s="64"/>
       <c r="F8" s="66" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G8" s="66"/>
       <c r="H8" s="66"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="66" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C9" s="66">
         <v>1</v>
@@ -6601,7 +6609,7 @@
       <c r="D9" s="66"/>
       <c r="E9" s="64"/>
       <c r="F9" s="66" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G9" s="66">
         <v>1</v>
@@ -6610,13 +6618,13 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="66" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C10" s="66"/>
       <c r="D10" s="66"/>
       <c r="E10" s="64"/>
       <c r="F10" s="66" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G10" s="66"/>
       <c r="H10" s="66"/>
@@ -6632,58 +6640,58 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="D12" s="65" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="C12" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="D12" s="65" t="s">
-        <v>147</v>
-      </c>
-      <c r="F12" s="65" t="s">
-        <v>138</v>
-      </c>
       <c r="G12" s="65" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H12" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="66" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C13" s="66"/>
       <c r="D13" s="66"/>
       <c r="F13" s="66" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G13" s="66"/>
       <c r="H13" s="66"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14" s="66"/>
       <c r="D14" s="66"/>
       <c r="F14" s="66" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G14" s="66"/>
       <c r="H14" s="66"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="66" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C15" s="66">
         <v>0</v>
       </c>
       <c r="D15" s="66"/>
       <c r="F15" s="66" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G15" s="66">
         <v>1</v>
@@ -6692,12 +6700,12 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="66" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C16" s="66"/>
       <c r="D16" s="66"/>
       <c r="F16" s="66" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G16" s="66"/>
       <c r="H16" s="66"/>
@@ -6707,54 +6715,54 @@
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="65" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D18" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E18" s="67"/>
       <c r="F18" s="65" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G18" s="65" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H18" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C19" s="66"/>
       <c r="D19" s="66"/>
       <c r="E19" s="64"/>
       <c r="F19" s="66" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G19" s="66"/>
       <c r="H19" s="66"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="66" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" s="66"/>
       <c r="D20" s="66"/>
       <c r="E20" s="64"/>
       <c r="F20" s="66" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G20" s="66"/>
       <c r="H20" s="66"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="66" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C21" s="66">
         <v>0</v>
@@ -6762,7 +6770,7 @@
       <c r="D21" s="66"/>
       <c r="E21" s="64"/>
       <c r="F21" s="66" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G21" s="66">
         <v>1</v>
@@ -6771,61 +6779,61 @@
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="66" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C22" s="66"/>
       <c r="D22" s="66"/>
       <c r="E22" s="64"/>
       <c r="F22" s="66" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G22" s="66"/>
       <c r="H22" s="66"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D25" s="66" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E25" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="F25" s="65" t="s">
+        <v>233</v>
+      </c>
+      <c r="L25" s="65" t="s">
+        <v>237</v>
+      </c>
+      <c r="M25" s="66" t="s">
         <v>205</v>
       </c>
-      <c r="F25" s="65" t="s">
-        <v>234</v>
-      </c>
-      <c r="L25" s="65" t="s">
-        <v>238</v>
-      </c>
-      <c r="M25" s="66" t="s">
-        <v>206</v>
-      </c>
       <c r="N25" s="85" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D26" s="76" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E26" s="66" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F26" s="84" t="s">
+        <v>204</v>
+      </c>
+      <c r="G26" s="67" t="s">
+        <v>246</v>
+      </c>
+      <c r="K26" s="65" t="s">
+        <v>252</v>
+      </c>
+      <c r="L26" s="66" t="s">
         <v>205</v>
       </c>
-      <c r="G26" s="67" t="s">
-        <v>247</v>
-      </c>
-      <c r="K26" s="65" t="s">
-        <v>253</v>
-      </c>
-      <c r="L26" s="66" t="s">
-        <v>206</v>
-      </c>
       <c r="M26" s="66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N26" s="76" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
@@ -6833,66 +6841,66 @@
       <c r="E27" s="67"/>
       <c r="F27" s="64"/>
       <c r="G27" s="97" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K27" s="97" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M27" s="66"/>
       <c r="N27" s="66"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D28" s="70" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E28" s="66" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F28" s="65" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G28" s="110"/>
       <c r="I28" s="65" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K28" s="99"/>
       <c r="L28" s="90" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M28" s="66" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N28" s="70" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D29" s="70" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E29" s="87" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F29" s="84" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H29" s="65" t="s">
+        <v>224</v>
+      </c>
+      <c r="I29" s="84" t="s">
+        <v>223</v>
+      </c>
+      <c r="J29" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="I29" s="84" t="s">
-        <v>224</v>
-      </c>
-      <c r="J29" s="65" t="s">
-        <v>226</v>
-      </c>
       <c r="L29" s="66" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M29" s="66" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N29" s="70" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.2">
@@ -6900,61 +6908,61 @@
       <c r="E30" s="67"/>
       <c r="F30" s="64"/>
       <c r="H30" s="84" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="84" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M30" s="66"/>
       <c r="N30" s="66"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D31" s="66" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E31" s="66" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F31" s="65" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H31" s="84"/>
       <c r="J31" s="84"/>
       <c r="L31" s="65" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M31" s="66" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N31" s="66" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D32" s="76" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E32" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F32" s="84" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G32" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K32" s="65" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L32" s="66" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M32" s="66" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N32" s="76" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="4:14" x14ac:dyDescent="0.2">
@@ -6962,54 +6970,54 @@
       <c r="E33" s="64"/>
       <c r="F33" s="64"/>
       <c r="G33" s="97" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K33" s="97" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M33" s="66"/>
       <c r="N33" s="66"/>
     </row>
     <row r="34" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D34" s="70" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E34" s="66" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F34" s="65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G34" s="110"/>
       <c r="K34" s="99"/>
       <c r="L34" s="65" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M34" s="66" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N34" s="70" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D35" s="70" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E35" s="87" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F35" s="84" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L35" s="66" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M35" s="66" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N35" s="70" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -7052,19 +7060,19 @@
       <c r="A1" s="11"/>
       <c r="B1" s="75"/>
       <c r="L1" s="66" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="68"/>
-      <c r="B2" s="112" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
+      <c r="B2" s="115" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
@@ -7075,14 +7083,14 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="77"/>
-      <c r="B3" s="112" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
+      <c r="B3" s="115" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -7093,14 +7101,14 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="72"/>
-      <c r="B4" s="112" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
+      <c r="B4" s="115" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -7111,14 +7119,14 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="69"/>
-      <c r="B5" s="112" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
+      <c r="B5" s="115" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
@@ -7129,14 +7137,14 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="22"/>
-      <c r="B6" s="112" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
+      <c r="B6" s="115" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
@@ -7147,57 +7155,57 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D9" s="65" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E9" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="F9" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="G9" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="F9" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="G9" s="65" t="s">
+      <c r="H9" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="H9" s="65" t="s">
+      <c r="I9" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="I9" s="65" t="s">
+      <c r="J9" s="65" t="s">
         <v>182</v>
       </c>
-      <c r="J9" s="65" t="s">
+      <c r="K9" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="K9" s="65" t="s">
-        <v>184</v>
-      </c>
       <c r="L9" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M9" s="67"/>
       <c r="N9" s="65" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O9" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="P9" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q9" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="P9" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q9" s="65" t="s">
+      <c r="R9" s="65" t="s">
         <v>180</v>
-      </c>
-      <c r="R9" s="65" t="s">
-        <v>181</v>
       </c>
       <c r="S9" s="65"/>
       <c r="T9" s="65"/>
       <c r="U9" s="65"/>
       <c r="V9" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W9" s="67"/>
       <c r="X9" s="66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Y9" s="66">
         <f>L14+V14+L21+V21+L28+V28</f>
@@ -7206,7 +7214,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D10" s="76" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E10" s="66" t="str">
         <f>master!B7</f>
@@ -7227,7 +7235,7 @@
       </c>
       <c r="M10" s="64"/>
       <c r="N10" s="76" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O10" s="66" t="str">
         <f>master!F7</f>
@@ -7248,7 +7256,7 @@
       </c>
       <c r="W10" s="64"/>
       <c r="X10" s="66" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y10" s="66">
         <f>F57+V57</f>
@@ -7257,7 +7265,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D11" s="76" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E11" s="66" t="str">
         <f>master!B8</f>
@@ -7278,7 +7286,7 @@
       </c>
       <c r="M11" s="64"/>
       <c r="N11" s="76" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O11" s="66" t="str">
         <f>master!F8</f>
@@ -7299,7 +7307,7 @@
       </c>
       <c r="W11" s="64"/>
       <c r="X11" s="66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Y11" s="66">
         <f>G57+P57</f>
@@ -7308,7 +7316,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D12" s="76" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E12" s="66" t="str">
         <f>master!B9</f>
@@ -7343,7 +7351,7 @@
       </c>
       <c r="M12" s="64"/>
       <c r="N12" s="76" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O12" s="66" t="str">
         <f>master!F9</f>
@@ -7378,7 +7386,7 @@
       </c>
       <c r="W12" s="64"/>
       <c r="X12" s="66" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y12" s="66">
         <f>L57+O57</f>
@@ -7387,7 +7395,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D13" s="76" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E13" s="66" t="str">
         <f>master!B10</f>
@@ -7408,7 +7416,7 @@
       </c>
       <c r="M13" s="64"/>
       <c r="N13" s="76" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O13" s="66" t="str">
         <f>master!F10</f>
@@ -7429,7 +7437,7 @@
       </c>
       <c r="W13" s="64"/>
       <c r="X13" s="66" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Y13" s="66">
         <f>N50</f>
@@ -7462,7 +7470,7 @@
       </c>
       <c r="W14" s="67"/>
       <c r="X14" s="65" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y14" s="65">
         <f>SUM(Y9:Y13)</f>
@@ -7493,53 +7501,53 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E16" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="G16" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="F16" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="G16" s="65" t="s">
+      <c r="H16" s="65" t="s">
         <v>180</v>
-      </c>
-      <c r="H16" s="65" t="s">
-        <v>181</v>
       </c>
       <c r="I16" s="65"/>
       <c r="J16" s="65"/>
       <c r="K16" s="65"/>
       <c r="L16" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N16" s="65" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O16" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="P16" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q16" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="P16" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q16" s="65" t="s">
+      <c r="R16" s="65" t="s">
         <v>180</v>
-      </c>
-      <c r="R16" s="65" t="s">
-        <v>181</v>
       </c>
       <c r="S16" s="65"/>
       <c r="T16" s="65"/>
       <c r="U16" s="65"/>
       <c r="V16" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X16" s="64"/>
       <c r="Y16" s="64"/>
     </row>
     <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="D17" s="76" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E17" s="66" t="str">
         <f>master!B13</f>
@@ -7559,7 +7567,7 @@
         <v>5</v>
       </c>
       <c r="N17" s="76" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O17" s="66" t="str">
         <f>master!F13</f>
@@ -7583,7 +7591,7 @@
     </row>
     <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="D18" s="76" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E18" s="66" t="str">
         <f>master!B14</f>
@@ -7603,7 +7611,7 @@
         <v>4</v>
       </c>
       <c r="N18" s="76" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O18" s="66" t="str">
         <f>master!F14</f>
@@ -7627,7 +7635,7 @@
     </row>
     <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="D19" s="76" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E19" s="66" t="str">
         <f>master!B15</f>
@@ -7661,7 +7669,7 @@
         <v>1</v>
       </c>
       <c r="N19" s="76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O19" s="66" t="str">
         <f>master!F15</f>
@@ -7699,7 +7707,7 @@
     </row>
     <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="D20" s="76" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E20" s="66" t="str">
         <f>master!B16</f>
@@ -7719,7 +7727,7 @@
         <v>1</v>
       </c>
       <c r="N20" s="76" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O20" s="66" t="str">
         <f>master!F16</f>
@@ -7769,52 +7777,52 @@
     </row>
     <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="D23" s="65" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E23" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="F23" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="G23" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="F23" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="G23" s="65" t="s">
+      <c r="H23" s="65" t="s">
         <v>180</v>
-      </c>
-      <c r="H23" s="65" t="s">
-        <v>181</v>
       </c>
       <c r="I23" s="65"/>
       <c r="J23" s="65"/>
       <c r="K23" s="65"/>
       <c r="L23" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M23" s="67"/>
       <c r="N23" s="65" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O23" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="P23" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q23" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="P23" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q23" s="65" t="s">
+      <c r="R23" s="65" t="s">
         <v>180</v>
-      </c>
-      <c r="R23" s="65" t="s">
-        <v>181</v>
       </c>
       <c r="S23" s="65"/>
       <c r="T23" s="65"/>
       <c r="U23" s="65"/>
       <c r="V23" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="D24" s="76" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E24" s="66" t="str">
         <f>master!B19</f>
@@ -7835,7 +7843,7 @@
       </c>
       <c r="M24" s="64"/>
       <c r="N24" s="76" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O24" s="66" t="str">
         <f>master!F19</f>
@@ -7857,7 +7865,7 @@
     </row>
     <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="D25" s="76" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E25" s="66" t="str">
         <f>master!B20</f>
@@ -7878,7 +7886,7 @@
       </c>
       <c r="M25" s="64"/>
       <c r="N25" s="76" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O25" s="66" t="str">
         <f>master!F20</f>
@@ -7900,7 +7908,7 @@
     </row>
     <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="D26" s="76" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E26" s="66" t="str">
         <f>master!B21</f>
@@ -7935,7 +7943,7 @@
       </c>
       <c r="M26" s="64"/>
       <c r="N26" s="76" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O26" s="66" t="str">
         <f>master!F21</f>
@@ -7971,7 +7979,7 @@
     </row>
     <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="D27" s="76" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E27" s="66" t="str">
         <f>master!B22</f>
@@ -7992,7 +8000,7 @@
       </c>
       <c r="M27" s="64"/>
       <c r="N27" s="76" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O27" s="66" t="str">
         <f>master!F22</f>
@@ -8047,53 +8055,53 @@
       <c r="AE30" s="89"/>
     </row>
     <row r="31" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C31" s="111"/>
+      <c r="C31" s="116"/>
       <c r="D31" s="66" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E31" s="66" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F31" s="65" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M31" s="64"/>
       <c r="V31" s="65" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="W31" s="66" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="X31" s="85" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C32" s="111"/>
+      <c r="C32" s="116"/>
       <c r="D32" s="76" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E32" s="66" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F32" s="84" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G32" s="67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M32" s="64"/>
       <c r="P32" s="67" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="V32" s="66" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W32" s="66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="X32" s="76" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AE32" s="89"/>
     </row>
@@ -8103,71 +8111,71 @@
       <c r="E33" s="67"/>
       <c r="F33" s="64"/>
       <c r="G33" s="97" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M33" s="64"/>
       <c r="P33" s="101" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="W33" s="66"/>
       <c r="X33" s="66"/>
       <c r="AE33" s="89"/>
     </row>
     <row r="34" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C34" s="111"/>
+      <c r="C34" s="116"/>
       <c r="D34" s="70" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E34" s="66" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F34" s="65" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G34" s="110"/>
       <c r="M34" s="67"/>
       <c r="N34" s="65" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P34" s="101"/>
       <c r="V34" s="90" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="W34" s="66" t="s">
+        <v>223</v>
+      </c>
+      <c r="X34" s="70" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="35" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="C35" s="116"/>
+      <c r="D35" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="E35" s="87" t="s">
+        <v>232</v>
+      </c>
+      <c r="F35" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="L35" s="65" t="s">
         <v>224</v>
       </c>
-      <c r="X34" s="70" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="35" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C35" s="111"/>
-      <c r="D35" s="70" t="s">
-        <v>217</v>
-      </c>
-      <c r="E35" s="87" t="s">
-        <v>233</v>
-      </c>
-      <c r="F35" s="84" t="s">
-        <v>233</v>
-      </c>
-      <c r="L35" s="65" t="s">
+      <c r="N35" s="101" t="s">
+        <v>223</v>
+      </c>
+      <c r="O35" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="N35" s="101" t="s">
-        <v>224</v>
-      </c>
-      <c r="O35" s="65" t="s">
-        <v>226</v>
-      </c>
       <c r="V35" s="88" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="W35" s="66" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X35" s="70" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AE35" s="89"/>
     </row>
@@ -8177,198 +8185,198 @@
       <c r="E36" s="67"/>
       <c r="F36" s="64"/>
       <c r="L36" s="101" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N36" s="101"/>
       <c r="O36" s="101" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="W36" s="66"/>
       <c r="X36" s="66"/>
       <c r="AE36" s="89"/>
     </row>
     <row r="37" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C37" s="111"/>
+      <c r="C37" s="116"/>
       <c r="D37" s="66" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E37" s="66" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F37" s="65" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L37" s="101"/>
       <c r="O37" s="101"/>
       <c r="V37" s="65" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="W37" s="66" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="X37" s="66" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C38" s="111"/>
+      <c r="C38" s="116"/>
       <c r="D38" s="76" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E38" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F38" s="84" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G38" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P38" s="65" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="V38" s="66" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="W38" s="66" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="X38" s="76" t="s">
-        <v>227</v>
-      </c>
-      <c r="AE38" s="111"/>
+        <v>226</v>
+      </c>
+      <c r="AE38" s="116"/>
     </row>
     <row r="39" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C39"/>
       <c r="D39" s="88"/>
       <c r="F39" s="64"/>
       <c r="G39" s="97" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P39" s="101" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="W39" s="66"/>
       <c r="X39" s="66"/>
-      <c r="AE39" s="111"/>
+      <c r="AE39" s="116"/>
     </row>
     <row r="40" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C40" s="111"/>
+      <c r="C40" s="116"/>
       <c r="D40" s="70" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E40" s="66" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F40" s="65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G40" s="110"/>
       <c r="P40" s="101"/>
       <c r="V40" s="65" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="W40" s="66" t="s">
+        <v>250</v>
+      </c>
+      <c r="X40" s="70" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="41" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="C41" s="116"/>
+      <c r="D41" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="E41" s="87" t="s">
+        <v>201</v>
+      </c>
+      <c r="F41" s="84" t="s">
+        <v>201</v>
+      </c>
+      <c r="V41" s="66" t="s">
         <v>251</v>
       </c>
-      <c r="X40" s="70" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="41" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C41" s="111"/>
-      <c r="D41" s="70" t="s">
-        <v>223</v>
-      </c>
-      <c r="E41" s="87" t="s">
-        <v>202</v>
-      </c>
-      <c r="F41" s="84" t="s">
-        <v>202</v>
-      </c>
-      <c r="V41" s="66" t="s">
-        <v>252</v>
-      </c>
       <c r="W41" s="66" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="X41" s="70" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="D43" s="116" t="s">
-        <v>255</v>
-      </c>
-      <c r="E43" s="116"/>
-      <c r="F43" s="116"/>
-      <c r="G43" s="116"/>
-      <c r="H43" s="116"/>
-      <c r="I43" s="116"/>
-      <c r="J43" s="116"/>
-      <c r="K43" s="116"/>
-      <c r="L43" s="116"/>
-      <c r="M43" s="116"/>
-      <c r="N43" s="116"/>
-      <c r="O43" s="116"/>
-      <c r="P43" s="116"/>
-      <c r="Q43" s="116"/>
-      <c r="R43" s="116"/>
-      <c r="S43" s="116"/>
-      <c r="T43" s="116"/>
-      <c r="U43" s="116"/>
-      <c r="V43" s="116"/>
-      <c r="W43" s="116"/>
-      <c r="X43" s="116"/>
+      <c r="D43" s="114" t="s">
+        <v>254</v>
+      </c>
+      <c r="E43" s="114"/>
+      <c r="F43" s="114"/>
+      <c r="G43" s="114"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="114"/>
+      <c r="J43" s="114"/>
+      <c r="K43" s="114"/>
+      <c r="L43" s="114"/>
+      <c r="M43" s="114"/>
+      <c r="N43" s="114"/>
+      <c r="O43" s="114"/>
+      <c r="P43" s="114"/>
+      <c r="Q43" s="114"/>
+      <c r="R43" s="114"/>
+      <c r="S43" s="114"/>
+      <c r="T43" s="114"/>
+      <c r="U43" s="114"/>
+      <c r="V43" s="114"/>
+      <c r="W43" s="114"/>
+      <c r="X43" s="114"/>
     </row>
     <row r="44" spans="3:31" x14ac:dyDescent="0.2">
       <c r="D44" s="66" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E44" s="85" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F44" s="74" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M44" s="64"/>
       <c r="V44" s="74" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="W44" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="X44" s="85" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="3:31" x14ac:dyDescent="0.2">
       <c r="D45" s="76" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E45" s="66" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F45" s="91" t="str">
         <f>master!F26</f>
         <v>england</v>
       </c>
       <c r="G45" s="67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M45" s="64"/>
       <c r="P45" s="67" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="V45" s="76" t="str">
         <f>master!L26</f>
         <v>germany</v>
       </c>
       <c r="W45" s="66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="X45" s="76" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="3:31" x14ac:dyDescent="0.2">
@@ -8378,12 +8386,12 @@
         <f>IF(F45=F32,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G46" s="113" t="str">
+      <c r="G46" s="111" t="str">
         <f>master!G27</f>
         <v>england</v>
       </c>
       <c r="M46" s="64"/>
-      <c r="P46" s="115" t="str">
+      <c r="P46" s="113" t="str">
         <f>master!K27</f>
         <v>france</v>
       </c>
@@ -8396,36 +8404,36 @@
     </row>
     <row r="47" spans="3:31" x14ac:dyDescent="0.2">
       <c r="D47" s="70" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E47" s="66" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F47" s="65" t="s">
-        <v>235</v>
-      </c>
-      <c r="G47" s="114"/>
+        <v>234</v>
+      </c>
+      <c r="G47" s="112"/>
       <c r="M47" s="67"/>
       <c r="N47" s="65" t="s">
-        <v>152</v>
-      </c>
-      <c r="P47" s="115"/>
+        <v>151</v>
+      </c>
+      <c r="P47" s="113"/>
       <c r="V47" s="90" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="W47" s="66" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="X47" s="70" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="48" spans="3:31" x14ac:dyDescent="0.2">
       <c r="D48" s="70" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E48" s="87" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F48" s="91" t="str">
         <f>master!F29</f>
@@ -8436,14 +8444,14 @@
         <v>4</v>
       </c>
       <c r="L48" s="65" t="s">
-        <v>225</v>
-      </c>
-      <c r="N48" s="115" t="str">
+        <v>224</v>
+      </c>
+      <c r="N48" s="113" t="str">
         <f>master!I29</f>
         <v>france</v>
       </c>
       <c r="O48" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P48" s="64">
         <f>IF(P46=P33,4,0)</f>
@@ -8454,10 +8462,10 @@
         <v>france</v>
       </c>
       <c r="W48" s="66" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X48" s="70" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="49" spans="4:24" x14ac:dyDescent="0.2">
@@ -8467,12 +8475,12 @@
         <f>IF(F48=F35,2,0)</f>
         <v>2</v>
       </c>
-      <c r="L49" s="115" t="str">
+      <c r="L49" s="113" t="str">
         <f>master!H30</f>
         <v>england</v>
       </c>
-      <c r="N49" s="115"/>
-      <c r="O49" s="115" t="str">
+      <c r="N49" s="113"/>
+      <c r="O49" s="113" t="str">
         <f>master!J30</f>
         <v>france</v>
       </c>
@@ -8485,43 +8493,43 @@
     </row>
     <row r="50" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D50" s="66" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E50" s="66" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F50" s="65" t="s">
-        <v>236</v>
-      </c>
-      <c r="L50" s="115"/>
+        <v>235</v>
+      </c>
+      <c r="L50" s="113"/>
       <c r="N50" s="64">
         <f>IF(N48=N35,10,0)</f>
         <v>10</v>
       </c>
-      <c r="O50" s="115"/>
+      <c r="O50" s="113"/>
       <c r="V50" s="65" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="W50" s="66" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="X50" s="66" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="51" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D51" s="76" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E51" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F51" s="91" t="str">
         <f>master!F32</f>
         <v>belgium</v>
       </c>
       <c r="G51" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L51" s="64">
         <f>IF(L49=L36,6,0)</f>
@@ -8532,17 +8540,17 @@
         <v>6</v>
       </c>
       <c r="P51" s="65" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="V51" s="76" t="str">
         <f>master!L32</f>
         <v>argentina</v>
       </c>
       <c r="W51" s="66" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="X51" s="76" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="52" spans="4:24" x14ac:dyDescent="0.2">
@@ -8551,11 +8559,11 @@
         <f>IF(F51=F38,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G52" s="113" t="str">
+      <c r="G52" s="111" t="str">
         <f>master!G33</f>
         <v>spain</v>
       </c>
-      <c r="P52" s="115" t="str">
+      <c r="P52" s="113" t="str">
         <f>master!K33</f>
         <v>usa</v>
       </c>
@@ -8568,32 +8576,32 @@
     </row>
     <row r="53" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D53" s="70" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E53" s="66" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F53" s="65" t="s">
-        <v>237</v>
-      </c>
-      <c r="G53" s="114"/>
-      <c r="P53" s="115"/>
+        <v>236</v>
+      </c>
+      <c r="G53" s="112"/>
+      <c r="P53" s="113"/>
       <c r="V53" s="65" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="W53" s="66" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="X53" s="70" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D54" s="70" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E54" s="87" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F54" s="91" t="str">
         <f>master!F35</f>
@@ -8612,10 +8620,10 @@
         <v>usa</v>
       </c>
       <c r="W54" s="66" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="X54" s="70" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="55" spans="4:24" x14ac:dyDescent="0.2">
@@ -8697,19 +8705,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="D43:X43"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="P46:P47"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="AE38:AE39"/>
     <mergeCell ref="G39:G40"/>
@@ -8722,6 +8717,19 @@
     <mergeCell ref="L36:L37"/>
     <mergeCell ref="O36:O37"/>
     <mergeCell ref="N35:N36"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="D43:X43"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="P46:P47"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="O49:O50"/>
   </mergeCells>
   <conditionalFormatting sqref="L10 V10 L17 V17 L24 V24">
     <cfRule type="cellIs" dxfId="32" priority="6" operator="equal">
@@ -8754,7 +8762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BA53A3-896F-5548-BE26-1B0315E4CCCA}">
   <dimension ref="A1:AD56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H12" workbookViewId="0">
+    <sheetView topLeftCell="H12" workbookViewId="0">
       <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
@@ -8776,21 +8784,21 @@
       <c r="A1" s="11"/>
       <c r="B1" s="75"/>
       <c r="H1" s="66" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="70">
         <v>5</v>
       </c>
-      <c r="B2" s="112" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
+      <c r="B2" s="115" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
       <c r="H2" s="66">
         <v>5</v>
       </c>
@@ -8799,14 +8807,14 @@
       <c r="A3" s="78">
         <v>4</v>
       </c>
-      <c r="B3" s="112" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
+      <c r="B3" s="115" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
       <c r="H3" s="66">
         <v>4</v>
       </c>
@@ -8815,14 +8823,14 @@
       <c r="A4" s="73">
         <v>3</v>
       </c>
-      <c r="B4" s="112" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
+      <c r="B4" s="115" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
       <c r="H4" s="66">
         <v>3</v>
       </c>
@@ -8831,14 +8839,14 @@
       <c r="A5" s="79">
         <v>2</v>
       </c>
-      <c r="B5" s="112" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
+      <c r="B5" s="115" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
       <c r="H5" s="66">
         <v>2</v>
       </c>
@@ -8847,50 +8855,50 @@
       <c r="A6" s="71">
         <v>1</v>
       </c>
-      <c r="B6" s="112" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
+      <c r="B6" s="115" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
       <c r="H6" s="66">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D9" s="65" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E9" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="F9" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="G9" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="F9" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="G9" s="65" t="s">
-        <v>180</v>
-      </c>
       <c r="H9" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I9" s="67"/>
       <c r="J9" s="65" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K9" s="65" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L9" s="65" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M9" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N9" s="67"/>
       <c r="O9" s="66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P9" s="66">
         <f>H14+M14+H21+M21+H28+M28</f>
@@ -8899,7 +8907,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D10" s="66" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E10" s="66" t="str">
         <f>master!B7</f>
@@ -8912,7 +8920,7 @@
       </c>
       <c r="I10" s="64"/>
       <c r="J10" s="66" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K10" s="66" t="str">
         <f>master!F7</f>
@@ -8924,7 +8932,7 @@
       </c>
       <c r="N10" s="64"/>
       <c r="O10" s="66" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P10" s="66">
         <f>L56+R56</f>
@@ -8933,7 +8941,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D11" s="66" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E11" s="66" t="str">
         <f>master!B8</f>
@@ -8946,7 +8954,7 @@
       </c>
       <c r="I11" s="64"/>
       <c r="J11" s="66" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K11" s="66" t="str">
         <f>master!F8</f>
@@ -8958,7 +8966,7 @@
       </c>
       <c r="N11" s="64"/>
       <c r="O11" s="66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P11" s="66">
         <f>M56+Q56</f>
@@ -8967,7 +8975,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D12" s="66" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E12" s="66" t="str">
         <f>master!B9</f>
@@ -8985,7 +8993,7 @@
       </c>
       <c r="I12" s="64"/>
       <c r="J12" s="66" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K12" s="66" t="str">
         <f>master!F9</f>
@@ -8999,7 +9007,7 @@
       </c>
       <c r="N12" s="64"/>
       <c r="O12" s="66" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P12" s="66">
         <f>N56+P56</f>
@@ -9008,7 +9016,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D13" s="66" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E13" s="66" t="str">
         <f>master!B10</f>
@@ -9021,7 +9029,7 @@
       </c>
       <c r="I13" s="64"/>
       <c r="J13" s="66" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K13" s="66" t="str">
         <f>master!F10</f>
@@ -9033,7 +9041,7 @@
       </c>
       <c r="N13" s="64"/>
       <c r="O13" s="66" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P13" s="66">
         <f>O56</f>
@@ -9057,7 +9065,7 @@
       </c>
       <c r="N14" s="67"/>
       <c r="O14" s="65" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P14" s="65">
         <f>SUM(P9:P13)</f>
@@ -9079,38 +9087,38 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="G16" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="H16" s="65" t="s">
+        <v>146</v>
+      </c>
+      <c r="J16" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="E16" s="65" t="s">
-        <v>179</v>
-      </c>
-      <c r="F16" s="65" t="s">
+      <c r="K16" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="G16" s="65" t="s">
-        <v>180</v>
-      </c>
-      <c r="H16" s="65" t="s">
-        <v>147</v>
-      </c>
-      <c r="J16" s="65" t="s">
-        <v>138</v>
-      </c>
-      <c r="K16" s="65" t="s">
-        <v>179</v>
-      </c>
       <c r="L16" s="65" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M16" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O16" s="64"/>
       <c r="P16" s="64"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D17" s="66" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E17" s="66" t="str">
         <f>master!B13</f>
@@ -9122,7 +9130,7 @@
         <v>5</v>
       </c>
       <c r="J17" s="66" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K17" s="66" t="str">
         <f>master!F13</f>
@@ -9137,7 +9145,7 @@
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D18" s="66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E18" s="66" t="str">
         <f>master!B14</f>
@@ -9149,7 +9157,7 @@
         <v>4</v>
       </c>
       <c r="J18" s="66" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K18" s="66" t="str">
         <f>master!F14</f>
@@ -9167,7 +9175,7 @@
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D19" s="66" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E19" s="66" t="str">
         <f>master!B15</f>
@@ -9184,7 +9192,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="66" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K19" s="66" t="str">
         <f>master!F15</f>
@@ -9204,7 +9212,7 @@
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D20" s="66" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E20" s="66" t="str">
         <f>master!B16</f>
@@ -9216,7 +9224,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="66" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K20" s="66" t="str">
         <f>master!F16</f>
@@ -9248,37 +9256,37 @@
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D23" s="65" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E23" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="F23" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="G23" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="F23" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="G23" s="65" t="s">
-        <v>180</v>
-      </c>
       <c r="H23" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I23" s="67"/>
       <c r="J23" s="65" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K23" s="65" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L23" s="65" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M23" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D24" s="66" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E24" s="66" t="str">
         <f>master!B19</f>
@@ -9291,7 +9299,7 @@
       </c>
       <c r="I24" s="64"/>
       <c r="J24" s="66" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K24" s="66" t="str">
         <f>master!F19</f>
@@ -9304,7 +9312,7 @@
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D25" s="66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E25" s="66" t="str">
         <f>master!B20</f>
@@ -9317,7 +9325,7 @@
       </c>
       <c r="I25" s="64"/>
       <c r="J25" s="66" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K25" s="66" t="str">
         <f>master!F20</f>
@@ -9330,7 +9338,7 @@
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D26" s="66" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E26" s="66" t="str">
         <f>master!B21</f>
@@ -9348,7 +9356,7 @@
       </c>
       <c r="I26" s="64"/>
       <c r="J26" s="66" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K26" s="66" t="str">
         <f>master!F21</f>
@@ -9363,7 +9371,7 @@
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D27" s="66" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E27" s="66" t="str">
         <f>master!B22</f>
@@ -9376,7 +9384,7 @@
       </c>
       <c r="I27" s="64"/>
       <c r="J27" s="66" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K27" s="66" t="str">
         <f>master!F22</f>
@@ -9408,69 +9416,69 @@
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C30" s="80" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H30" s="64"/>
       <c r="I30" s="64"/>
       <c r="J30" s="66" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K30" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="L30" s="65" t="s">
+        <v>233</v>
+      </c>
+      <c r="R30" s="65" t="s">
+        <v>237</v>
+      </c>
+      <c r="S30" s="66" t="s">
         <v>205</v>
       </c>
-      <c r="L30" s="65" t="s">
-        <v>234</v>
-      </c>
-      <c r="R30" s="65" t="s">
-        <v>238</v>
-      </c>
-      <c r="S30" s="66" t="s">
-        <v>206</v>
-      </c>
       <c r="T30" s="85" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C31" s="81" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H31" s="64"/>
       <c r="I31" s="64"/>
       <c r="J31" s="76" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K31" s="66" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L31" s="92" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M31" s="67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q31" s="67" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R31" s="93" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="S31" s="66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="T31" s="76" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C32" s="81" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H32" s="64"/>
       <c r="I32" s="64"/>
@@ -9478,10 +9486,10 @@
       <c r="K32" s="67"/>
       <c r="L32" s="64"/>
       <c r="M32" s="117" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Q32" s="92" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="S32" s="66"/>
       <c r="T32" s="66"/>
@@ -9489,204 +9497,204 @@
     <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33"/>
       <c r="J33" s="70" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K33" s="66" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L33" s="65" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M33" s="118"/>
       <c r="O33" s="65" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q33" s="84"/>
       <c r="R33" s="90" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S33" s="66" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T33" s="70" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="80" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J34" s="70" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K34" s="87" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L34" s="92" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N34" s="65" t="s">
+        <v>224</v>
+      </c>
+      <c r="O34" s="92" t="s">
+        <v>232</v>
+      </c>
+      <c r="P34" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="O34" s="92" t="s">
-        <v>233</v>
-      </c>
-      <c r="P34" s="65" t="s">
-        <v>226</v>
-      </c>
       <c r="R34" s="93" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="S34" s="66" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T34" s="70" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C35" s="81" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J35" s="88"/>
       <c r="K35" s="67"/>
       <c r="L35" s="64"/>
       <c r="N35" s="92" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O35" s="84"/>
       <c r="P35" s="92" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="S35" s="66"/>
       <c r="T35" s="66"/>
     </row>
     <row r="36" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C36" s="81" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J36" s="66" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K36" s="66" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L36" s="65" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N36" s="84"/>
       <c r="P36" s="84"/>
       <c r="R36" s="65" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="S36" s="66" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="T36" s="66" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C37"/>
       <c r="J37" s="76" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K37" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L37" s="92" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M37" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Q37" s="65" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="R37" s="93" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="S37" s="66" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T37" s="76" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="80" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J38" s="88"/>
       <c r="K38" s="64"/>
       <c r="L38" s="64"/>
       <c r="M38" s="117" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q38" s="92" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="S38" s="66"/>
       <c r="T38" s="66"/>
     </row>
     <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C39" s="81" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J39" s="70" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K39" s="66" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L39" s="65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M39" s="118"/>
       <c r="Q39" s="84"/>
       <c r="R39" s="65" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="S39" s="66" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T39" s="70" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C40" s="81" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J40" s="70" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K40" s="87" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L40" s="92" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R40" s="93" t="s">
+        <v>250</v>
+      </c>
+      <c r="S40" s="66" t="s">
         <v>251</v>
       </c>
-      <c r="S40" s="66" t="s">
-        <v>252</v>
-      </c>
       <c r="T40" s="70" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="2:30" x14ac:dyDescent="0.2">
@@ -9694,19 +9702,19 @@
       <c r="K41" s="64"/>
     </row>
     <row r="42" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="J42" s="116" t="s">
-        <v>255</v>
-      </c>
-      <c r="K42" s="116"/>
-      <c r="L42" s="116"/>
-      <c r="M42" s="116"/>
-      <c r="N42" s="116"/>
-      <c r="O42" s="116"/>
-      <c r="P42" s="116"/>
-      <c r="Q42" s="116"/>
-      <c r="R42" s="116"/>
-      <c r="S42" s="116"/>
-      <c r="T42" s="116"/>
+      <c r="J42" s="114" t="s">
+        <v>254</v>
+      </c>
+      <c r="K42" s="114"/>
+      <c r="L42" s="114"/>
+      <c r="M42" s="114"/>
+      <c r="N42" s="114"/>
+      <c r="O42" s="114"/>
+      <c r="P42" s="114"/>
+      <c r="Q42" s="114"/>
+      <c r="R42" s="114"/>
+      <c r="S42" s="114"/>
+      <c r="T42" s="114"/>
       <c r="U42" s="80"/>
       <c r="V42" s="80"/>
       <c r="W42" s="80"/>
@@ -9720,50 +9728,50 @@
     </row>
     <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="J43" s="66" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K43" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="L43" s="74" t="s">
+        <v>233</v>
+      </c>
+      <c r="R43" s="74" t="s">
+        <v>237</v>
+      </c>
+      <c r="S43" s="85" t="s">
         <v>205</v>
       </c>
-      <c r="L43" s="74" t="s">
-        <v>234</v>
-      </c>
-      <c r="R43" s="74" t="s">
-        <v>238</v>
-      </c>
-      <c r="S43" s="85" t="s">
-        <v>206</v>
-      </c>
       <c r="T43" s="85" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="J44" s="76" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K44" s="66" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L44" s="91" t="str">
         <f>master!F26</f>
         <v>england</v>
       </c>
       <c r="M44" s="67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q44" s="67" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R44" s="76" t="str">
         <f>master!L26</f>
         <v>germany</v>
       </c>
       <c r="S44" s="66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="T44" s="76" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="2:30" x14ac:dyDescent="0.2">
@@ -9773,11 +9781,11 @@
         <f>IF(L44=L31,2,0)</f>
         <v>0</v>
       </c>
-      <c r="M45" s="113" t="str">
+      <c r="M45" s="111" t="str">
         <f>master!G27</f>
         <v>england</v>
       </c>
-      <c r="Q45" s="113" t="str">
+      <c r="Q45" s="111" t="str">
         <f>master!K27</f>
         <v>france</v>
       </c>
@@ -9790,35 +9798,35 @@
     </row>
     <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="J46" s="70" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K46" s="66" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L46" s="65" t="s">
-        <v>235</v>
-      </c>
-      <c r="M46" s="114"/>
+        <v>234</v>
+      </c>
+      <c r="M46" s="112"/>
       <c r="O46" s="65" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q46" s="119"/>
       <c r="R46" s="90" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S46" s="66" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T46" s="70" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="J47" s="70" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K47" s="87" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L47" s="91" t="str">
         <f>master!F29</f>
@@ -9829,14 +9837,14 @@
         <v>0</v>
       </c>
       <c r="N47" s="65" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O47" s="91" t="str">
         <f>master!I29</f>
         <v>france</v>
       </c>
       <c r="P47" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q47" s="64">
         <f>IF(Q45=Q32,4,0)</f>
@@ -9847,10 +9855,10 @@
         <v>france</v>
       </c>
       <c r="S47" s="66" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T47" s="70" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48" spans="2:30" x14ac:dyDescent="0.2">
@@ -9878,13 +9886,13 @@
     </row>
     <row r="49" spans="10:22" x14ac:dyDescent="0.2">
       <c r="J49" s="66" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K49" s="66" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L49" s="65" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N49" s="84"/>
       <c r="O49" s="64">
@@ -9893,28 +9901,28 @@
       </c>
       <c r="P49" s="84"/>
       <c r="R49" s="65" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="S49" s="66" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="T49" s="66" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50" spans="10:22" x14ac:dyDescent="0.2">
       <c r="J50" s="76" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K50" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L50" s="91" t="str">
         <f>master!F32</f>
         <v>belgium</v>
       </c>
       <c r="M50" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N50" s="64">
         <f>IF(N48=N35,6,0)</f>
@@ -9925,17 +9933,17 @@
         <v>6</v>
       </c>
       <c r="Q50" s="65" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="R50" s="76" t="str">
         <f>master!L32</f>
         <v>argentina</v>
       </c>
       <c r="S50" s="66" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T50" s="76" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="51" spans="10:22" x14ac:dyDescent="0.2">
@@ -9945,11 +9953,11 @@
         <f>IF(L50=L37,2,0)</f>
         <v>2</v>
       </c>
-      <c r="M51" s="113" t="str">
+      <c r="M51" s="111" t="str">
         <f>master!G33</f>
         <v>spain</v>
       </c>
-      <c r="Q51" s="113" t="str">
+      <c r="Q51" s="111" t="str">
         <f>master!K33</f>
         <v>usa</v>
       </c>
@@ -9962,32 +9970,32 @@
     </row>
     <row r="52" spans="10:22" x14ac:dyDescent="0.2">
       <c r="J52" s="70" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K52" s="66" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L52" s="65" t="s">
-        <v>237</v>
-      </c>
-      <c r="M52" s="114"/>
+        <v>236</v>
+      </c>
+      <c r="M52" s="112"/>
       <c r="Q52" s="119"/>
       <c r="R52" s="65" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="S52" s="66" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T52" s="70" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53" spans="10:22" x14ac:dyDescent="0.2">
       <c r="J53" s="70" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K53" s="87" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L53" s="91" t="str">
         <f>master!F35</f>
@@ -10006,10 +10014,10 @@
         <v>usa</v>
       </c>
       <c r="S53" s="66" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T53" s="70" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="54" spans="10:22" x14ac:dyDescent="0.2">
@@ -10064,11 +10072,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="J42:T42"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="Q51:Q52"/>
     <mergeCell ref="M32:M33"/>
     <mergeCell ref="Q45:Q46"/>
     <mergeCell ref="B2:G2"/>
@@ -10076,6 +10079,11 @@
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="B6:G6"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="J42:T42"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="Q51:Q52"/>
   </mergeCells>
   <conditionalFormatting sqref="H10 M10 H17 M17 H24 M24">
     <cfRule type="cellIs" dxfId="27" priority="14" operator="equal">
@@ -10151,21 +10159,21 @@
       <c r="A1" s="11"/>
       <c r="B1" s="75"/>
       <c r="H1" s="66" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="70">
         <v>5</v>
       </c>
-      <c r="B2" s="112" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
+      <c r="B2" s="115" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
       <c r="H2" s="66">
         <v>5</v>
       </c>
@@ -10174,14 +10182,14 @@
       <c r="A3" s="78">
         <v>4</v>
       </c>
-      <c r="B3" s="112" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
+      <c r="B3" s="115" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
       <c r="H3" s="66">
         <v>4</v>
       </c>
@@ -10190,14 +10198,14 @@
       <c r="A4" s="73">
         <v>3</v>
       </c>
-      <c r="B4" s="112" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
+      <c r="B4" s="115" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
       <c r="H4" s="66">
         <v>3</v>
       </c>
@@ -10206,14 +10214,14 @@
       <c r="A5" s="79">
         <v>2</v>
       </c>
-      <c r="B5" s="112" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
+      <c r="B5" s="115" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
       <c r="H5" s="66">
         <v>2</v>
       </c>
@@ -10222,53 +10230,53 @@
       <c r="A6" s="71">
         <v>1</v>
       </c>
-      <c r="B6" s="112" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
+      <c r="B6" s="115" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
       <c r="H6" s="66">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D9" s="65" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E9" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="F9" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="G9" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="F9" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="G9" s="65" t="s">
-        <v>180</v>
-      </c>
       <c r="H9" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I9" s="67"/>
       <c r="J9" s="65" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K9" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="L9" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="M9" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="L9" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="M9" s="65" t="s">
-        <v>180</v>
-      </c>
       <c r="N9" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O9" s="67"/>
       <c r="P9" s="66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q9" s="66">
         <f>H14+N14+H21+N21+H28+N28</f>
@@ -10277,7 +10285,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D10" s="66" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E10" s="66" t="str">
         <f>master!B7</f>
@@ -10290,7 +10298,7 @@
       </c>
       <c r="I10" s="64"/>
       <c r="J10" s="66" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K10" s="66" t="str">
         <f>master!F7</f>
@@ -10303,7 +10311,7 @@
       </c>
       <c r="O10" s="64"/>
       <c r="P10" s="66" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q10" s="66">
         <f>L56+R56</f>
@@ -10312,7 +10320,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D11" s="66" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E11" s="66" t="str">
         <f>master!B8</f>
@@ -10325,7 +10333,7 @@
       </c>
       <c r="I11" s="64"/>
       <c r="J11" s="66" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K11" s="66" t="str">
         <f>master!F8</f>
@@ -10338,7 +10346,7 @@
       </c>
       <c r="O11" s="64"/>
       <c r="P11" s="66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q11" s="66">
         <f>M56+Q56</f>
@@ -10347,7 +10355,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D12" s="66" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E12" s="66" t="str">
         <f>master!B9</f>
@@ -10365,7 +10373,7 @@
       </c>
       <c r="I12" s="64"/>
       <c r="J12" s="66" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K12" s="66" t="str">
         <f>master!F9</f>
@@ -10383,7 +10391,7 @@
       </c>
       <c r="O12" s="64"/>
       <c r="P12" s="66" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q12" s="66">
         <f>N56+P56</f>
@@ -10392,7 +10400,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D13" s="66" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E13" s="66" t="str">
         <f>master!B10</f>
@@ -10405,7 +10413,7 @@
       </c>
       <c r="I13" s="64"/>
       <c r="J13" s="66" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K13" s="66" t="str">
         <f>master!F10</f>
@@ -10418,7 +10426,7 @@
       </c>
       <c r="O13" s="64"/>
       <c r="P13" s="66" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q13" s="66">
         <f>O56</f>
@@ -10443,7 +10451,7 @@
       </c>
       <c r="O14" s="67"/>
       <c r="P14" s="65" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q14" s="65">
         <f>SUM(Q9:Q13)</f>
@@ -10466,41 +10474,41 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="G16" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="H16" s="65" t="s">
+        <v>146</v>
+      </c>
+      <c r="J16" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="E16" s="65" t="s">
+      <c r="K16" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="L16" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="M16" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="F16" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="G16" s="65" t="s">
-        <v>180</v>
-      </c>
-      <c r="H16" s="65" t="s">
-        <v>147</v>
-      </c>
-      <c r="J16" s="65" t="s">
-        <v>138</v>
-      </c>
-      <c r="K16" s="65" t="s">
-        <v>179</v>
-      </c>
-      <c r="L16" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="M16" s="65" t="s">
-        <v>180</v>
-      </c>
       <c r="N16" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P16" s="64"/>
       <c r="Q16" s="64"/>
     </row>
     <row r="17" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D17" s="66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E17" s="66" t="str">
         <f>master!B13</f>
@@ -10512,7 +10520,7 @@
         <v>2</v>
       </c>
       <c r="J17" s="66" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K17" s="66" t="str">
         <f>master!F13</f>
@@ -10528,7 +10536,7 @@
     </row>
     <row r="18" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D18" s="66" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E18" s="66" t="str">
         <f>master!B14</f>
@@ -10540,7 +10548,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="66" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K18" s="66" t="str">
         <f>master!F14</f>
@@ -10556,7 +10564,7 @@
     </row>
     <row r="19" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D19" s="66" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E19" s="66" t="str">
         <f>master!B15</f>
@@ -10573,7 +10581,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="66" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K19" s="66" t="str">
         <f>master!F15</f>
@@ -10594,7 +10602,7 @@
     </row>
     <row r="20" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D20" s="66" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E20" s="66" t="str">
         <f>master!B16</f>
@@ -10606,7 +10614,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="66" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K20" s="66" t="str">
         <f>master!F16</f>
@@ -10640,40 +10648,40 @@
     </row>
     <row r="23" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D23" s="65" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E23" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="F23" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="G23" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="F23" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="G23" s="65" t="s">
-        <v>180</v>
-      </c>
       <c r="H23" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I23" s="67"/>
       <c r="J23" s="65" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K23" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="L23" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="M23" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="L23" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="M23" s="65" t="s">
-        <v>180</v>
-      </c>
       <c r="N23" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D24" s="66" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E24" s="66" t="str">
         <f>master!B19</f>
@@ -10686,7 +10694,7 @@
       </c>
       <c r="I24" s="64"/>
       <c r="J24" s="66" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K24" s="66" t="str">
         <f>master!F19</f>
@@ -10700,7 +10708,7 @@
     </row>
     <row r="25" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D25" s="66" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E25" s="66" t="str">
         <f>master!B20</f>
@@ -10713,7 +10721,7 @@
       </c>
       <c r="I25" s="64"/>
       <c r="J25" s="66" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K25" s="66" t="str">
         <f>master!F20</f>
@@ -10727,7 +10735,7 @@
     </row>
     <row r="26" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D26" s="66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E26" s="66" t="str">
         <f>master!B21</f>
@@ -10745,7 +10753,7 @@
       </c>
       <c r="I26" s="64"/>
       <c r="J26" s="66" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K26" s="66" t="str">
         <f>master!F21</f>
@@ -10764,7 +10772,7 @@
     </row>
     <row r="27" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D27" s="66" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E27" s="66" t="str">
         <f>master!B22</f>
@@ -10777,7 +10785,7 @@
       </c>
       <c r="I27" s="64"/>
       <c r="J27" s="66" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K27" s="66" t="str">
         <f>master!F22</f>
@@ -10812,49 +10820,49 @@
     <row r="30" spans="4:20" x14ac:dyDescent="0.2">
       <c r="I30" s="64"/>
       <c r="J30" s="66" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K30" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="L30" s="65" t="s">
+        <v>233</v>
+      </c>
+      <c r="R30" s="65" t="s">
+        <v>237</v>
+      </c>
+      <c r="S30" s="66" t="s">
         <v>205</v>
       </c>
-      <c r="L30" s="65" t="s">
-        <v>234</v>
-      </c>
-      <c r="R30" s="65" t="s">
-        <v>238</v>
-      </c>
-      <c r="S30" s="66" t="s">
-        <v>206</v>
-      </c>
       <c r="T30" s="85" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="4:20" x14ac:dyDescent="0.2">
       <c r="I31" s="64"/>
       <c r="J31" s="76" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K31" s="66" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L31" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="M31" s="67" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q31" s="67" t="s">
+        <v>252</v>
+      </c>
+      <c r="R31" s="93" t="s">
         <v>205</v>
       </c>
-      <c r="M31" s="67" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q31" s="67" t="s">
-        <v>253</v>
-      </c>
-      <c r="R31" s="93" t="s">
-        <v>206</v>
-      </c>
       <c r="S31" s="66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="T31" s="76" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="4:20" x14ac:dyDescent="0.2">
@@ -10863,10 +10871,10 @@
       <c r="K32" s="67"/>
       <c r="L32" s="64"/>
       <c r="M32" s="117" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q32" s="92" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="S32" s="66"/>
       <c r="T32" s="66"/>
@@ -10874,57 +10882,57 @@
     <row r="33" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I33" s="64"/>
       <c r="J33" s="70" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K33" s="66" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L33" s="65" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M33" s="118"/>
       <c r="O33" s="65" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q33" s="84"/>
       <c r="R33" s="90" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S33" s="66" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T33" s="70" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I34" s="67"/>
       <c r="J34" s="70" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K34" s="87" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L34" s="92" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N34" s="65" t="s">
+        <v>224</v>
+      </c>
+      <c r="O34" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="P34" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="O34" s="92" t="s">
-        <v>205</v>
-      </c>
-      <c r="P34" s="65" t="s">
-        <v>226</v>
-      </c>
       <c r="R34" s="93" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="S34" s="66" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T34" s="70" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="9:20" x14ac:dyDescent="0.2">
@@ -10932,61 +10940,61 @@
       <c r="K35" s="67"/>
       <c r="L35" s="64"/>
       <c r="N35" s="92" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O35" s="84"/>
       <c r="P35" s="92" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S35" s="66"/>
       <c r="T35" s="66"/>
     </row>
     <row r="36" spans="9:20" x14ac:dyDescent="0.2">
       <c r="J36" s="66" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K36" s="66" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L36" s="65" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N36" s="84"/>
       <c r="P36" s="84"/>
       <c r="R36" s="65" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="S36" s="66" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="T36" s="66" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="9:20" x14ac:dyDescent="0.2">
       <c r="J37" s="76" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K37" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L37" s="92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M37" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Q37" s="65" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="R37" s="93" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S37" s="66" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T37" s="76" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="9:20" x14ac:dyDescent="0.2">
@@ -10994,54 +11002,54 @@
       <c r="K38" s="64"/>
       <c r="L38" s="64"/>
       <c r="M38" s="117" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q38" s="92" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S38" s="66"/>
       <c r="T38" s="66"/>
     </row>
     <row r="39" spans="9:20" x14ac:dyDescent="0.2">
       <c r="J39" s="70" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K39" s="66" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L39" s="65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M39" s="118"/>
       <c r="Q39" s="84"/>
       <c r="R39" s="65" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="S39" s="66" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T39" s="70" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="9:20" x14ac:dyDescent="0.2">
       <c r="J40" s="70" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K40" s="87" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L40" s="92" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R40" s="93" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S40" s="66" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T40" s="70" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="9:20" x14ac:dyDescent="0.2">
@@ -11049,66 +11057,66 @@
       <c r="K41" s="64"/>
     </row>
     <row r="42" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="J42" s="116" t="s">
-        <v>255</v>
-      </c>
-      <c r="K42" s="116"/>
-      <c r="L42" s="116"/>
-      <c r="M42" s="116"/>
-      <c r="N42" s="116"/>
-      <c r="O42" s="116"/>
-      <c r="P42" s="116"/>
-      <c r="Q42" s="116"/>
-      <c r="R42" s="116"/>
-      <c r="S42" s="116"/>
-      <c r="T42" s="116"/>
+      <c r="J42" s="114" t="s">
+        <v>254</v>
+      </c>
+      <c r="K42" s="114"/>
+      <c r="L42" s="114"/>
+      <c r="M42" s="114"/>
+      <c r="N42" s="114"/>
+      <c r="O42" s="114"/>
+      <c r="P42" s="114"/>
+      <c r="Q42" s="114"/>
+      <c r="R42" s="114"/>
+      <c r="S42" s="114"/>
+      <c r="T42" s="114"/>
     </row>
     <row r="43" spans="9:20" x14ac:dyDescent="0.2">
       <c r="J43" s="66" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K43" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="L43" s="74" t="s">
+        <v>233</v>
+      </c>
+      <c r="R43" s="74" t="s">
+        <v>237</v>
+      </c>
+      <c r="S43" s="85" t="s">
         <v>205</v>
       </c>
-      <c r="L43" s="74" t="s">
-        <v>234</v>
-      </c>
-      <c r="R43" s="74" t="s">
-        <v>238</v>
-      </c>
-      <c r="S43" s="85" t="s">
-        <v>206</v>
-      </c>
       <c r="T43" s="85" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="44" spans="9:20" x14ac:dyDescent="0.2">
       <c r="J44" s="76" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K44" s="66" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L44" s="91" t="str">
         <f>master!F26</f>
         <v>england</v>
       </c>
       <c r="M44" s="67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q44" s="67" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R44" s="76" t="str">
         <f>master!L26</f>
         <v>germany</v>
       </c>
       <c r="S44" s="66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="T44" s="76" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="9:20" x14ac:dyDescent="0.2">
@@ -11118,11 +11126,11 @@
         <f>IF(L44=L31,2,0)</f>
         <v>2</v>
       </c>
-      <c r="M45" s="113" t="str">
+      <c r="M45" s="111" t="str">
         <f>master!G27</f>
         <v>england</v>
       </c>
-      <c r="Q45" s="113" t="str">
+      <c r="Q45" s="111" t="str">
         <f>master!K27</f>
         <v>france</v>
       </c>
@@ -11135,35 +11143,35 @@
     </row>
     <row r="46" spans="9:20" x14ac:dyDescent="0.2">
       <c r="J46" s="70" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K46" s="66" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L46" s="65" t="s">
-        <v>235</v>
-      </c>
-      <c r="M46" s="114"/>
+        <v>234</v>
+      </c>
+      <c r="M46" s="112"/>
       <c r="O46" s="65" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q46" s="119"/>
       <c r="R46" s="90" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S46" s="66" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T46" s="70" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="9:20" x14ac:dyDescent="0.2">
       <c r="J47" s="70" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K47" s="87" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L47" s="91" t="str">
         <f>master!F29</f>
@@ -11174,14 +11182,14 @@
         <v>4</v>
       </c>
       <c r="N47" s="65" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O47" s="91" t="str">
         <f>master!I29</f>
         <v>france</v>
       </c>
       <c r="P47" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q47" s="64">
         <f>IF(Q45=Q32,4,0)</f>
@@ -11192,10 +11200,10 @@
         <v>france</v>
       </c>
       <c r="S47" s="66" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T47" s="70" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48" spans="9:20" x14ac:dyDescent="0.2">
@@ -11223,13 +11231,13 @@
     </row>
     <row r="49" spans="10:20" x14ac:dyDescent="0.2">
       <c r="J49" s="66" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K49" s="66" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L49" s="65" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N49" s="84"/>
       <c r="O49" s="64">
@@ -11238,28 +11246,28 @@
       </c>
       <c r="P49" s="84"/>
       <c r="R49" s="65" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="S49" s="66" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="T49" s="66" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50" spans="10:20" x14ac:dyDescent="0.2">
       <c r="J50" s="76" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K50" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L50" s="91" t="str">
         <f>master!F32</f>
         <v>belgium</v>
       </c>
       <c r="M50" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N50" s="64">
         <f>IF(N48=N35,6,0)</f>
@@ -11270,17 +11278,17 @@
         <v>0</v>
       </c>
       <c r="Q50" s="65" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="R50" s="76" t="str">
         <f>master!L32</f>
         <v>argentina</v>
       </c>
       <c r="S50" s="66" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T50" s="76" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="51" spans="10:20" x14ac:dyDescent="0.2">
@@ -11290,11 +11298,11 @@
         <f>IF(L50=L37,2,0)</f>
         <v>0</v>
       </c>
-      <c r="M51" s="113" t="str">
+      <c r="M51" s="111" t="str">
         <f>master!G33</f>
         <v>spain</v>
       </c>
-      <c r="Q51" s="113" t="str">
+      <c r="Q51" s="111" t="str">
         <f>master!K33</f>
         <v>usa</v>
       </c>
@@ -11307,32 +11315,32 @@
     </row>
     <row r="52" spans="10:20" x14ac:dyDescent="0.2">
       <c r="J52" s="70" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K52" s="66" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L52" s="65" t="s">
-        <v>237</v>
-      </c>
-      <c r="M52" s="114"/>
+        <v>236</v>
+      </c>
+      <c r="M52" s="112"/>
       <c r="Q52" s="119"/>
       <c r="R52" s="65" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="S52" s="66" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T52" s="70" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53" spans="10:20" x14ac:dyDescent="0.2">
       <c r="J53" s="70" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K53" s="87" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L53" s="91" t="str">
         <f>master!F35</f>
@@ -11351,10 +11359,10 @@
         <v>usa</v>
       </c>
       <c r="S53" s="66" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T53" s="70" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="54" spans="10:20" x14ac:dyDescent="0.2">
@@ -11407,6 +11415,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
     <mergeCell ref="M51:M52"/>
     <mergeCell ref="Q51:Q52"/>
     <mergeCell ref="M32:M33"/>
@@ -11414,11 +11427,6 @@
     <mergeCell ref="J42:T42"/>
     <mergeCell ref="M45:M46"/>
     <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <conditionalFormatting sqref="H10 N10 H17 N17 H24 N24">
     <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">

--- a/excel-docs/euro - lifecycle info.xlsx
+++ b/excel-docs/euro - lifecycle info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseph.collins/Documents/personal-projects/euro/2024_euro/excel-docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD20B6C2-7083-A445-BB72-8F2FC141BDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0AB45F-82EE-8342-8B7D-A5ED308EC1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34560" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{D89656BD-B983-D041-A997-C1184058734E}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="258">
   <si>
     <t>need to submit a number for tiebreaker score</t>
   </si>
@@ -914,6 +914,9 @@
 KO stages
 -comp view
 -mobile view</t>
+  </si>
+  <si>
+    <t>Header &gt; Misc Header Data --- bring in the loadUsersWhoNeedWebsiteUpdatedEmails func</t>
   </si>
 </sst>
 </file>
@@ -1507,6 +1510,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1518,10 +1525,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2097,7 +2100,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:F107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -2149,545 +2152,551 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="99"/>
+      <c r="A6" s="98"/>
       <c r="B6" s="32" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="99"/>
+      <c r="B7" s="32" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="15"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="95">
+    <row r="8" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="15"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="95">
         <v>2</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B9" s="32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="96"/>
-      <c r="B9" s="33" t="s">
+    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="96"/>
+      <c r="B10" s="33" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="94">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="94">
         <v>3</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B12" s="10" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="94"/>
-      <c r="B12" s="23" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="94"/>
       <c r="B13" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="94"/>
+      <c r="B14" s="23" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="94"/>
-      <c r="B14" s="34" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="94"/>
       <c r="B15" s="34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="94"/>
       <c r="B16" s="34" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="94"/>
       <c r="B17" s="34" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="94"/>
       <c r="B18" s="34" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="94"/>
       <c r="B19" s="34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="94"/>
       <c r="B20" s="34" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="94"/>
       <c r="B21" s="34" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="94"/>
       <c r="B22" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="94"/>
       <c r="B23" s="34" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="94"/>
       <c r="B24" s="34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="94"/>
+      <c r="B25" s="34" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-    </row>
-    <row r="26" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A26" s="94">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27" s="94">
         <v>4</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B27" s="10" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="24" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="94"/>
-      <c r="B27" s="23" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="94"/>
       <c r="B28" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="94"/>
+      <c r="B29" s="23" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="94"/>
-      <c r="B29" s="21" t="s">
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="94"/>
+      <c r="B30" s="21" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="94"/>
-      <c r="B30" s="34" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="94"/>
       <c r="B31" s="34" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="94"/>
       <c r="B32" s="34" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="94"/>
       <c r="B33" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="94"/>
       <c r="B34" s="34" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="94"/>
       <c r="B35" s="34" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="94"/>
       <c r="B36" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="94"/>
+      <c r="B37" s="34" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-    </row>
-    <row r="38" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="B38" s="10" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+    </row>
+    <row r="39" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B39" s="10" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B39" s="32" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B40" s="32" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B41" s="32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B42" s="32" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="25" t="s">
+    <row r="43" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="25" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="24" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="23" t="s">
+    <row r="44" spans="1:2" ht="24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="23" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="24" x14ac:dyDescent="0.3">
-      <c r="B44" s="38" t="s">
+    <row r="45" spans="1:2" ht="24" x14ac:dyDescent="0.3">
+      <c r="B45" s="38" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B45" s="32" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B46" s="32" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B46" s="34" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B47" s="34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B47" s="36" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B48" s="36" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B48" s="34" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B49" s="34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B50" s="34" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B50" s="37" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B51" s="37" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B51" s="34" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B52" s="34" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B53" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B54" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C53" s="9"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="6"/>
-      <c r="B54" s="7"/>
-    </row>
-    <row r="55" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="B55" s="10" t="s">
+      <c r="C54" s="9"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="6"/>
+      <c r="B55" s="7"/>
+    </row>
+    <row r="56" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="B56" s="10" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B56" s="21" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B57" s="21" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B58" s="21" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B59" s="21" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B60" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B61" s="21" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B61" s="24" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B62" s="24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B62" s="26" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B63" s="26" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B63" s="24" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B64" s="24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B65" s="24" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B65" s="27" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B66" s="27" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B66" s="22" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B67" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B68" s="22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B68" s="24" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B69" s="24" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="6"/>
-      <c r="B69" s="7"/>
-    </row>
-    <row r="70" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="B70" s="10" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="6"/>
+      <c r="B70" s="7"/>
+    </row>
+    <row r="71" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B71" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B71" s="21" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B72" s="21" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="24" x14ac:dyDescent="0.3">
-      <c r="B72" s="23" t="s">
+    <row r="73" spans="1:2" ht="24" x14ac:dyDescent="0.3">
+      <c r="B73" s="23" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="31" t="s">
+    <row r="74" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="31" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B74" s="21" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B75" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B76" s="21" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B76" s="24" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B77" s="24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B77" s="26" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B78" s="26" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B78" s="24" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B79" s="24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B80" s="24" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B80" s="27" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B81" s="27" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B81" s="22" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B82" s="22" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B83" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B84" s="22" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B85" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B86" s="22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B86" s="24" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B87" s="24" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="6"/>
-      <c r="B87" s="7"/>
-    </row>
-    <row r="88" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="B88" s="10" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="6"/>
+      <c r="B88" s="7"/>
+    </row>
+    <row r="89" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B89" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B89" s="21" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B90" s="21" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="24" x14ac:dyDescent="0.3">
-      <c r="B90" s="23" t="s">
+    <row r="91" spans="1:2" ht="24" x14ac:dyDescent="0.3">
+      <c r="B91" s="23" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B91" s="24" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B92" s="24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B92" s="26" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B93" s="26" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B93" s="24" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B94" s="24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B95" s="24" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B95" s="22" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B96" s="22" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B97" s="22" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B98" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B99" s="22" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B99" s="24" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B100" s="24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B101" s="24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="6"/>
-      <c r="B101" s="7"/>
-    </row>
-    <row r="102" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="B102" s="10" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="6"/>
+      <c r="B102" s="7"/>
+    </row>
+    <row r="103" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B103" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="103" spans="1:2" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A103" s="29"/>
-      <c r="B103" s="23" t="s">
+    <row r="104" spans="1:2" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A104" s="29"/>
+      <c r="B104" s="23" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="104" spans="1:2" s="13" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A104" s="30"/>
-      <c r="B104" s="23" t="s">
+    <row r="105" spans="1:2" s="13" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A105" s="30"/>
+      <c r="B105" s="23" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B105" s="21" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B106" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B107" s="21" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A11:A24"/>
-    <mergeCell ref="A26:A36"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A12:A25"/>
+    <mergeCell ref="A27:A37"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A2:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2725,14 +2734,14 @@
       <c r="A2" s="70">
         <v>5</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="112" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
       <c r="H2" s="66">
         <v>5</v>
       </c>
@@ -2741,14 +2750,14 @@
       <c r="A3" s="78">
         <v>4</v>
       </c>
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
       <c r="H3" s="66">
         <v>4</v>
       </c>
@@ -2757,14 +2766,14 @@
       <c r="A4" s="73">
         <v>3</v>
       </c>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="112" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
       <c r="H4" s="66">
         <v>3</v>
       </c>
@@ -2773,14 +2782,14 @@
       <c r="A5" s="79">
         <v>2</v>
       </c>
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="112" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
       <c r="H5" s="66">
         <v>2</v>
       </c>
@@ -2789,14 +2798,14 @@
       <c r="A6" s="71">
         <v>1</v>
       </c>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
       <c r="H6" s="66">
         <v>1</v>
       </c>
@@ -3616,19 +3625,19 @@
       <c r="K41" s="64"/>
     </row>
     <row r="42" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="J42" s="114" t="s">
+      <c r="J42" s="116" t="s">
         <v>254</v>
       </c>
-      <c r="K42" s="114"/>
-      <c r="L42" s="114"/>
-      <c r="M42" s="114"/>
-      <c r="N42" s="114"/>
-      <c r="O42" s="114"/>
-      <c r="P42" s="114"/>
-      <c r="Q42" s="114"/>
-      <c r="R42" s="114"/>
-      <c r="S42" s="114"/>
-      <c r="T42" s="114"/>
+      <c r="K42" s="116"/>
+      <c r="L42" s="116"/>
+      <c r="M42" s="116"/>
+      <c r="N42" s="116"/>
+      <c r="O42" s="116"/>
+      <c r="P42" s="116"/>
+      <c r="Q42" s="116"/>
+      <c r="R42" s="116"/>
+      <c r="S42" s="116"/>
+      <c r="T42" s="116"/>
     </row>
     <row r="43" spans="9:20" x14ac:dyDescent="0.2">
       <c r="J43" s="66" t="s">
@@ -3685,11 +3694,11 @@
         <f>IF(L44=L31,2,0)</f>
         <v>0</v>
       </c>
-      <c r="M45" s="111" t="str">
+      <c r="M45" s="113" t="str">
         <f>master!G27</f>
         <v>england</v>
       </c>
-      <c r="Q45" s="111" t="str">
+      <c r="Q45" s="113" t="str">
         <f>master!K27</f>
         <v>france</v>
       </c>
@@ -3710,7 +3719,7 @@
       <c r="L46" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="M46" s="112"/>
+      <c r="M46" s="114"/>
       <c r="O46" s="65" t="s">
         <v>151</v>
       </c>
@@ -3857,11 +3866,11 @@
         <f>IF(L50=L37,2,0)</f>
         <v>2</v>
       </c>
-      <c r="M51" s="111" t="str">
+      <c r="M51" s="113" t="str">
         <f>master!G33</f>
         <v>spain</v>
       </c>
-      <c r="Q51" s="111" t="str">
+      <c r="Q51" s="113" t="str">
         <f>master!K33</f>
         <v>usa</v>
       </c>
@@ -3882,7 +3891,7 @@
       <c r="L52" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="M52" s="112"/>
+      <c r="M52" s="114"/>
       <c r="Q52" s="119"/>
       <c r="R52" s="65" t="s">
         <v>240</v>
@@ -3974,11 +3983,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
     <mergeCell ref="M51:M52"/>
     <mergeCell ref="Q51:Q52"/>
     <mergeCell ref="M32:M33"/>
@@ -3986,6 +3990,11 @@
     <mergeCell ref="J42:T42"/>
     <mergeCell ref="M45:M46"/>
     <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <conditionalFormatting sqref="H10 N10 H17 N17 H24 N24">
     <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
@@ -4068,14 +4077,14 @@
       <c r="A2" s="70">
         <v>5</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="112" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
       <c r="H2" s="66">
         <v>5</v>
       </c>
@@ -4084,14 +4093,14 @@
       <c r="A3" s="78">
         <v>4</v>
       </c>
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
       <c r="H3" s="66">
         <v>4</v>
       </c>
@@ -4100,14 +4109,14 @@
       <c r="A4" s="73">
         <v>3</v>
       </c>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="112" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
       <c r="H4" s="66">
         <v>3</v>
       </c>
@@ -4116,14 +4125,14 @@
       <c r="A5" s="79">
         <v>2</v>
       </c>
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="112" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
       <c r="H5" s="66">
         <v>2</v>
       </c>
@@ -4132,14 +4141,14 @@
       <c r="A6" s="71">
         <v>1</v>
       </c>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
       <c r="H6" s="66">
         <v>1</v>
       </c>
@@ -4959,19 +4968,19 @@
       <c r="K41" s="64"/>
     </row>
     <row r="42" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="J42" s="114" t="s">
+      <c r="J42" s="116" t="s">
         <v>254</v>
       </c>
-      <c r="K42" s="114"/>
-      <c r="L42" s="114"/>
-      <c r="M42" s="114"/>
-      <c r="N42" s="114"/>
-      <c r="O42" s="114"/>
-      <c r="P42" s="114"/>
-      <c r="Q42" s="114"/>
-      <c r="R42" s="114"/>
-      <c r="S42" s="114"/>
-      <c r="T42" s="114"/>
+      <c r="K42" s="116"/>
+      <c r="L42" s="116"/>
+      <c r="M42" s="116"/>
+      <c r="N42" s="116"/>
+      <c r="O42" s="116"/>
+      <c r="P42" s="116"/>
+      <c r="Q42" s="116"/>
+      <c r="R42" s="116"/>
+      <c r="S42" s="116"/>
+      <c r="T42" s="116"/>
     </row>
     <row r="43" spans="9:20" x14ac:dyDescent="0.2">
       <c r="J43" s="66" t="s">
@@ -5028,11 +5037,11 @@
         <f>IF(L44=L31,2,0)</f>
         <v>2</v>
       </c>
-      <c r="M45" s="111" t="str">
+      <c r="M45" s="113" t="str">
         <f>master!G27</f>
         <v>england</v>
       </c>
-      <c r="Q45" s="111" t="str">
+      <c r="Q45" s="113" t="str">
         <f>master!K27</f>
         <v>france</v>
       </c>
@@ -5053,7 +5062,7 @@
       <c r="L46" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="M46" s="112"/>
+      <c r="M46" s="114"/>
       <c r="O46" s="65" t="s">
         <v>151</v>
       </c>
@@ -5200,11 +5209,11 @@
         <f>IF(L50=L37,2,0)</f>
         <v>0</v>
       </c>
-      <c r="M51" s="111" t="str">
+      <c r="M51" s="113" t="str">
         <f>master!G33</f>
         <v>spain</v>
       </c>
-      <c r="Q51" s="111" t="str">
+      <c r="Q51" s="113" t="str">
         <f>master!K33</f>
         <v>usa</v>
       </c>
@@ -5225,7 +5234,7 @@
       <c r="L52" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="M52" s="112"/>
+      <c r="M52" s="114"/>
       <c r="Q52" s="119"/>
       <c r="R52" s="65" t="s">
         <v>240</v>
@@ -5317,11 +5326,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
     <mergeCell ref="M51:M52"/>
     <mergeCell ref="Q51:Q52"/>
     <mergeCell ref="M32:M33"/>
@@ -5329,6 +5333,11 @@
     <mergeCell ref="J42:T42"/>
     <mergeCell ref="M45:M46"/>
     <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <conditionalFormatting sqref="H10 N10 H17 N17 H24 N24">
     <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
@@ -5400,15 +5409,15 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="116" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="122" t="s">
@@ -5584,15 +5593,15 @@
       <c r="G13" s="121"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="114" t="s">
+      <c r="A16" s="116" t="s">
         <v>241</v>
       </c>
-      <c r="B16" s="114"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="120" t="s">
@@ -5769,6 +5778,9 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="G3:G4"/>
@@ -5784,9 +5796,6 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7065,14 +7074,14 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="68"/>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="112" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
@@ -7083,14 +7092,14 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="77"/>
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -7101,14 +7110,14 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="72"/>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="112" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -7119,14 +7128,14 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="69"/>
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="112" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
@@ -7137,14 +7146,14 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="22"/>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
@@ -8055,7 +8064,7 @@
       <c r="AE30" s="89"/>
     </row>
     <row r="31" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C31" s="116"/>
+      <c r="C31" s="111"/>
       <c r="D31" s="66" t="s">
         <v>210</v>
       </c>
@@ -8077,7 +8086,7 @@
       </c>
     </row>
     <row r="32" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C32" s="116"/>
+      <c r="C32" s="111"/>
       <c r="D32" s="76" t="s">
         <v>220</v>
       </c>
@@ -8122,7 +8131,7 @@
       <c r="AE33" s="89"/>
     </row>
     <row r="34" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C34" s="116"/>
+      <c r="C34" s="111"/>
       <c r="D34" s="70" t="s">
         <v>211</v>
       </c>
@@ -8149,7 +8158,7 @@
       </c>
     </row>
     <row r="35" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C35" s="116"/>
+      <c r="C35" s="111"/>
       <c r="D35" s="70" t="s">
         <v>216</v>
       </c>
@@ -8196,7 +8205,7 @@
       <c r="AE36" s="89"/>
     </row>
     <row r="37" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C37" s="116"/>
+      <c r="C37" s="111"/>
       <c r="D37" s="66" t="s">
         <v>224</v>
       </c>
@@ -8219,7 +8228,7 @@
       </c>
     </row>
     <row r="38" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C38" s="116"/>
+      <c r="C38" s="111"/>
       <c r="D38" s="76" t="s">
         <v>255</v>
       </c>
@@ -8244,7 +8253,7 @@
       <c r="X38" s="76" t="s">
         <v>226</v>
       </c>
-      <c r="AE38" s="116"/>
+      <c r="AE38" s="111"/>
     </row>
     <row r="39" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C39"/>
@@ -8258,10 +8267,10 @@
       </c>
       <c r="W39" s="66"/>
       <c r="X39" s="66"/>
-      <c r="AE39" s="116"/>
+      <c r="AE39" s="111"/>
     </row>
     <row r="40" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C40" s="116"/>
+      <c r="C40" s="111"/>
       <c r="D40" s="70" t="s">
         <v>219</v>
       </c>
@@ -8284,7 +8293,7 @@
       </c>
     </row>
     <row r="41" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C41" s="116"/>
+      <c r="C41" s="111"/>
       <c r="D41" s="70" t="s">
         <v>222</v>
       </c>
@@ -8305,29 +8314,29 @@
       </c>
     </row>
     <row r="43" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="D43" s="114" t="s">
+      <c r="D43" s="116" t="s">
         <v>254</v>
       </c>
-      <c r="E43" s="114"/>
-      <c r="F43" s="114"/>
-      <c r="G43" s="114"/>
-      <c r="H43" s="114"/>
-      <c r="I43" s="114"/>
-      <c r="J43" s="114"/>
-      <c r="K43" s="114"/>
-      <c r="L43" s="114"/>
-      <c r="M43" s="114"/>
-      <c r="N43" s="114"/>
-      <c r="O43" s="114"/>
-      <c r="P43" s="114"/>
-      <c r="Q43" s="114"/>
-      <c r="R43" s="114"/>
-      <c r="S43" s="114"/>
-      <c r="T43" s="114"/>
-      <c r="U43" s="114"/>
-      <c r="V43" s="114"/>
-      <c r="W43" s="114"/>
-      <c r="X43" s="114"/>
+      <c r="E43" s="116"/>
+      <c r="F43" s="116"/>
+      <c r="G43" s="116"/>
+      <c r="H43" s="116"/>
+      <c r="I43" s="116"/>
+      <c r="J43" s="116"/>
+      <c r="K43" s="116"/>
+      <c r="L43" s="116"/>
+      <c r="M43" s="116"/>
+      <c r="N43" s="116"/>
+      <c r="O43" s="116"/>
+      <c r="P43" s="116"/>
+      <c r="Q43" s="116"/>
+      <c r="R43" s="116"/>
+      <c r="S43" s="116"/>
+      <c r="T43" s="116"/>
+      <c r="U43" s="116"/>
+      <c r="V43" s="116"/>
+      <c r="W43" s="116"/>
+      <c r="X43" s="116"/>
     </row>
     <row r="44" spans="3:31" x14ac:dyDescent="0.2">
       <c r="D44" s="66" t="s">
@@ -8386,12 +8395,12 @@
         <f>IF(F45=F32,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G46" s="111" t="str">
+      <c r="G46" s="113" t="str">
         <f>master!G27</f>
         <v>england</v>
       </c>
       <c r="M46" s="64"/>
-      <c r="P46" s="113" t="str">
+      <c r="P46" s="115" t="str">
         <f>master!K27</f>
         <v>france</v>
       </c>
@@ -8412,12 +8421,12 @@
       <c r="F47" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="G47" s="112"/>
+      <c r="G47" s="114"/>
       <c r="M47" s="67"/>
       <c r="N47" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="P47" s="113"/>
+      <c r="P47" s="115"/>
       <c r="V47" s="90" t="s">
         <v>238</v>
       </c>
@@ -8446,7 +8455,7 @@
       <c r="L48" s="65" t="s">
         <v>224</v>
       </c>
-      <c r="N48" s="113" t="str">
+      <c r="N48" s="115" t="str">
         <f>master!I29</f>
         <v>france</v>
       </c>
@@ -8475,12 +8484,12 @@
         <f>IF(F48=F35,2,0)</f>
         <v>2</v>
       </c>
-      <c r="L49" s="113" t="str">
+      <c r="L49" s="115" t="str">
         <f>master!H30</f>
         <v>england</v>
       </c>
-      <c r="N49" s="113"/>
-      <c r="O49" s="113" t="str">
+      <c r="N49" s="115"/>
+      <c r="O49" s="115" t="str">
         <f>master!J30</f>
         <v>france</v>
       </c>
@@ -8501,12 +8510,12 @@
       <c r="F50" s="65" t="s">
         <v>235</v>
       </c>
-      <c r="L50" s="113"/>
+      <c r="L50" s="115"/>
       <c r="N50" s="64">
         <f>IF(N48=N35,10,0)</f>
         <v>10</v>
       </c>
-      <c r="O50" s="113"/>
+      <c r="O50" s="115"/>
       <c r="V50" s="65" t="s">
         <v>239</v>
       </c>
@@ -8559,11 +8568,11 @@
         <f>IF(F51=F38,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G52" s="111" t="str">
+      <c r="G52" s="113" t="str">
         <f>master!G33</f>
         <v>spain</v>
       </c>
-      <c r="P52" s="113" t="str">
+      <c r="P52" s="115" t="str">
         <f>master!K33</f>
         <v>usa</v>
       </c>
@@ -8584,8 +8593,8 @@
       <c r="F53" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="G53" s="112"/>
-      <c r="P53" s="113"/>
+      <c r="G53" s="114"/>
+      <c r="P53" s="115"/>
       <c r="V53" s="65" t="s">
         <v>240</v>
       </c>
@@ -8705,6 +8714,19 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="D43:X43"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="P46:P47"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="AE38:AE39"/>
     <mergeCell ref="G39:G40"/>
@@ -8717,19 +8739,6 @@
     <mergeCell ref="L36:L37"/>
     <mergeCell ref="O36:O37"/>
     <mergeCell ref="N35:N36"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="D43:X43"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="P46:P47"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="O49:O50"/>
   </mergeCells>
   <conditionalFormatting sqref="L10 V10 L17 V17 L24 V24">
     <cfRule type="cellIs" dxfId="32" priority="6" operator="equal">
@@ -8791,14 +8800,14 @@
       <c r="A2" s="70">
         <v>5</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="112" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
       <c r="H2" s="66">
         <v>5</v>
       </c>
@@ -8807,14 +8816,14 @@
       <c r="A3" s="78">
         <v>4</v>
       </c>
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
       <c r="H3" s="66">
         <v>4</v>
       </c>
@@ -8823,14 +8832,14 @@
       <c r="A4" s="73">
         <v>3</v>
       </c>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="112" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
       <c r="H4" s="66">
         <v>3</v>
       </c>
@@ -8839,14 +8848,14 @@
       <c r="A5" s="79">
         <v>2</v>
       </c>
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="112" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
       <c r="H5" s="66">
         <v>2</v>
       </c>
@@ -8855,14 +8864,14 @@
       <c r="A6" s="71">
         <v>1</v>
       </c>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
       <c r="H6" s="66">
         <v>1</v>
       </c>
@@ -9702,19 +9711,19 @@
       <c r="K41" s="64"/>
     </row>
     <row r="42" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="J42" s="114" t="s">
+      <c r="J42" s="116" t="s">
         <v>254</v>
       </c>
-      <c r="K42" s="114"/>
-      <c r="L42" s="114"/>
-      <c r="M42" s="114"/>
-      <c r="N42" s="114"/>
-      <c r="O42" s="114"/>
-      <c r="P42" s="114"/>
-      <c r="Q42" s="114"/>
-      <c r="R42" s="114"/>
-      <c r="S42" s="114"/>
-      <c r="T42" s="114"/>
+      <c r="K42" s="116"/>
+      <c r="L42" s="116"/>
+      <c r="M42" s="116"/>
+      <c r="N42" s="116"/>
+      <c r="O42" s="116"/>
+      <c r="P42" s="116"/>
+      <c r="Q42" s="116"/>
+      <c r="R42" s="116"/>
+      <c r="S42" s="116"/>
+      <c r="T42" s="116"/>
       <c r="U42" s="80"/>
       <c r="V42" s="80"/>
       <c r="W42" s="80"/>
@@ -9781,11 +9790,11 @@
         <f>IF(L44=L31,2,0)</f>
         <v>0</v>
       </c>
-      <c r="M45" s="111" t="str">
+      <c r="M45" s="113" t="str">
         <f>master!G27</f>
         <v>england</v>
       </c>
-      <c r="Q45" s="111" t="str">
+      <c r="Q45" s="113" t="str">
         <f>master!K27</f>
         <v>france</v>
       </c>
@@ -9806,7 +9815,7 @@
       <c r="L46" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="M46" s="112"/>
+      <c r="M46" s="114"/>
       <c r="O46" s="65" t="s">
         <v>151</v>
       </c>
@@ -9953,11 +9962,11 @@
         <f>IF(L50=L37,2,0)</f>
         <v>2</v>
       </c>
-      <c r="M51" s="111" t="str">
+      <c r="M51" s="113" t="str">
         <f>master!G33</f>
         <v>spain</v>
       </c>
-      <c r="Q51" s="111" t="str">
+      <c r="Q51" s="113" t="str">
         <f>master!K33</f>
         <v>usa</v>
       </c>
@@ -9978,7 +9987,7 @@
       <c r="L52" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="M52" s="112"/>
+      <c r="M52" s="114"/>
       <c r="Q52" s="119"/>
       <c r="R52" s="65" t="s">
         <v>240</v>
@@ -10072,6 +10081,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="J42:T42"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="Q51:Q52"/>
     <mergeCell ref="M32:M33"/>
     <mergeCell ref="Q45:Q46"/>
     <mergeCell ref="B2:G2"/>
@@ -10079,11 +10093,6 @@
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="B6:G6"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="J42:T42"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="Q51:Q52"/>
   </mergeCells>
   <conditionalFormatting sqref="H10 M10 H17 M17 H24 M24">
     <cfRule type="cellIs" dxfId="27" priority="14" operator="equal">
@@ -10166,14 +10175,14 @@
       <c r="A2" s="70">
         <v>5</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="112" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
       <c r="H2" s="66">
         <v>5</v>
       </c>
@@ -10182,14 +10191,14 @@
       <c r="A3" s="78">
         <v>4</v>
       </c>
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
       <c r="H3" s="66">
         <v>4</v>
       </c>
@@ -10198,14 +10207,14 @@
       <c r="A4" s="73">
         <v>3</v>
       </c>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="112" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
       <c r="H4" s="66">
         <v>3</v>
       </c>
@@ -10214,14 +10223,14 @@
       <c r="A5" s="79">
         <v>2</v>
       </c>
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="112" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
       <c r="H5" s="66">
         <v>2</v>
       </c>
@@ -10230,14 +10239,14 @@
       <c r="A6" s="71">
         <v>1</v>
       </c>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
       <c r="H6" s="66">
         <v>1</v>
       </c>
@@ -11057,19 +11066,19 @@
       <c r="K41" s="64"/>
     </row>
     <row r="42" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="J42" s="114" t="s">
+      <c r="J42" s="116" t="s">
         <v>254</v>
       </c>
-      <c r="K42" s="114"/>
-      <c r="L42" s="114"/>
-      <c r="M42" s="114"/>
-      <c r="N42" s="114"/>
-      <c r="O42" s="114"/>
-      <c r="P42" s="114"/>
-      <c r="Q42" s="114"/>
-      <c r="R42" s="114"/>
-      <c r="S42" s="114"/>
-      <c r="T42" s="114"/>
+      <c r="K42" s="116"/>
+      <c r="L42" s="116"/>
+      <c r="M42" s="116"/>
+      <c r="N42" s="116"/>
+      <c r="O42" s="116"/>
+      <c r="P42" s="116"/>
+      <c r="Q42" s="116"/>
+      <c r="R42" s="116"/>
+      <c r="S42" s="116"/>
+      <c r="T42" s="116"/>
     </row>
     <row r="43" spans="9:20" x14ac:dyDescent="0.2">
       <c r="J43" s="66" t="s">
@@ -11126,11 +11135,11 @@
         <f>IF(L44=L31,2,0)</f>
         <v>2</v>
       </c>
-      <c r="M45" s="111" t="str">
+      <c r="M45" s="113" t="str">
         <f>master!G27</f>
         <v>england</v>
       </c>
-      <c r="Q45" s="111" t="str">
+      <c r="Q45" s="113" t="str">
         <f>master!K27</f>
         <v>france</v>
       </c>
@@ -11151,7 +11160,7 @@
       <c r="L46" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="M46" s="112"/>
+      <c r="M46" s="114"/>
       <c r="O46" s="65" t="s">
         <v>151</v>
       </c>
@@ -11298,11 +11307,11 @@
         <f>IF(L50=L37,2,0)</f>
         <v>0</v>
       </c>
-      <c r="M51" s="111" t="str">
+      <c r="M51" s="113" t="str">
         <f>master!G33</f>
         <v>spain</v>
       </c>
-      <c r="Q51" s="111" t="str">
+      <c r="Q51" s="113" t="str">
         <f>master!K33</f>
         <v>usa</v>
       </c>
@@ -11323,7 +11332,7 @@
       <c r="L52" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="M52" s="112"/>
+      <c r="M52" s="114"/>
       <c r="Q52" s="119"/>
       <c r="R52" s="65" t="s">
         <v>240</v>
@@ -11415,11 +11424,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
     <mergeCell ref="M51:M52"/>
     <mergeCell ref="Q51:Q52"/>
     <mergeCell ref="M32:M33"/>
@@ -11427,6 +11431,11 @@
     <mergeCell ref="J42:T42"/>
     <mergeCell ref="M45:M46"/>
     <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <conditionalFormatting sqref="H10 N10 H17 N17 H24 N24">
     <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">

--- a/excel-docs/euro - lifecycle info.xlsx
+++ b/excel-docs/euro - lifecycle info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseph.collins/Documents/personal-projects/euro/2024_euro/excel-docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0AB45F-82EE-8342-8B7D-A5ED308EC1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839C5568-011B-C342-A416-A7937D7349C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34560" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{D89656BD-B983-D041-A997-C1184058734E}"/>
   </bookViews>
@@ -916,7 +916,7 @@
 -mobile view</t>
   </si>
   <si>
-    <t>Header &gt; Misc Header Data --- bring in the loadUsersWhoNeedWebsiteUpdatedEmails func</t>
+    <t>Header &gt; Misc Header Data &gt; Admin_Cont --- bring in the loadUsersWhoNeedWebsiteUpdatedEmails func</t>
   </si>
 </sst>
 </file>
@@ -1510,10 +1510,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1525,6 +1521,10 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2734,14 +2734,14 @@
       <c r="A2" s="70">
         <v>5</v>
       </c>
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
       <c r="H2" s="66">
         <v>5</v>
       </c>
@@ -2750,14 +2750,14 @@
       <c r="A3" s="78">
         <v>4</v>
       </c>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="115" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
       <c r="H3" s="66">
         <v>4</v>
       </c>
@@ -2766,14 +2766,14 @@
       <c r="A4" s="73">
         <v>3</v>
       </c>
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="115" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
       <c r="H4" s="66">
         <v>3</v>
       </c>
@@ -2782,14 +2782,14 @@
       <c r="A5" s="79">
         <v>2</v>
       </c>
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="115" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
       <c r="H5" s="66">
         <v>2</v>
       </c>
@@ -2798,14 +2798,14 @@
       <c r="A6" s="71">
         <v>1</v>
       </c>
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="115" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
       <c r="H6" s="66">
         <v>1</v>
       </c>
@@ -3625,19 +3625,19 @@
       <c r="K41" s="64"/>
     </row>
     <row r="42" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="J42" s="116" t="s">
+      <c r="J42" s="114" t="s">
         <v>254</v>
       </c>
-      <c r="K42" s="116"/>
-      <c r="L42" s="116"/>
-      <c r="M42" s="116"/>
-      <c r="N42" s="116"/>
-      <c r="O42" s="116"/>
-      <c r="P42" s="116"/>
-      <c r="Q42" s="116"/>
-      <c r="R42" s="116"/>
-      <c r="S42" s="116"/>
-      <c r="T42" s="116"/>
+      <c r="K42" s="114"/>
+      <c r="L42" s="114"/>
+      <c r="M42" s="114"/>
+      <c r="N42" s="114"/>
+      <c r="O42" s="114"/>
+      <c r="P42" s="114"/>
+      <c r="Q42" s="114"/>
+      <c r="R42" s="114"/>
+      <c r="S42" s="114"/>
+      <c r="T42" s="114"/>
     </row>
     <row r="43" spans="9:20" x14ac:dyDescent="0.2">
       <c r="J43" s="66" t="s">
@@ -3694,11 +3694,11 @@
         <f>IF(L44=L31,2,0)</f>
         <v>0</v>
       </c>
-      <c r="M45" s="113" t="str">
+      <c r="M45" s="111" t="str">
         <f>master!G27</f>
         <v>england</v>
       </c>
-      <c r="Q45" s="113" t="str">
+      <c r="Q45" s="111" t="str">
         <f>master!K27</f>
         <v>france</v>
       </c>
@@ -3719,7 +3719,7 @@
       <c r="L46" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="M46" s="114"/>
+      <c r="M46" s="112"/>
       <c r="O46" s="65" t="s">
         <v>151</v>
       </c>
@@ -3866,11 +3866,11 @@
         <f>IF(L50=L37,2,0)</f>
         <v>2</v>
       </c>
-      <c r="M51" s="113" t="str">
+      <c r="M51" s="111" t="str">
         <f>master!G33</f>
         <v>spain</v>
       </c>
-      <c r="Q51" s="113" t="str">
+      <c r="Q51" s="111" t="str">
         <f>master!K33</f>
         <v>usa</v>
       </c>
@@ -3891,7 +3891,7 @@
       <c r="L52" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="M52" s="114"/>
+      <c r="M52" s="112"/>
       <c r="Q52" s="119"/>
       <c r="R52" s="65" t="s">
         <v>240</v>
@@ -3983,6 +3983,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
     <mergeCell ref="M51:M52"/>
     <mergeCell ref="Q51:Q52"/>
     <mergeCell ref="M32:M33"/>
@@ -3990,11 +3995,6 @@
     <mergeCell ref="J42:T42"/>
     <mergeCell ref="M45:M46"/>
     <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <conditionalFormatting sqref="H10 N10 H17 N17 H24 N24">
     <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
@@ -4077,14 +4077,14 @@
       <c r="A2" s="70">
         <v>5</v>
       </c>
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
       <c r="H2" s="66">
         <v>5</v>
       </c>
@@ -4093,14 +4093,14 @@
       <c r="A3" s="78">
         <v>4</v>
       </c>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="115" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
       <c r="H3" s="66">
         <v>4</v>
       </c>
@@ -4109,14 +4109,14 @@
       <c r="A4" s="73">
         <v>3</v>
       </c>
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="115" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
       <c r="H4" s="66">
         <v>3</v>
       </c>
@@ -4125,14 +4125,14 @@
       <c r="A5" s="79">
         <v>2</v>
       </c>
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="115" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
       <c r="H5" s="66">
         <v>2</v>
       </c>
@@ -4141,14 +4141,14 @@
       <c r="A6" s="71">
         <v>1</v>
       </c>
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="115" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
       <c r="H6" s="66">
         <v>1</v>
       </c>
@@ -4968,19 +4968,19 @@
       <c r="K41" s="64"/>
     </row>
     <row r="42" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="J42" s="116" t="s">
+      <c r="J42" s="114" t="s">
         <v>254</v>
       </c>
-      <c r="K42" s="116"/>
-      <c r="L42" s="116"/>
-      <c r="M42" s="116"/>
-      <c r="N42" s="116"/>
-      <c r="O42" s="116"/>
-      <c r="P42" s="116"/>
-      <c r="Q42" s="116"/>
-      <c r="R42" s="116"/>
-      <c r="S42" s="116"/>
-      <c r="T42" s="116"/>
+      <c r="K42" s="114"/>
+      <c r="L42" s="114"/>
+      <c r="M42" s="114"/>
+      <c r="N42" s="114"/>
+      <c r="O42" s="114"/>
+      <c r="P42" s="114"/>
+      <c r="Q42" s="114"/>
+      <c r="R42" s="114"/>
+      <c r="S42" s="114"/>
+      <c r="T42" s="114"/>
     </row>
     <row r="43" spans="9:20" x14ac:dyDescent="0.2">
       <c r="J43" s="66" t="s">
@@ -5037,11 +5037,11 @@
         <f>IF(L44=L31,2,0)</f>
         <v>2</v>
       </c>
-      <c r="M45" s="113" t="str">
+      <c r="M45" s="111" t="str">
         <f>master!G27</f>
         <v>england</v>
       </c>
-      <c r="Q45" s="113" t="str">
+      <c r="Q45" s="111" t="str">
         <f>master!K27</f>
         <v>france</v>
       </c>
@@ -5062,7 +5062,7 @@
       <c r="L46" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="M46" s="114"/>
+      <c r="M46" s="112"/>
       <c r="O46" s="65" t="s">
         <v>151</v>
       </c>
@@ -5209,11 +5209,11 @@
         <f>IF(L50=L37,2,0)</f>
         <v>0</v>
       </c>
-      <c r="M51" s="113" t="str">
+      <c r="M51" s="111" t="str">
         <f>master!G33</f>
         <v>spain</v>
       </c>
-      <c r="Q51" s="113" t="str">
+      <c r="Q51" s="111" t="str">
         <f>master!K33</f>
         <v>usa</v>
       </c>
@@ -5234,7 +5234,7 @@
       <c r="L52" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="M52" s="114"/>
+      <c r="M52" s="112"/>
       <c r="Q52" s="119"/>
       <c r="R52" s="65" t="s">
         <v>240</v>
@@ -5326,6 +5326,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
     <mergeCell ref="M51:M52"/>
     <mergeCell ref="Q51:Q52"/>
     <mergeCell ref="M32:M33"/>
@@ -5333,11 +5338,6 @@
     <mergeCell ref="J42:T42"/>
     <mergeCell ref="M45:M46"/>
     <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <conditionalFormatting sqref="H10 N10 H17 N17 H24 N24">
     <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
@@ -5409,15 +5409,15 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="114" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="122" t="s">
@@ -5593,15 +5593,15 @@
       <c r="G13" s="121"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="116" t="s">
+      <c r="A16" s="114" t="s">
         <v>241</v>
       </c>
-      <c r="B16" s="116"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="120" t="s">
@@ -5778,6 +5778,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A20:A21"/>
@@ -5794,8 +5796,6 @@
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7074,14 +7074,14 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="68"/>
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
@@ -7092,14 +7092,14 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="77"/>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="115" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -7110,14 +7110,14 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="72"/>
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="115" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -7128,14 +7128,14 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="69"/>
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="115" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
@@ -7146,14 +7146,14 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="22"/>
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="115" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
@@ -8064,7 +8064,7 @@
       <c r="AE30" s="89"/>
     </row>
     <row r="31" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C31" s="111"/>
+      <c r="C31" s="116"/>
       <c r="D31" s="66" t="s">
         <v>210</v>
       </c>
@@ -8086,7 +8086,7 @@
       </c>
     </row>
     <row r="32" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C32" s="111"/>
+      <c r="C32" s="116"/>
       <c r="D32" s="76" t="s">
         <v>220</v>
       </c>
@@ -8131,7 +8131,7 @@
       <c r="AE33" s="89"/>
     </row>
     <row r="34" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C34" s="111"/>
+      <c r="C34" s="116"/>
       <c r="D34" s="70" t="s">
         <v>211</v>
       </c>
@@ -8158,7 +8158,7 @@
       </c>
     </row>
     <row r="35" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C35" s="111"/>
+      <c r="C35" s="116"/>
       <c r="D35" s="70" t="s">
         <v>216</v>
       </c>
@@ -8205,7 +8205,7 @@
       <c r="AE36" s="89"/>
     </row>
     <row r="37" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C37" s="111"/>
+      <c r="C37" s="116"/>
       <c r="D37" s="66" t="s">
         <v>224</v>
       </c>
@@ -8228,7 +8228,7 @@
       </c>
     </row>
     <row r="38" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C38" s="111"/>
+      <c r="C38" s="116"/>
       <c r="D38" s="76" t="s">
         <v>255</v>
       </c>
@@ -8253,7 +8253,7 @@
       <c r="X38" s="76" t="s">
         <v>226</v>
       </c>
-      <c r="AE38" s="111"/>
+      <c r="AE38" s="116"/>
     </row>
     <row r="39" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C39"/>
@@ -8267,10 +8267,10 @@
       </c>
       <c r="W39" s="66"/>
       <c r="X39" s="66"/>
-      <c r="AE39" s="111"/>
+      <c r="AE39" s="116"/>
     </row>
     <row r="40" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C40" s="111"/>
+      <c r="C40" s="116"/>
       <c r="D40" s="70" t="s">
         <v>219</v>
       </c>
@@ -8293,7 +8293,7 @@
       </c>
     </row>
     <row r="41" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C41" s="111"/>
+      <c r="C41" s="116"/>
       <c r="D41" s="70" t="s">
         <v>222</v>
       </c>
@@ -8314,29 +8314,29 @@
       </c>
     </row>
     <row r="43" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="D43" s="116" t="s">
+      <c r="D43" s="114" t="s">
         <v>254</v>
       </c>
-      <c r="E43" s="116"/>
-      <c r="F43" s="116"/>
-      <c r="G43" s="116"/>
-      <c r="H43" s="116"/>
-      <c r="I43" s="116"/>
-      <c r="J43" s="116"/>
-      <c r="K43" s="116"/>
-      <c r="L43" s="116"/>
-      <c r="M43" s="116"/>
-      <c r="N43" s="116"/>
-      <c r="O43" s="116"/>
-      <c r="P43" s="116"/>
-      <c r="Q43" s="116"/>
-      <c r="R43" s="116"/>
-      <c r="S43" s="116"/>
-      <c r="T43" s="116"/>
-      <c r="U43" s="116"/>
-      <c r="V43" s="116"/>
-      <c r="W43" s="116"/>
-      <c r="X43" s="116"/>
+      <c r="E43" s="114"/>
+      <c r="F43" s="114"/>
+      <c r="G43" s="114"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="114"/>
+      <c r="J43" s="114"/>
+      <c r="K43" s="114"/>
+      <c r="L43" s="114"/>
+      <c r="M43" s="114"/>
+      <c r="N43" s="114"/>
+      <c r="O43" s="114"/>
+      <c r="P43" s="114"/>
+      <c r="Q43" s="114"/>
+      <c r="R43" s="114"/>
+      <c r="S43" s="114"/>
+      <c r="T43" s="114"/>
+      <c r="U43" s="114"/>
+      <c r="V43" s="114"/>
+      <c r="W43" s="114"/>
+      <c r="X43" s="114"/>
     </row>
     <row r="44" spans="3:31" x14ac:dyDescent="0.2">
       <c r="D44" s="66" t="s">
@@ -8395,12 +8395,12 @@
         <f>IF(F45=F32,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G46" s="113" t="str">
+      <c r="G46" s="111" t="str">
         <f>master!G27</f>
         <v>england</v>
       </c>
       <c r="M46" s="64"/>
-      <c r="P46" s="115" t="str">
+      <c r="P46" s="113" t="str">
         <f>master!K27</f>
         <v>france</v>
       </c>
@@ -8421,12 +8421,12 @@
       <c r="F47" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="G47" s="114"/>
+      <c r="G47" s="112"/>
       <c r="M47" s="67"/>
       <c r="N47" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="P47" s="115"/>
+      <c r="P47" s="113"/>
       <c r="V47" s="90" t="s">
         <v>238</v>
       </c>
@@ -8455,7 +8455,7 @@
       <c r="L48" s="65" t="s">
         <v>224</v>
       </c>
-      <c r="N48" s="115" t="str">
+      <c r="N48" s="113" t="str">
         <f>master!I29</f>
         <v>france</v>
       </c>
@@ -8484,12 +8484,12 @@
         <f>IF(F48=F35,2,0)</f>
         <v>2</v>
       </c>
-      <c r="L49" s="115" t="str">
+      <c r="L49" s="113" t="str">
         <f>master!H30</f>
         <v>england</v>
       </c>
-      <c r="N49" s="115"/>
-      <c r="O49" s="115" t="str">
+      <c r="N49" s="113"/>
+      <c r="O49" s="113" t="str">
         <f>master!J30</f>
         <v>france</v>
       </c>
@@ -8510,12 +8510,12 @@
       <c r="F50" s="65" t="s">
         <v>235</v>
       </c>
-      <c r="L50" s="115"/>
+      <c r="L50" s="113"/>
       <c r="N50" s="64">
         <f>IF(N48=N35,10,0)</f>
         <v>10</v>
       </c>
-      <c r="O50" s="115"/>
+      <c r="O50" s="113"/>
       <c r="V50" s="65" t="s">
         <v>239</v>
       </c>
@@ -8568,11 +8568,11 @@
         <f>IF(F51=F38,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G52" s="113" t="str">
+      <c r="G52" s="111" t="str">
         <f>master!G33</f>
         <v>spain</v>
       </c>
-      <c r="P52" s="115" t="str">
+      <c r="P52" s="113" t="str">
         <f>master!K33</f>
         <v>usa</v>
       </c>
@@ -8593,8 +8593,8 @@
       <c r="F53" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="G53" s="114"/>
-      <c r="P53" s="115"/>
+      <c r="G53" s="112"/>
+      <c r="P53" s="113"/>
       <c r="V53" s="65" t="s">
         <v>240</v>
       </c>
@@ -8714,19 +8714,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="D43:X43"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="P46:P47"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="AE38:AE39"/>
     <mergeCell ref="G39:G40"/>
@@ -8739,6 +8726,19 @@
     <mergeCell ref="L36:L37"/>
     <mergeCell ref="O36:O37"/>
     <mergeCell ref="N35:N36"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="D43:X43"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="P46:P47"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="O49:O50"/>
   </mergeCells>
   <conditionalFormatting sqref="L10 V10 L17 V17 L24 V24">
     <cfRule type="cellIs" dxfId="32" priority="6" operator="equal">
@@ -8800,14 +8800,14 @@
       <c r="A2" s="70">
         <v>5</v>
       </c>
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
       <c r="H2" s="66">
         <v>5</v>
       </c>
@@ -8816,14 +8816,14 @@
       <c r="A3" s="78">
         <v>4</v>
       </c>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="115" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
       <c r="H3" s="66">
         <v>4</v>
       </c>
@@ -8832,14 +8832,14 @@
       <c r="A4" s="73">
         <v>3</v>
       </c>
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="115" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
       <c r="H4" s="66">
         <v>3</v>
       </c>
@@ -8848,14 +8848,14 @@
       <c r="A5" s="79">
         <v>2</v>
       </c>
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="115" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
       <c r="H5" s="66">
         <v>2</v>
       </c>
@@ -8864,14 +8864,14 @@
       <c r="A6" s="71">
         <v>1</v>
       </c>
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="115" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
       <c r="H6" s="66">
         <v>1</v>
       </c>
@@ -9711,19 +9711,19 @@
       <c r="K41" s="64"/>
     </row>
     <row r="42" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="J42" s="116" t="s">
+      <c r="J42" s="114" t="s">
         <v>254</v>
       </c>
-      <c r="K42" s="116"/>
-      <c r="L42" s="116"/>
-      <c r="M42" s="116"/>
-      <c r="N42" s="116"/>
-      <c r="O42" s="116"/>
-      <c r="P42" s="116"/>
-      <c r="Q42" s="116"/>
-      <c r="R42" s="116"/>
-      <c r="S42" s="116"/>
-      <c r="T42" s="116"/>
+      <c r="K42" s="114"/>
+      <c r="L42" s="114"/>
+      <c r="M42" s="114"/>
+      <c r="N42" s="114"/>
+      <c r="O42" s="114"/>
+      <c r="P42" s="114"/>
+      <c r="Q42" s="114"/>
+      <c r="R42" s="114"/>
+      <c r="S42" s="114"/>
+      <c r="T42" s="114"/>
       <c r="U42" s="80"/>
       <c r="V42" s="80"/>
       <c r="W42" s="80"/>
@@ -9790,11 +9790,11 @@
         <f>IF(L44=L31,2,0)</f>
         <v>0</v>
       </c>
-      <c r="M45" s="113" t="str">
+      <c r="M45" s="111" t="str">
         <f>master!G27</f>
         <v>england</v>
       </c>
-      <c r="Q45" s="113" t="str">
+      <c r="Q45" s="111" t="str">
         <f>master!K27</f>
         <v>france</v>
       </c>
@@ -9815,7 +9815,7 @@
       <c r="L46" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="M46" s="114"/>
+      <c r="M46" s="112"/>
       <c r="O46" s="65" t="s">
         <v>151</v>
       </c>
@@ -9962,11 +9962,11 @@
         <f>IF(L50=L37,2,0)</f>
         <v>2</v>
       </c>
-      <c r="M51" s="113" t="str">
+      <c r="M51" s="111" t="str">
         <f>master!G33</f>
         <v>spain</v>
       </c>
-      <c r="Q51" s="113" t="str">
+      <c r="Q51" s="111" t="str">
         <f>master!K33</f>
         <v>usa</v>
       </c>
@@ -9987,7 +9987,7 @@
       <c r="L52" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="M52" s="114"/>
+      <c r="M52" s="112"/>
       <c r="Q52" s="119"/>
       <c r="R52" s="65" t="s">
         <v>240</v>
@@ -10081,11 +10081,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="J42:T42"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="Q51:Q52"/>
     <mergeCell ref="M32:M33"/>
     <mergeCell ref="Q45:Q46"/>
     <mergeCell ref="B2:G2"/>
@@ -10093,6 +10088,11 @@
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="B6:G6"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="J42:T42"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="Q51:Q52"/>
   </mergeCells>
   <conditionalFormatting sqref="H10 M10 H17 M17 H24 M24">
     <cfRule type="cellIs" dxfId="27" priority="14" operator="equal">
@@ -10175,14 +10175,14 @@
       <c r="A2" s="70">
         <v>5</v>
       </c>
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
       <c r="H2" s="66">
         <v>5</v>
       </c>
@@ -10191,14 +10191,14 @@
       <c r="A3" s="78">
         <v>4</v>
       </c>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="115" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
       <c r="H3" s="66">
         <v>4</v>
       </c>
@@ -10207,14 +10207,14 @@
       <c r="A4" s="73">
         <v>3</v>
       </c>
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="115" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
       <c r="H4" s="66">
         <v>3</v>
       </c>
@@ -10223,14 +10223,14 @@
       <c r="A5" s="79">
         <v>2</v>
       </c>
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="115" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
       <c r="H5" s="66">
         <v>2</v>
       </c>
@@ -10239,14 +10239,14 @@
       <c r="A6" s="71">
         <v>1</v>
       </c>
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="115" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
       <c r="H6" s="66">
         <v>1</v>
       </c>
@@ -11066,19 +11066,19 @@
       <c r="K41" s="64"/>
     </row>
     <row r="42" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="J42" s="116" t="s">
+      <c r="J42" s="114" t="s">
         <v>254</v>
       </c>
-      <c r="K42" s="116"/>
-      <c r="L42" s="116"/>
-      <c r="M42" s="116"/>
-      <c r="N42" s="116"/>
-      <c r="O42" s="116"/>
-      <c r="P42" s="116"/>
-      <c r="Q42" s="116"/>
-      <c r="R42" s="116"/>
-      <c r="S42" s="116"/>
-      <c r="T42" s="116"/>
+      <c r="K42" s="114"/>
+      <c r="L42" s="114"/>
+      <c r="M42" s="114"/>
+      <c r="N42" s="114"/>
+      <c r="O42" s="114"/>
+      <c r="P42" s="114"/>
+      <c r="Q42" s="114"/>
+      <c r="R42" s="114"/>
+      <c r="S42" s="114"/>
+      <c r="T42" s="114"/>
     </row>
     <row r="43" spans="9:20" x14ac:dyDescent="0.2">
       <c r="J43" s="66" t="s">
@@ -11135,11 +11135,11 @@
         <f>IF(L44=L31,2,0)</f>
         <v>2</v>
       </c>
-      <c r="M45" s="113" t="str">
+      <c r="M45" s="111" t="str">
         <f>master!G27</f>
         <v>england</v>
       </c>
-      <c r="Q45" s="113" t="str">
+      <c r="Q45" s="111" t="str">
         <f>master!K27</f>
         <v>france</v>
       </c>
@@ -11160,7 +11160,7 @@
       <c r="L46" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="M46" s="114"/>
+      <c r="M46" s="112"/>
       <c r="O46" s="65" t="s">
         <v>151</v>
       </c>
@@ -11307,11 +11307,11 @@
         <f>IF(L50=L37,2,0)</f>
         <v>0</v>
       </c>
-      <c r="M51" s="113" t="str">
+      <c r="M51" s="111" t="str">
         <f>master!G33</f>
         <v>spain</v>
       </c>
-      <c r="Q51" s="113" t="str">
+      <c r="Q51" s="111" t="str">
         <f>master!K33</f>
         <v>usa</v>
       </c>
@@ -11332,7 +11332,7 @@
       <c r="L52" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="M52" s="114"/>
+      <c r="M52" s="112"/>
       <c r="Q52" s="119"/>
       <c r="R52" s="65" t="s">
         <v>240</v>
@@ -11424,6 +11424,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
     <mergeCell ref="M51:M52"/>
     <mergeCell ref="Q51:Q52"/>
     <mergeCell ref="M32:M33"/>
@@ -11431,11 +11436,6 @@
     <mergeCell ref="J42:T42"/>
     <mergeCell ref="M45:M46"/>
     <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <conditionalFormatting sqref="H10 N10 H17 N17 H24 N24">
     <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">

--- a/excel-docs/euro - lifecycle info.xlsx
+++ b/excel-docs/euro - lifecycle info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseph.collins/Documents/personal-projects/euro/2024_euro/excel-docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839C5568-011B-C342-A416-A7937D7349C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2E044C-E03C-0C4F-AD39-C24FCBCF3DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34560" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{D89656BD-B983-D041-A997-C1184058734E}"/>
   </bookViews>
@@ -1510,6 +1510,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1521,10 +1525,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2102,7 +2102,7 @@
   </sheetPr>
   <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="160" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2734,14 +2734,14 @@
       <c r="A2" s="70">
         <v>5</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="112" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
       <c r="H2" s="66">
         <v>5</v>
       </c>
@@ -2750,14 +2750,14 @@
       <c r="A3" s="78">
         <v>4</v>
       </c>
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
       <c r="H3" s="66">
         <v>4</v>
       </c>
@@ -2766,14 +2766,14 @@
       <c r="A4" s="73">
         <v>3</v>
       </c>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="112" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
       <c r="H4" s="66">
         <v>3</v>
       </c>
@@ -2782,14 +2782,14 @@
       <c r="A5" s="79">
         <v>2</v>
       </c>
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="112" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
       <c r="H5" s="66">
         <v>2</v>
       </c>
@@ -2798,14 +2798,14 @@
       <c r="A6" s="71">
         <v>1</v>
       </c>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
       <c r="H6" s="66">
         <v>1</v>
       </c>
@@ -3625,19 +3625,19 @@
       <c r="K41" s="64"/>
     </row>
     <row r="42" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="J42" s="114" t="s">
+      <c r="J42" s="116" t="s">
         <v>254</v>
       </c>
-      <c r="K42" s="114"/>
-      <c r="L42" s="114"/>
-      <c r="M42" s="114"/>
-      <c r="N42" s="114"/>
-      <c r="O42" s="114"/>
-      <c r="P42" s="114"/>
-      <c r="Q42" s="114"/>
-      <c r="R42" s="114"/>
-      <c r="S42" s="114"/>
-      <c r="T42" s="114"/>
+      <c r="K42" s="116"/>
+      <c r="L42" s="116"/>
+      <c r="M42" s="116"/>
+      <c r="N42" s="116"/>
+      <c r="O42" s="116"/>
+      <c r="P42" s="116"/>
+      <c r="Q42" s="116"/>
+      <c r="R42" s="116"/>
+      <c r="S42" s="116"/>
+      <c r="T42" s="116"/>
     </row>
     <row r="43" spans="9:20" x14ac:dyDescent="0.2">
       <c r="J43" s="66" t="s">
@@ -3694,11 +3694,11 @@
         <f>IF(L44=L31,2,0)</f>
         <v>0</v>
       </c>
-      <c r="M45" s="111" t="str">
+      <c r="M45" s="113" t="str">
         <f>master!G27</f>
         <v>england</v>
       </c>
-      <c r="Q45" s="111" t="str">
+      <c r="Q45" s="113" t="str">
         <f>master!K27</f>
         <v>france</v>
       </c>
@@ -3719,7 +3719,7 @@
       <c r="L46" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="M46" s="112"/>
+      <c r="M46" s="114"/>
       <c r="O46" s="65" t="s">
         <v>151</v>
       </c>
@@ -3866,11 +3866,11 @@
         <f>IF(L50=L37,2,0)</f>
         <v>2</v>
       </c>
-      <c r="M51" s="111" t="str">
+      <c r="M51" s="113" t="str">
         <f>master!G33</f>
         <v>spain</v>
       </c>
-      <c r="Q51" s="111" t="str">
+      <c r="Q51" s="113" t="str">
         <f>master!K33</f>
         <v>usa</v>
       </c>
@@ -3891,7 +3891,7 @@
       <c r="L52" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="M52" s="112"/>
+      <c r="M52" s="114"/>
       <c r="Q52" s="119"/>
       <c r="R52" s="65" t="s">
         <v>240</v>
@@ -3983,11 +3983,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
     <mergeCell ref="M51:M52"/>
     <mergeCell ref="Q51:Q52"/>
     <mergeCell ref="M32:M33"/>
@@ -3995,6 +3990,11 @@
     <mergeCell ref="J42:T42"/>
     <mergeCell ref="M45:M46"/>
     <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <conditionalFormatting sqref="H10 N10 H17 N17 H24 N24">
     <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
@@ -4077,14 +4077,14 @@
       <c r="A2" s="70">
         <v>5</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="112" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
       <c r="H2" s="66">
         <v>5</v>
       </c>
@@ -4093,14 +4093,14 @@
       <c r="A3" s="78">
         <v>4</v>
       </c>
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
       <c r="H3" s="66">
         <v>4</v>
       </c>
@@ -4109,14 +4109,14 @@
       <c r="A4" s="73">
         <v>3</v>
       </c>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="112" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
       <c r="H4" s="66">
         <v>3</v>
       </c>
@@ -4125,14 +4125,14 @@
       <c r="A5" s="79">
         <v>2</v>
       </c>
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="112" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
       <c r="H5" s="66">
         <v>2</v>
       </c>
@@ -4141,14 +4141,14 @@
       <c r="A6" s="71">
         <v>1</v>
       </c>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
       <c r="H6" s="66">
         <v>1</v>
       </c>
@@ -4968,19 +4968,19 @@
       <c r="K41" s="64"/>
     </row>
     <row r="42" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="J42" s="114" t="s">
+      <c r="J42" s="116" t="s">
         <v>254</v>
       </c>
-      <c r="K42" s="114"/>
-      <c r="L42" s="114"/>
-      <c r="M42" s="114"/>
-      <c r="N42" s="114"/>
-      <c r="O42" s="114"/>
-      <c r="P42" s="114"/>
-      <c r="Q42" s="114"/>
-      <c r="R42" s="114"/>
-      <c r="S42" s="114"/>
-      <c r="T42" s="114"/>
+      <c r="K42" s="116"/>
+      <c r="L42" s="116"/>
+      <c r="M42" s="116"/>
+      <c r="N42" s="116"/>
+      <c r="O42" s="116"/>
+      <c r="P42" s="116"/>
+      <c r="Q42" s="116"/>
+      <c r="R42" s="116"/>
+      <c r="S42" s="116"/>
+      <c r="T42" s="116"/>
     </row>
     <row r="43" spans="9:20" x14ac:dyDescent="0.2">
       <c r="J43" s="66" t="s">
@@ -5037,11 +5037,11 @@
         <f>IF(L44=L31,2,0)</f>
         <v>2</v>
       </c>
-      <c r="M45" s="111" t="str">
+      <c r="M45" s="113" t="str">
         <f>master!G27</f>
         <v>england</v>
       </c>
-      <c r="Q45" s="111" t="str">
+      <c r="Q45" s="113" t="str">
         <f>master!K27</f>
         <v>france</v>
       </c>
@@ -5062,7 +5062,7 @@
       <c r="L46" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="M46" s="112"/>
+      <c r="M46" s="114"/>
       <c r="O46" s="65" t="s">
         <v>151</v>
       </c>
@@ -5209,11 +5209,11 @@
         <f>IF(L50=L37,2,0)</f>
         <v>0</v>
       </c>
-      <c r="M51" s="111" t="str">
+      <c r="M51" s="113" t="str">
         <f>master!G33</f>
         <v>spain</v>
       </c>
-      <c r="Q51" s="111" t="str">
+      <c r="Q51" s="113" t="str">
         <f>master!K33</f>
         <v>usa</v>
       </c>
@@ -5234,7 +5234,7 @@
       <c r="L52" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="M52" s="112"/>
+      <c r="M52" s="114"/>
       <c r="Q52" s="119"/>
       <c r="R52" s="65" t="s">
         <v>240</v>
@@ -5326,11 +5326,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
     <mergeCell ref="M51:M52"/>
     <mergeCell ref="Q51:Q52"/>
     <mergeCell ref="M32:M33"/>
@@ -5338,6 +5333,11 @@
     <mergeCell ref="J42:T42"/>
     <mergeCell ref="M45:M46"/>
     <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <conditionalFormatting sqref="H10 N10 H17 N17 H24 N24">
     <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
@@ -5409,15 +5409,15 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="116" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="122" t="s">
@@ -5593,15 +5593,15 @@
       <c r="G13" s="121"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="114" t="s">
+      <c r="A16" s="116" t="s">
         <v>241</v>
       </c>
-      <c r="B16" s="114"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="120" t="s">
@@ -5778,11 +5778,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="G3:G4"/>
@@ -5796,6 +5791,11 @@
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7074,14 +7074,14 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="68"/>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="112" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
@@ -7092,14 +7092,14 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="77"/>
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -7110,14 +7110,14 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="72"/>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="112" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -7128,14 +7128,14 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="69"/>
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="112" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
@@ -7146,14 +7146,14 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="22"/>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
@@ -8064,7 +8064,7 @@
       <c r="AE30" s="89"/>
     </row>
     <row r="31" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C31" s="116"/>
+      <c r="C31" s="111"/>
       <c r="D31" s="66" t="s">
         <v>210</v>
       </c>
@@ -8086,7 +8086,7 @@
       </c>
     </row>
     <row r="32" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C32" s="116"/>
+      <c r="C32" s="111"/>
       <c r="D32" s="76" t="s">
         <v>220</v>
       </c>
@@ -8131,7 +8131,7 @@
       <c r="AE33" s="89"/>
     </row>
     <row r="34" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C34" s="116"/>
+      <c r="C34" s="111"/>
       <c r="D34" s="70" t="s">
         <v>211</v>
       </c>
@@ -8158,7 +8158,7 @@
       </c>
     </row>
     <row r="35" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C35" s="116"/>
+      <c r="C35" s="111"/>
       <c r="D35" s="70" t="s">
         <v>216</v>
       </c>
@@ -8205,7 +8205,7 @@
       <c r="AE36" s="89"/>
     </row>
     <row r="37" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C37" s="116"/>
+      <c r="C37" s="111"/>
       <c r="D37" s="66" t="s">
         <v>224</v>
       </c>
@@ -8228,7 +8228,7 @@
       </c>
     </row>
     <row r="38" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C38" s="116"/>
+      <c r="C38" s="111"/>
       <c r="D38" s="76" t="s">
         <v>255</v>
       </c>
@@ -8253,7 +8253,7 @@
       <c r="X38" s="76" t="s">
         <v>226</v>
       </c>
-      <c r="AE38" s="116"/>
+      <c r="AE38" s="111"/>
     </row>
     <row r="39" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C39"/>
@@ -8267,10 +8267,10 @@
       </c>
       <c r="W39" s="66"/>
       <c r="X39" s="66"/>
-      <c r="AE39" s="116"/>
+      <c r="AE39" s="111"/>
     </row>
     <row r="40" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C40" s="116"/>
+      <c r="C40" s="111"/>
       <c r="D40" s="70" t="s">
         <v>219</v>
       </c>
@@ -8293,7 +8293,7 @@
       </c>
     </row>
     <row r="41" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C41" s="116"/>
+      <c r="C41" s="111"/>
       <c r="D41" s="70" t="s">
         <v>222</v>
       </c>
@@ -8314,29 +8314,29 @@
       </c>
     </row>
     <row r="43" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="D43" s="114" t="s">
+      <c r="D43" s="116" t="s">
         <v>254</v>
       </c>
-      <c r="E43" s="114"/>
-      <c r="F43" s="114"/>
-      <c r="G43" s="114"/>
-      <c r="H43" s="114"/>
-      <c r="I43" s="114"/>
-      <c r="J43" s="114"/>
-      <c r="K43" s="114"/>
-      <c r="L43" s="114"/>
-      <c r="M43" s="114"/>
-      <c r="N43" s="114"/>
-      <c r="O43" s="114"/>
-      <c r="P43" s="114"/>
-      <c r="Q43" s="114"/>
-      <c r="R43" s="114"/>
-      <c r="S43" s="114"/>
-      <c r="T43" s="114"/>
-      <c r="U43" s="114"/>
-      <c r="V43" s="114"/>
-      <c r="W43" s="114"/>
-      <c r="X43" s="114"/>
+      <c r="E43" s="116"/>
+      <c r="F43" s="116"/>
+      <c r="G43" s="116"/>
+      <c r="H43" s="116"/>
+      <c r="I43" s="116"/>
+      <c r="J43" s="116"/>
+      <c r="K43" s="116"/>
+      <c r="L43" s="116"/>
+      <c r="M43" s="116"/>
+      <c r="N43" s="116"/>
+      <c r="O43" s="116"/>
+      <c r="P43" s="116"/>
+      <c r="Q43" s="116"/>
+      <c r="R43" s="116"/>
+      <c r="S43" s="116"/>
+      <c r="T43" s="116"/>
+      <c r="U43" s="116"/>
+      <c r="V43" s="116"/>
+      <c r="W43" s="116"/>
+      <c r="X43" s="116"/>
     </row>
     <row r="44" spans="3:31" x14ac:dyDescent="0.2">
       <c r="D44" s="66" t="s">
@@ -8395,12 +8395,12 @@
         <f>IF(F45=F32,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G46" s="111" t="str">
+      <c r="G46" s="113" t="str">
         <f>master!G27</f>
         <v>england</v>
       </c>
       <c r="M46" s="64"/>
-      <c r="P46" s="113" t="str">
+      <c r="P46" s="115" t="str">
         <f>master!K27</f>
         <v>france</v>
       </c>
@@ -8421,12 +8421,12 @@
       <c r="F47" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="G47" s="112"/>
+      <c r="G47" s="114"/>
       <c r="M47" s="67"/>
       <c r="N47" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="P47" s="113"/>
+      <c r="P47" s="115"/>
       <c r="V47" s="90" t="s">
         <v>238</v>
       </c>
@@ -8455,7 +8455,7 @@
       <c r="L48" s="65" t="s">
         <v>224</v>
       </c>
-      <c r="N48" s="113" t="str">
+      <c r="N48" s="115" t="str">
         <f>master!I29</f>
         <v>france</v>
       </c>
@@ -8484,12 +8484,12 @@
         <f>IF(F48=F35,2,0)</f>
         <v>2</v>
       </c>
-      <c r="L49" s="113" t="str">
+      <c r="L49" s="115" t="str">
         <f>master!H30</f>
         <v>england</v>
       </c>
-      <c r="N49" s="113"/>
-      <c r="O49" s="113" t="str">
+      <c r="N49" s="115"/>
+      <c r="O49" s="115" t="str">
         <f>master!J30</f>
         <v>france</v>
       </c>
@@ -8510,12 +8510,12 @@
       <c r="F50" s="65" t="s">
         <v>235</v>
       </c>
-      <c r="L50" s="113"/>
+      <c r="L50" s="115"/>
       <c r="N50" s="64">
         <f>IF(N48=N35,10,0)</f>
         <v>10</v>
       </c>
-      <c r="O50" s="113"/>
+      <c r="O50" s="115"/>
       <c r="V50" s="65" t="s">
         <v>239</v>
       </c>
@@ -8568,11 +8568,11 @@
         <f>IF(F51=F38,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G52" s="111" t="str">
+      <c r="G52" s="113" t="str">
         <f>master!G33</f>
         <v>spain</v>
       </c>
-      <c r="P52" s="113" t="str">
+      <c r="P52" s="115" t="str">
         <f>master!K33</f>
         <v>usa</v>
       </c>
@@ -8593,8 +8593,8 @@
       <c r="F53" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="G53" s="112"/>
-      <c r="P53" s="113"/>
+      <c r="G53" s="114"/>
+      <c r="P53" s="115"/>
       <c r="V53" s="65" t="s">
         <v>240</v>
       </c>
@@ -8714,6 +8714,19 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="D43:X43"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="P46:P47"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="AE38:AE39"/>
     <mergeCell ref="G39:G40"/>
@@ -8726,19 +8739,6 @@
     <mergeCell ref="L36:L37"/>
     <mergeCell ref="O36:O37"/>
     <mergeCell ref="N35:N36"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="D43:X43"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="P46:P47"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="O49:O50"/>
   </mergeCells>
   <conditionalFormatting sqref="L10 V10 L17 V17 L24 V24">
     <cfRule type="cellIs" dxfId="32" priority="6" operator="equal">
@@ -8800,14 +8800,14 @@
       <c r="A2" s="70">
         <v>5</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="112" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
       <c r="H2" s="66">
         <v>5</v>
       </c>
@@ -8816,14 +8816,14 @@
       <c r="A3" s="78">
         <v>4</v>
       </c>
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
       <c r="H3" s="66">
         <v>4</v>
       </c>
@@ -8832,14 +8832,14 @@
       <c r="A4" s="73">
         <v>3</v>
       </c>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="112" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
       <c r="H4" s="66">
         <v>3</v>
       </c>
@@ -8848,14 +8848,14 @@
       <c r="A5" s="79">
         <v>2</v>
       </c>
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="112" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
       <c r="H5" s="66">
         <v>2</v>
       </c>
@@ -8864,14 +8864,14 @@
       <c r="A6" s="71">
         <v>1</v>
       </c>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
       <c r="H6" s="66">
         <v>1</v>
       </c>
@@ -9711,19 +9711,19 @@
       <c r="K41" s="64"/>
     </row>
     <row r="42" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="J42" s="114" t="s">
+      <c r="J42" s="116" t="s">
         <v>254</v>
       </c>
-      <c r="K42" s="114"/>
-      <c r="L42" s="114"/>
-      <c r="M42" s="114"/>
-      <c r="N42" s="114"/>
-      <c r="O42" s="114"/>
-      <c r="P42" s="114"/>
-      <c r="Q42" s="114"/>
-      <c r="R42" s="114"/>
-      <c r="S42" s="114"/>
-      <c r="T42" s="114"/>
+      <c r="K42" s="116"/>
+      <c r="L42" s="116"/>
+      <c r="M42" s="116"/>
+      <c r="N42" s="116"/>
+      <c r="O42" s="116"/>
+      <c r="P42" s="116"/>
+      <c r="Q42" s="116"/>
+      <c r="R42" s="116"/>
+      <c r="S42" s="116"/>
+      <c r="T42" s="116"/>
       <c r="U42" s="80"/>
       <c r="V42" s="80"/>
       <c r="W42" s="80"/>
@@ -9790,11 +9790,11 @@
         <f>IF(L44=L31,2,0)</f>
         <v>0</v>
       </c>
-      <c r="M45" s="111" t="str">
+      <c r="M45" s="113" t="str">
         <f>master!G27</f>
         <v>england</v>
       </c>
-      <c r="Q45" s="111" t="str">
+      <c r="Q45" s="113" t="str">
         <f>master!K27</f>
         <v>france</v>
       </c>
@@ -9815,7 +9815,7 @@
       <c r="L46" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="M46" s="112"/>
+      <c r="M46" s="114"/>
       <c r="O46" s="65" t="s">
         <v>151</v>
       </c>
@@ -9962,11 +9962,11 @@
         <f>IF(L50=L37,2,0)</f>
         <v>2</v>
       </c>
-      <c r="M51" s="111" t="str">
+      <c r="M51" s="113" t="str">
         <f>master!G33</f>
         <v>spain</v>
       </c>
-      <c r="Q51" s="111" t="str">
+      <c r="Q51" s="113" t="str">
         <f>master!K33</f>
         <v>usa</v>
       </c>
@@ -9987,7 +9987,7 @@
       <c r="L52" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="M52" s="112"/>
+      <c r="M52" s="114"/>
       <c r="Q52" s="119"/>
       <c r="R52" s="65" t="s">
         <v>240</v>
@@ -10081,6 +10081,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="J42:T42"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="Q51:Q52"/>
     <mergeCell ref="M32:M33"/>
     <mergeCell ref="Q45:Q46"/>
     <mergeCell ref="B2:G2"/>
@@ -10088,11 +10093,6 @@
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="B6:G6"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="J42:T42"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="Q51:Q52"/>
   </mergeCells>
   <conditionalFormatting sqref="H10 M10 H17 M17 H24 M24">
     <cfRule type="cellIs" dxfId="27" priority="14" operator="equal">
@@ -10175,14 +10175,14 @@
       <c r="A2" s="70">
         <v>5</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="112" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
       <c r="H2" s="66">
         <v>5</v>
       </c>
@@ -10191,14 +10191,14 @@
       <c r="A3" s="78">
         <v>4</v>
       </c>
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
       <c r="H3" s="66">
         <v>4</v>
       </c>
@@ -10207,14 +10207,14 @@
       <c r="A4" s="73">
         <v>3</v>
       </c>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="112" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
       <c r="H4" s="66">
         <v>3</v>
       </c>
@@ -10223,14 +10223,14 @@
       <c r="A5" s="79">
         <v>2</v>
       </c>
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="112" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
       <c r="H5" s="66">
         <v>2</v>
       </c>
@@ -10239,14 +10239,14 @@
       <c r="A6" s="71">
         <v>1</v>
       </c>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
       <c r="H6" s="66">
         <v>1</v>
       </c>
@@ -11066,19 +11066,19 @@
       <c r="K41" s="64"/>
     </row>
     <row r="42" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="J42" s="114" t="s">
+      <c r="J42" s="116" t="s">
         <v>254</v>
       </c>
-      <c r="K42" s="114"/>
-      <c r="L42" s="114"/>
-      <c r="M42" s="114"/>
-      <c r="N42" s="114"/>
-      <c r="O42" s="114"/>
-      <c r="P42" s="114"/>
-      <c r="Q42" s="114"/>
-      <c r="R42" s="114"/>
-      <c r="S42" s="114"/>
-      <c r="T42" s="114"/>
+      <c r="K42" s="116"/>
+      <c r="L42" s="116"/>
+      <c r="M42" s="116"/>
+      <c r="N42" s="116"/>
+      <c r="O42" s="116"/>
+      <c r="P42" s="116"/>
+      <c r="Q42" s="116"/>
+      <c r="R42" s="116"/>
+      <c r="S42" s="116"/>
+      <c r="T42" s="116"/>
     </row>
     <row r="43" spans="9:20" x14ac:dyDescent="0.2">
       <c r="J43" s="66" t="s">
@@ -11135,11 +11135,11 @@
         <f>IF(L44=L31,2,0)</f>
         <v>2</v>
       </c>
-      <c r="M45" s="111" t="str">
+      <c r="M45" s="113" t="str">
         <f>master!G27</f>
         <v>england</v>
       </c>
-      <c r="Q45" s="111" t="str">
+      <c r="Q45" s="113" t="str">
         <f>master!K27</f>
         <v>france</v>
       </c>
@@ -11160,7 +11160,7 @@
       <c r="L46" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="M46" s="112"/>
+      <c r="M46" s="114"/>
       <c r="O46" s="65" t="s">
         <v>151</v>
       </c>
@@ -11307,11 +11307,11 @@
         <f>IF(L50=L37,2,0)</f>
         <v>0</v>
       </c>
-      <c r="M51" s="111" t="str">
+      <c r="M51" s="113" t="str">
         <f>master!G33</f>
         <v>spain</v>
       </c>
-      <c r="Q51" s="111" t="str">
+      <c r="Q51" s="113" t="str">
         <f>master!K33</f>
         <v>usa</v>
       </c>
@@ -11332,7 +11332,7 @@
       <c r="L52" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="M52" s="112"/>
+      <c r="M52" s="114"/>
       <c r="Q52" s="119"/>
       <c r="R52" s="65" t="s">
         <v>240</v>
@@ -11424,11 +11424,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
     <mergeCell ref="M51:M52"/>
     <mergeCell ref="Q51:Q52"/>
     <mergeCell ref="M32:M33"/>
@@ -11436,6 +11431,11 @@
     <mergeCell ref="J42:T42"/>
     <mergeCell ref="M45:M46"/>
     <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <conditionalFormatting sqref="H10 N10 H17 N17 H24 N24">
     <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">

--- a/excel-docs/euro - lifecycle info.xlsx
+++ b/excel-docs/euro - lifecycle info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseph.collins/Documents/personal-projects/euro/2024_euro/excel-docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2E044C-E03C-0C4F-AD39-C24FCBCF3DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5E38B2-839A-1040-9FB1-5580F50F410B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34560" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{D89656BD-B983-D041-A997-C1184058734E}"/>
   </bookViews>
@@ -1510,10 +1510,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1525,6 +1521,10 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2102,8 +2102,8 @@
   </sheetPr>
   <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="160" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2734,14 +2734,14 @@
       <c r="A2" s="70">
         <v>5</v>
       </c>
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
       <c r="H2" s="66">
         <v>5</v>
       </c>
@@ -2750,14 +2750,14 @@
       <c r="A3" s="78">
         <v>4</v>
       </c>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="115" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
       <c r="H3" s="66">
         <v>4</v>
       </c>
@@ -2766,14 +2766,14 @@
       <c r="A4" s="73">
         <v>3</v>
       </c>
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="115" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
       <c r="H4" s="66">
         <v>3</v>
       </c>
@@ -2782,14 +2782,14 @@
       <c r="A5" s="79">
         <v>2</v>
       </c>
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="115" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
       <c r="H5" s="66">
         <v>2</v>
       </c>
@@ -2798,14 +2798,14 @@
       <c r="A6" s="71">
         <v>1</v>
       </c>
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="115" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
       <c r="H6" s="66">
         <v>1</v>
       </c>
@@ -3625,19 +3625,19 @@
       <c r="K41" s="64"/>
     </row>
     <row r="42" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="J42" s="116" t="s">
+      <c r="J42" s="114" t="s">
         <v>254</v>
       </c>
-      <c r="K42" s="116"/>
-      <c r="L42" s="116"/>
-      <c r="M42" s="116"/>
-      <c r="N42" s="116"/>
-      <c r="O42" s="116"/>
-      <c r="P42" s="116"/>
-      <c r="Q42" s="116"/>
-      <c r="R42" s="116"/>
-      <c r="S42" s="116"/>
-      <c r="T42" s="116"/>
+      <c r="K42" s="114"/>
+      <c r="L42" s="114"/>
+      <c r="M42" s="114"/>
+      <c r="N42" s="114"/>
+      <c r="O42" s="114"/>
+      <c r="P42" s="114"/>
+      <c r="Q42" s="114"/>
+      <c r="R42" s="114"/>
+      <c r="S42" s="114"/>
+      <c r="T42" s="114"/>
     </row>
     <row r="43" spans="9:20" x14ac:dyDescent="0.2">
       <c r="J43" s="66" t="s">
@@ -3694,11 +3694,11 @@
         <f>IF(L44=L31,2,0)</f>
         <v>0</v>
       </c>
-      <c r="M45" s="113" t="str">
+      <c r="M45" s="111" t="str">
         <f>master!G27</f>
         <v>england</v>
       </c>
-      <c r="Q45" s="113" t="str">
+      <c r="Q45" s="111" t="str">
         <f>master!K27</f>
         <v>france</v>
       </c>
@@ -3719,7 +3719,7 @@
       <c r="L46" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="M46" s="114"/>
+      <c r="M46" s="112"/>
       <c r="O46" s="65" t="s">
         <v>151</v>
       </c>
@@ -3866,11 +3866,11 @@
         <f>IF(L50=L37,2,0)</f>
         <v>2</v>
       </c>
-      <c r="M51" s="113" t="str">
+      <c r="M51" s="111" t="str">
         <f>master!G33</f>
         <v>spain</v>
       </c>
-      <c r="Q51" s="113" t="str">
+      <c r="Q51" s="111" t="str">
         <f>master!K33</f>
         <v>usa</v>
       </c>
@@ -3891,7 +3891,7 @@
       <c r="L52" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="M52" s="114"/>
+      <c r="M52" s="112"/>
       <c r="Q52" s="119"/>
       <c r="R52" s="65" t="s">
         <v>240</v>
@@ -3983,6 +3983,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
     <mergeCell ref="M51:M52"/>
     <mergeCell ref="Q51:Q52"/>
     <mergeCell ref="M32:M33"/>
@@ -3990,11 +3995,6 @@
     <mergeCell ref="J42:T42"/>
     <mergeCell ref="M45:M46"/>
     <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <conditionalFormatting sqref="H10 N10 H17 N17 H24 N24">
     <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
@@ -4077,14 +4077,14 @@
       <c r="A2" s="70">
         <v>5</v>
       </c>
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
       <c r="H2" s="66">
         <v>5</v>
       </c>
@@ -4093,14 +4093,14 @@
       <c r="A3" s="78">
         <v>4</v>
       </c>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="115" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
       <c r="H3" s="66">
         <v>4</v>
       </c>
@@ -4109,14 +4109,14 @@
       <c r="A4" s="73">
         <v>3</v>
       </c>
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="115" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
       <c r="H4" s="66">
         <v>3</v>
       </c>
@@ -4125,14 +4125,14 @@
       <c r="A5" s="79">
         <v>2</v>
       </c>
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="115" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
       <c r="H5" s="66">
         <v>2</v>
       </c>
@@ -4141,14 +4141,14 @@
       <c r="A6" s="71">
         <v>1</v>
       </c>
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="115" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
       <c r="H6" s="66">
         <v>1</v>
       </c>
@@ -4968,19 +4968,19 @@
       <c r="K41" s="64"/>
     </row>
     <row r="42" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="J42" s="116" t="s">
+      <c r="J42" s="114" t="s">
         <v>254</v>
       </c>
-      <c r="K42" s="116"/>
-      <c r="L42" s="116"/>
-      <c r="M42" s="116"/>
-      <c r="N42" s="116"/>
-      <c r="O42" s="116"/>
-      <c r="P42" s="116"/>
-      <c r="Q42" s="116"/>
-      <c r="R42" s="116"/>
-      <c r="S42" s="116"/>
-      <c r="T42" s="116"/>
+      <c r="K42" s="114"/>
+      <c r="L42" s="114"/>
+      <c r="M42" s="114"/>
+      <c r="N42" s="114"/>
+      <c r="O42" s="114"/>
+      <c r="P42" s="114"/>
+      <c r="Q42" s="114"/>
+      <c r="R42" s="114"/>
+      <c r="S42" s="114"/>
+      <c r="T42" s="114"/>
     </row>
     <row r="43" spans="9:20" x14ac:dyDescent="0.2">
       <c r="J43" s="66" t="s">
@@ -5037,11 +5037,11 @@
         <f>IF(L44=L31,2,0)</f>
         <v>2</v>
       </c>
-      <c r="M45" s="113" t="str">
+      <c r="M45" s="111" t="str">
         <f>master!G27</f>
         <v>england</v>
       </c>
-      <c r="Q45" s="113" t="str">
+      <c r="Q45" s="111" t="str">
         <f>master!K27</f>
         <v>france</v>
       </c>
@@ -5062,7 +5062,7 @@
       <c r="L46" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="M46" s="114"/>
+      <c r="M46" s="112"/>
       <c r="O46" s="65" t="s">
         <v>151</v>
       </c>
@@ -5209,11 +5209,11 @@
         <f>IF(L50=L37,2,0)</f>
         <v>0</v>
       </c>
-      <c r="M51" s="113" t="str">
+      <c r="M51" s="111" t="str">
         <f>master!G33</f>
         <v>spain</v>
       </c>
-      <c r="Q51" s="113" t="str">
+      <c r="Q51" s="111" t="str">
         <f>master!K33</f>
         <v>usa</v>
       </c>
@@ -5234,7 +5234,7 @@
       <c r="L52" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="M52" s="114"/>
+      <c r="M52" s="112"/>
       <c r="Q52" s="119"/>
       <c r="R52" s="65" t="s">
         <v>240</v>
@@ -5326,6 +5326,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
     <mergeCell ref="M51:M52"/>
     <mergeCell ref="Q51:Q52"/>
     <mergeCell ref="M32:M33"/>
@@ -5333,11 +5338,6 @@
     <mergeCell ref="J42:T42"/>
     <mergeCell ref="M45:M46"/>
     <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <conditionalFormatting sqref="H10 N10 H17 N17 H24 N24">
     <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
@@ -5409,15 +5409,15 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="114" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="122" t="s">
@@ -5593,15 +5593,15 @@
       <c r="G13" s="121"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="116" t="s">
+      <c r="A16" s="114" t="s">
         <v>241</v>
       </c>
-      <c r="B16" s="116"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="120" t="s">
@@ -5778,6 +5778,9 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="G3:G4"/>
@@ -5793,9 +5796,6 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7074,14 +7074,14 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="68"/>
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
@@ -7092,14 +7092,14 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="77"/>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="115" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -7110,14 +7110,14 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="72"/>
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="115" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -7128,14 +7128,14 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="69"/>
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="115" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
@@ -7146,14 +7146,14 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="22"/>
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="115" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
@@ -8064,7 +8064,7 @@
       <c r="AE30" s="89"/>
     </row>
     <row r="31" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C31" s="111"/>
+      <c r="C31" s="116"/>
       <c r="D31" s="66" t="s">
         <v>210</v>
       </c>
@@ -8086,7 +8086,7 @@
       </c>
     </row>
     <row r="32" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C32" s="111"/>
+      <c r="C32" s="116"/>
       <c r="D32" s="76" t="s">
         <v>220</v>
       </c>
@@ -8131,7 +8131,7 @@
       <c r="AE33" s="89"/>
     </row>
     <row r="34" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C34" s="111"/>
+      <c r="C34" s="116"/>
       <c r="D34" s="70" t="s">
         <v>211</v>
       </c>
@@ -8158,7 +8158,7 @@
       </c>
     </row>
     <row r="35" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C35" s="111"/>
+      <c r="C35" s="116"/>
       <c r="D35" s="70" t="s">
         <v>216</v>
       </c>
@@ -8205,7 +8205,7 @@
       <c r="AE36" s="89"/>
     </row>
     <row r="37" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C37" s="111"/>
+      <c r="C37" s="116"/>
       <c r="D37" s="66" t="s">
         <v>224</v>
       </c>
@@ -8228,7 +8228,7 @@
       </c>
     </row>
     <row r="38" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C38" s="111"/>
+      <c r="C38" s="116"/>
       <c r="D38" s="76" t="s">
         <v>255</v>
       </c>
@@ -8253,7 +8253,7 @@
       <c r="X38" s="76" t="s">
         <v>226</v>
       </c>
-      <c r="AE38" s="111"/>
+      <c r="AE38" s="116"/>
     </row>
     <row r="39" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C39"/>
@@ -8267,10 +8267,10 @@
       </c>
       <c r="W39" s="66"/>
       <c r="X39" s="66"/>
-      <c r="AE39" s="111"/>
+      <c r="AE39" s="116"/>
     </row>
     <row r="40" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C40" s="111"/>
+      <c r="C40" s="116"/>
       <c r="D40" s="70" t="s">
         <v>219</v>
       </c>
@@ -8293,7 +8293,7 @@
       </c>
     </row>
     <row r="41" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C41" s="111"/>
+      <c r="C41" s="116"/>
       <c r="D41" s="70" t="s">
         <v>222</v>
       </c>
@@ -8314,29 +8314,29 @@
       </c>
     </row>
     <row r="43" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="D43" s="116" t="s">
+      <c r="D43" s="114" t="s">
         <v>254</v>
       </c>
-      <c r="E43" s="116"/>
-      <c r="F43" s="116"/>
-      <c r="G43" s="116"/>
-      <c r="H43" s="116"/>
-      <c r="I43" s="116"/>
-      <c r="J43" s="116"/>
-      <c r="K43" s="116"/>
-      <c r="L43" s="116"/>
-      <c r="M43" s="116"/>
-      <c r="N43" s="116"/>
-      <c r="O43" s="116"/>
-      <c r="P43" s="116"/>
-      <c r="Q43" s="116"/>
-      <c r="R43" s="116"/>
-      <c r="S43" s="116"/>
-      <c r="T43" s="116"/>
-      <c r="U43" s="116"/>
-      <c r="V43" s="116"/>
-      <c r="W43" s="116"/>
-      <c r="X43" s="116"/>
+      <c r="E43" s="114"/>
+      <c r="F43" s="114"/>
+      <c r="G43" s="114"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="114"/>
+      <c r="J43" s="114"/>
+      <c r="K43" s="114"/>
+      <c r="L43" s="114"/>
+      <c r="M43" s="114"/>
+      <c r="N43" s="114"/>
+      <c r="O43" s="114"/>
+      <c r="P43" s="114"/>
+      <c r="Q43" s="114"/>
+      <c r="R43" s="114"/>
+      <c r="S43" s="114"/>
+      <c r="T43" s="114"/>
+      <c r="U43" s="114"/>
+      <c r="V43" s="114"/>
+      <c r="W43" s="114"/>
+      <c r="X43" s="114"/>
     </row>
     <row r="44" spans="3:31" x14ac:dyDescent="0.2">
       <c r="D44" s="66" t="s">
@@ -8395,12 +8395,12 @@
         <f>IF(F45=F32,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G46" s="113" t="str">
+      <c r="G46" s="111" t="str">
         <f>master!G27</f>
         <v>england</v>
       </c>
       <c r="M46" s="64"/>
-      <c r="P46" s="115" t="str">
+      <c r="P46" s="113" t="str">
         <f>master!K27</f>
         <v>france</v>
       </c>
@@ -8421,12 +8421,12 @@
       <c r="F47" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="G47" s="114"/>
+      <c r="G47" s="112"/>
       <c r="M47" s="67"/>
       <c r="N47" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="P47" s="115"/>
+      <c r="P47" s="113"/>
       <c r="V47" s="90" t="s">
         <v>238</v>
       </c>
@@ -8455,7 +8455,7 @@
       <c r="L48" s="65" t="s">
         <v>224</v>
       </c>
-      <c r="N48" s="115" t="str">
+      <c r="N48" s="113" t="str">
         <f>master!I29</f>
         <v>france</v>
       </c>
@@ -8484,12 +8484,12 @@
         <f>IF(F48=F35,2,0)</f>
         <v>2</v>
       </c>
-      <c r="L49" s="115" t="str">
+      <c r="L49" s="113" t="str">
         <f>master!H30</f>
         <v>england</v>
       </c>
-      <c r="N49" s="115"/>
-      <c r="O49" s="115" t="str">
+      <c r="N49" s="113"/>
+      <c r="O49" s="113" t="str">
         <f>master!J30</f>
         <v>france</v>
       </c>
@@ -8510,12 +8510,12 @@
       <c r="F50" s="65" t="s">
         <v>235</v>
       </c>
-      <c r="L50" s="115"/>
+      <c r="L50" s="113"/>
       <c r="N50" s="64">
         <f>IF(N48=N35,10,0)</f>
         <v>10</v>
       </c>
-      <c r="O50" s="115"/>
+      <c r="O50" s="113"/>
       <c r="V50" s="65" t="s">
         <v>239</v>
       </c>
@@ -8568,11 +8568,11 @@
         <f>IF(F51=F38,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G52" s="113" t="str">
+      <c r="G52" s="111" t="str">
         <f>master!G33</f>
         <v>spain</v>
       </c>
-      <c r="P52" s="115" t="str">
+      <c r="P52" s="113" t="str">
         <f>master!K33</f>
         <v>usa</v>
       </c>
@@ -8593,8 +8593,8 @@
       <c r="F53" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="G53" s="114"/>
-      <c r="P53" s="115"/>
+      <c r="G53" s="112"/>
+      <c r="P53" s="113"/>
       <c r="V53" s="65" t="s">
         <v>240</v>
       </c>
@@ -8714,19 +8714,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="D43:X43"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="P46:P47"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="AE38:AE39"/>
     <mergeCell ref="G39:G40"/>
@@ -8739,6 +8726,19 @@
     <mergeCell ref="L36:L37"/>
     <mergeCell ref="O36:O37"/>
     <mergeCell ref="N35:N36"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="D43:X43"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="P46:P47"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="O49:O50"/>
   </mergeCells>
   <conditionalFormatting sqref="L10 V10 L17 V17 L24 V24">
     <cfRule type="cellIs" dxfId="32" priority="6" operator="equal">
@@ -8800,14 +8800,14 @@
       <c r="A2" s="70">
         <v>5</v>
       </c>
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
       <c r="H2" s="66">
         <v>5</v>
       </c>
@@ -8816,14 +8816,14 @@
       <c r="A3" s="78">
         <v>4</v>
       </c>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="115" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
       <c r="H3" s="66">
         <v>4</v>
       </c>
@@ -8832,14 +8832,14 @@
       <c r="A4" s="73">
         <v>3</v>
       </c>
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="115" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
       <c r="H4" s="66">
         <v>3</v>
       </c>
@@ -8848,14 +8848,14 @@
       <c r="A5" s="79">
         <v>2</v>
       </c>
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="115" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
       <c r="H5" s="66">
         <v>2</v>
       </c>
@@ -8864,14 +8864,14 @@
       <c r="A6" s="71">
         <v>1</v>
       </c>
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="115" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
       <c r="H6" s="66">
         <v>1</v>
       </c>
@@ -9711,19 +9711,19 @@
       <c r="K41" s="64"/>
     </row>
     <row r="42" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="J42" s="116" t="s">
+      <c r="J42" s="114" t="s">
         <v>254</v>
       </c>
-      <c r="K42" s="116"/>
-      <c r="L42" s="116"/>
-      <c r="M42" s="116"/>
-      <c r="N42" s="116"/>
-      <c r="O42" s="116"/>
-      <c r="P42" s="116"/>
-      <c r="Q42" s="116"/>
-      <c r="R42" s="116"/>
-      <c r="S42" s="116"/>
-      <c r="T42" s="116"/>
+      <c r="K42" s="114"/>
+      <c r="L42" s="114"/>
+      <c r="M42" s="114"/>
+      <c r="N42" s="114"/>
+      <c r="O42" s="114"/>
+      <c r="P42" s="114"/>
+      <c r="Q42" s="114"/>
+      <c r="R42" s="114"/>
+      <c r="S42" s="114"/>
+      <c r="T42" s="114"/>
       <c r="U42" s="80"/>
       <c r="V42" s="80"/>
       <c r="W42" s="80"/>
@@ -9790,11 +9790,11 @@
         <f>IF(L44=L31,2,0)</f>
         <v>0</v>
       </c>
-      <c r="M45" s="113" t="str">
+      <c r="M45" s="111" t="str">
         <f>master!G27</f>
         <v>england</v>
       </c>
-      <c r="Q45" s="113" t="str">
+      <c r="Q45" s="111" t="str">
         <f>master!K27</f>
         <v>france</v>
       </c>
@@ -9815,7 +9815,7 @@
       <c r="L46" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="M46" s="114"/>
+      <c r="M46" s="112"/>
       <c r="O46" s="65" t="s">
         <v>151</v>
       </c>
@@ -9962,11 +9962,11 @@
         <f>IF(L50=L37,2,0)</f>
         <v>2</v>
       </c>
-      <c r="M51" s="113" t="str">
+      <c r="M51" s="111" t="str">
         <f>master!G33</f>
         <v>spain</v>
       </c>
-      <c r="Q51" s="113" t="str">
+      <c r="Q51" s="111" t="str">
         <f>master!K33</f>
         <v>usa</v>
       </c>
@@ -9987,7 +9987,7 @@
       <c r="L52" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="M52" s="114"/>
+      <c r="M52" s="112"/>
       <c r="Q52" s="119"/>
       <c r="R52" s="65" t="s">
         <v>240</v>
@@ -10081,11 +10081,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="J42:T42"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="Q51:Q52"/>
     <mergeCell ref="M32:M33"/>
     <mergeCell ref="Q45:Q46"/>
     <mergeCell ref="B2:G2"/>
@@ -10093,6 +10088,11 @@
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="B6:G6"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="J42:T42"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="Q51:Q52"/>
   </mergeCells>
   <conditionalFormatting sqref="H10 M10 H17 M17 H24 M24">
     <cfRule type="cellIs" dxfId="27" priority="14" operator="equal">
@@ -10175,14 +10175,14 @@
       <c r="A2" s="70">
         <v>5</v>
       </c>
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
       <c r="H2" s="66">
         <v>5</v>
       </c>
@@ -10191,14 +10191,14 @@
       <c r="A3" s="78">
         <v>4</v>
       </c>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="115" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
       <c r="H3" s="66">
         <v>4</v>
       </c>
@@ -10207,14 +10207,14 @@
       <c r="A4" s="73">
         <v>3</v>
       </c>
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="115" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
       <c r="H4" s="66">
         <v>3</v>
       </c>
@@ -10223,14 +10223,14 @@
       <c r="A5" s="79">
         <v>2</v>
       </c>
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="115" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
       <c r="H5" s="66">
         <v>2</v>
       </c>
@@ -10239,14 +10239,14 @@
       <c r="A6" s="71">
         <v>1</v>
       </c>
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="115" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
       <c r="H6" s="66">
         <v>1</v>
       </c>
@@ -11066,19 +11066,19 @@
       <c r="K41" s="64"/>
     </row>
     <row r="42" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="J42" s="116" t="s">
+      <c r="J42" s="114" t="s">
         <v>254</v>
       </c>
-      <c r="K42" s="116"/>
-      <c r="L42" s="116"/>
-      <c r="M42" s="116"/>
-      <c r="N42" s="116"/>
-      <c r="O42" s="116"/>
-      <c r="P42" s="116"/>
-      <c r="Q42" s="116"/>
-      <c r="R42" s="116"/>
-      <c r="S42" s="116"/>
-      <c r="T42" s="116"/>
+      <c r="K42" s="114"/>
+      <c r="L42" s="114"/>
+      <c r="M42" s="114"/>
+      <c r="N42" s="114"/>
+      <c r="O42" s="114"/>
+      <c r="P42" s="114"/>
+      <c r="Q42" s="114"/>
+      <c r="R42" s="114"/>
+      <c r="S42" s="114"/>
+      <c r="T42" s="114"/>
     </row>
     <row r="43" spans="9:20" x14ac:dyDescent="0.2">
       <c r="J43" s="66" t="s">
@@ -11135,11 +11135,11 @@
         <f>IF(L44=L31,2,0)</f>
         <v>2</v>
       </c>
-      <c r="M45" s="113" t="str">
+      <c r="M45" s="111" t="str">
         <f>master!G27</f>
         <v>england</v>
       </c>
-      <c r="Q45" s="113" t="str">
+      <c r="Q45" s="111" t="str">
         <f>master!K27</f>
         <v>france</v>
       </c>
@@ -11160,7 +11160,7 @@
       <c r="L46" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="M46" s="114"/>
+      <c r="M46" s="112"/>
       <c r="O46" s="65" t="s">
         <v>151</v>
       </c>
@@ -11307,11 +11307,11 @@
         <f>IF(L50=L37,2,0)</f>
         <v>0</v>
       </c>
-      <c r="M51" s="113" t="str">
+      <c r="M51" s="111" t="str">
         <f>master!G33</f>
         <v>spain</v>
       </c>
-      <c r="Q51" s="113" t="str">
+      <c r="Q51" s="111" t="str">
         <f>master!K33</f>
         <v>usa</v>
       </c>
@@ -11332,7 +11332,7 @@
       <c r="L52" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="M52" s="114"/>
+      <c r="M52" s="112"/>
       <c r="Q52" s="119"/>
       <c r="R52" s="65" t="s">
         <v>240</v>
@@ -11424,6 +11424,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
     <mergeCell ref="M51:M52"/>
     <mergeCell ref="Q51:Q52"/>
     <mergeCell ref="M32:M33"/>
@@ -11431,11 +11436,6 @@
     <mergeCell ref="J42:T42"/>
     <mergeCell ref="M45:M46"/>
     <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <conditionalFormatting sqref="H10 N10 H17 N17 H24 N24">
     <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
